--- a/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D499"/>
+  <dimension ref="A1:D498"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,167 +458,167 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29830</v>
+        <v>29921</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.1784121320249777</v>
+        <v>0.1821493624772313</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29860</v>
+        <v>29952</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0.1797268152408339</v>
+        <v>0.1759014951627089</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29891</v>
+        <v>29983</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.1839080459770115</v>
+        <v>0.172488141440276</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>29921</v>
+        <v>30011</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.1821493624772313</v>
+        <v>0.1684352366515075</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.1759014951627089</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.172488141440276</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.1684352366515075</v>
+        <v>0.1633986928104575</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.1725625539257981</v>
+        <v>0.1636661211129296</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.1626677511183408</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0.1633986928104575</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.1636661211129296</v>
+        <v>0.1341201716738197</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.1626677511183408</v>
+        <v>0.1355380862022228</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>0.1592356687898089</v>
+        <v>0.1367989056087551</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>0.1341201716738197</v>
+        <v>0.1332445036642239</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>0.1355380862022228</v>
+        <v>0.133645172068159</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>0.1367989056087551</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
@@ -628,6020 +628,6018 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>0.133645172068159</v>
+        <v>0.1325820351342393</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>0.1324503311258278</v>
+        <v>0.1310615989515072</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>0.1332445036642239</v>
+        <v>0.1289823294208693</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>0.1325820351342393</v>
+        <v>0.1261829652996845</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>0.1310615989515072</v>
+        <v>0.1280409731113956</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>0.1289823294208693</v>
+        <v>0.127787361829915</v>
       </c>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>0.1261829652996845</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>0.1280409731113956</v>
+        <v>0.1248439450686642</v>
       </c>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>0.127787361829915</v>
+        <v>0.1221299462628236</v>
       </c>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>0.1256281407035176</v>
+        <v>0.1287001287001287</v>
       </c>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>0.1248439450686642</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>0.1221299462628236</v>
+        <v>0.1252348152786475</v>
       </c>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>0.1287001287001287</v>
+        <v>0.1237317495669389</v>
       </c>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>0.1295336787564767</v>
+        <v>0.122256861666361</v>
       </c>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>0.1252348152786475</v>
+        <v>0.1186239620403322</v>
       </c>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>0.1237317495669389</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>0.122256861666361</v>
+        <v>0.1151145389662715</v>
       </c>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>0.1186239620403322</v>
+        <v>0.115460108532502</v>
       </c>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>0.1201923076923077</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>0.1151145389662715</v>
+        <v>0.1112966054535337</v>
       </c>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>0.115460108532502</v>
+        <v>0.1106194690265487</v>
       </c>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>0.1131221719457014</v>
+        <v>0.1054852320675105</v>
       </c>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>0.1112966054535337</v>
+        <v>0.1121076233183857</v>
       </c>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>0.1106194690265487</v>
+        <v>0.1109570041608877</v>
       </c>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>0.1054852320675105</v>
+        <v>0.112739571589628</v>
       </c>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>0.1121076233183857</v>
+        <v>0.1143837575064341</v>
       </c>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>0.1109570041608877</v>
+        <v>0.1207000603500302</v>
       </c>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>0.112739571589628</v>
+        <v>0.1201201201201201</v>
       </c>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>0.1143837575064341</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>0.1207000603500302</v>
+        <v>0.1269680040629761</v>
       </c>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>0.1201201201201201</v>
+        <v>0.1309671927182241</v>
       </c>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>0.124223602484472</v>
+        <v>0.132013201320132</v>
       </c>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>0.1269680040629761</v>
+        <v>0.1327580484566877</v>
       </c>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.1309671927182241</v>
+        <v>0.1388792444969099</v>
       </c>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0.132013201320132</v>
+        <v>0.135685210312076</v>
       </c>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>0.1327580484566877</v>
+        <v>0.1427144284287142</v>
       </c>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>0.1388792444969099</v>
+        <v>0.135308842432853</v>
       </c>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>0.135685210312076</v>
+        <v>0.1402918069584736</v>
       </c>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>0.1427144284287142</v>
+        <v>0.143348623853211</v>
       </c>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>0.135308842432853</v>
+        <v>0.1451378809869376</v>
       </c>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>0.1402918069584736</v>
+        <v>0.1447178002894356</v>
       </c>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>0.143348623853211</v>
+        <v>0.1420858198351805</v>
       </c>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>0.1451378809869376</v>
+        <v>0.1454016721192294</v>
       </c>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>0.1447178002894356</v>
+        <v>0.1483459427384661</v>
       </c>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31686</v>
+        <v>31778</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>0.1420858198351805</v>
+        <v>0.1528467711119602</v>
       </c>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31717</v>
+        <v>31809</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>0.1454016721192294</v>
+        <v>0.1544401544401544</v>
       </c>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>0.1483459427384661</v>
+        <v>0.158102766798419</v>
       </c>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>0.1528467711119602</v>
+        <v>0.1591343093570974</v>
       </c>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>0.1544401544401544</v>
+        <v>0.1571832756994656</v>
       </c>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>0.158102766798419</v>
+        <v>0.1565925461948011</v>
       </c>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>0.1591343093570974</v>
+        <v>0.1541069502234551</v>
       </c>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>0.1571832756994656</v>
+        <v>0.1568381430363864</v>
       </c>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>0.1565925461948011</v>
+        <v>0.1548467017652524</v>
       </c>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>0.1541069502234551</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>0.1568381430363864</v>
+        <v>0.1677570877369569</v>
       </c>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>0.1548467017652524</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1657824933687003</v>
       </c>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>0.1677570877369569</v>
+        <v>0.1668891855807744</v>
       </c>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>0.1725625539257981</v>
+        <v>0.170328734457503</v>
       </c>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>0.1657824933687003</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>0.1668891855807744</v>
+        <v>0.1668752607425949</v>
       </c>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>0.170328734457503</v>
+        <v>0.1591089896579157</v>
       </c>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.1557875058420315</v>
       </c>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>0.1668752607425949</v>
+        <v>0.1540120129370091</v>
       </c>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>0.1591089896579157</v>
+        <v>0.1556420233463035</v>
       </c>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>0.1557875058420315</v>
+        <v>0.1614205004035512</v>
       </c>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>0.1540120129370091</v>
+        <v>0.1655218074981379</v>
       </c>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>0.1556420233463035</v>
+        <v>0.1631055292774425</v>
       </c>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>0.1614205004035512</v>
+        <v>0.1572327044025157</v>
       </c>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>0.1655218074981379</v>
+        <v>0.1590583744234134</v>
       </c>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>0.1631055292774425</v>
+        <v>0.1552072016141549</v>
       </c>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>0.1572327044025157</v>
+        <v>0.1565435190983093</v>
       </c>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>0.1590583744234134</v>
+        <v>0.1500600240096039</v>
       </c>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>0.1552072016141549</v>
+        <v>0.1502178158329578</v>
       </c>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>0.1565435190983093</v>
+        <v>0.1566416040100251</v>
       </c>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>0.1500600240096039</v>
+        <v>0.1510345869204048</v>
       </c>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>0.1502178158329578</v>
+        <v>0.1554968123153475</v>
       </c>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>0.1566416040100251</v>
+        <v>0.1557632398753894</v>
       </c>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>0.1510345869204048</v>
+        <v>0.1567398119122257</v>
       </c>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>0.1554968123153475</v>
+        <v>0.1611214049786514</v>
       </c>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>0.1557632398753894</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>0.1567398119122257</v>
+        <v>0.1632253325716151</v>
       </c>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>0.1611214049786514</v>
+        <v>0.1635590448151783</v>
       </c>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>0.1623376623376623</v>
+        <v>0.1639881928501148</v>
       </c>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>0.1632253325716151</v>
+        <v>0.1630523398010761</v>
       </c>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>0.1635590448151783</v>
+        <v>0.1656314699792961</v>
       </c>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>0.1639881928501148</v>
+        <v>0.1720282126268708</v>
       </c>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>0.1630523398010761</v>
+        <v>0.1727414061150458</v>
       </c>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>0.1656314699792961</v>
+        <v>0.1735207357279195</v>
       </c>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>0.1720282126268708</v>
+        <v>0.1772735330615139</v>
       </c>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>0.1727414061150458</v>
+        <v>0.1779834475393788</v>
       </c>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>0.1735207357279195</v>
+        <v>0.1775095411378362</v>
       </c>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>0.1772735330615139</v>
+        <v>0.1807337791433219</v>
       </c>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>0.1779834475393788</v>
+        <v>0.1763668430335097</v>
       </c>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>0.1775095411378362</v>
+        <v>0.1631321370309951</v>
       </c>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>0.1807337791433219</v>
+        <v>0.1626545217957059</v>
       </c>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>0.1763668430335097</v>
+        <v>0.1603206412825651</v>
       </c>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>0.1631321370309951</v>
+        <v>0.1540476007086189</v>
       </c>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>0.1626545217957059</v>
+        <v>0.158102766798419</v>
       </c>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>0.1603206412825651</v>
+        <v>0.1580278128950695</v>
       </c>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>0.1540476007086189</v>
+        <v>0.1645278051990786</v>
       </c>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>0.158102766798419</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>0.1580278128950695</v>
+        <v>0.1683501683501683</v>
       </c>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>0.1645278051990786</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>0.1642036124794745</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>0.1683501683501683</v>
+        <v>0.1688048615800135</v>
       </c>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>0.1801801801801802</v>
+        <v>0.1675884028825205</v>
       </c>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.1681520094165125</v>
       </c>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>0.1688048615800135</v>
+        <v>0.1727712508638563</v>
       </c>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>0.1675884028825205</v>
+        <v>0.1819505094614265</v>
       </c>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>0.1681520094165125</v>
+        <v>0.1865671641791045</v>
       </c>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>0.1727712508638563</v>
+        <v>0.1941747572815534</v>
       </c>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>0.1819505094614265</v>
+        <v>0.1896453631708705</v>
       </c>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>0.1865671641791045</v>
+        <v>0.1721170395869191</v>
       </c>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>0.1941747572815534</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>0.1896453631708705</v>
+        <v>0.1412030499858797</v>
       </c>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>0.1721170395869191</v>
+        <v>0.1367989056087551</v>
       </c>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.1276650070215754</v>
       </c>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>0.1412030499858797</v>
+        <v>0.1297858533419857</v>
       </c>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>0.1367989056087551</v>
+        <v>0.1369675386933297</v>
       </c>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>0.1276650070215754</v>
+        <v>0.1395868230039084</v>
       </c>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>0.1297858533419857</v>
+        <v>0.1291989664082687</v>
       </c>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>0.1369675386933297</v>
+        <v>0.1213444970270598</v>
       </c>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>0.1395868230039084</v>
+        <v>0.1223091976516634</v>
       </c>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>0.1291989664082687</v>
+        <v>0.123304562268804</v>
       </c>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>0.1213444970270598</v>
+        <v>0.1227596366314756</v>
       </c>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>0.1223091976516634</v>
+        <v>0.1180776951233912</v>
       </c>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>0.123304562268804</v>
+        <v>0.1199760047990402</v>
       </c>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>0.1227596366314756</v>
+        <v>0.1269357705001269</v>
       </c>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>0.1180776951233912</v>
+        <v>0.1255335174491589</v>
       </c>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>0.1199760047990402</v>
+        <v>0.1276161306789178</v>
       </c>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>0.1269357705001269</v>
+        <v>0.1314233144959916</v>
       </c>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>0.1255335174491589</v>
+        <v>0.1280737704918033</v>
       </c>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>0.1276161306789178</v>
+        <v>0.1307018690367272</v>
       </c>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>0.1314233144959916</v>
+        <v>0.1287001287001287</v>
       </c>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>0.1280737704918033</v>
+        <v>0.1289490651192779</v>
       </c>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>0.1307018690367272</v>
+        <v>0.1337255950788981</v>
       </c>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>0.1287001287001287</v>
+        <v>0.1398601398601398</v>
       </c>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>0.1289490651192779</v>
+        <v>0.132749236691889</v>
       </c>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>0.1337255950788981</v>
+        <v>0.134698275862069</v>
       </c>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>0.1398601398601398</v>
+        <v>0.1334400854016547</v>
       </c>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>0.132749236691889</v>
+        <v>0.1362397820163488</v>
       </c>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>0.134698275862069</v>
+        <v>0.1362026695723236</v>
       </c>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>0.1334400854016547</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>0.1362397820163488</v>
+        <v>0.1362954886193267</v>
       </c>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>0.1362026695723236</v>
+        <v>0.1376651982378854</v>
       </c>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>0.1374570446735395</v>
+        <v>0.1413427561837456</v>
       </c>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>0.1362954886193267</v>
+        <v>0.1368363437328955</v>
       </c>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>0.1376651982378854</v>
+        <v>0.1445713459592309</v>
       </c>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>0.1413427561837456</v>
+        <v>0.1506250941406838</v>
       </c>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>0.1368363437328955</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>0.1445713459592309</v>
+        <v>0.1504890895410083</v>
       </c>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>0.1506250941406838</v>
+        <v>0.1442585112521639</v>
       </c>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>0.1524390243902439</v>
+        <v>0.14801657785672</v>
       </c>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>0.1504890895410083</v>
+        <v>0.1497454327643007</v>
       </c>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>0.1442585112521639</v>
+        <v>0.1475796930342385</v>
       </c>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>0.14801657785672</v>
+        <v>0.1490312965722802</v>
       </c>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>0.1497454327643007</v>
+        <v>0.1510345869204048</v>
       </c>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>0.1475796930342385</v>
+        <v>0.1515840533575868</v>
       </c>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>0.1490312965722802</v>
+        <v>0.1508523155830442</v>
       </c>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>0.1510345869204048</v>
+        <v>0.1507386192342478</v>
       </c>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>0.1515840533575868</v>
+        <v>0.1518833535844472</v>
       </c>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>0.1508523155830442</v>
+        <v>0.1487431206306708</v>
       </c>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>0.1507386192342478</v>
+        <v>0.146864444118079</v>
       </c>
       <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>0.1518833535844472</v>
+        <v>0.137797988149373</v>
       </c>
       <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>0.1487431206306708</v>
+        <v>0.1335826876836762</v>
       </c>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>0.146864444118079</v>
+        <v>0.1324152542372881</v>
       </c>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>0.137797988149373</v>
+        <v>0.1273074474856779</v>
       </c>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>0.1335826876836762</v>
+        <v>0.1293326435592344</v>
       </c>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>0.1324152542372881</v>
+        <v>0.1295001295001295</v>
       </c>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>0.1273074474856779</v>
+        <v>0.125140783381304</v>
       </c>
       <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>0.1293326435592344</v>
+        <v>0.1269357705001269</v>
       </c>
       <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>0.1295001295001295</v>
+        <v>0.1320655044902272</v>
       </c>
       <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>0.125140783381304</v>
+        <v>0.1334400854016547</v>
       </c>
       <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>0.1269357705001269</v>
+        <v>0.1291155584247902</v>
       </c>
       <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B194" t="inlineStr"/>
       <c r="C194" t="n">
-        <v>0.1320655044902272</v>
+        <v>0.1263583522870862</v>
       </c>
       <c r="D194" t="inlineStr"/>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35704</v>
-      </c>
-      <c r="B195" t="inlineStr"/>
+        <v>35796</v>
+      </c>
+      <c r="B195" t="n">
+        <v>866171000000</v>
+      </c>
       <c r="C195" t="n">
-        <v>0.1334400854016547</v>
-      </c>
-      <c r="D195" t="inlineStr"/>
+        <v>0.1229709788489916</v>
+      </c>
+      <c r="D195" t="n">
+        <v>106513895720.6099</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35735</v>
-      </c>
-      <c r="B196" t="inlineStr"/>
+        <v>35827</v>
+      </c>
+      <c r="B196" t="n">
+        <v>840564000000</v>
+      </c>
       <c r="C196" t="n">
-        <v>0.1291155584247902</v>
-      </c>
-      <c r="D196" t="inlineStr"/>
+        <v>0.1249219237976265</v>
+      </c>
+      <c r="D196" t="n">
+        <v>105004871955.0281</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35765</v>
-      </c>
-      <c r="B197" t="inlineStr"/>
+        <v>35855</v>
+      </c>
+      <c r="B197" t="n">
+        <v>860182000000</v>
+      </c>
       <c r="C197" t="n">
-        <v>0.1263583522870862</v>
-      </c>
-      <c r="D197" t="inlineStr"/>
+        <v>0.1247816321437484</v>
+      </c>
+      <c r="D197" t="n">
+        <v>107334913900.6738</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B198" t="n">
-        <v>866171000000</v>
+        <v>859006000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1229709788489916</v>
+        <v>0.1289823294208693</v>
       </c>
       <c r="D198" t="n">
-        <v>106513895720.6099</v>
+        <v>110796594866.5033</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B199" t="n">
-        <v>840564000000</v>
+        <v>860771000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1249219237976265</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="D199" t="n">
-        <v>105004871955.0281</v>
+        <v>109792219387.7551</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B200" t="n">
-        <v>860182000000</v>
+        <v>871209000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1247816321437484</v>
+        <v>0.1251721116535236</v>
       </c>
       <c r="D200" t="n">
-        <v>107334913900.6738</v>
+        <v>109051070221.5546</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B201" t="n">
-        <v>859006000000</v>
+        <v>861701000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1289823294208693</v>
+        <v>0.1260398285858331</v>
       </c>
       <c r="D201" t="n">
-        <v>110796594866.5033</v>
+        <v>108608646332.241</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B202" t="n">
-        <v>860771000000</v>
+        <v>875102000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1275510204081633</v>
+        <v>0.1249843769528809</v>
       </c>
       <c r="D202" t="n">
-        <v>109792219387.7551</v>
+        <v>109374078240.22</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B203" t="n">
-        <v>871209000000</v>
+        <v>880147000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1251721116535236</v>
+        <v>0.1272912423625255</v>
       </c>
       <c r="D203" t="n">
-        <v>109051070221.5546</v>
+        <v>112035005091.6497</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B204" t="n">
-        <v>861701000000</v>
+        <v>872536000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1260398285858331</v>
+        <v>0.1286670097786927</v>
       </c>
       <c r="D204" t="n">
-        <v>108608646332.241</v>
+        <v>112266598044.2615</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B205" t="n">
-        <v>875102000000</v>
+        <v>876396000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1249843769528809</v>
+        <v>0.1227747084100675</v>
       </c>
       <c r="D205" t="n">
-        <v>109374078240.22</v>
+        <v>107599263351.7495</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B206" t="n">
-        <v>880147000000</v>
+        <v>887781000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1272912423625255</v>
+        <v>0.1241156758098548</v>
       </c>
       <c r="D206" t="n">
-        <v>112035005091.6497</v>
+        <v>110187538786.1487</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B207" t="n">
-        <v>872536000000</v>
+        <v>902424000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1286670097786927</v>
+        <v>0.1279918085242545</v>
       </c>
       <c r="D207" t="n">
-        <v>112266598044.2615</v>
+        <v>115502879815.6918</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B208" t="n">
-        <v>876396000000</v>
+        <v>892421000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1227747084100675</v>
+        <v>0.1224589762429586</v>
       </c>
       <c r="D208" t="n">
-        <v>107599263351.7495</v>
+        <v>109284962037.7174</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B209" t="n">
-        <v>887781000000</v>
+        <v>894623000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1241156758098548</v>
+        <v>0.1210653753026634</v>
       </c>
       <c r="D209" t="n">
-        <v>110187538786.1487</v>
+        <v>108307869249.3947</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B210" t="n">
-        <v>902424000000</v>
+        <v>888489000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1279918085242545</v>
+        <v>0.1185817621249852</v>
       </c>
       <c r="D210" t="n">
-        <v>115502879815.6918</v>
+        <v>105358591248.666</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B211" t="n">
-        <v>892421000000</v>
+        <v>895380000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1224589762429586</v>
+        <v>0.1162925921618793</v>
       </c>
       <c r="D211" t="n">
-        <v>109284962037.7174</v>
+        <v>104126061169.9035</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B212" t="n">
-        <v>894623000000</v>
+        <v>898006000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1210653753026634</v>
+        <v>0.1184553423359394</v>
       </c>
       <c r="D212" t="n">
-        <v>108307869249.3947</v>
+        <v>106373608149.7276</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B213" t="n">
-        <v>888489000000</v>
+        <v>894198000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1185817621249852</v>
+        <v>0.1217878455730118</v>
       </c>
       <c r="D213" t="n">
-        <v>105358591248.666</v>
+        <v>108902447935.696</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B214" t="n">
-        <v>895380000000</v>
+        <v>911379000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.1162925921618793</v>
+        <v>0.121197430614471</v>
       </c>
       <c r="D214" t="n">
-        <v>104126061169.9035</v>
+        <v>110456793115.9859</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B215" t="n">
-        <v>898006000000</v>
+        <v>921677000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1184553423359394</v>
+        <v>0.1224140041620761</v>
       </c>
       <c r="D215" t="n">
-        <v>106373608149.7276</v>
+        <v>112826172114.0898</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B216" t="n">
-        <v>894198000000</v>
+        <v>956004000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1217878455730118</v>
+        <v>0.1220554131575735</v>
       </c>
       <c r="D216" t="n">
-        <v>108902447935.696</v>
+        <v>116685463200.2929</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B217" t="n">
-        <v>911379000000</v>
+        <v>947459000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.121197430614471</v>
+        <v>0.1176193836744295</v>
       </c>
       <c r="D217" t="n">
-        <v>110456793115.9859</v>
+        <v>111439543636.7913</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B218" t="n">
-        <v>921677000000</v>
+        <v>965538000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1224140041620761</v>
+        <v>0.1173020527859237</v>
       </c>
       <c r="D218" t="n">
-        <v>112826172114.0898</v>
+        <v>113259589442.8152</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B219" t="n">
-        <v>956004000000</v>
+        <v>975471000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1220554131575735</v>
+        <v>0.1128184300187279</v>
       </c>
       <c r="D219" t="n">
-        <v>116685463200.2929</v>
+        <v>110051106748.7985</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B220" t="n">
-        <v>947459000000</v>
+        <v>968803000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1176193836744295</v>
+        <v>0.1143445200388771</v>
       </c>
       <c r="D220" t="n">
-        <v>111439543636.7913</v>
+        <v>110777314047.2243</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B221" t="n">
-        <v>965538000000</v>
+        <v>986845000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1173020527859237</v>
+        <v>0.1153828402639959</v>
       </c>
       <c r="D221" t="n">
-        <v>113259589442.8152</v>
+        <v>113864979000.3231</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B222" t="n">
-        <v>975471000000</v>
+        <v>1002483000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1128184300187279</v>
+        <v>0.1122498232065285</v>
       </c>
       <c r="D222" t="n">
-        <v>110051106748.7985</v>
+        <v>112528539517.5503</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B223" t="n">
-        <v>968803000000</v>
+        <v>983642000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1143445200388771</v>
+        <v>0.111858074475106</v>
       </c>
       <c r="D223" t="n">
-        <v>110777314047.2243</v>
+        <v>110028300092.8422</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B224" t="n">
-        <v>986845000000</v>
+        <v>980883000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1153828402639959</v>
+        <v>0.1133221522143148</v>
       </c>
       <c r="D224" t="n">
-        <v>113864979000.3231</v>
+        <v>111155772630.4338</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B225" t="n">
-        <v>1002483000000</v>
+        <v>958386000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1122498232065285</v>
+        <v>0.1091917625734315</v>
       </c>
       <c r="D225" t="n">
-        <v>112528539517.5503</v>
+        <v>104647856565.7007</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B226" t="n">
-        <v>983642000000</v>
+        <v>986214000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.111858074475106</v>
+        <v>0.1061469710961798</v>
       </c>
       <c r="D226" t="n">
-        <v>110028300092.8422</v>
+        <v>104683628952.6478</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B227" t="n">
-        <v>980883000000</v>
+        <v>990896000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1133221522143148</v>
+        <v>0.1040257983980027</v>
       </c>
       <c r="D227" t="n">
-        <v>111155772630.4338</v>
+        <v>103078747529.3873</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B228" t="n">
-        <v>958386000000</v>
+        <v>986961000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1091917625734315</v>
+        <v>0.1001702894921366</v>
       </c>
       <c r="D228" t="n">
-        <v>104647856565.7007</v>
+        <v>98864169087.44867</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B229" t="n">
-        <v>986214000000</v>
+        <v>998471000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.1061469710961798</v>
+        <v>0.1000120014401728</v>
       </c>
       <c r="D229" t="n">
-        <v>104683628952.6478</v>
+        <v>99859083089.97081</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B230" t="n">
-        <v>990896000000</v>
+        <v>992459000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1040257983980027</v>
+        <v>0.1062213866139809</v>
       </c>
       <c r="D230" t="n">
-        <v>103078747529.3873</v>
+        <v>105420371137.5248</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B231" t="n">
-        <v>986961000000</v>
+        <v>1006137000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1001702894921366</v>
+        <v>0.1056579851022241</v>
       </c>
       <c r="D231" t="n">
-        <v>98864169087.44867</v>
+        <v>106306408156.7965</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B232" t="n">
-        <v>998471000000</v>
+        <v>996586000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1000120014401728</v>
+        <v>0.1020616452337212</v>
       </c>
       <c r="D232" t="n">
-        <v>99859083089.97081</v>
+        <v>101713206776.8932</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B233" t="n">
-        <v>992459000000</v>
+        <v>1018615000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.1062213866139809</v>
+        <v>0.09615199707697929</v>
       </c>
       <c r="D233" t="n">
-        <v>105420371137.5248</v>
+        <v>97941866502.56726</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B234" t="n">
-        <v>1006137000000</v>
+        <v>1028829000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.1056579851022241</v>
+        <v>0.09763146076191592</v>
       </c>
       <c r="D234" t="n">
-        <v>106306408156.7965</v>
+        <v>100446078144.2212</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B235" t="n">
-        <v>996586000000</v>
+        <v>1030592000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.1020616452337212</v>
+        <v>0.09260888489641696</v>
       </c>
       <c r="D235" t="n">
-        <v>101713206776.8932</v>
+        <v>95441975903.16815</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B236" t="n">
-        <v>1018615000000</v>
+        <v>1056228000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.09615199707697929</v>
+        <v>0.09215995281410416</v>
       </c>
       <c r="D236" t="n">
-        <v>97941866502.56726</v>
+        <v>97341922640.93561</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B237" t="n">
-        <v>1028829000000</v>
+        <v>1014868000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.09763146076191592</v>
+        <v>0.09456533045854729</v>
       </c>
       <c r="D237" t="n">
-        <v>100446078144.2212</v>
+        <v>95971327791.80496</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B238" t="n">
-        <v>1030592000000</v>
+        <v>1030481000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.09260888489641696</v>
+        <v>0.09632148258025988</v>
       </c>
       <c r="D238" t="n">
-        <v>95441975903.16815</v>
+        <v>99257457690.78879</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B239" t="n">
-        <v>1056228000000</v>
+        <v>1058019000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.09215995281410416</v>
+        <v>0.09365575889261431</v>
       </c>
       <c r="D239" t="n">
-        <v>97341922640.93561</v>
+        <v>99089572367.8049</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B240" t="n">
-        <v>1014868000000</v>
+        <v>1071663000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.09456533045854729</v>
+        <v>0.09380071100938946</v>
       </c>
       <c r="D240" t="n">
-        <v>95971327791.80496</v>
+        <v>100522751362.4553</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B241" t="n">
-        <v>1030481000000</v>
+        <v>1095416000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.09632148258025988</v>
+        <v>0.09380599045055017</v>
       </c>
       <c r="D241" t="n">
-        <v>99257457690.78879</v>
+        <v>102756582835.3799</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B242" t="n">
-        <v>1058019000000</v>
+        <v>1057699000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.09365575889261431</v>
+        <v>0.09543714986495644</v>
       </c>
       <c r="D242" t="n">
-        <v>99089572367.8049</v>
+        <v>100943777975.0146</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B243" t="n">
-        <v>1071663000000</v>
+        <v>1053056000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.09380071100938946</v>
+        <v>0.09381127048603619</v>
       </c>
       <c r="D243" t="n">
-        <v>100522751362.4553</v>
+        <v>98788521252.94333</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B244" t="n">
-        <v>1095416000000</v>
+        <v>1032093000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.09380599045055017</v>
+        <v>0.09584143992179339</v>
       </c>
       <c r="D244" t="n">
-        <v>102756582835.3799</v>
+        <v>98917279253.20351</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B245" t="n">
-        <v>1057699000000</v>
+        <v>1055919000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.09543714986495644</v>
+        <v>0.09651019147621989</v>
       </c>
       <c r="D245" t="n">
-        <v>100943777975.0146</v>
+        <v>101906944873.3786</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B246" t="n">
-        <v>1053056000000</v>
+        <v>1057670000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.09381127048603619</v>
+        <v>0.0973852071870283</v>
       </c>
       <c r="D246" t="n">
-        <v>98788521252.94333</v>
+        <v>103001412085.5042</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B247" t="n">
-        <v>1032093000000</v>
+        <v>1038684000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.09584143992179339</v>
+        <v>0.1026904908605463</v>
       </c>
       <c r="D247" t="n">
-        <v>98917279253.20351</v>
+        <v>106662969808.9957</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B248" t="n">
-        <v>1055919000000</v>
+        <v>1057284000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.09651019147621989</v>
+        <v>0.109158388822181</v>
       </c>
       <c r="D248" t="n">
-        <v>101906944873.3786</v>
+        <v>115411417967.4708</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B249" t="n">
-        <v>1057670000000</v>
+        <v>1047447000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.0973852071870283</v>
+        <v>0.1048382869423913</v>
       </c>
       <c r="D249" t="n">
-        <v>103001412085.5042</v>
+        <v>109812549142.947</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B250" t="n">
-        <v>1038684000000</v>
+        <v>1066994000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.1026904908605463</v>
+        <v>0.1065246338215712</v>
       </c>
       <c r="D250" t="n">
-        <v>106662969808.9957</v>
+        <v>113661145139.8136</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B251" t="n">
-        <v>1057284000000</v>
+        <v>1074166000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.109158388822181</v>
+        <v>0.107781849536538</v>
       </c>
       <c r="D251" t="n">
-        <v>115411417967.4708</v>
+        <v>115775598189.2649</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B252" t="n">
-        <v>1047447000000</v>
+        <v>1070733000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1048382869423913</v>
+        <v>0.1094163730660656</v>
       </c>
       <c r="D252" t="n">
-        <v>109812549142.947</v>
+        <v>117155721382.1476</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B253" t="n">
-        <v>1066994000000</v>
+        <v>1074964000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.1065246338215712</v>
+        <v>0.1105558749391943</v>
       </c>
       <c r="D253" t="n">
-        <v>113661145139.8136</v>
+        <v>118843585548.136</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B254" t="n">
-        <v>1074166000000</v>
+        <v>1090087000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.107781849536538</v>
+        <v>0.1151211650261901</v>
       </c>
       <c r="D254" t="n">
-        <v>115775598189.2649</v>
+        <v>125492085419.9044</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B255" t="n">
-        <v>1070733000000</v>
+        <v>1080435000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1094163730660656</v>
+        <v>0.1165949607657957</v>
       </c>
       <c r="D255" t="n">
-        <v>117155721382.1476</v>
+        <v>125973276434.9925</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B256" t="n">
-        <v>1074964000000</v>
+        <v>1066795000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1105558749391943</v>
+        <v>0.117820324005891</v>
       </c>
       <c r="D256" t="n">
-        <v>118843585548.136</v>
+        <v>125690132547.8645</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B257" t="n">
-        <v>1090087000000</v>
+        <v>1091568000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1151211650261901</v>
+        <v>0.1184371039759336</v>
       </c>
       <c r="D257" t="n">
-        <v>125492085419.9044</v>
+        <v>129282152712.8019</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B258" t="n">
-        <v>1080435000000</v>
+        <v>1095981000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1165949607657957</v>
+        <v>0.1226422036351149</v>
       </c>
       <c r="D258" t="n">
-        <v>125973276434.9925</v>
+        <v>134413524982.2169</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B259" t="n">
-        <v>1066795000000</v>
+        <v>1097716000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.117820324005891</v>
+        <v>0.1292574161442513</v>
       </c>
       <c r="D259" t="n">
-        <v>125690132547.8645</v>
+        <v>141887933820.2029</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B260" t="n">
-        <v>1091568000000</v>
+        <v>1119739000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1184371039759336</v>
+        <v>0.1253855605988415</v>
       </c>
       <c r="D260" t="n">
-        <v>129282152712.8019</v>
+        <v>140399102239.3861</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B261" t="n">
-        <v>1095981000000</v>
+        <v>1096437000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1226422036351149</v>
+        <v>0.1217255818482813</v>
       </c>
       <c r="D261" t="n">
-        <v>134413524982.2169</v>
+        <v>133464431784.9839</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B262" t="n">
-        <v>1097716000000</v>
+        <v>1106567000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1292574161442513</v>
+        <v>0.119422948313748</v>
       </c>
       <c r="D262" t="n">
-        <v>141887933820.2029</v>
+        <v>132149493646.6992</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B263" t="n">
-        <v>1119739000000</v>
+        <v>1115806000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1253855605988415</v>
+        <v>0.1290289282857217</v>
       </c>
       <c r="D263" t="n">
-        <v>140399102239.3861</v>
+        <v>143971252354.7779</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B264" t="n">
-        <v>1096437000000</v>
+        <v>1125284000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1217255818482813</v>
+        <v>0.1277041350598933</v>
       </c>
       <c r="D264" t="n">
-        <v>133464431784.9839</v>
+        <v>143703419916.7369</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B265" t="n">
-        <v>1106567000000</v>
+        <v>1132313000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.119422948313748</v>
+        <v>0.1324398061081239</v>
       </c>
       <c r="D265" t="n">
-        <v>132149493646.6992</v>
+        <v>149963314173.7081</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B266" t="n">
-        <v>1115806000000</v>
+        <v>1141285000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.1290289282857217</v>
+        <v>0.1390956004061591</v>
       </c>
       <c r="D266" t="n">
-        <v>143971252354.7779</v>
+        <v>158747722309.5433</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B267" t="n">
-        <v>1125284000000</v>
+        <v>1142941000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.1277041350598933</v>
+        <v>0.1355307383714627</v>
       </c>
       <c r="D267" t="n">
-        <v>143703419916.7369</v>
+        <v>154903637645.0179</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B268" t="n">
-        <v>1132313000000</v>
+        <v>1141447000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1324398061081239</v>
+        <v>0.1353143352006712</v>
       </c>
       <c r="D268" t="n">
-        <v>149963314173.7081</v>
+        <v>154454141971.8005</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B269" t="n">
-        <v>1141285000000</v>
+        <v>1165434000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1390956004061591</v>
+        <v>0.1327051954084002</v>
       </c>
       <c r="D269" t="n">
-        <v>158747722309.5433</v>
+        <v>154659146705.5935</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B270" t="n">
-        <v>1142941000000</v>
+        <v>1152565000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.1355307383714627</v>
+        <v>0.1308592216493496</v>
       </c>
       <c r="D270" t="n">
-        <v>154903637645.0179</v>
+        <v>150823758800.2827</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B271" t="n">
-        <v>1141447000000</v>
+        <v>1156039000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.1353143352006712</v>
+        <v>0.1340931947703654</v>
       </c>
       <c r="D271" t="n">
-        <v>154454141971.8005</v>
+        <v>155016962789.1385</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B272" t="n">
-        <v>1165434000000</v>
+        <v>1146407000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.1327051954084002</v>
+        <v>0.1330282552014048</v>
       </c>
       <c r="D272" t="n">
-        <v>154659146705.5935</v>
+        <v>152504522960.6769</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B273" t="n">
-        <v>1152565000000</v>
+        <v>1134922000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.1308592216493496</v>
+        <v>0.1303865962579047</v>
       </c>
       <c r="D273" t="n">
-        <v>150823758800.2827</v>
+        <v>147978616598.2137</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B274" t="n">
-        <v>1156039000000</v>
+        <v>1144971000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1340931947703654</v>
+        <v>0.1333795715848161</v>
       </c>
       <c r="D274" t="n">
-        <v>155016962789.1385</v>
+        <v>152715741457.0384</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B275" t="n">
-        <v>1146407000000</v>
+        <v>1158562000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.1330282552014048</v>
+        <v>0.137421154612541</v>
       </c>
       <c r="D275" t="n">
-        <v>152504522960.6769</v>
+        <v>159210927730.2148</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B276" t="n">
-        <v>1134922000000</v>
+        <v>1150911000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1303865962579047</v>
+        <v>0.1414927484966395</v>
       </c>
       <c r="D276" t="n">
-        <v>147978616598.2137</v>
+        <v>162845560665.0159</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B277" t="n">
-        <v>1144971000000</v>
+        <v>1166940000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1333795715848161</v>
+        <v>0.1487342713508047</v>
       </c>
       <c r="D277" t="n">
-        <v>152715741457.0384</v>
+        <v>173563970610.108</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B278" t="n">
-        <v>1158562000000</v>
+        <v>1167217000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.137421154612541</v>
+        <v>0.1501478956772421</v>
       </c>
       <c r="D278" t="n">
-        <v>159210927730.2148</v>
+        <v>175255176348.7035</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B279" t="n">
-        <v>1150911000000</v>
+        <v>1182178000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1414927484966395</v>
+        <v>0.143110653157021</v>
       </c>
       <c r="D279" t="n">
-        <v>162845560665.0159</v>
+        <v>169182265727.8608</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B280" t="n">
-        <v>1166940000000</v>
+        <v>1193213000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.1487342713508047</v>
+        <v>0.1460237726701907</v>
       </c>
       <c r="D280" t="n">
-        <v>173563970610.108</v>
+        <v>174237463859.1163</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B281" t="n">
-        <v>1167217000000</v>
+        <v>1202546000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1501478956772421</v>
+        <v>0.141468728337601</v>
       </c>
       <c r="D281" t="n">
-        <v>175255176348.7035</v>
+        <v>170122653387.4687</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B282" t="n">
-        <v>1182178000000</v>
+        <v>1204895000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.143110653157021</v>
+        <v>0.1402622904832036</v>
       </c>
       <c r="D282" t="n">
-        <v>169182265727.8608</v>
+        <v>169001332491.7596</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B283" t="n">
-        <v>1193213000000</v>
+        <v>1232347000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1460237726701907</v>
+        <v>0.1344122153821339</v>
       </c>
       <c r="D283" t="n">
-        <v>174237463859.1163</v>
+        <v>165642490389.5266</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B284" t="n">
-        <v>1202546000000</v>
+        <v>1269278000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.141468728337601</v>
+        <v>0.1281985539203118</v>
       </c>
       <c r="D284" t="n">
-        <v>170122653387.4687</v>
+        <v>162719604122.8655</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B285" t="n">
-        <v>1204895000000</v>
+        <v>1247684000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1402622904832036</v>
+        <v>0.1289357642022744</v>
       </c>
       <c r="D285" t="n">
-        <v>169001332491.7596</v>
+        <v>160871090022.9506</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B286" t="n">
-        <v>1232347000000</v>
+        <v>1234266000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1344122153821339</v>
+        <v>0.1323924642209365</v>
       </c>
       <c r="D286" t="n">
-        <v>165642490389.5266</v>
+        <v>163407517244.1184</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B287" t="n">
-        <v>1269278000000</v>
+        <v>1249624000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1281985539203118</v>
+        <v>0.1292473924338577</v>
       </c>
       <c r="D287" t="n">
-        <v>162719604122.8655</v>
+        <v>161510643522.7669</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B288" t="n">
-        <v>1247684000000</v>
+        <v>1278403000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1289357642022744</v>
+        <v>0.1257782529400667</v>
       </c>
       <c r="D288" t="n">
-        <v>160871090022.9506</v>
+        <v>160795295893.3401</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B289" t="n">
-        <v>1234266000000</v>
+        <v>1272808000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.1323924642209365</v>
+        <v>0.1238114104595879</v>
       </c>
       <c r="D289" t="n">
-        <v>163407517244.1184</v>
+        <v>157588153724.2472</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B290" t="n">
-        <v>1249624000000</v>
+        <v>1296915000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.1292473924338577</v>
+        <v>0.1259763164525069</v>
       </c>
       <c r="D290" t="n">
-        <v>161510643522.7669</v>
+        <v>163380574452.003</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B291" t="n">
-        <v>1278403000000</v>
+        <v>1324312000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.1257782529400667</v>
+        <v>0.1317644578551382</v>
       </c>
       <c r="D291" t="n">
-        <v>160795295893.3401</v>
+        <v>174497252711.0537</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B292" t="n">
-        <v>1272808000000</v>
+        <v>1316408000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.1238114104595879</v>
+        <v>0.1264254469139549</v>
       </c>
       <c r="D292" t="n">
-        <v>157588153724.2472</v>
+        <v>166427469721.1055</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B293" t="n">
-        <v>1296915000000</v>
+        <v>1312677000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.1259763164525069</v>
+        <v>0.1283219340681903</v>
       </c>
       <c r="D293" t="n">
-        <v>163380574452.003</v>
+        <v>168445251446.8298</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B294" t="n">
-        <v>1324312000000</v>
+        <v>1338016000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.1317644578551382</v>
+        <v>0.1359748718436833</v>
       </c>
       <c r="D294" t="n">
-        <v>174497252711.0537</v>
+        <v>181936554124.7977</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B295" t="n">
-        <v>1316408000000</v>
+        <v>1326782000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.1264254469139549</v>
+        <v>0.1382781603473547</v>
       </c>
       <c r="D295" t="n">
-        <v>166427469721.1055</v>
+        <v>183464974141.984</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B296" t="n">
-        <v>1312677000000</v>
+        <v>1359775000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1283219340681903</v>
+        <v>0.1389718859874647</v>
       </c>
       <c r="D296" t="n">
-        <v>168445251446.8298</v>
+        <v>188970496268.6049</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B297" t="n">
-        <v>1338016000000</v>
+        <v>1350041000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.1359748718436833</v>
+        <v>0.1387020264366062</v>
       </c>
       <c r="D297" t="n">
-        <v>181936554124.7977</v>
+        <v>187253422472.5023</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B298" t="n">
-        <v>1326782000000</v>
+        <v>1383208000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.1382781603473547</v>
+        <v>0.1380872158855533</v>
       </c>
       <c r="D298" t="n">
-        <v>183464974141.984</v>
+        <v>191003341710.6244</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B299" t="n">
-        <v>1359775000000</v>
+        <v>1413386000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1389718859874647</v>
+        <v>0.1365970932138564</v>
       </c>
       <c r="D299" t="n">
-        <v>188970496268.6049</v>
+        <v>193064419189.1596</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B300" t="n">
-        <v>1350041000000</v>
+        <v>1416864000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.1387020264366062</v>
+        <v>0.1385367745868141</v>
       </c>
       <c r="D300" t="n">
-        <v>187253422472.5023</v>
+        <v>196287768588.1717</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B301" t="n">
-        <v>1383208000000</v>
+        <v>1430398000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1380872158855533</v>
+        <v>0.1461112491050686</v>
       </c>
       <c r="D301" t="n">
-        <v>191003341710.6244</v>
+        <v>208997238497.3919</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B302" t="n">
-        <v>1413386000000</v>
+        <v>1468209000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.1365970932138564</v>
+        <v>0.1461176539349484</v>
       </c>
       <c r="D302" t="n">
-        <v>193064419189.1596</v>
+        <v>214531254566.1767</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B303" t="n">
-        <v>1416864000000</v>
+        <v>1472034000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.1385367745868141</v>
+        <v>0.143959461015778</v>
       </c>
       <c r="D303" t="n">
-        <v>196287768588.1717</v>
+        <v>211913221236.8997</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B304" t="n">
-        <v>1430398000000</v>
+        <v>1457317000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.1461112491050686</v>
+        <v>0.1430144587617808</v>
       </c>
       <c r="D304" t="n">
-        <v>208997238497.3919</v>
+        <v>208417401999.3421</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B305" t="n">
-        <v>1468209000000</v>
+        <v>1495732000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1461176539349484</v>
+        <v>0.1433157532675992</v>
       </c>
       <c r="D305" t="n">
-        <v>214531254566.1767</v>
+        <v>214361958266.4527</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B306" t="n">
-        <v>1472034000000</v>
+        <v>1512648000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.143959461015778</v>
+        <v>0.1492604146454319</v>
       </c>
       <c r="D306" t="n">
-        <v>211913221236.8997</v>
+        <v>225778467692.5833</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B307" t="n">
-        <v>1457317000000</v>
+        <v>1502632000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.1430144587617808</v>
+        <v>0.1446215254678506</v>
       </c>
       <c r="D307" t="n">
-        <v>208417401999.3421</v>
+        <v>217312932056.8073</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B308" t="n">
-        <v>1495732000000</v>
+        <v>1564788000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.1433157532675992</v>
+        <v>0.1466383165921255</v>
       </c>
       <c r="D308" t="n">
-        <v>214361958266.4527</v>
+        <v>229457878143.5589</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B309" t="n">
-        <v>1512648000000</v>
+        <v>1528577000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1492604146454319</v>
+        <v>0.1485530928753937</v>
       </c>
       <c r="D309" t="n">
-        <v>225778467692.5833</v>
+        <v>227074841048.1906</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B310" t="n">
-        <v>1502632000000</v>
+        <v>1562807000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.1446215254678506</v>
+        <v>0.1451694853741743</v>
       </c>
       <c r="D310" t="n">
-        <v>217312932056.8073</v>
+        <v>226871887929.1573</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B311" t="n">
-        <v>1564788000000</v>
+        <v>1582639000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.1466383165921255</v>
+        <v>0.1554363876583508</v>
       </c>
       <c r="D311" t="n">
-        <v>229457878143.5589</v>
+        <v>245999689127.2246</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B312" t="n">
-        <v>1528577000000</v>
+        <v>1583783000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.1485530928753937</v>
+        <v>0.1575646803012637</v>
       </c>
       <c r="D312" t="n">
-        <v>227074841048.1906</v>
+        <v>249548262061.5763</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B313" t="n">
-        <v>1562807000000</v>
+        <v>1585362000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.1451694853741743</v>
+        <v>0.1565435190983093</v>
       </c>
       <c r="D313" t="n">
-        <v>226871887929.1573</v>
+        <v>248178146524.7339</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B314" t="n">
-        <v>1582639000000</v>
+        <v>1639424000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.1554363876583508</v>
+        <v>0.154640769492469</v>
       </c>
       <c r="D314" t="n">
-        <v>245999689127.2246</v>
+        <v>253521788884.4215</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B315" t="n">
-        <v>1583783000000</v>
+        <v>1647669000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.1575646803012637</v>
+        <v>0.1570302440249992</v>
       </c>
       <c r="D315" t="n">
-        <v>249548262061.5763</v>
+        <v>258733865142.4264</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B316" t="n">
-        <v>1585362000000</v>
+        <v>1635309000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.1565435190983093</v>
+        <v>0.1623086786450471</v>
       </c>
       <c r="D316" t="n">
-        <v>248178146524.7339</v>
+        <v>265424842966.3534</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B317" t="n">
-        <v>1639424000000</v>
+        <v>1639881000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.154640769492469</v>
+        <v>0.1681378730559059</v>
       </c>
       <c r="D317" t="n">
-        <v>253521788884.4215</v>
+        <v>275726103404.7919</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B318" t="n">
-        <v>1647669000000</v>
+        <v>1658874000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1570302440249992</v>
+        <v>0.1671975187888212</v>
       </c>
       <c r="D318" t="n">
-        <v>258733865142.4264</v>
+        <v>277359616783.2869</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B319" t="n">
-        <v>1635309000000</v>
+        <v>1665238000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1623086786450471</v>
+        <v>0.1667261323205277</v>
       </c>
       <c r="D319" t="n">
-        <v>265424842966.3534</v>
+        <v>277638691133.1708</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B320" t="n">
-        <v>1639881000000</v>
+        <v>1681350000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1681378730559059</v>
+        <v>0.1664115023630433</v>
       </c>
       <c r="D320" t="n">
-        <v>275726103404.7919</v>
+        <v>279795979498.1029</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B321" t="n">
-        <v>1658874000000</v>
+        <v>1698412000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1671975187888212</v>
+        <v>0.1653493832468005</v>
       </c>
       <c r="D321" t="n">
-        <v>277359616783.2869</v>
+        <v>280831376698.965</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B322" t="n">
-        <v>1665238000000</v>
+        <v>1704771000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.1667261323205277</v>
+        <v>0.1550724188195887</v>
       </c>
       <c r="D322" t="n">
-        <v>277638691133.1708</v>
+        <v>264362962503.4891</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B323" t="n">
-        <v>1681350000000</v>
+        <v>1728656000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1664115023630433</v>
+        <v>0.144654997830175</v>
       </c>
       <c r="D323" t="n">
-        <v>279795979498.1029</v>
+        <v>250058729929.119</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B324" t="n">
-        <v>1698412000000</v>
+        <v>1732394000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.1653493832468005</v>
+        <v>0.1293440188738792</v>
       </c>
       <c r="D324" t="n">
-        <v>280831376698.965</v>
+        <v>224074802232.9951</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B325" t="n">
-        <v>1704771000000</v>
+        <v>1759008000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.1550724188195887</v>
+        <v>0.1236469927814886</v>
       </c>
       <c r="D325" t="n">
-        <v>264362962503.4891</v>
+        <v>217496049478.5806</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B326" t="n">
-        <v>1728656000000</v>
+        <v>1859493000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.144654997830175</v>
+        <v>0.1276161306789178</v>
       </c>
       <c r="D326" t="n">
-        <v>250058729929.119</v>
+        <v>237301301684.5329</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B327" t="n">
-        <v>1732394000000</v>
+        <v>1853010000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.1293440188738792</v>
+        <v>0.119624808749837</v>
       </c>
       <c r="D327" t="n">
-        <v>224074802232.9951</v>
+        <v>221665966861.5355</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B328" t="n">
-        <v>1759008000000</v>
+        <v>1806389000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.1236469927814886</v>
+        <v>0.1111064199511576</v>
       </c>
       <c r="D328" t="n">
-        <v>217496049478.5806</v>
+        <v>200701414829.1517</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B329" t="n">
-        <v>1859493000000</v>
+        <v>1822861000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.1276161306789178</v>
+        <v>0.1213196177461484</v>
       </c>
       <c r="D329" t="n">
-        <v>237301301684.5329</v>
+        <v>221148799724.3618</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B330" t="n">
-        <v>1853010000000</v>
+        <v>1818228000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.119624808749837</v>
+        <v>0.1243751702385143</v>
       </c>
       <c r="D330" t="n">
-        <v>221665966861.5355</v>
+        <v>226142417032.4333</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B331" t="n">
-        <v>1806389000000</v>
+        <v>1815725000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.1111064199511576</v>
+        <v>0.132173205054832</v>
       </c>
       <c r="D331" t="n">
-        <v>200701414829.1517</v>
+        <v>239990192748.1849</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B332" t="n">
-        <v>1822861000000</v>
+        <v>1844614000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1213196177461484</v>
+        <v>0.1299209171377383</v>
       </c>
       <c r="D332" t="n">
-        <v>221148799724.3618</v>
+        <v>239653942645.1119</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B333" t="n">
-        <v>1818228000000</v>
+        <v>1820464000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.1243751702385143</v>
+        <v>0.1386699059956707</v>
       </c>
       <c r="D333" t="n">
-        <v>226142417032.4333</v>
+        <v>252443571748.5027</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B334" t="n">
-        <v>1815725000000</v>
+        <v>1841487000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.132173205054832</v>
+        <v>0.1405700678531717</v>
       </c>
       <c r="D334" t="n">
-        <v>239990192748.1849</v>
+        <v>258857952540.7337</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B335" t="n">
-        <v>1844614000000</v>
+        <v>1841834000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1299209171377383</v>
+        <v>0.1438230171480183</v>
       </c>
       <c r="D335" t="n">
-        <v>239653942645.1119</v>
+        <v>264898122965.8032</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B336" t="n">
-        <v>1820464000000</v>
+        <v>1844029000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.1386699059956707</v>
+        <v>0.1410399439225183</v>
       </c>
       <c r="D336" t="n">
-        <v>252443571748.5027</v>
+        <v>260081746751.4975</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B337" t="n">
-        <v>1841487000000</v>
+        <v>1848196000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.1405700678531717</v>
+        <v>0.143480462982758</v>
       </c>
       <c r="D337" t="n">
-        <v>258857952540.7337</v>
+        <v>265180017762.8813</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B338" t="n">
-        <v>1841834000000</v>
+        <v>1911694000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.1438230171480183</v>
+        <v>0.1398306092000151</v>
       </c>
       <c r="D338" t="n">
-        <v>264898122965.8032</v>
+        <v>267313336624.0137</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B339" t="n">
-        <v>1844029000000</v>
+        <v>1910380000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1410399439225183</v>
+        <v>0.1353859650785442</v>
       </c>
       <c r="D339" t="n">
-        <v>260081746751.4975</v>
+        <v>258638639966.7492</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B340" t="n">
-        <v>1848196000000</v>
+        <v>1890845000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.143480462982758</v>
+        <v>0.1402801956628169</v>
       </c>
       <c r="D340" t="n">
-        <v>265180017762.8813</v>
+        <v>265248106568.0591</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B341" t="n">
-        <v>1911694000000</v>
+        <v>1897152000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.1398306092000151</v>
+        <v>0.1386214649793662</v>
       </c>
       <c r="D341" t="n">
-        <v>267313336624.0137</v>
+        <v>262985989528.5345</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B342" t="n">
-        <v>1910380000000</v>
+        <v>1904391000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.1353859650785442</v>
+        <v>0.1381253625790768</v>
       </c>
       <c r="D342" t="n">
-        <v>258638639966.7492</v>
+        <v>263044697367.3306</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B343" t="n">
-        <v>1890845000000</v>
+        <v>1888615000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.1402801956628169</v>
+        <v>0.1282692628365465</v>
       </c>
       <c r="D343" t="n">
-        <v>265248106568.0591</v>
+        <v>242251253832.0442</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B344" t="n">
-        <v>1897152000000</v>
+        <v>1923549000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.1386214649793662</v>
+        <v>0.1284615572366891</v>
       </c>
       <c r="D344" t="n">
-        <v>262985989528.5345</v>
+        <v>247102099961.0761</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B345" t="n">
-        <v>1904391000000</v>
+        <v>1932649000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.1381253625790768</v>
+        <v>0.1386097442650218</v>
       </c>
       <c r="D345" t="n">
-        <v>263044697367.3306</v>
+        <v>267883983644.0501</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B346" t="n">
-        <v>1888615000000</v>
+        <v>1915269000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.1282692628365465</v>
+        <v>0.135451799477156</v>
       </c>
       <c r="D346" t="n">
-        <v>242251253832.0442</v>
+        <v>259426632532.8132</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B347" t="n">
-        <v>1923549000000</v>
+        <v>1938219000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1284615572366891</v>
+        <v>0.1484208026597008</v>
       </c>
       <c r="D347" t="n">
-        <v>247102099961.0761</v>
+        <v>287672019710.2826</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B348" t="n">
-        <v>1932649000000</v>
+        <v>1967820000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.1386097442650218</v>
+        <v>0.1496244426489511</v>
       </c>
       <c r="D348" t="n">
-        <v>267883983644.0501</v>
+        <v>294433970733.459</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B349" t="n">
-        <v>1915269000000</v>
+        <v>1963638000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.135451799477156</v>
+        <v>0.1423305199333893</v>
       </c>
       <c r="D349" t="n">
-        <v>259426632532.8132</v>
+        <v>279485617500.9608</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B350" t="n">
-        <v>1938219000000</v>
+        <v>2007359000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.1484208026597008</v>
+        <v>0.1486966736554103</v>
       </c>
       <c r="D350" t="n">
-        <v>287672019710.2826</v>
+        <v>298487606132.2508</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B351" t="n">
-        <v>1967820000000</v>
+        <v>2003040000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.1496244426489511</v>
+        <v>0.1551662606482846</v>
       </c>
       <c r="D351" t="n">
-        <v>294433970733.459</v>
+        <v>310804226728.9401</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B352" t="n">
-        <v>1963638000000</v>
+        <v>1959126000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.1423305199333893</v>
+        <v>0.1582078217947095</v>
       </c>
       <c r="D352" t="n">
-        <v>279485617500.9608</v>
+        <v>309949057081.3821</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B353" t="n">
-        <v>2007359000000</v>
+        <v>1989081000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.1486966736554103</v>
+        <v>0.1581953079271669</v>
       </c>
       <c r="D353" t="n">
-        <v>298487606132.2508</v>
+        <v>314663281287.077</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B354" t="n">
-        <v>2003040000000</v>
+        <v>1982383000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.1551662606482846</v>
+        <v>0.1655738790648387</v>
       </c>
       <c r="D354" t="n">
-        <v>310804226728.9401</v>
+        <v>328230843102.1922</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B355" t="n">
-        <v>1959126000000</v>
+        <v>1960772000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.1582078217947095</v>
+        <v>0.1621349935956677</v>
       </c>
       <c r="D355" t="n">
-        <v>309949057081.3821</v>
+        <v>317909755662.5646</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B356" t="n">
-        <v>1989081000000</v>
+        <v>2011341000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.1581953079271669</v>
+        <v>0.1580902695439096</v>
       </c>
       <c r="D356" t="n">
-        <v>314663281287.077</v>
+        <v>317973440834.7166</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B357" t="n">
-        <v>1982383000000</v>
+        <v>1989856000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.1655738790648387</v>
+        <v>0.1591723040191007</v>
       </c>
       <c r="D357" t="n">
-        <v>328230843102.1922</v>
+        <v>316729964186.2316</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B358" t="n">
-        <v>1960772000000</v>
+        <v>2016768000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.1621349935956677</v>
+        <v>0.1576988582602662</v>
       </c>
       <c r="D358" t="n">
-        <v>317909755662.5646</v>
+        <v>318042010975.8405</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B359" t="n">
-        <v>2011341000000</v>
+        <v>2064662000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.1580902695439096</v>
+        <v>0.1457109968089292</v>
       </c>
       <c r="D359" t="n">
-        <v>317973440834.7166</v>
+        <v>300843958093.5173</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B360" t="n">
-        <v>1989856000000</v>
+        <v>2075646000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.1591723040191007</v>
+        <v>0.1537893700787402</v>
       </c>
       <c r="D360" t="n">
-        <v>316729964186.2316</v>
+        <v>319212290846.4567</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B361" t="n">
-        <v>2016768000000</v>
+        <v>2079009000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.1576988582602662</v>
+        <v>0.1479246176148635</v>
       </c>
       <c r="D361" t="n">
-        <v>318042010975.8405</v>
+        <v>307536611342.8597</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B362" t="n">
-        <v>2064662000000</v>
+        <v>2131071000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.1457109968089292</v>
+        <v>0.1455116918644413</v>
       </c>
       <c r="D362" t="n">
-        <v>300843958093.5173</v>
+        <v>310095746693.2468</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B363" t="n">
-        <v>2075646000000</v>
+        <v>2178811000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.1537893700787402</v>
+        <v>0.1471085808435206</v>
       </c>
       <c r="D363" t="n">
-        <v>319212290846.4567</v>
+        <v>320521794136.252</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B364" t="n">
-        <v>2079009000000</v>
+        <v>2152416000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.1479246176148635</v>
+        <v>0.1511053355293976</v>
       </c>
       <c r="D364" t="n">
-        <v>307536611342.8597</v>
+        <v>325241541878.8438</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B365" t="n">
-        <v>2131071000000</v>
+        <v>2167952000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.1455116918644413</v>
+        <v>0.1514440187184807</v>
       </c>
       <c r="D365" t="n">
-        <v>310095746693.2468</v>
+        <v>328323363268.7677</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B366" t="n">
-        <v>2178811000000</v>
+        <v>2145844000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.1471085808435206</v>
+        <v>0.1487984524960941</v>
       </c>
       <c r="D366" t="n">
-        <v>320521794136.252</v>
+        <v>319298266498.0285</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B367" t="n">
-        <v>2152416000000</v>
+        <v>2105771000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.1511053355293976</v>
+        <v>0.1376329878745338</v>
       </c>
       <c r="D367" t="n">
-        <v>325241541878.8438</v>
+        <v>289823554509.5449</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B368" t="n">
-        <v>2167952000000</v>
+        <v>2167991000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.1514440187184807</v>
+        <v>0.1446926727630513</v>
       </c>
       <c r="D368" t="n">
-        <v>328323363268.7677</v>
+        <v>313692412316.2403</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B369" t="n">
-        <v>2145844000000</v>
+        <v>2146292000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.1487984524960941</v>
+        <v>0.1471475448432143</v>
       </c>
       <c r="D369" t="n">
-        <v>319298266498.0285</v>
+        <v>315821598316.6321</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B370" t="n">
-        <v>2105771000000</v>
+        <v>2154752000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.1376329878745338</v>
+        <v>0.151014059408931</v>
       </c>
       <c r="D370" t="n">
-        <v>289823554509.5449</v>
+        <v>325397846539.5128</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B371" t="n">
-        <v>2167991000000</v>
+        <v>2219458000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.1446926727630513</v>
+        <v>0.1523855965134176</v>
       </c>
       <c r="D371" t="n">
-        <v>313692412316.2403</v>
+        <v>338213431266.4767</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B372" t="n">
-        <v>2146292000000</v>
+        <v>2207863000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.1471475448432143</v>
+        <v>0.1507454361819196</v>
       </c>
       <c r="D372" t="n">
-        <v>315821598316.6321</v>
+        <v>332825270964.9216</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B373" t="n">
-        <v>2154752000000</v>
+        <v>2193213000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.151014059408931</v>
+        <v>0.1501742772487472</v>
       </c>
       <c r="D373" t="n">
-        <v>325397846539.5128</v>
+        <v>329364177127.5566</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B374" t="n">
-        <v>2219458000000</v>
+        <v>2258026000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.1523855965134176</v>
+        <v>0.1536759282026063</v>
       </c>
       <c r="D374" t="n">
-        <v>338213431266.4767</v>
+        <v>347004241455.6184</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B375" t="n">
-        <v>2207863000000</v>
+        <v>2253474000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.1507454361819196</v>
+        <v>0.1572067504578647</v>
       </c>
       <c r="D375" t="n">
-        <v>332825270964.9216</v>
+        <v>354261324781.2861</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B376" t="n">
-        <v>2193213000000</v>
+        <v>2212071000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.1501742772487472</v>
+        <v>0.154719725217768</v>
       </c>
       <c r="D376" t="n">
-        <v>329364177127.5566</v>
+        <v>342251017282.1933</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B377" t="n">
-        <v>2258026000000</v>
+        <v>2270214000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.1536759282026063</v>
+        <v>0.1534942976868409</v>
       </c>
       <c r="D377" t="n">
-        <v>347004241455.6184</v>
+        <v>348464903528.8339</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B378" t="n">
-        <v>2253474000000</v>
+        <v>2245340000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.1572067504578647</v>
+        <v>0.1543066999969139</v>
       </c>
       <c r="D378" t="n">
-        <v>354261324781.2861</v>
+        <v>346471005771.0706</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B379" t="n">
-        <v>2212071000000</v>
+        <v>2229984000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.154719725217768</v>
+        <v>0.1512401693889897</v>
       </c>
       <c r="D379" t="n">
-        <v>342251017282.1933</v>
+        <v>337263157894.7368</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B380" t="n">
-        <v>2270214000000</v>
+        <v>2268611000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.1534942976868409</v>
+        <v>0.149438857091621</v>
       </c>
       <c r="D380" t="n">
-        <v>348464903528.8339</v>
+        <v>339018635025.4793</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B381" t="n">
-        <v>2245340000000</v>
+        <v>2249293000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.1543066999969139</v>
+        <v>0.1535529857610316</v>
       </c>
       <c r="D381" t="n">
-        <v>346471005771.0706</v>
+        <v>345385656001.3881</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B382" t="n">
-        <v>2229984000000</v>
+        <v>2260894000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.1512401693889897</v>
+        <v>0.1511823213440713</v>
       </c>
       <c r="D382" t="n">
-        <v>337263157894.7368</v>
+        <v>341807203232.8828</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B383" t="n">
-        <v>2268611000000</v>
+        <v>2293914000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.149438857091621</v>
+        <v>0.1555984315678098</v>
       </c>
       <c r="D383" t="n">
-        <v>339018635025.4793</v>
+        <v>356929420551.4409</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B384" t="n">
-        <v>2249293000000</v>
+        <v>2315736000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.1535529857610316</v>
+        <v>0.1543019380323417</v>
       </c>
       <c r="D384" t="n">
-        <v>345385656001.3881</v>
+        <v>357322552771.2628</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B385" t="n">
-        <v>2260894000000</v>
+        <v>2335920000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.1511823213440713</v>
+        <v>0.1527734491967172</v>
       </c>
       <c r="D385" t="n">
-        <v>341807203232.8828</v>
+        <v>356866555447.5956</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B386" t="n">
-        <v>2293914000000</v>
+        <v>2387438000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.1555984315678098</v>
+        <v>0.1556587400047632</v>
       </c>
       <c r="D386" t="n">
-        <v>356929420551.4409</v>
+        <v>371625590919.4918</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B387" t="n">
-        <v>2315736000000</v>
+        <v>2377887000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.1543019380323417</v>
+        <v>0.1530158662151679</v>
       </c>
       <c r="D387" t="n">
-        <v>357322552771.2628</v>
+        <v>363854439066.7869</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B388" t="n">
-        <v>2335920000000</v>
+        <v>2355583000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.1527734491967172</v>
+        <v>0.1562424320071996</v>
       </c>
       <c r="D388" t="n">
-        <v>356866555447.5956</v>
+        <v>368042016714.8154</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B389" t="n">
-        <v>2387438000000</v>
+        <v>2361204000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.1556587400047632</v>
+        <v>0.1546677967727018</v>
       </c>
       <c r="D389" t="n">
-        <v>371625590919.4918</v>
+        <v>365202220410.8905</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B390" t="n">
-        <v>2377887000000</v>
+        <v>2362905000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.1530158662151679</v>
+        <v>0.1538702996470215</v>
       </c>
       <c r="D390" t="n">
-        <v>363854439066.7869</v>
+        <v>363580900387.4454</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B391" t="n">
-        <v>2355583000000</v>
+        <v>2377199000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.1562424320071996</v>
+        <v>0.1496909630068723</v>
       </c>
       <c r="D391" t="n">
-        <v>368042016714.8154</v>
+        <v>355845207568.9739</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B392" t="n">
-        <v>2361204000000</v>
+        <v>2423708000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.1546677967727018</v>
+        <v>0.1497037363058507</v>
       </c>
       <c r="D392" t="n">
-        <v>365202220410.8905</v>
+        <v>362838143314.3809</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B393" t="n">
-        <v>2362905000000</v>
+        <v>2400777000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.1538702996470215</v>
+        <v>0.1449863712810996</v>
       </c>
       <c r="D393" t="n">
-        <v>363580900387.4454</v>
+        <v>348079945485.1245</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B394" t="n">
-        <v>2377199000000</v>
+        <v>2412498000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.1496909630068723</v>
+        <v>0.1430778916041893</v>
       </c>
       <c r="D394" t="n">
-        <v>355845207568.9739</v>
+        <v>345175127339.3235</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B395" t="n">
-        <v>2423708000000</v>
+        <v>2432652000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.1497037363058507</v>
+        <v>0.1386462579374983</v>
       </c>
       <c r="D395" t="n">
-        <v>362838143314.3809</v>
+        <v>337278096664.171</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B396" t="n">
-        <v>2400777000000</v>
+        <v>2451122000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.1449863712810996</v>
+        <v>0.1353344791652569</v>
       </c>
       <c r="D396" t="n">
-        <v>348079945485.1245</v>
+        <v>331721319240.5029</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B397" t="n">
-        <v>2412498000000</v>
+        <v>2467099000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.1430778916041893</v>
+        <v>0.1342894743909972</v>
       </c>
       <c r="D397" t="n">
-        <v>345175127339.3235</v>
+        <v>331305427980.5549</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B398" t="n">
-        <v>2432652000000</v>
+        <v>2522075000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.1386462579374983</v>
+        <v>0.128498863427553</v>
       </c>
       <c r="D398" t="n">
-        <v>337278096664.171</v>
+        <v>324083770979.0457</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B399" t="n">
-        <v>2451122000000</v>
+        <v>2507795000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.1353344791652569</v>
+        <v>0.1210321134506619</v>
       </c>
       <c r="D399" t="n">
-        <v>331721319240.5029</v>
+        <v>303523728951.0026</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B400" t="n">
-        <v>2467099000000</v>
+        <v>2509859000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.1342894743909972</v>
+        <v>0.1199688081098914</v>
       </c>
       <c r="D400" t="n">
-        <v>331305427980.5549</v>
+        <v>301104792753.884</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B401" t="n">
-        <v>2522075000000</v>
+        <v>2548335000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.128498863427553</v>
+        <v>0.1159339640140976</v>
       </c>
       <c r="D401" t="n">
-        <v>324083770979.0457</v>
+        <v>295438578185.8654</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B402" t="n">
-        <v>2507795000000</v>
+        <v>2546771000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.1210321134506619</v>
+        <v>0.1200768491834774</v>
       </c>
       <c r="D402" t="n">
-        <v>303523728951.0026</v>
+        <v>305808237271.854</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B403" t="n">
-        <v>2509859000000</v>
+        <v>2580783000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.1199688081098914</v>
+        <v>0.117470162578705</v>
       </c>
       <c r="D403" t="n">
-        <v>301104792753.884</v>
+        <v>303164998590.358</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B404" t="n">
-        <v>2548335000000</v>
+        <v>2638101000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.1159339640140976</v>
+        <v>0.1207773228498617</v>
       </c>
       <c r="D404" t="n">
-        <v>295438578185.8654</v>
+        <v>318622776187.543</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B405" t="n">
-        <v>2546771000000</v>
+        <v>2617231000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.1200768491834774</v>
+        <v>0.1159931332065142</v>
       </c>
       <c r="D405" t="n">
-        <v>305808237271.854</v>
+        <v>303580824015.2183</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B406" t="n">
-        <v>2580783000000</v>
+        <v>2619938000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.117470162578705</v>
+        <v>0.1180902445648965</v>
       </c>
       <c r="D406" t="n">
-        <v>303164998590.358</v>
+        <v>309389119164.8658</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B407" t="n">
-        <v>2638101000000</v>
+        <v>2640658000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.1207773228498617</v>
+        <v>0.1195114372445443</v>
       </c>
       <c r="D407" t="n">
-        <v>318622776187.543</v>
+        <v>315588832851.3038</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B408" t="n">
-        <v>2617231000000</v>
+        <v>2675262000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.1159931332065142</v>
+        <v>0.1172016923924382</v>
       </c>
       <c r="D408" t="n">
-        <v>303580824015.2183</v>
+        <v>313545233993.1789</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B409" t="n">
-        <v>2619938000000</v>
+        <v>2694519000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.1180902445648965</v>
+        <v>0.1146434016990152</v>
       </c>
       <c r="D409" t="n">
-        <v>309389119164.8658</v>
+        <v>308908824102.6288</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B410" t="n">
-        <v>2640658000000</v>
+        <v>2728918000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.1195114372445443</v>
+        <v>0.1183544004166075</v>
       </c>
       <c r="D410" t="n">
-        <v>315588832851.3038</v>
+        <v>322979453676.0877</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B411" t="n">
-        <v>2675262000000</v>
+        <v>2748884000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.1172016923924382</v>
+        <v>0.1166480029861889</v>
       </c>
       <c r="D411" t="n">
-        <v>313545233993.1789</v>
+        <v>320651829040.6869</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B412" t="n">
-        <v>2694519000000</v>
+        <v>2732370000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.1146434016990152</v>
+        <v>0.1167624118443791</v>
       </c>
       <c r="D412" t="n">
-        <v>308908824102.6288</v>
+        <v>319038111251.226</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B413" t="n">
-        <v>2728918000000</v>
+        <v>2766495000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.1183544004166075</v>
+        <v>0.1233410627065963</v>
       </c>
       <c r="D413" t="n">
-        <v>322979453676.0877</v>
+        <v>341222433272.4851</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B414" t="n">
-        <v>2748884000000</v>
+        <v>2781493000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.1166480029861889</v>
+        <v>0.1246665170668462</v>
       </c>
       <c r="D414" t="n">
-        <v>320651829040.6869</v>
+        <v>346759044555.8132</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B415" t="n">
-        <v>2732370000000</v>
+        <v>2776382000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.1167624118443791</v>
+        <v>0.1200364910932924</v>
       </c>
       <c r="D415" t="n">
-        <v>319038111251.226</v>
+        <v>333267153214.5772</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B416" t="n">
-        <v>2766495000000</v>
+        <v>2814128000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.1233410627065963</v>
+        <v>0.1183986815122827</v>
       </c>
       <c r="D416" t="n">
-        <v>341222433272.4851</v>
+        <v>333189044806.7971</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B417" t="n">
-        <v>2781493000000</v>
+        <v>2841544000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.1246665170668462</v>
+        <v>0.1168770453482936</v>
       </c>
       <c r="D417" t="n">
-        <v>346759044555.8132</v>
+        <v>332111266947.1716</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B418" t="n">
-        <v>2776382000000</v>
+        <v>2842117000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.1200364910932924</v>
+        <v>0.1169809555004445</v>
       </c>
       <c r="D418" t="n">
-        <v>333267153214.5772</v>
+        <v>332473562304.0569</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B419" t="n">
-        <v>2814128000000</v>
+        <v>2867299000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.1183986815122827</v>
+        <v>0.1168027808406063</v>
       </c>
       <c r="D419" t="n">
-        <v>333189044806.7971</v>
+        <v>334908496701.4895</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B420" t="n">
-        <v>2841544000000</v>
+        <v>2883246000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.1168770453482936</v>
+        <v>0.1107444240182507</v>
       </c>
       <c r="D420" t="n">
-        <v>332111266947.1716</v>
+        <v>319303417572.9252</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B421" t="n">
-        <v>2842117000000</v>
+        <v>2903568000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.1169809555004445</v>
+        <v>0.1083529271543271</v>
       </c>
       <c r="D421" t="n">
-        <v>332473562304.0569</v>
+        <v>314610091991.6351</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B422" t="n">
-        <v>2867299000000</v>
+        <v>2917782000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.1168027808406063</v>
+        <v>0.1100291577267976</v>
       </c>
       <c r="D422" t="n">
-        <v>334908496701.4895</v>
+        <v>321041095890.411</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B423" t="n">
-        <v>2883246000000</v>
+        <v>2960969000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.1107444240182507</v>
+        <v>0.1144007687731662</v>
       </c>
       <c r="D423" t="n">
-        <v>319303417572.9252</v>
+        <v>338737129913.5131</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B424" t="n">
-        <v>2903568000000</v>
+        <v>2944067000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.1083529271543271</v>
+        <v>0.1106659879152741</v>
       </c>
       <c r="D424" t="n">
-        <v>314610091991.6351</v>
+        <v>325808083043.7574</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B425" t="n">
-        <v>2917782000000</v>
+        <v>3031836000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.1100291577267976</v>
+        <v>0.1116937803318422</v>
       </c>
       <c r="D425" t="n">
-        <v>321041095890.411</v>
+        <v>338637224186.1712</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B426" t="n">
-        <v>2960969000000</v>
+        <v>3027781000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.1144007687731662</v>
+        <v>0.1130142714421977</v>
       </c>
       <c r="D426" t="n">
-        <v>338737129913.5131</v>
+        <v>342182463801.5289</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B427" t="n">
-        <v>2944067000000</v>
+        <v>3030922000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.1106659879152741</v>
+        <v>0.1150755931571449</v>
       </c>
       <c r="D427" t="n">
-        <v>325808083043.7574</v>
+        <v>348785146963.04</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B428" t="n">
-        <v>3031836000000</v>
+        <v>3085090000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.1116937803318422</v>
+        <v>0.1187391798922323</v>
       </c>
       <c r="D428" t="n">
-        <v>338637224186.1712</v>
+        <v>366321056493.727</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B429" t="n">
-        <v>3027781000000</v>
+        <v>3089508000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.1130142714421977</v>
+        <v>0.1239736531192391</v>
       </c>
       <c r="D429" t="n">
-        <v>342182463801.5289</v>
+        <v>383017593101.1142</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B430" t="n">
-        <v>3030922000000</v>
+        <v>3083488000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.1150755931571449</v>
+        <v>0.1259969508737888</v>
       </c>
       <c r="D430" t="n">
-        <v>348785146963.04</v>
+        <v>388510086055.9174</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B431" t="n">
-        <v>3085090000000</v>
+        <v>3119085000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.1187391798922323</v>
+        <v>0.1228839385776921</v>
       </c>
       <c r="D431" t="n">
-        <v>366321056493.727</v>
+        <v>383285449558.6009</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B432" t="n">
-        <v>3089508000000</v>
+        <v>3125689000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.1239736531192391</v>
+        <v>0.1193915805057427</v>
       </c>
       <c r="D432" t="n">
-        <v>383017593101.1142</v>
+        <v>373180949879.4145</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B433" t="n">
-        <v>3083488000000</v>
+        <v>3141177000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.1259969508737888</v>
+        <v>0.1194243745148385</v>
       </c>
       <c r="D433" t="n">
-        <v>388510086055.9174</v>
+        <v>375133098465.3968</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B434" t="n">
-        <v>3119085000000</v>
+        <v>3130303000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.1228839385776921</v>
+        <v>0.1221509810556043</v>
       </c>
       <c r="D434" t="n">
-        <v>383285449558.6009</v>
+        <v>382369582451.3014</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B435" t="n">
-        <v>3125689000000</v>
+        <v>3190477000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.1193915805057427</v>
+        <v>0.1270378458446556</v>
       </c>
       <c r="D435" t="n">
-        <v>373180949879.4145</v>
+        <v>405311325296.9192</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B436" t="n">
-        <v>3141177000000</v>
+        <v>3172864000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.1194243745148385</v>
+        <v>0.1206549148779576</v>
       </c>
       <c r="D436" t="n">
-        <v>375133098465.3968</v>
+        <v>382821635839.3359</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B437" t="n">
-        <v>3130303000000</v>
+        <v>3220531000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.1221509810556043</v>
+        <v>0.1199947202323098</v>
       </c>
       <c r="D437" t="n">
-        <v>382369582451.3014</v>
+        <v>386446716344.4808</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B438" t="n">
-        <v>3190477000000</v>
+        <v>3239383000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.1270378458446556</v>
+        <v>0.1143929167905923</v>
       </c>
       <c r="D438" t="n">
-        <v>405311325296.9192</v>
+        <v>370562469971.8594</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B439" t="n">
-        <v>3172864000000</v>
+        <v>3221827000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.1206549148779576</v>
+        <v>0.1135460429204042</v>
       </c>
       <c r="D439" t="n">
-        <v>382821635839.3359</v>
+        <v>365825706824.1172</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B440" t="n">
-        <v>3220531000000</v>
+        <v>3298888000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.1199947202323098</v>
+        <v>0.1118293037507549</v>
       </c>
       <c r="D440" t="n">
-        <v>386446716344.4808</v>
+        <v>368912348191.7202</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B441" t="n">
-        <v>3239383000000</v>
+        <v>3268769000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.1143929167905923</v>
+        <v>0.1137732794351384</v>
       </c>
       <c r="D441" t="n">
-        <v>370562469971.8594</v>
+        <v>371898568845.918</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B442" t="n">
-        <v>3221827000000</v>
+        <v>3267031000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.1135460429204042</v>
+        <v>0.1094730296770436</v>
       </c>
       <c r="D442" t="n">
-        <v>365825706824.1172</v>
+        <v>357651781618.8215</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B443" t="n">
-        <v>3298888000000</v>
+        <v>3303322000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.1118293037507549</v>
+        <v>0.112585100262661</v>
       </c>
       <c r="D443" t="n">
-        <v>368912348191.7202</v>
+        <v>371904838569.854</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B444" t="n">
-        <v>3268769000000</v>
+        <v>3296521000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.1137732794351384</v>
+        <v>0.1091656577940459</v>
       </c>
       <c r="D444" t="n">
-        <v>371898568845.918</v>
+        <v>359866883396.886</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B445" t="n">
-        <v>3267031000000</v>
+        <v>3348953000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.1094730296770436</v>
+        <v>0.1099589852984837</v>
       </c>
       <c r="D445" t="n">
-        <v>357651781618.8215</v>
+        <v>368247473692.3127</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B446" t="n">
-        <v>3303322000000</v>
+        <v>3341036000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.112585100262661</v>
+        <v>0.1126812618949157</v>
       </c>
       <c r="D446" t="n">
-        <v>371904838569.854</v>
+        <v>376472152516.3416</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B447" t="n">
-        <v>3296521000000</v>
+        <v>3386768000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.1091656577940459</v>
+        <v>0.1106084571226316</v>
       </c>
       <c r="D447" t="n">
-        <v>359866883396.886</v>
+        <v>374605183112.3008</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B448" t="n">
-        <v>3348953000000</v>
+        <v>3383263000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.1099589852984837</v>
+        <v>0.1083423618634886</v>
       </c>
       <c r="D448" t="n">
-        <v>368247473692.3127</v>
+        <v>366550704225.3521</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B449" t="n">
-        <v>3341036000000</v>
+        <v>3420052000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.1126812618949157</v>
+        <v>0.1075615790039798</v>
       </c>
       <c r="D449" t="n">
-        <v>376472152516.3416</v>
+        <v>367866193395.719</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B450" t="n">
-        <v>3386768000000</v>
+        <v>3410442000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.1106084571226316</v>
+        <v>0.1054874575412983</v>
       </c>
       <c r="D450" t="n">
-        <v>374605183112.3008</v>
+        <v>359758855672.0606</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B451" t="n">
-        <v>3383263000000</v>
+        <v>3433707000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.1083423618634886</v>
+        <v>0.105400955775867</v>
       </c>
       <c r="D451" t="n">
-        <v>366550704225.3521</v>
+        <v>361915999654.2849</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B452" t="n">
-        <v>3420052000000</v>
+        <v>3507874000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.1075615790039798</v>
+        <v>0.1077916086388507</v>
       </c>
       <c r="D452" t="n">
-        <v>367866193395.719</v>
+        <v>378119381362.3997</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B453" t="n">
-        <v>3410442000000</v>
+        <v>3509682000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.1054874575412983</v>
+        <v>0.1035518276897587</v>
       </c>
       <c r="D453" t="n">
-        <v>359758855672.0606</v>
+        <v>363433985709.8478</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B454" t="n">
-        <v>3433707000000</v>
+        <v>3504689000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.105400955775867</v>
+        <v>0.1019129052311894</v>
       </c>
       <c r="D454" t="n">
-        <v>361915999654.2849</v>
+        <v>357173037921.7921</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B455" t="n">
-        <v>3507874000000</v>
+        <v>3561868000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.1077916086388507</v>
+        <v>0.1016824376127404</v>
       </c>
       <c r="D455" t="n">
-        <v>378119381362.3997</v>
+        <v>362179420694.8164</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B456" t="n">
-        <v>3509682000000</v>
+        <v>3593417000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.1035518276897587</v>
+        <v>0.1036780836972434</v>
       </c>
       <c r="D456" t="n">
-        <v>363433985709.8478</v>
+        <v>372558588485.0974</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B457" t="n">
-        <v>3504689000000</v>
+        <v>3599353000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.1019129052311894</v>
+        <v>0.1045032542313368</v>
       </c>
       <c r="D457" t="n">
-        <v>357173037921.7921</v>
+        <v>376144101627.3247</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B458" t="n">
-        <v>3561868000000</v>
+        <v>3579821000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.1016824376127404</v>
+        <v>0.1067489914889029</v>
       </c>
       <c r="D458" t="n">
-        <v>362179420694.8164</v>
+        <v>382142281460.7959</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B459" t="n">
-        <v>3593417000000</v>
+        <v>3624226000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.1036780836972434</v>
+        <v>0.1039199649997558</v>
       </c>
       <c r="D459" t="n">
-        <v>372558588485.0974</v>
+        <v>376629439071.2049</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B460" t="n">
-        <v>3599353000000</v>
+        <v>3600782000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.1045032542313368</v>
+        <v>0.1041575528807896</v>
       </c>
       <c r="D460" t="n">
-        <v>376144101627.3247</v>
+        <v>375048641577.1953</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B461" t="n">
-        <v>3579821000000</v>
+        <v>3834576000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.1067489914889029</v>
+        <v>0.1012330181612035</v>
       </c>
       <c r="D461" t="n">
-        <v>382142281460.7959</v>
+        <v>388185701848.515</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B462" t="n">
-        <v>3624226000000</v>
+        <v>3900996000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.1039199649997558</v>
+        <v>0.1026061974143238</v>
       </c>
       <c r="D462" t="n">
-        <v>376629439071.2049</v>
+        <v>400266365688.4875</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B463" t="n">
-        <v>3600782000000</v>
+        <v>3963829000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.1041575528807896</v>
+        <v>0.1062992962986585</v>
       </c>
       <c r="D463" t="n">
-        <v>375048641577.1953</v>
+        <v>421352233348.2153</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B464" t="n">
-        <v>3834576000000</v>
+        <v>4054589000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.1012330181612035</v>
+        <v>0.1073675621121347</v>
       </c>
       <c r="D464" t="n">
-        <v>388185701848.515</v>
+        <v>435331336296.678</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B465" t="n">
-        <v>3900996000000</v>
+        <v>4104968000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.1026061974143238</v>
+        <v>0.1140038966531876</v>
       </c>
       <c r="D465" t="n">
-        <v>400266365688.4875</v>
+        <v>467982347636.6422</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B466" t="n">
-        <v>3963829000000</v>
+        <v>4086280000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.1062992962986585</v>
+        <v>0.1157903268760928</v>
       </c>
       <c r="D466" t="n">
-        <v>421352233348.2153</v>
+        <v>473151696907.2404</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B467" t="n">
-        <v>4054589000000</v>
+        <v>4084505000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.1073675621121347</v>
+        <v>0.1116781881330757</v>
       </c>
       <c r="D467" t="n">
-        <v>435331336296.678</v>
+        <v>456150117820.4885</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B468" t="n">
-        <v>4104968000000</v>
+        <v>4130997000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.1140038966531876</v>
+        <v>0.1125626692661139</v>
       </c>
       <c r="D468" t="n">
-        <v>467982347636.6422</v>
+        <v>464996049050.3088</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B469" t="n">
-        <v>4086280000000</v>
+        <v>4194139000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.1157903268760928</v>
+        <v>0.1168879745651767</v>
       </c>
       <c r="D469" t="n">
-        <v>473151696907.2404</v>
+        <v>490244412754.8158</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B470" t="n">
-        <v>4084505000000</v>
+        <v>4241163000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.1116781881330757</v>
+        <v>0.1216820351077008</v>
       </c>
       <c r="D470" t="n">
-        <v>456150117820.4885</v>
+        <v>516073345063.4815</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B471" t="n">
-        <v>4130997000000</v>
+        <v>4262410000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.1125626692661139</v>
+        <v>0.1199184554502938</v>
       </c>
       <c r="D471" t="n">
-        <v>464996049050.3088</v>
+        <v>511141623695.8868</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B472" t="n">
-        <v>4194139000000</v>
+        <v>4298127000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.1168879745651767</v>
+        <v>0.1186127057930446</v>
       </c>
       <c r="D472" t="n">
-        <v>490244412754.8158</v>
+        <v>509812473312.1412</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B473" t="n">
-        <v>4241163000000</v>
+        <v>4336988000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.1216820351077008</v>
+        <v>0.1145869141744013</v>
       </c>
       <c r="D473" t="n">
-        <v>516073345063.4815</v>
+        <v>496962071731.4083</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B474" t="n">
-        <v>4262410000000</v>
+        <v>4376563000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.1199184554502938</v>
+        <v>0.1182385296802357</v>
       </c>
       <c r="D474" t="n">
-        <v>511141623695.8868</v>
+        <v>517478374172.9214</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B475" t="n">
-        <v>4298127000000</v>
+        <v>4420366000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.1186127057930446</v>
+        <v>0.1205865328960062</v>
       </c>
       <c r="D475" t="n">
-        <v>509812473312.1412</v>
+        <v>533036610071.3873</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B476" t="n">
-        <v>4336988000000</v>
+        <v>4539396000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.1145869141744013</v>
+        <v>0.1170891633979275</v>
       </c>
       <c r="D476" t="n">
-        <v>496962071731.4083</v>
+        <v>531514079971.8986</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B477" t="n">
-        <v>4376563000000</v>
+        <v>4517677000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.1182385296802357</v>
+        <v>0.1165664195458572</v>
       </c>
       <c r="D477" t="n">
-        <v>517478374172.9214</v>
+        <v>526609432554.6697</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B478" t="n">
-        <v>4420366000000</v>
+        <v>4525957000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.1205865328960062</v>
+        <v>0.1160321641158929</v>
       </c>
       <c r="D478" t="n">
-        <v>533036610071.3873</v>
+        <v>525156585405.4744</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B479" t="n">
-        <v>4539396000000</v>
+        <v>4620809000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.1170891633979275</v>
+        <v>0.1142422369543934</v>
       </c>
       <c r="D479" t="n">
-        <v>531514079971.8986</v>
+        <v>527891556698.9934</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B480" t="n">
-        <v>4517677000000</v>
+        <v>4671069000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.1165664195458572</v>
+        <v>0.1165729420212816</v>
       </c>
       <c r="D480" t="n">
-        <v>526609432554.6697</v>
+        <v>544520255714.4056</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B481" t="n">
-        <v>4525957000000</v>
+        <v>4727294000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.1160321641158929</v>
+        <v>0.110870890847608</v>
       </c>
       <c r="D481" t="n">
-        <v>525156585405.4744</v>
+        <v>524119297078.552</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B482" t="n">
-        <v>4620809000000</v>
+        <v>4705000000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.1142422369543934</v>
+        <v>0.1106413769983216</v>
       </c>
       <c r="D482" t="n">
-        <v>527891556698.9934</v>
+        <v>520567678777.103</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B483" t="n">
-        <v>4671069000000</v>
+        <v>4752338000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.1165729420212816</v>
+        <v>0.1073687149038513</v>
       </c>
       <c r="D483" t="n">
-        <v>544520255714.4056</v>
+        <v>510252423848.7389</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B484" t="n">
-        <v>4727294000000</v>
+        <v>4755744000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.110870890847608</v>
+        <v>0.1058413860987923</v>
       </c>
       <c r="D484" t="n">
-        <v>524119297078.552</v>
+        <v>503354536891.0151</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B485" t="n">
-        <v>4705000000000</v>
+        <v>4838594000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.1106413769983216</v>
+        <v>0.1065178257581406</v>
       </c>
       <c r="D485" t="n">
-        <v>520567678777.103</v>
+        <v>515396512606.3847</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B486" t="n">
-        <v>4752338000000</v>
+        <v>4861961000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.1073687149038513</v>
+        <v>0.1019087509044402</v>
       </c>
       <c r="D486" t="n">
-        <v>510252423848.7389</v>
+        <v>495476372456.1028</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B487" t="n">
-        <v>4755744000000</v>
+        <v>4868193000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.1058413860987923</v>
+        <v>0.1025885133693351</v>
       </c>
       <c r="D487" t="n">
-        <v>503354536891.0151</v>
+        <v>499420682665.0034</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B488" t="n">
-        <v>4838594000000</v>
+        <v>4981498000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.1065178257581406</v>
+        <v>0.09788375325463479</v>
       </c>
       <c r="D488" t="n">
-        <v>515396512606.3847</v>
+        <v>487607721070.4567</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B489" t="n">
-        <v>4861961000000</v>
+        <v>4925017000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.1019087509044402</v>
+        <v>0.09863392020515854</v>
       </c>
       <c r="D489" t="n">
-        <v>495476372456.1028</v>
+        <v>485773733787.0493</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B490" t="n">
-        <v>4868193000000</v>
+        <v>4981835000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.1025885133693351</v>
+        <v>0.09392220048445071</v>
       </c>
       <c r="D490" t="n">
-        <v>499420682665.0034</v>
+        <v>467904905650.4535</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B491" t="n">
-        <v>4981498000000</v>
+        <v>4905553000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.09788375325463479</v>
+        <v>0.09016400833115437</v>
       </c>
       <c r="D491" t="n">
-        <v>487607721070.4567</v>
+        <v>442304321560.9193</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B492" t="n">
-        <v>4925017000000</v>
+        <v>4884821000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.09863392020515854</v>
+        <v>0.09069463931195419</v>
       </c>
       <c r="D492" t="n">
-        <v>485773733787.0493</v>
+        <v>443027078698.4594</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B493" t="n">
-        <v>4981835000000</v>
+        <v>4877312000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.09392220048445071</v>
+        <v>0.09528074471430069</v>
       </c>
       <c r="D493" t="n">
-        <v>467904905650.4535</v>
+        <v>464713919563.9953</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B494" t="n">
-        <v>4905553000000</v>
+        <v>4822713000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.09016400833115437</v>
+        <v>0.09609378753663576</v>
       </c>
       <c r="D494" t="n">
-        <v>442304321560.9193</v>
+        <v>463432758372.1713</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B495" t="n">
-        <v>4884821000000</v>
+        <v>4913649000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.09069463931195419</v>
+        <v>0.09566814633399663</v>
       </c>
       <c r="D495" t="n">
-        <v>443027078698.4594</v>
+        <v>470079691565.8962</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B496" t="n">
-        <v>4877312000000</v>
+        <v>4814208000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.09528074471430069</v>
+        <v>0.09570211377258689</v>
       </c>
       <c r="D496" t="n">
-        <v>464713919563.9953</v>
+        <v>460729881740.898</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B497" t="n">
-        <v>4822713000000</v>
+        <v>4779804000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.09609378753663576</v>
+        <v>0.09639297487999074</v>
       </c>
       <c r="D497" t="n">
-        <v>463432758372.1713</v>
+        <v>460739526903.2792</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B498" t="n">
-        <v>4913649000000</v>
+        <v>4773513000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.09566814633399663</v>
+        <v>0.09748869131180783</v>
       </c>
       <c r="D498" t="n">
-        <v>470079691565.8962</v>
-      </c>
-    </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
-        <v>44958</v>
-      </c>
-      <c r="B499" t="n">
-        <v>4814208000000</v>
-      </c>
-      <c r="C499" t="n">
-        <v>0.09570211377258689</v>
-      </c>
-      <c r="D499" t="n">
-        <v>460729881740.898</v>
+        <v>465363535329.9017</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D498"/>
+  <dimension ref="A1:D499"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6633,13 +6633,27 @@
         <v>45017</v>
       </c>
       <c r="B498" t="n">
-        <v>4773513000000</v>
+        <v>4773819000000</v>
       </c>
       <c r="C498" t="n">
         <v>0.09748869131180783</v>
       </c>
       <c r="D498" t="n">
-        <v>465363535329.9017</v>
+        <v>465393366869.4432</v>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" s="2" t="n">
+        <v>45047</v>
+      </c>
+      <c r="B499" t="n">
+        <v>4766051000000</v>
+      </c>
+      <c r="C499" t="n">
+        <v>0.09232331625351982</v>
+      </c>
+      <c r="D499" t="n">
+        <v>440017633753.4044</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
@@ -458,6202 +458,6206 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29921</v>
+        <v>29952</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.1821493624772313</v>
+        <v>0.1759014951627089</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29952</v>
+        <v>29983</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0.1759014951627089</v>
+        <v>0.172488141440276</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>29983</v>
+        <v>30011</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.172488141440276</v>
+        <v>0.1684352366515075</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>30011</v>
+        <v>30042</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.1684352366515075</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.1725625539257981</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.1633986928104575</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.1633986928104575</v>
+        <v>0.1636661211129296</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.1636661211129296</v>
+        <v>0.1626677511183408</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0.1626677511183408</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0.1592356687898089</v>
+        <v>0.1341201716738197</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.1341201716738197</v>
+        <v>0.1355380862022228</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.1355380862022228</v>
+        <v>0.1367989056087551</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
-        <v>0.1367989056087551</v>
+        <v>0.1332445036642239</v>
       </c>
       <c r="D14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>0.1332445036642239</v>
+        <v>0.133645172068159</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>0.133645172068159</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>0.1324503311258278</v>
+        <v>0.1332445036642239</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>0.1332445036642239</v>
+        <v>0.1325820351342393</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>0.1325820351342393</v>
+        <v>0.1310615989515072</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>0.1310615989515072</v>
+        <v>0.1289823294208693</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>0.1289823294208693</v>
+        <v>0.1261829652996845</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>0.1261829652996845</v>
+        <v>0.1280409731113956</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>0.1280409731113956</v>
+        <v>0.127787361829915</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>0.127787361829915</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>0.1256281407035176</v>
+        <v>0.1248439450686642</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>0.1248439450686642</v>
+        <v>0.1221299462628236</v>
       </c>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>0.1221299462628236</v>
+        <v>0.1287001287001287</v>
       </c>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>0.1287001287001287</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>0.1295336787564767</v>
+        <v>0.1252348152786475</v>
       </c>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>0.1252348152786475</v>
+        <v>0.1237317495669389</v>
       </c>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>0.1237317495669389</v>
+        <v>0.122256861666361</v>
       </c>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>0.122256861666361</v>
+        <v>0.1186239620403322</v>
       </c>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>0.1186239620403322</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>0.1201923076923077</v>
+        <v>0.1151145389662715</v>
       </c>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>0.1151145389662715</v>
+        <v>0.115460108532502</v>
       </c>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>0.115460108532502</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>0.1131221719457014</v>
+        <v>0.1112966054535337</v>
       </c>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>0.1112966054535337</v>
+        <v>0.1106194690265487</v>
       </c>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>0.1106194690265487</v>
+        <v>0.1054852320675105</v>
       </c>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>0.1054852320675105</v>
+        <v>0.1121076233183857</v>
       </c>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>0.1121076233183857</v>
+        <v>0.1109570041608877</v>
       </c>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>0.1109570041608877</v>
+        <v>0.112739571589628</v>
       </c>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>0.112739571589628</v>
+        <v>0.1143837575064341</v>
       </c>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>0.1143837575064341</v>
+        <v>0.1207000603500302</v>
       </c>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>0.1207000603500302</v>
+        <v>0.1201201201201201</v>
       </c>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>0.1201201201201201</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>0.124223602484472</v>
+        <v>0.1269680040629761</v>
       </c>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>0.1269680040629761</v>
+        <v>0.1309671927182241</v>
       </c>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>0.1309671927182241</v>
+        <v>0.132013201320132</v>
       </c>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>0.132013201320132</v>
+        <v>0.1327580484566877</v>
       </c>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>0.1327580484566877</v>
+        <v>0.1388792444969099</v>
       </c>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.1388792444969099</v>
+        <v>0.135685210312076</v>
       </c>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0.135685210312076</v>
+        <v>0.1427144284287142</v>
       </c>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>0.1427144284287142</v>
+        <v>0.135308842432853</v>
       </c>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>0.135308842432853</v>
+        <v>0.1402918069584736</v>
       </c>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>0.1402918069584736</v>
+        <v>0.143348623853211</v>
       </c>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>0.143348623853211</v>
+        <v>0.1451378809869376</v>
       </c>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>0.1451378809869376</v>
+        <v>0.1447178002894356</v>
       </c>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>0.1447178002894356</v>
+        <v>0.1420858198351805</v>
       </c>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>0.1420858198351805</v>
+        <v>0.1454016721192294</v>
       </c>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>0.1454016721192294</v>
+        <v>0.1483459427384661</v>
       </c>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>0.1483459427384661</v>
+        <v>0.1528467711119602</v>
       </c>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>0.1528467711119602</v>
+        <v>0.1544401544401544</v>
       </c>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>0.1544401544401544</v>
+        <v>0.158102766798419</v>
       </c>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>0.158102766798419</v>
+        <v>0.1591343093570974</v>
       </c>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>0.1591343093570974</v>
+        <v>0.1571832756994656</v>
       </c>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>0.1571832756994656</v>
+        <v>0.1565925461948011</v>
       </c>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>0.1565925461948011</v>
+        <v>0.1541069502234551</v>
       </c>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>0.1541069502234551</v>
+        <v>0.1568381430363864</v>
       </c>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>0.1568381430363864</v>
+        <v>0.1548467017652524</v>
       </c>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>0.1548467017652524</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1677570877369569</v>
       </c>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>0.1677570877369569</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>0.1725625539257981</v>
+        <v>0.1657824933687003</v>
       </c>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>0.1657824933687003</v>
+        <v>0.1668891855807744</v>
       </c>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>0.1668891855807744</v>
+        <v>0.170328734457503</v>
       </c>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>0.170328734457503</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.1668752607425949</v>
       </c>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>0.1668752607425949</v>
+        <v>0.1591089896579157</v>
       </c>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>0.1591089896579157</v>
+        <v>0.1557875058420315</v>
       </c>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>0.1557875058420315</v>
+        <v>0.1540120129370091</v>
       </c>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>0.1540120129370091</v>
+        <v>0.1556420233463035</v>
       </c>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>0.1556420233463035</v>
+        <v>0.1614205004035512</v>
       </c>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>0.1614205004035512</v>
+        <v>0.1655218074981379</v>
       </c>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>0.1655218074981379</v>
+        <v>0.1631055292774425</v>
       </c>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>0.1631055292774425</v>
+        <v>0.1572327044025157</v>
       </c>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>0.1572327044025157</v>
+        <v>0.1590583744234134</v>
       </c>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>0.1590583744234134</v>
+        <v>0.1552072016141549</v>
       </c>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>0.1552072016141549</v>
+        <v>0.1565435190983093</v>
       </c>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>0.1565435190983093</v>
+        <v>0.1500600240096039</v>
       </c>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>0.1500600240096039</v>
+        <v>0.1502178158329578</v>
       </c>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>0.1502178158329578</v>
+        <v>0.1566416040100251</v>
       </c>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>0.1566416040100251</v>
+        <v>0.1510345869204048</v>
       </c>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>0.1510345869204048</v>
+        <v>0.1554968123153475</v>
       </c>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>0.1554968123153475</v>
+        <v>0.1557632398753894</v>
       </c>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>0.1557632398753894</v>
+        <v>0.1567398119122257</v>
       </c>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>0.1567398119122257</v>
+        <v>0.1611214049786514</v>
       </c>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>0.1611214049786514</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>0.1623376623376623</v>
+        <v>0.1632253325716151</v>
       </c>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>0.1632253325716151</v>
+        <v>0.1635590448151783</v>
       </c>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>0.1635590448151783</v>
+        <v>0.1639881928501148</v>
       </c>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>0.1639881928501148</v>
+        <v>0.1630523398010761</v>
       </c>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>0.1630523398010761</v>
+        <v>0.1656314699792961</v>
       </c>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>0.1656314699792961</v>
+        <v>0.1720282126268708</v>
       </c>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>0.1720282126268708</v>
+        <v>0.1727414061150458</v>
       </c>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>0.1727414061150458</v>
+        <v>0.1735207357279195</v>
       </c>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>0.1735207357279195</v>
+        <v>0.1772735330615139</v>
       </c>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>0.1772735330615139</v>
+        <v>0.1779834475393788</v>
       </c>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>0.1779834475393788</v>
+        <v>0.1775095411378362</v>
       </c>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>0.1775095411378362</v>
+        <v>0.1807337791433219</v>
       </c>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>0.1807337791433219</v>
+        <v>0.1763668430335097</v>
       </c>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>0.1763668430335097</v>
+        <v>0.1631321370309951</v>
       </c>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>0.1631321370309951</v>
+        <v>0.1626545217957059</v>
       </c>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>0.1626545217957059</v>
+        <v>0.1603206412825651</v>
       </c>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>0.1603206412825651</v>
+        <v>0.1540476007086189</v>
       </c>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>0.1540476007086189</v>
+        <v>0.158102766798419</v>
       </c>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>0.158102766798419</v>
+        <v>0.1580278128950695</v>
       </c>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>0.1580278128950695</v>
+        <v>0.1645278051990786</v>
       </c>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>0.1645278051990786</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>0.1642036124794745</v>
+        <v>0.1683501683501683</v>
       </c>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>0.1683501683501683</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>0.1801801801801802</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.1688048615800135</v>
       </c>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>0.1688048615800135</v>
+        <v>0.1675884028825205</v>
       </c>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>0.1675884028825205</v>
+        <v>0.1681520094165125</v>
       </c>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>0.1681520094165125</v>
+        <v>0.1727712508638563</v>
       </c>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>0.1727712508638563</v>
+        <v>0.1819505094614265</v>
       </c>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>0.1819505094614265</v>
+        <v>0.1865671641791045</v>
       </c>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>0.1865671641791045</v>
+        <v>0.1941747572815534</v>
       </c>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>0.1941747572815534</v>
+        <v>0.1896453631708705</v>
       </c>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>0.1896453631708705</v>
+        <v>0.1721170395869191</v>
       </c>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>0.1721170395869191</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.1412030499858797</v>
       </c>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>0.1412030499858797</v>
+        <v>0.1367989056087551</v>
       </c>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>0.1367989056087551</v>
+        <v>0.1276650070215754</v>
       </c>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>0.1276650070215754</v>
+        <v>0.1297858533419857</v>
       </c>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>0.1297858533419857</v>
+        <v>0.1369675386933297</v>
       </c>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>0.1369675386933297</v>
+        <v>0.1395868230039084</v>
       </c>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>0.1395868230039084</v>
+        <v>0.1291989664082687</v>
       </c>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>0.1291989664082687</v>
+        <v>0.1213444970270598</v>
       </c>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>0.1213444970270598</v>
+        <v>0.1223091976516634</v>
       </c>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>0.1223091976516634</v>
+        <v>0.123304562268804</v>
       </c>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>0.123304562268804</v>
+        <v>0.1227596366314756</v>
       </c>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>0.1227596366314756</v>
+        <v>0.1180776951233912</v>
       </c>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>0.1180776951233912</v>
+        <v>0.1199760047990402</v>
       </c>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>0.1199760047990402</v>
+        <v>0.1269357705001269</v>
       </c>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>0.1269357705001269</v>
+        <v>0.1255335174491589</v>
       </c>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>0.1255335174491589</v>
+        <v>0.1276161306789178</v>
       </c>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>0.1276161306789178</v>
+        <v>0.1314233144959916</v>
       </c>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>0.1314233144959916</v>
+        <v>0.1280737704918033</v>
       </c>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>0.1280737704918033</v>
+        <v>0.1307018690367272</v>
       </c>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>0.1307018690367272</v>
+        <v>0.1287001287001287</v>
       </c>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>0.1287001287001287</v>
+        <v>0.1289490651192779</v>
       </c>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>0.1289490651192779</v>
+        <v>0.1337255950788981</v>
       </c>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>0.1337255950788981</v>
+        <v>0.1398601398601398</v>
       </c>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>0.1398601398601398</v>
+        <v>0.132749236691889</v>
       </c>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>0.132749236691889</v>
+        <v>0.134698275862069</v>
       </c>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>0.134698275862069</v>
+        <v>0.1334400854016547</v>
       </c>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>0.1334400854016547</v>
+        <v>0.1362397820163488</v>
       </c>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>0.1362397820163488</v>
+        <v>0.1362026695723236</v>
       </c>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>0.1362026695723236</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>0.1374570446735395</v>
+        <v>0.1362954886193267</v>
       </c>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>0.1362954886193267</v>
+        <v>0.1376651982378854</v>
       </c>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>0.1376651982378854</v>
+        <v>0.1413427561837456</v>
       </c>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>0.1413427561837456</v>
+        <v>0.1368363437328955</v>
       </c>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>0.1368363437328955</v>
+        <v>0.1445713459592309</v>
       </c>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>0.1445713459592309</v>
+        <v>0.1506250941406838</v>
       </c>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>0.1506250941406838</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>0.1524390243902439</v>
+        <v>0.1504890895410083</v>
       </c>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>0.1504890895410083</v>
+        <v>0.1442585112521639</v>
       </c>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>0.1442585112521639</v>
+        <v>0.14801657785672</v>
       </c>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>0.14801657785672</v>
+        <v>0.1497454327643007</v>
       </c>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>0.1497454327643007</v>
+        <v>0.1475796930342385</v>
       </c>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>0.1475796930342385</v>
+        <v>0.1490312965722802</v>
       </c>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>0.1490312965722802</v>
+        <v>0.1510345869204048</v>
       </c>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>0.1510345869204048</v>
+        <v>0.1515840533575868</v>
       </c>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>0.1515840533575868</v>
+        <v>0.1508523155830442</v>
       </c>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>0.1508523155830442</v>
+        <v>0.1507386192342478</v>
       </c>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>0.1507386192342478</v>
+        <v>0.1518833535844472</v>
       </c>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>0.1518833535844472</v>
+        <v>0.1487431206306708</v>
       </c>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>0.1487431206306708</v>
+        <v>0.146864444118079</v>
       </c>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>0.146864444118079</v>
+        <v>0.137797988149373</v>
       </c>
       <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>0.137797988149373</v>
+        <v>0.1335826876836762</v>
       </c>
       <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>0.1335826876836762</v>
+        <v>0.1324152542372881</v>
       </c>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>0.1324152542372881</v>
+        <v>0.1273074474856779</v>
       </c>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>0.1273074474856779</v>
+        <v>0.1293326435592344</v>
       </c>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>0.1293326435592344</v>
+        <v>0.1295001295001295</v>
       </c>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>0.1295001295001295</v>
+        <v>0.125140783381304</v>
       </c>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>0.125140783381304</v>
+        <v>0.1269357705001269</v>
       </c>
       <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>0.1269357705001269</v>
+        <v>0.1320655044902272</v>
       </c>
       <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="B191" t="inlineStr"/>
       <c r="C191" t="n">
-        <v>0.1320655044902272</v>
+        <v>0.1334400854016547</v>
       </c>
       <c r="D191" t="inlineStr"/>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="B192" t="inlineStr"/>
       <c r="C192" t="n">
-        <v>0.1334400854016547</v>
+        <v>0.1291155584247902</v>
       </c>
       <c r="D192" t="inlineStr"/>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="B193" t="inlineStr"/>
       <c r="C193" t="n">
-        <v>0.1291155584247902</v>
+        <v>0.1263583522870862</v>
       </c>
       <c r="D193" t="inlineStr"/>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35765</v>
-      </c>
-      <c r="B194" t="inlineStr"/>
+        <v>35796</v>
+      </c>
+      <c r="B194" t="n">
+        <v>866171000000</v>
+      </c>
       <c r="C194" t="n">
-        <v>0.1263583522870862</v>
-      </c>
-      <c r="D194" t="inlineStr"/>
+        <v>0.1229709788489916</v>
+      </c>
+      <c r="D194" t="n">
+        <v>106513895720.6099</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B195" t="n">
-        <v>866171000000</v>
+        <v>840564000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1229709788489916</v>
+        <v>0.1249219237976265</v>
       </c>
       <c r="D195" t="n">
-        <v>106513895720.6099</v>
+        <v>105004871955.0281</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B196" t="n">
-        <v>840564000000</v>
+        <v>860182000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1249219237976265</v>
+        <v>0.1247816321437484</v>
       </c>
       <c r="D196" t="n">
-        <v>105004871955.0281</v>
+        <v>107334913900.6738</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B197" t="n">
-        <v>860182000000</v>
+        <v>859006000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.1247816321437484</v>
+        <v>0.1289823294208693</v>
       </c>
       <c r="D197" t="n">
-        <v>107334913900.6738</v>
+        <v>110796594866.5033</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B198" t="n">
-        <v>859006000000</v>
+        <v>860771000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1289823294208693</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="D198" t="n">
-        <v>110796594866.5033</v>
+        <v>109792219387.7551</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B199" t="n">
-        <v>860771000000</v>
+        <v>871209000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1275510204081633</v>
+        <v>0.1251721116535236</v>
       </c>
       <c r="D199" t="n">
-        <v>109792219387.7551</v>
+        <v>109051070221.5546</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B200" t="n">
-        <v>871209000000</v>
+        <v>861701000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1251721116535236</v>
+        <v>0.1260398285858331</v>
       </c>
       <c r="D200" t="n">
-        <v>109051070221.5546</v>
+        <v>108608646332.241</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B201" t="n">
-        <v>861701000000</v>
+        <v>875102000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1260398285858331</v>
+        <v>0.1249843769528809</v>
       </c>
       <c r="D201" t="n">
-        <v>108608646332.241</v>
+        <v>109374078240.22</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B202" t="n">
-        <v>875102000000</v>
+        <v>880147000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1249843769528809</v>
+        <v>0.1272912423625255</v>
       </c>
       <c r="D202" t="n">
-        <v>109374078240.22</v>
+        <v>112035005091.6497</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B203" t="n">
-        <v>880147000000</v>
+        <v>872536000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1272912423625255</v>
+        <v>0.1286670097786927</v>
       </c>
       <c r="D203" t="n">
-        <v>112035005091.6497</v>
+        <v>112266598044.2615</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B204" t="n">
-        <v>872536000000</v>
+        <v>876396000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1286670097786927</v>
+        <v>0.1227747084100675</v>
       </c>
       <c r="D204" t="n">
-        <v>112266598044.2615</v>
+        <v>107599263351.7495</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B205" t="n">
-        <v>876396000000</v>
+        <v>887781000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1227747084100675</v>
+        <v>0.1241156758098548</v>
       </c>
       <c r="D205" t="n">
-        <v>107599263351.7495</v>
+        <v>110187538786.1487</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B206" t="n">
-        <v>887781000000</v>
+        <v>902424000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1241156758098548</v>
+        <v>0.1279918085242545</v>
       </c>
       <c r="D206" t="n">
-        <v>110187538786.1487</v>
+        <v>115502879815.6918</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B207" t="n">
-        <v>902424000000</v>
+        <v>892421000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1279918085242545</v>
+        <v>0.1224589762429586</v>
       </c>
       <c r="D207" t="n">
-        <v>115502879815.6918</v>
+        <v>109284962037.7174</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B208" t="n">
-        <v>892421000000</v>
+        <v>894623000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1224589762429586</v>
+        <v>0.1210653753026634</v>
       </c>
       <c r="D208" t="n">
-        <v>109284962037.7174</v>
+        <v>108307869249.3947</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B209" t="n">
-        <v>894623000000</v>
+        <v>888489000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1210653753026634</v>
+        <v>0.1185817621249852</v>
       </c>
       <c r="D209" t="n">
-        <v>108307869249.3947</v>
+        <v>105358591248.666</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B210" t="n">
-        <v>888489000000</v>
+        <v>895380000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1185817621249852</v>
+        <v>0.1162925921618793</v>
       </c>
       <c r="D210" t="n">
-        <v>105358591248.666</v>
+        <v>104126061169.9035</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B211" t="n">
-        <v>895380000000</v>
+        <v>898006000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1162925921618793</v>
+        <v>0.1184553423359394</v>
       </c>
       <c r="D211" t="n">
-        <v>104126061169.9035</v>
+        <v>106373608149.7276</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B212" t="n">
-        <v>898006000000</v>
+        <v>894198000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1184553423359394</v>
+        <v>0.1217878455730118</v>
       </c>
       <c r="D212" t="n">
-        <v>106373608149.7276</v>
+        <v>108902447935.696</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B213" t="n">
-        <v>894198000000</v>
+        <v>911379000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.1217878455730118</v>
+        <v>0.121197430614471</v>
       </c>
       <c r="D213" t="n">
-        <v>108902447935.696</v>
+        <v>110456793115.9859</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B214" t="n">
-        <v>911379000000</v>
+        <v>921677000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.121197430614471</v>
+        <v>0.1224140041620761</v>
       </c>
       <c r="D214" t="n">
-        <v>110456793115.9859</v>
+        <v>112826172114.0898</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B215" t="n">
-        <v>921677000000</v>
+        <v>956004000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1224140041620761</v>
+        <v>0.1220554131575735</v>
       </c>
       <c r="D215" t="n">
-        <v>112826172114.0898</v>
+        <v>116685463200.2929</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B216" t="n">
-        <v>956004000000</v>
+        <v>947459000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1220554131575735</v>
+        <v>0.1176193836744295</v>
       </c>
       <c r="D216" t="n">
-        <v>116685463200.2929</v>
+        <v>111439543636.7913</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B217" t="n">
-        <v>947459000000</v>
+        <v>965538000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.1176193836744295</v>
+        <v>0.1173020527859237</v>
       </c>
       <c r="D217" t="n">
-        <v>111439543636.7913</v>
+        <v>113259589442.8152</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B218" t="n">
-        <v>965538000000</v>
+        <v>975471000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1173020527859237</v>
+        <v>0.1128184300187279</v>
       </c>
       <c r="D218" t="n">
-        <v>113259589442.8152</v>
+        <v>110051106748.7985</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B219" t="n">
-        <v>975471000000</v>
+        <v>968803000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1128184300187279</v>
+        <v>0.1143445200388771</v>
       </c>
       <c r="D219" t="n">
-        <v>110051106748.7985</v>
+        <v>110777314047.2243</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B220" t="n">
-        <v>968803000000</v>
+        <v>986845000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1143445200388771</v>
+        <v>0.1153828402639959</v>
       </c>
       <c r="D220" t="n">
-        <v>110777314047.2243</v>
+        <v>113864979000.3231</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B221" t="n">
-        <v>986845000000</v>
+        <v>1002483000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1153828402639959</v>
+        <v>0.1122498232065285</v>
       </c>
       <c r="D221" t="n">
-        <v>113864979000.3231</v>
+        <v>112528539517.5503</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B222" t="n">
-        <v>1002483000000</v>
+        <v>983642000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.1122498232065285</v>
+        <v>0.111858074475106</v>
       </c>
       <c r="D222" t="n">
-        <v>112528539517.5503</v>
+        <v>110028300092.8422</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B223" t="n">
-        <v>983642000000</v>
+        <v>980883000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.111858074475106</v>
+        <v>0.1133221522143148</v>
       </c>
       <c r="D223" t="n">
-        <v>110028300092.8422</v>
+        <v>111155772630.4338</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B224" t="n">
-        <v>980883000000</v>
+        <v>958386000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1133221522143148</v>
+        <v>0.1091917625734315</v>
       </c>
       <c r="D224" t="n">
-        <v>111155772630.4338</v>
+        <v>104647856565.7007</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B225" t="n">
-        <v>958386000000</v>
+        <v>986214000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1091917625734315</v>
+        <v>0.1061469710961798</v>
       </c>
       <c r="D225" t="n">
-        <v>104647856565.7007</v>
+        <v>104683628952.6478</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B226" t="n">
-        <v>986214000000</v>
+        <v>990896000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1061469710961798</v>
+        <v>0.1040257983980027</v>
       </c>
       <c r="D226" t="n">
-        <v>104683628952.6478</v>
+        <v>103078747529.3873</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B227" t="n">
-        <v>990896000000</v>
+        <v>986961000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1040257983980027</v>
+        <v>0.1001702894921366</v>
       </c>
       <c r="D227" t="n">
-        <v>103078747529.3873</v>
+        <v>98864169087.44867</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B228" t="n">
-        <v>986961000000</v>
+        <v>998471000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1001702894921366</v>
+        <v>0.1000120014401728</v>
       </c>
       <c r="D228" t="n">
-        <v>98864169087.44867</v>
+        <v>99859083089.97081</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B229" t="n">
-        <v>998471000000</v>
+        <v>992459000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.1000120014401728</v>
+        <v>0.1062213866139809</v>
       </c>
       <c r="D229" t="n">
-        <v>99859083089.97081</v>
+        <v>105420371137.5248</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B230" t="n">
-        <v>992459000000</v>
+        <v>1006137000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1062213866139809</v>
+        <v>0.1056579851022241</v>
       </c>
       <c r="D230" t="n">
-        <v>105420371137.5248</v>
+        <v>106306408156.7965</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B231" t="n">
-        <v>1006137000000</v>
+        <v>996586000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1056579851022241</v>
+        <v>0.1020616452337212</v>
       </c>
       <c r="D231" t="n">
-        <v>106306408156.7965</v>
+        <v>101713206776.8932</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B232" t="n">
-        <v>996586000000</v>
+        <v>1018615000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.1020616452337212</v>
+        <v>0.09615199707697929</v>
       </c>
       <c r="D232" t="n">
-        <v>101713206776.8932</v>
+        <v>97941866502.56726</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B233" t="n">
-        <v>1018615000000</v>
+        <v>1028829000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.09615199707697929</v>
+        <v>0.09763146076191592</v>
       </c>
       <c r="D233" t="n">
-        <v>97941866502.56726</v>
+        <v>100446078144.2212</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B234" t="n">
-        <v>1028829000000</v>
+        <v>1030592000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.09763146076191592</v>
+        <v>0.09260888489641696</v>
       </c>
       <c r="D234" t="n">
-        <v>100446078144.2212</v>
+        <v>95441975903.16815</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B235" t="n">
-        <v>1030592000000</v>
+        <v>1056228000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.09260888489641696</v>
+        <v>0.09215995281410416</v>
       </c>
       <c r="D235" t="n">
-        <v>95441975903.16815</v>
+        <v>97341922640.93561</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B236" t="n">
-        <v>1056228000000</v>
+        <v>1014868000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.09215995281410416</v>
+        <v>0.09456533045854729</v>
       </c>
       <c r="D236" t="n">
-        <v>97341922640.93561</v>
+        <v>95971327791.80496</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B237" t="n">
-        <v>1014868000000</v>
+        <v>1030481000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.09456533045854729</v>
+        <v>0.09632148258025988</v>
       </c>
       <c r="D237" t="n">
-        <v>95971327791.80496</v>
+        <v>99257457690.78879</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B238" t="n">
-        <v>1030481000000</v>
+        <v>1058019000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.09632148258025988</v>
+        <v>0.09365575889261431</v>
       </c>
       <c r="D238" t="n">
-        <v>99257457690.78879</v>
+        <v>99089572367.8049</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B239" t="n">
-        <v>1058019000000</v>
+        <v>1071663000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.09365575889261431</v>
+        <v>0.09380071100938946</v>
       </c>
       <c r="D239" t="n">
-        <v>99089572367.8049</v>
+        <v>100522751362.4553</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B240" t="n">
-        <v>1071663000000</v>
+        <v>1095416000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.09380071100938946</v>
+        <v>0.09380599045055017</v>
       </c>
       <c r="D240" t="n">
-        <v>100522751362.4553</v>
+        <v>102756582835.3799</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B241" t="n">
-        <v>1095416000000</v>
+        <v>1057699000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.09380599045055017</v>
+        <v>0.09543714986495644</v>
       </c>
       <c r="D241" t="n">
-        <v>102756582835.3799</v>
+        <v>100943777975.0146</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B242" t="n">
-        <v>1057699000000</v>
+        <v>1053056000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.09543714986495644</v>
+        <v>0.09381127048603619</v>
       </c>
       <c r="D242" t="n">
-        <v>100943777975.0146</v>
+        <v>98788521252.94333</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B243" t="n">
-        <v>1053056000000</v>
+        <v>1032093000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.09381127048603619</v>
+        <v>0.09584143992179339</v>
       </c>
       <c r="D243" t="n">
-        <v>98788521252.94333</v>
+        <v>98917279253.20351</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B244" t="n">
-        <v>1032093000000</v>
+        <v>1055919000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.09584143992179339</v>
+        <v>0.09651019147621989</v>
       </c>
       <c r="D244" t="n">
-        <v>98917279253.20351</v>
+        <v>101906944873.3786</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B245" t="n">
-        <v>1055919000000</v>
+        <v>1057670000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.09651019147621989</v>
+        <v>0.0973852071870283</v>
       </c>
       <c r="D245" t="n">
-        <v>101906944873.3786</v>
+        <v>103001412085.5042</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B246" t="n">
-        <v>1057670000000</v>
+        <v>1038684000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.0973852071870283</v>
+        <v>0.1026904908605463</v>
       </c>
       <c r="D246" t="n">
-        <v>103001412085.5042</v>
+        <v>106662969808.9957</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B247" t="n">
-        <v>1038684000000</v>
+        <v>1057284000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.1026904908605463</v>
+        <v>0.109158388822181</v>
       </c>
       <c r="D247" t="n">
-        <v>106662969808.9957</v>
+        <v>115411417967.4708</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B248" t="n">
-        <v>1057284000000</v>
+        <v>1047447000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.109158388822181</v>
+        <v>0.1048382869423913</v>
       </c>
       <c r="D248" t="n">
-        <v>115411417967.4708</v>
+        <v>109812549142.947</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B249" t="n">
-        <v>1047447000000</v>
+        <v>1066994000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.1048382869423913</v>
+        <v>0.1065246338215712</v>
       </c>
       <c r="D249" t="n">
-        <v>109812549142.947</v>
+        <v>113661145139.8136</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B250" t="n">
-        <v>1066994000000</v>
+        <v>1074166000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.1065246338215712</v>
+        <v>0.107781849536538</v>
       </c>
       <c r="D250" t="n">
-        <v>113661145139.8136</v>
+        <v>115775598189.2649</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B251" t="n">
-        <v>1074166000000</v>
+        <v>1070733000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.107781849536538</v>
+        <v>0.1094163730660656</v>
       </c>
       <c r="D251" t="n">
-        <v>115775598189.2649</v>
+        <v>117155721382.1476</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B252" t="n">
-        <v>1070733000000</v>
+        <v>1074964000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1094163730660656</v>
+        <v>0.1105558749391943</v>
       </c>
       <c r="D252" t="n">
-        <v>117155721382.1476</v>
+        <v>118843585548.136</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B253" t="n">
-        <v>1074964000000</v>
+        <v>1090087000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.1105558749391943</v>
+        <v>0.1151211650261901</v>
       </c>
       <c r="D253" t="n">
-        <v>118843585548.136</v>
+        <v>125492085419.9044</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B254" t="n">
-        <v>1090087000000</v>
+        <v>1080435000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1151211650261901</v>
+        <v>0.1165949607657957</v>
       </c>
       <c r="D254" t="n">
-        <v>125492085419.9044</v>
+        <v>125973276434.9925</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B255" t="n">
-        <v>1080435000000</v>
+        <v>1066795000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.1165949607657957</v>
+        <v>0.117820324005891</v>
       </c>
       <c r="D255" t="n">
-        <v>125973276434.9925</v>
+        <v>125690132547.8645</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B256" t="n">
-        <v>1066795000000</v>
+        <v>1091568000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.117820324005891</v>
+        <v>0.1184371039759336</v>
       </c>
       <c r="D256" t="n">
-        <v>125690132547.8645</v>
+        <v>129282152712.8019</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B257" t="n">
-        <v>1091568000000</v>
+        <v>1095981000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1184371039759336</v>
+        <v>0.1226422036351149</v>
       </c>
       <c r="D257" t="n">
-        <v>129282152712.8019</v>
+        <v>134413524982.2169</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B258" t="n">
-        <v>1095981000000</v>
+        <v>1097716000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1226422036351149</v>
+        <v>0.1292574161442513</v>
       </c>
       <c r="D258" t="n">
-        <v>134413524982.2169</v>
+        <v>141887933820.2029</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B259" t="n">
-        <v>1097716000000</v>
+        <v>1119739000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1292574161442513</v>
+        <v>0.1253855605988415</v>
       </c>
       <c r="D259" t="n">
-        <v>141887933820.2029</v>
+        <v>140399102239.3861</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B260" t="n">
-        <v>1119739000000</v>
+        <v>1096437000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1253855605988415</v>
+        <v>0.1217255818482813</v>
       </c>
       <c r="D260" t="n">
-        <v>140399102239.3861</v>
+        <v>133464431784.9839</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B261" t="n">
-        <v>1096437000000</v>
+        <v>1106567000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.1217255818482813</v>
+        <v>0.119422948313748</v>
       </c>
       <c r="D261" t="n">
-        <v>133464431784.9839</v>
+        <v>132149493646.6992</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B262" t="n">
-        <v>1106567000000</v>
+        <v>1115806000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.119422948313748</v>
+        <v>0.1290289282857217</v>
       </c>
       <c r="D262" t="n">
-        <v>132149493646.6992</v>
+        <v>143971252354.7779</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B263" t="n">
-        <v>1115806000000</v>
+        <v>1125284000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1290289282857217</v>
+        <v>0.1277041350598933</v>
       </c>
       <c r="D263" t="n">
-        <v>143971252354.7779</v>
+        <v>143703419916.7369</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B264" t="n">
-        <v>1125284000000</v>
+        <v>1132313000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1277041350598933</v>
+        <v>0.1324398061081239</v>
       </c>
       <c r="D264" t="n">
-        <v>143703419916.7369</v>
+        <v>149963314173.7081</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B265" t="n">
-        <v>1132313000000</v>
+        <v>1141285000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1324398061081239</v>
+        <v>0.1390956004061591</v>
       </c>
       <c r="D265" t="n">
-        <v>149963314173.7081</v>
+        <v>158747722309.5433</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B266" t="n">
-        <v>1141285000000</v>
+        <v>1142941000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.1390956004061591</v>
+        <v>0.1355307383714627</v>
       </c>
       <c r="D266" t="n">
-        <v>158747722309.5433</v>
+        <v>154903637645.0179</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B267" t="n">
-        <v>1142941000000</v>
+        <v>1141447000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.1355307383714627</v>
+        <v>0.1353143352006712</v>
       </c>
       <c r="D267" t="n">
-        <v>154903637645.0179</v>
+        <v>154454141971.8005</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B268" t="n">
-        <v>1141447000000</v>
+        <v>1165434000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1353143352006712</v>
+        <v>0.1327051954084002</v>
       </c>
       <c r="D268" t="n">
-        <v>154454141971.8005</v>
+        <v>154659146705.5935</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B269" t="n">
-        <v>1165434000000</v>
+        <v>1152565000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1327051954084002</v>
+        <v>0.1308592216493496</v>
       </c>
       <c r="D269" t="n">
-        <v>154659146705.5935</v>
+        <v>150823758800.2827</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B270" t="n">
-        <v>1152565000000</v>
+        <v>1156039000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.1308592216493496</v>
+        <v>0.1340931947703654</v>
       </c>
       <c r="D270" t="n">
-        <v>150823758800.2827</v>
+        <v>155016962789.1385</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B271" t="n">
-        <v>1156039000000</v>
+        <v>1146407000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.1340931947703654</v>
+        <v>0.1330282552014048</v>
       </c>
       <c r="D271" t="n">
-        <v>155016962789.1385</v>
+        <v>152504522960.6769</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B272" t="n">
-        <v>1146407000000</v>
+        <v>1134922000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.1330282552014048</v>
+        <v>0.1303865962579047</v>
       </c>
       <c r="D272" t="n">
-        <v>152504522960.6769</v>
+        <v>147978616598.2137</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B273" t="n">
-        <v>1134922000000</v>
+        <v>1144971000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.1303865962579047</v>
+        <v>0.1333795715848161</v>
       </c>
       <c r="D273" t="n">
-        <v>147978616598.2137</v>
+        <v>152715741457.0384</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B274" t="n">
-        <v>1144971000000</v>
+        <v>1158562000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.1333795715848161</v>
+        <v>0.137421154612541</v>
       </c>
       <c r="D274" t="n">
-        <v>152715741457.0384</v>
+        <v>159210927730.2148</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B275" t="n">
-        <v>1158562000000</v>
+        <v>1150911000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.137421154612541</v>
+        <v>0.1414927484966395</v>
       </c>
       <c r="D275" t="n">
-        <v>159210927730.2148</v>
+        <v>162845560665.0159</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B276" t="n">
-        <v>1150911000000</v>
+        <v>1166940000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1414927484966395</v>
+        <v>0.1487342713508047</v>
       </c>
       <c r="D276" t="n">
-        <v>162845560665.0159</v>
+        <v>173563970610.108</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B277" t="n">
-        <v>1166940000000</v>
+        <v>1167217000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1487342713508047</v>
+        <v>0.1501478956772421</v>
       </c>
       <c r="D277" t="n">
-        <v>173563970610.108</v>
+        <v>175255176348.7035</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B278" t="n">
-        <v>1167217000000</v>
+        <v>1182178000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.1501478956772421</v>
+        <v>0.143110653157021</v>
       </c>
       <c r="D278" t="n">
-        <v>175255176348.7035</v>
+        <v>169182265727.8608</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B279" t="n">
-        <v>1182178000000</v>
+        <v>1193213000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.143110653157021</v>
+        <v>0.1460237726701907</v>
       </c>
       <c r="D279" t="n">
-        <v>169182265727.8608</v>
+        <v>174237463859.1163</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B280" t="n">
-        <v>1193213000000</v>
+        <v>1202546000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.1460237726701907</v>
+        <v>0.141468728337601</v>
       </c>
       <c r="D280" t="n">
-        <v>174237463859.1163</v>
+        <v>170122653387.4687</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B281" t="n">
-        <v>1202546000000</v>
+        <v>1204895000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.141468728337601</v>
+        <v>0.1402622904832036</v>
       </c>
       <c r="D281" t="n">
-        <v>170122653387.4687</v>
+        <v>169001332491.7596</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B282" t="n">
-        <v>1204895000000</v>
+        <v>1232347000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1402622904832036</v>
+        <v>0.1344122153821339</v>
       </c>
       <c r="D282" t="n">
-        <v>169001332491.7596</v>
+        <v>165642490389.5266</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B283" t="n">
-        <v>1232347000000</v>
+        <v>1269278000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1344122153821339</v>
+        <v>0.1281985539203118</v>
       </c>
       <c r="D283" t="n">
-        <v>165642490389.5266</v>
+        <v>162719604122.8655</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B284" t="n">
-        <v>1269278000000</v>
+        <v>1247684000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1281985539203118</v>
+        <v>0.1289357642022744</v>
       </c>
       <c r="D284" t="n">
-        <v>162719604122.8655</v>
+        <v>160871090022.9506</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B285" t="n">
-        <v>1247684000000</v>
+        <v>1234266000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1289357642022744</v>
+        <v>0.1323924642209365</v>
       </c>
       <c r="D285" t="n">
-        <v>160871090022.9506</v>
+        <v>163407517244.1184</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B286" t="n">
-        <v>1234266000000</v>
+        <v>1249624000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1323924642209365</v>
+        <v>0.1292473924338577</v>
       </c>
       <c r="D286" t="n">
-        <v>163407517244.1184</v>
+        <v>161510643522.7669</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B287" t="n">
-        <v>1249624000000</v>
+        <v>1278403000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1292473924338577</v>
+        <v>0.1257782529400667</v>
       </c>
       <c r="D287" t="n">
-        <v>161510643522.7669</v>
+        <v>160795295893.3401</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B288" t="n">
-        <v>1278403000000</v>
+        <v>1272808000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1257782529400667</v>
+        <v>0.1238114104595879</v>
       </c>
       <c r="D288" t="n">
-        <v>160795295893.3401</v>
+        <v>157588153724.2472</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B289" t="n">
-        <v>1272808000000</v>
+        <v>1296915000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.1238114104595879</v>
+        <v>0.1259763164525069</v>
       </c>
       <c r="D289" t="n">
-        <v>157588153724.2472</v>
+        <v>163380574452.003</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B290" t="n">
-        <v>1296915000000</v>
+        <v>1324312000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.1259763164525069</v>
+        <v>0.1317644578551382</v>
       </c>
       <c r="D290" t="n">
-        <v>163380574452.003</v>
+        <v>174497252711.0537</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B291" t="n">
-        <v>1324312000000</v>
+        <v>1316408000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.1317644578551382</v>
+        <v>0.1264254469139549</v>
       </c>
       <c r="D291" t="n">
-        <v>174497252711.0537</v>
+        <v>166427469721.1055</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B292" t="n">
-        <v>1316408000000</v>
+        <v>1312677000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.1264254469139549</v>
+        <v>0.1283219340681903</v>
       </c>
       <c r="D292" t="n">
-        <v>166427469721.1055</v>
+        <v>168445251446.8298</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B293" t="n">
-        <v>1312677000000</v>
+        <v>1338016000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.1283219340681903</v>
+        <v>0.1359748718436833</v>
       </c>
       <c r="D293" t="n">
-        <v>168445251446.8298</v>
+        <v>181936554124.7977</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B294" t="n">
-        <v>1338016000000</v>
+        <v>1326782000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.1359748718436833</v>
+        <v>0.1382781603473547</v>
       </c>
       <c r="D294" t="n">
-        <v>181936554124.7977</v>
+        <v>183464974141.984</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B295" t="n">
-        <v>1326782000000</v>
+        <v>1359775000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.1382781603473547</v>
+        <v>0.1389718859874647</v>
       </c>
       <c r="D295" t="n">
-        <v>183464974141.984</v>
+        <v>188970496268.6049</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B296" t="n">
-        <v>1359775000000</v>
+        <v>1350041000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1389718859874647</v>
+        <v>0.1387020264366062</v>
       </c>
       <c r="D296" t="n">
-        <v>188970496268.6049</v>
+        <v>187253422472.5023</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B297" t="n">
-        <v>1350041000000</v>
+        <v>1383208000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.1387020264366062</v>
+        <v>0.1380872158855533</v>
       </c>
       <c r="D297" t="n">
-        <v>187253422472.5023</v>
+        <v>191003341710.6244</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B298" t="n">
-        <v>1383208000000</v>
+        <v>1413386000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.1380872158855533</v>
+        <v>0.1365970932138564</v>
       </c>
       <c r="D298" t="n">
-        <v>191003341710.6244</v>
+        <v>193064419189.1596</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B299" t="n">
-        <v>1413386000000</v>
+        <v>1416864000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1365970932138564</v>
+        <v>0.1385367745868141</v>
       </c>
       <c r="D299" t="n">
-        <v>193064419189.1596</v>
+        <v>196287768588.1717</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B300" t="n">
-        <v>1416864000000</v>
+        <v>1430398000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.1385367745868141</v>
+        <v>0.1461112491050686</v>
       </c>
       <c r="D300" t="n">
-        <v>196287768588.1717</v>
+        <v>208997238497.3919</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B301" t="n">
-        <v>1430398000000</v>
+        <v>1468209000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1461112491050686</v>
+        <v>0.1461176539349484</v>
       </c>
       <c r="D301" t="n">
-        <v>208997238497.3919</v>
+        <v>214531254566.1767</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B302" t="n">
-        <v>1468209000000</v>
+        <v>1472034000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.1461176539349484</v>
+        <v>0.143959461015778</v>
       </c>
       <c r="D302" t="n">
-        <v>214531254566.1767</v>
+        <v>211913221236.8997</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B303" t="n">
-        <v>1472034000000</v>
+        <v>1457317000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.143959461015778</v>
+        <v>0.1430144587617808</v>
       </c>
       <c r="D303" t="n">
-        <v>211913221236.8997</v>
+        <v>208417401999.3421</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B304" t="n">
-        <v>1457317000000</v>
+        <v>1495732000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.1430144587617808</v>
+        <v>0.1433157532675992</v>
       </c>
       <c r="D304" t="n">
-        <v>208417401999.3421</v>
+        <v>214361958266.4527</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B305" t="n">
-        <v>1495732000000</v>
+        <v>1512648000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1433157532675992</v>
+        <v>0.1492604146454319</v>
       </c>
       <c r="D305" t="n">
-        <v>214361958266.4527</v>
+        <v>225778467692.5833</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B306" t="n">
-        <v>1512648000000</v>
+        <v>1502632000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.1492604146454319</v>
+        <v>0.1446215254678506</v>
       </c>
       <c r="D306" t="n">
-        <v>225778467692.5833</v>
+        <v>217312932056.8073</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B307" t="n">
-        <v>1502632000000</v>
+        <v>1564788000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.1446215254678506</v>
+        <v>0.1466383165921255</v>
       </c>
       <c r="D307" t="n">
-        <v>217312932056.8073</v>
+        <v>229457878143.5589</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B308" t="n">
-        <v>1564788000000</v>
+        <v>1528577000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.1466383165921255</v>
+        <v>0.1485530928753937</v>
       </c>
       <c r="D308" t="n">
-        <v>229457878143.5589</v>
+        <v>227074841048.1906</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B309" t="n">
-        <v>1528577000000</v>
+        <v>1562807000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1485530928753937</v>
+        <v>0.1451694853741743</v>
       </c>
       <c r="D309" t="n">
-        <v>227074841048.1906</v>
+        <v>226871887929.1573</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B310" t="n">
-        <v>1562807000000</v>
+        <v>1582639000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.1451694853741743</v>
+        <v>0.1554363876583508</v>
       </c>
       <c r="D310" t="n">
-        <v>226871887929.1573</v>
+        <v>245999689127.2246</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B311" t="n">
-        <v>1582639000000</v>
+        <v>1583783000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.1554363876583508</v>
+        <v>0.1575646803012637</v>
       </c>
       <c r="D311" t="n">
-        <v>245999689127.2246</v>
+        <v>249548262061.5763</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B312" t="n">
-        <v>1583783000000</v>
+        <v>1585362000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.1575646803012637</v>
+        <v>0.1565435190983093</v>
       </c>
       <c r="D312" t="n">
-        <v>249548262061.5763</v>
+        <v>248178146524.7339</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B313" t="n">
-        <v>1585362000000</v>
+        <v>1639424000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.1565435190983093</v>
+        <v>0.154640769492469</v>
       </c>
       <c r="D313" t="n">
-        <v>248178146524.7339</v>
+        <v>253521788884.4215</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B314" t="n">
-        <v>1639424000000</v>
+        <v>1647669000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.154640769492469</v>
+        <v>0.1570302440249992</v>
       </c>
       <c r="D314" t="n">
-        <v>253521788884.4215</v>
+        <v>258733865142.4264</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B315" t="n">
-        <v>1647669000000</v>
+        <v>1635309000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.1570302440249992</v>
+        <v>0.1623086786450471</v>
       </c>
       <c r="D315" t="n">
-        <v>258733865142.4264</v>
+        <v>265424842966.3534</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B316" t="n">
-        <v>1635309000000</v>
+        <v>1639881000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.1623086786450471</v>
+        <v>0.1681378730559059</v>
       </c>
       <c r="D316" t="n">
-        <v>265424842966.3534</v>
+        <v>275726103404.7919</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B317" t="n">
-        <v>1639881000000</v>
+        <v>1658874000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.1681378730559059</v>
+        <v>0.1671975187888212</v>
       </c>
       <c r="D317" t="n">
-        <v>275726103404.7919</v>
+        <v>277359616783.2869</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B318" t="n">
-        <v>1658874000000</v>
+        <v>1665238000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1671975187888212</v>
+        <v>0.1667261323205277</v>
       </c>
       <c r="D318" t="n">
-        <v>277359616783.2869</v>
+        <v>277638691133.1708</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B319" t="n">
-        <v>1665238000000</v>
+        <v>1681350000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1667261323205277</v>
+        <v>0.1664115023630433</v>
       </c>
       <c r="D319" t="n">
-        <v>277638691133.1708</v>
+        <v>279795979498.1029</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B320" t="n">
-        <v>1681350000000</v>
+        <v>1698412000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1664115023630433</v>
+        <v>0.1653493832468005</v>
       </c>
       <c r="D320" t="n">
-        <v>279795979498.1029</v>
+        <v>280831376698.965</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B321" t="n">
-        <v>1698412000000</v>
+        <v>1704771000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1653493832468005</v>
+        <v>0.1550724188195887</v>
       </c>
       <c r="D321" t="n">
-        <v>280831376698.965</v>
+        <v>264362962503.4891</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B322" t="n">
-        <v>1704771000000</v>
+        <v>1728656000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.1550724188195887</v>
+        <v>0.144654997830175</v>
       </c>
       <c r="D322" t="n">
-        <v>264362962503.4891</v>
+        <v>250058729929.119</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B323" t="n">
-        <v>1728656000000</v>
+        <v>1732394000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.144654997830175</v>
+        <v>0.1293440188738792</v>
       </c>
       <c r="D323" t="n">
-        <v>250058729929.119</v>
+        <v>224074802232.9951</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B324" t="n">
-        <v>1732394000000</v>
+        <v>1759008000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.1293440188738792</v>
+        <v>0.1236469927814886</v>
       </c>
       <c r="D324" t="n">
-        <v>224074802232.9951</v>
+        <v>217496049478.5806</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B325" t="n">
-        <v>1759008000000</v>
+        <v>1859493000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.1236469927814886</v>
+        <v>0.1276161306789178</v>
       </c>
       <c r="D325" t="n">
-        <v>217496049478.5806</v>
+        <v>237301301684.5329</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B326" t="n">
-        <v>1859493000000</v>
+        <v>1853010000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.1276161306789178</v>
+        <v>0.119624808749837</v>
       </c>
       <c r="D326" t="n">
-        <v>237301301684.5329</v>
+        <v>221665966861.5355</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B327" t="n">
-        <v>1853010000000</v>
+        <v>1806389000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.119624808749837</v>
+        <v>0.1111064199511576</v>
       </c>
       <c r="D327" t="n">
-        <v>221665966861.5355</v>
+        <v>200701414829.1517</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B328" t="n">
-        <v>1806389000000</v>
+        <v>1822861000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.1111064199511576</v>
+        <v>0.1213196177461484</v>
       </c>
       <c r="D328" t="n">
-        <v>200701414829.1517</v>
+        <v>221148799724.3618</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B329" t="n">
-        <v>1822861000000</v>
+        <v>1818228000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.1213196177461484</v>
+        <v>0.1243751702385143</v>
       </c>
       <c r="D329" t="n">
-        <v>221148799724.3618</v>
+        <v>226142417032.4333</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B330" t="n">
-        <v>1818228000000</v>
+        <v>1815725000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.1243751702385143</v>
+        <v>0.132173205054832</v>
       </c>
       <c r="D330" t="n">
-        <v>226142417032.4333</v>
+        <v>239990192748.1849</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B331" t="n">
-        <v>1815725000000</v>
+        <v>1844614000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.132173205054832</v>
+        <v>0.1299209171377383</v>
       </c>
       <c r="D331" t="n">
-        <v>239990192748.1849</v>
+        <v>239653942645.1119</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B332" t="n">
-        <v>1844614000000</v>
+        <v>1820464000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1299209171377383</v>
+        <v>0.1386699059956707</v>
       </c>
       <c r="D332" t="n">
-        <v>239653942645.1119</v>
+        <v>252443571748.5027</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B333" t="n">
-        <v>1820464000000</v>
+        <v>1841487000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.1386699059956707</v>
+        <v>0.1405700678531717</v>
       </c>
       <c r="D333" t="n">
-        <v>252443571748.5027</v>
+        <v>258857952540.7337</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B334" t="n">
-        <v>1841487000000</v>
+        <v>1841834000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.1405700678531717</v>
+        <v>0.1438230171480183</v>
       </c>
       <c r="D334" t="n">
-        <v>258857952540.7337</v>
+        <v>264898122965.8032</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B335" t="n">
-        <v>1841834000000</v>
+        <v>1844029000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1438230171480183</v>
+        <v>0.1410399439225183</v>
       </c>
       <c r="D335" t="n">
-        <v>264898122965.8032</v>
+        <v>260081746751.4975</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B336" t="n">
-        <v>1844029000000</v>
+        <v>1848196000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.1410399439225183</v>
+        <v>0.143480462982758</v>
       </c>
       <c r="D336" t="n">
-        <v>260081746751.4975</v>
+        <v>265180017762.8813</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B337" t="n">
-        <v>1848196000000</v>
+        <v>1911694000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.143480462982758</v>
+        <v>0.1398306092000151</v>
       </c>
       <c r="D337" t="n">
-        <v>265180017762.8813</v>
+        <v>267313336624.0137</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B338" t="n">
-        <v>1911694000000</v>
+        <v>1910380000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.1398306092000151</v>
+        <v>0.1353859650785442</v>
       </c>
       <c r="D338" t="n">
-        <v>267313336624.0137</v>
+        <v>258638639966.7492</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B339" t="n">
-        <v>1910380000000</v>
+        <v>1890845000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1353859650785442</v>
+        <v>0.1402801956628169</v>
       </c>
       <c r="D339" t="n">
-        <v>258638639966.7492</v>
+        <v>265248106568.0591</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B340" t="n">
-        <v>1890845000000</v>
+        <v>1897152000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.1402801956628169</v>
+        <v>0.1386214649793662</v>
       </c>
       <c r="D340" t="n">
-        <v>265248106568.0591</v>
+        <v>262985989528.5345</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B341" t="n">
-        <v>1897152000000</v>
+        <v>1904391000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.1386214649793662</v>
+        <v>0.1381253625790768</v>
       </c>
       <c r="D341" t="n">
-        <v>262985989528.5345</v>
+        <v>263044697367.3306</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B342" t="n">
-        <v>1904391000000</v>
+        <v>1888615000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.1381253625790768</v>
+        <v>0.1282692628365465</v>
       </c>
       <c r="D342" t="n">
-        <v>263044697367.3306</v>
+        <v>242251253832.0442</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B343" t="n">
-        <v>1888615000000</v>
+        <v>1923549000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.1282692628365465</v>
+        <v>0.1284615572366891</v>
       </c>
       <c r="D343" t="n">
-        <v>242251253832.0442</v>
+        <v>247102099961.0761</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B344" t="n">
-        <v>1923549000000</v>
+        <v>1932649000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.1284615572366891</v>
+        <v>0.1386097442650218</v>
       </c>
       <c r="D344" t="n">
-        <v>247102099961.0761</v>
+        <v>267883983644.0501</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B345" t="n">
-        <v>1932649000000</v>
+        <v>1915269000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.1386097442650218</v>
+        <v>0.135451799477156</v>
       </c>
       <c r="D345" t="n">
-        <v>267883983644.0501</v>
+        <v>259426632532.8132</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B346" t="n">
-        <v>1915269000000</v>
+        <v>1938219000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.135451799477156</v>
+        <v>0.1484208026597008</v>
       </c>
       <c r="D346" t="n">
-        <v>259426632532.8132</v>
+        <v>287672019710.2826</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B347" t="n">
-        <v>1938219000000</v>
+        <v>1967820000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1484208026597008</v>
+        <v>0.1496244426489511</v>
       </c>
       <c r="D347" t="n">
-        <v>287672019710.2826</v>
+        <v>294433970733.459</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B348" t="n">
-        <v>1967820000000</v>
+        <v>1963638000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.1496244426489511</v>
+        <v>0.1423305199333893</v>
       </c>
       <c r="D348" t="n">
-        <v>294433970733.459</v>
+        <v>279485617500.9608</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B349" t="n">
-        <v>1963638000000</v>
+        <v>2007359000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.1423305199333893</v>
+        <v>0.1486966736554103</v>
       </c>
       <c r="D349" t="n">
-        <v>279485617500.9608</v>
+        <v>298487606132.2508</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B350" t="n">
-        <v>2007359000000</v>
+        <v>2003040000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.1486966736554103</v>
+        <v>0.1551662606482846</v>
       </c>
       <c r="D350" t="n">
-        <v>298487606132.2508</v>
+        <v>310804226728.9401</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B351" t="n">
-        <v>2003040000000</v>
+        <v>1959126000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.1551662606482846</v>
+        <v>0.1582078217947095</v>
       </c>
       <c r="D351" t="n">
-        <v>310804226728.9401</v>
+        <v>309949057081.3821</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B352" t="n">
-        <v>1959126000000</v>
+        <v>1989081000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.1582078217947095</v>
+        <v>0.1581953079271669</v>
       </c>
       <c r="D352" t="n">
-        <v>309949057081.3821</v>
+        <v>314663281287.077</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B353" t="n">
-        <v>1989081000000</v>
+        <v>1982383000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.1581953079271669</v>
+        <v>0.1655738790648387</v>
       </c>
       <c r="D353" t="n">
-        <v>314663281287.077</v>
+        <v>328230843102.1922</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B354" t="n">
-        <v>1982383000000</v>
+        <v>1960772000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.1655738790648387</v>
+        <v>0.1621349935956677</v>
       </c>
       <c r="D354" t="n">
-        <v>328230843102.1922</v>
+        <v>317909755662.5646</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B355" t="n">
-        <v>1960772000000</v>
+        <v>2011341000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.1621349935956677</v>
+        <v>0.1580902695439096</v>
       </c>
       <c r="D355" t="n">
-        <v>317909755662.5646</v>
+        <v>317973440834.7166</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B356" t="n">
-        <v>2011341000000</v>
+        <v>1989856000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.1580902695439096</v>
+        <v>0.1591723040191007</v>
       </c>
       <c r="D356" t="n">
-        <v>317973440834.7166</v>
+        <v>316729964186.2316</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B357" t="n">
-        <v>1989856000000</v>
+        <v>2016768000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.1591723040191007</v>
+        <v>0.1576988582602662</v>
       </c>
       <c r="D357" t="n">
-        <v>316729964186.2316</v>
+        <v>318042010975.8405</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B358" t="n">
-        <v>2016768000000</v>
+        <v>2064662000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.1576988582602662</v>
+        <v>0.1457109968089292</v>
       </c>
       <c r="D358" t="n">
-        <v>318042010975.8405</v>
+        <v>300843958093.5173</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B359" t="n">
-        <v>2064662000000</v>
+        <v>2075646000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.1457109968089292</v>
+        <v>0.1537893700787402</v>
       </c>
       <c r="D359" t="n">
-        <v>300843958093.5173</v>
+        <v>319212290846.4567</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B360" t="n">
-        <v>2075646000000</v>
+        <v>2079009000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.1537893700787402</v>
+        <v>0.1479246176148635</v>
       </c>
       <c r="D360" t="n">
-        <v>319212290846.4567</v>
+        <v>307536611342.8597</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B361" t="n">
-        <v>2079009000000</v>
+        <v>2131071000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.1479246176148635</v>
+        <v>0.1455116918644413</v>
       </c>
       <c r="D361" t="n">
-        <v>307536611342.8597</v>
+        <v>310095746693.2468</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B362" t="n">
-        <v>2131071000000</v>
+        <v>2178811000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.1455116918644413</v>
+        <v>0.1471085808435206</v>
       </c>
       <c r="D362" t="n">
-        <v>310095746693.2468</v>
+        <v>320521794136.252</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B363" t="n">
-        <v>2178811000000</v>
+        <v>2152416000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.1471085808435206</v>
+        <v>0.1511053355293976</v>
       </c>
       <c r="D363" t="n">
-        <v>320521794136.252</v>
+        <v>325241541878.8438</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B364" t="n">
-        <v>2152416000000</v>
+        <v>2167952000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.1511053355293976</v>
+        <v>0.1514440187184807</v>
       </c>
       <c r="D364" t="n">
-        <v>325241541878.8438</v>
+        <v>328323363268.7677</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B365" t="n">
-        <v>2167952000000</v>
+        <v>2145844000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.1514440187184807</v>
+        <v>0.1487984524960941</v>
       </c>
       <c r="D365" t="n">
-        <v>328323363268.7677</v>
+        <v>319298266498.0285</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B366" t="n">
-        <v>2145844000000</v>
+        <v>2105771000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.1487984524960941</v>
+        <v>0.1376329878745338</v>
       </c>
       <c r="D366" t="n">
-        <v>319298266498.0285</v>
+        <v>289823554509.5449</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B367" t="n">
-        <v>2105771000000</v>
+        <v>2167991000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.1376329878745338</v>
+        <v>0.1446926727630513</v>
       </c>
       <c r="D367" t="n">
-        <v>289823554509.5449</v>
+        <v>313692412316.2403</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B368" t="n">
-        <v>2167991000000</v>
+        <v>2146292000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.1446926727630513</v>
+        <v>0.1471475448432143</v>
       </c>
       <c r="D368" t="n">
-        <v>313692412316.2403</v>
+        <v>315821598316.6321</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B369" t="n">
-        <v>2146292000000</v>
+        <v>2154752000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.1471475448432143</v>
+        <v>0.151014059408931</v>
       </c>
       <c r="D369" t="n">
-        <v>315821598316.6321</v>
+        <v>325397846539.5128</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B370" t="n">
-        <v>2154752000000</v>
+        <v>2219458000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.151014059408931</v>
+        <v>0.1523855965134176</v>
       </c>
       <c r="D370" t="n">
-        <v>325397846539.5128</v>
+        <v>338213431266.4767</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B371" t="n">
-        <v>2219458000000</v>
+        <v>2207863000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.1523855965134176</v>
+        <v>0.1507454361819196</v>
       </c>
       <c r="D371" t="n">
-        <v>338213431266.4767</v>
+        <v>332825270964.9216</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B372" t="n">
-        <v>2207863000000</v>
+        <v>2193213000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.1507454361819196</v>
+        <v>0.1501742772487472</v>
       </c>
       <c r="D372" t="n">
-        <v>332825270964.9216</v>
+        <v>329364177127.5566</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B373" t="n">
-        <v>2193213000000</v>
+        <v>2258026000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.1501742772487472</v>
+        <v>0.1536759282026063</v>
       </c>
       <c r="D373" t="n">
-        <v>329364177127.5566</v>
+        <v>347004241455.6184</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B374" t="n">
-        <v>2258026000000</v>
+        <v>2253474000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.1536759282026063</v>
+        <v>0.1572067504578647</v>
       </c>
       <c r="D374" t="n">
-        <v>347004241455.6184</v>
+        <v>354261324781.2861</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B375" t="n">
-        <v>2253474000000</v>
+        <v>2212071000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.1572067504578647</v>
+        <v>0.154719725217768</v>
       </c>
       <c r="D375" t="n">
-        <v>354261324781.2861</v>
+        <v>342251017282.1933</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B376" t="n">
-        <v>2212071000000</v>
+        <v>2270214000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.154719725217768</v>
+        <v>0.1534942976868409</v>
       </c>
       <c r="D376" t="n">
-        <v>342251017282.1933</v>
+        <v>348464903528.8339</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B377" t="n">
-        <v>2270214000000</v>
+        <v>2245340000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.1534942976868409</v>
+        <v>0.1543066999969139</v>
       </c>
       <c r="D377" t="n">
-        <v>348464903528.8339</v>
+        <v>346471005771.0706</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B378" t="n">
-        <v>2245340000000</v>
+        <v>2229984000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.1543066999969139</v>
+        <v>0.1512401693889897</v>
       </c>
       <c r="D378" t="n">
-        <v>346471005771.0706</v>
+        <v>337263157894.7368</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B379" t="n">
-        <v>2229984000000</v>
+        <v>2268611000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.1512401693889897</v>
+        <v>0.149438857091621</v>
       </c>
       <c r="D379" t="n">
-        <v>337263157894.7368</v>
+        <v>339018635025.4793</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B380" t="n">
-        <v>2268611000000</v>
+        <v>2249293000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.149438857091621</v>
+        <v>0.1535529857610316</v>
       </c>
       <c r="D380" t="n">
-        <v>339018635025.4793</v>
+        <v>345385656001.3881</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B381" t="n">
-        <v>2249293000000</v>
+        <v>2260894000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.1535529857610316</v>
+        <v>0.1511823213440713</v>
       </c>
       <c r="D381" t="n">
-        <v>345385656001.3881</v>
+        <v>341807203232.8828</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B382" t="n">
-        <v>2260894000000</v>
+        <v>2293914000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.1511823213440713</v>
+        <v>0.1555984315678098</v>
       </c>
       <c r="D382" t="n">
-        <v>341807203232.8828</v>
+        <v>356929420551.4409</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B383" t="n">
-        <v>2293914000000</v>
+        <v>2315736000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.1555984315678098</v>
+        <v>0.1543019380323417</v>
       </c>
       <c r="D383" t="n">
-        <v>356929420551.4409</v>
+        <v>357322552771.2628</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B384" t="n">
-        <v>2315736000000</v>
+        <v>2335920000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.1543019380323417</v>
+        <v>0.1527734491967172</v>
       </c>
       <c r="D384" t="n">
-        <v>357322552771.2628</v>
+        <v>356866555447.5956</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B385" t="n">
-        <v>2335920000000</v>
+        <v>2387438000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.1527734491967172</v>
+        <v>0.1556587400047632</v>
       </c>
       <c r="D385" t="n">
-        <v>356866555447.5956</v>
+        <v>371625590919.4918</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B386" t="n">
-        <v>2387438000000</v>
+        <v>2377887000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.1556587400047632</v>
+        <v>0.1530158662151679</v>
       </c>
       <c r="D386" t="n">
-        <v>371625590919.4918</v>
+        <v>363854439066.7869</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B387" t="n">
-        <v>2377887000000</v>
+        <v>2355583000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.1530158662151679</v>
+        <v>0.1562424320071996</v>
       </c>
       <c r="D387" t="n">
-        <v>363854439066.7869</v>
+        <v>368042016714.8154</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B388" t="n">
-        <v>2355583000000</v>
+        <v>2361204000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.1562424320071996</v>
+        <v>0.1546677967727018</v>
       </c>
       <c r="D388" t="n">
-        <v>368042016714.8154</v>
+        <v>365202220410.8905</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B389" t="n">
-        <v>2361204000000</v>
+        <v>2362905000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.1546677967727018</v>
+        <v>0.1538702996470215</v>
       </c>
       <c r="D389" t="n">
-        <v>365202220410.8905</v>
+        <v>363580900387.4454</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B390" t="n">
-        <v>2362905000000</v>
+        <v>2377199000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.1538702996470215</v>
+        <v>0.1496909630068723</v>
       </c>
       <c r="D390" t="n">
-        <v>363580900387.4454</v>
+        <v>355845207568.9739</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B391" t="n">
-        <v>2377199000000</v>
+        <v>2423708000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.1496909630068723</v>
+        <v>0.1497037363058507</v>
       </c>
       <c r="D391" t="n">
-        <v>355845207568.9739</v>
+        <v>362838143314.3809</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B392" t="n">
-        <v>2423708000000</v>
+        <v>2400777000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.1497037363058507</v>
+        <v>0.1449863712810996</v>
       </c>
       <c r="D392" t="n">
-        <v>362838143314.3809</v>
+        <v>348079945485.1245</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B393" t="n">
-        <v>2400777000000</v>
+        <v>2412498000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.1449863712810996</v>
+        <v>0.1430778916041893</v>
       </c>
       <c r="D393" t="n">
-        <v>348079945485.1245</v>
+        <v>345175127339.3235</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B394" t="n">
-        <v>2412498000000</v>
+        <v>2432652000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.1430778916041893</v>
+        <v>0.1386462579374983</v>
       </c>
       <c r="D394" t="n">
-        <v>345175127339.3235</v>
+        <v>337278096664.171</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B395" t="n">
-        <v>2432652000000</v>
+        <v>2451122000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.1386462579374983</v>
+        <v>0.1353344791652569</v>
       </c>
       <c r="D395" t="n">
-        <v>337278096664.171</v>
+        <v>331721319240.5029</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B396" t="n">
-        <v>2451122000000</v>
+        <v>2467099000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.1353344791652569</v>
+        <v>0.1342894743909972</v>
       </c>
       <c r="D396" t="n">
-        <v>331721319240.5029</v>
+        <v>331305427980.5549</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B397" t="n">
-        <v>2467099000000</v>
+        <v>2522075000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.1342894743909972</v>
+        <v>0.128498863427553</v>
       </c>
       <c r="D397" t="n">
-        <v>331305427980.5549</v>
+        <v>324083770979.0457</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B398" t="n">
-        <v>2522075000000</v>
+        <v>2507795000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.128498863427553</v>
+        <v>0.1210321134506619</v>
       </c>
       <c r="D398" t="n">
-        <v>324083770979.0457</v>
+        <v>303523728951.0026</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B399" t="n">
-        <v>2507795000000</v>
+        <v>2509859000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.1210321134506619</v>
+        <v>0.1199688081098914</v>
       </c>
       <c r="D399" t="n">
-        <v>303523728951.0026</v>
+        <v>301104792753.884</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B400" t="n">
-        <v>2509859000000</v>
+        <v>2548335000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.1199688081098914</v>
+        <v>0.1159339640140976</v>
       </c>
       <c r="D400" t="n">
-        <v>301104792753.884</v>
+        <v>295438578185.8654</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B401" t="n">
-        <v>2548335000000</v>
+        <v>2546771000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.1159339640140976</v>
+        <v>0.1200768491834774</v>
       </c>
       <c r="D401" t="n">
-        <v>295438578185.8654</v>
+        <v>305808237271.854</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B402" t="n">
-        <v>2546771000000</v>
+        <v>2580783000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.1200768491834774</v>
+        <v>0.117470162578705</v>
       </c>
       <c r="D402" t="n">
-        <v>305808237271.854</v>
+        <v>303164998590.358</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B403" t="n">
-        <v>2580783000000</v>
+        <v>2638101000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.117470162578705</v>
+        <v>0.1207773228498617</v>
       </c>
       <c r="D403" t="n">
-        <v>303164998590.358</v>
+        <v>318622776187.543</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B404" t="n">
-        <v>2638101000000</v>
+        <v>2617231000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.1207773228498617</v>
+        <v>0.1159931332065142</v>
       </c>
       <c r="D404" t="n">
-        <v>318622776187.543</v>
+        <v>303580824015.2183</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B405" t="n">
-        <v>2617231000000</v>
+        <v>2619938000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.1159931332065142</v>
+        <v>0.1180902445648965</v>
       </c>
       <c r="D405" t="n">
-        <v>303580824015.2183</v>
+        <v>309389119164.8658</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B406" t="n">
-        <v>2619938000000</v>
+        <v>2640658000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.1180902445648965</v>
+        <v>0.1195114372445443</v>
       </c>
       <c r="D406" t="n">
-        <v>309389119164.8658</v>
+        <v>315588832851.3038</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B407" t="n">
-        <v>2640658000000</v>
+        <v>2675262000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.1195114372445443</v>
+        <v>0.1172016923924382</v>
       </c>
       <c r="D407" t="n">
-        <v>315588832851.3038</v>
+        <v>313545233993.1789</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B408" t="n">
-        <v>2675262000000</v>
+        <v>2694519000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.1172016923924382</v>
+        <v>0.1146434016990152</v>
       </c>
       <c r="D408" t="n">
-        <v>313545233993.1789</v>
+        <v>308908824102.6288</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B409" t="n">
-        <v>2694519000000</v>
+        <v>2728918000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.1146434016990152</v>
+        <v>0.1183544004166075</v>
       </c>
       <c r="D409" t="n">
-        <v>308908824102.6288</v>
+        <v>322979453676.0877</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B410" t="n">
-        <v>2728918000000</v>
+        <v>2748884000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.1183544004166075</v>
+        <v>0.1166480029861889</v>
       </c>
       <c r="D410" t="n">
-        <v>322979453676.0877</v>
+        <v>320651829040.6869</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B411" t="n">
-        <v>2748884000000</v>
+        <v>2732370000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.1166480029861889</v>
+        <v>0.1167624118443791</v>
       </c>
       <c r="D411" t="n">
-        <v>320651829040.6869</v>
+        <v>319038111251.226</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B412" t="n">
-        <v>2732370000000</v>
+        <v>2766495000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.1167624118443791</v>
+        <v>0.1233410627065963</v>
       </c>
       <c r="D412" t="n">
-        <v>319038111251.226</v>
+        <v>341222433272.4851</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B413" t="n">
-        <v>2766495000000</v>
+        <v>2781493000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.1233410627065963</v>
+        <v>0.1246665170668462</v>
       </c>
       <c r="D413" t="n">
-        <v>341222433272.4851</v>
+        <v>346759044555.8132</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B414" t="n">
-        <v>2781493000000</v>
+        <v>2776382000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.1246665170668462</v>
+        <v>0.1200364910932924</v>
       </c>
       <c r="D414" t="n">
-        <v>346759044555.8132</v>
+        <v>333267153214.5772</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B415" t="n">
-        <v>2776382000000</v>
+        <v>2814128000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.1200364910932924</v>
+        <v>0.1183986815122827</v>
       </c>
       <c r="D415" t="n">
-        <v>333267153214.5772</v>
+        <v>333189044806.7971</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B416" t="n">
-        <v>2814128000000</v>
+        <v>2841544000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.1183986815122827</v>
+        <v>0.1168770453482936</v>
       </c>
       <c r="D416" t="n">
-        <v>333189044806.7971</v>
+        <v>332111266947.1716</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B417" t="n">
-        <v>2841544000000</v>
+        <v>2842117000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.1168770453482936</v>
+        <v>0.1169809555004445</v>
       </c>
       <c r="D417" t="n">
-        <v>332111266947.1716</v>
+        <v>332473562304.0569</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B418" t="n">
-        <v>2842117000000</v>
+        <v>2867299000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.1169809555004445</v>
+        <v>0.1168027808406063</v>
       </c>
       <c r="D418" t="n">
-        <v>332473562304.0569</v>
+        <v>334908496701.4895</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B419" t="n">
-        <v>2867299000000</v>
+        <v>2883246000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.1168027808406063</v>
+        <v>0.1107444240182507</v>
       </c>
       <c r="D419" t="n">
-        <v>334908496701.4895</v>
+        <v>319303417572.9252</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B420" t="n">
-        <v>2883246000000</v>
+        <v>2903568000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.1107444240182507</v>
+        <v>0.1083529271543271</v>
       </c>
       <c r="D420" t="n">
-        <v>319303417572.9252</v>
+        <v>314610091991.6351</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B421" t="n">
-        <v>2903568000000</v>
+        <v>2917782000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.1083529271543271</v>
+        <v>0.1100291577267976</v>
       </c>
       <c r="D421" t="n">
-        <v>314610091991.6351</v>
+        <v>321041095890.411</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B422" t="n">
-        <v>2917782000000</v>
+        <v>2960969000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.1100291577267976</v>
+        <v>0.1144007687731662</v>
       </c>
       <c r="D422" t="n">
-        <v>321041095890.411</v>
+        <v>338737129913.5131</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B423" t="n">
-        <v>2960969000000</v>
+        <v>2944067000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.1144007687731662</v>
+        <v>0.1106659879152741</v>
       </c>
       <c r="D423" t="n">
-        <v>338737129913.5131</v>
+        <v>325808083043.7574</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B424" t="n">
-        <v>2944067000000</v>
+        <v>3031836000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.1106659879152741</v>
+        <v>0.1116937803318422</v>
       </c>
       <c r="D424" t="n">
-        <v>325808083043.7574</v>
+        <v>338637224186.1712</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B425" t="n">
-        <v>3031836000000</v>
+        <v>3027781000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.1116937803318422</v>
+        <v>0.1130142714421977</v>
       </c>
       <c r="D425" t="n">
-        <v>338637224186.1712</v>
+        <v>342182463801.5289</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B426" t="n">
-        <v>3027781000000</v>
+        <v>3030922000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.1130142714421977</v>
+        <v>0.1150755931571449</v>
       </c>
       <c r="D426" t="n">
-        <v>342182463801.5289</v>
+        <v>348785146963.04</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B427" t="n">
-        <v>3030922000000</v>
+        <v>3085090000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.1150755931571449</v>
+        <v>0.1187391798922323</v>
       </c>
       <c r="D427" t="n">
-        <v>348785146963.04</v>
+        <v>366321056493.727</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B428" t="n">
-        <v>3085090000000</v>
+        <v>3089508000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.1187391798922323</v>
+        <v>0.1239736531192391</v>
       </c>
       <c r="D428" t="n">
-        <v>366321056493.727</v>
+        <v>383017593101.1142</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B429" t="n">
-        <v>3089508000000</v>
+        <v>3083488000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.1239736531192391</v>
+        <v>0.1259969508737888</v>
       </c>
       <c r="D429" t="n">
-        <v>383017593101.1142</v>
+        <v>388510086055.9174</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B430" t="n">
-        <v>3083488000000</v>
+        <v>3119085000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.1259969508737888</v>
+        <v>0.1228839385776921</v>
       </c>
       <c r="D430" t="n">
-        <v>388510086055.9174</v>
+        <v>383285449558.6009</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B431" t="n">
-        <v>3119085000000</v>
+        <v>3125689000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.1228839385776921</v>
+        <v>0.1193915805057427</v>
       </c>
       <c r="D431" t="n">
-        <v>383285449558.6009</v>
+        <v>373180949879.4145</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B432" t="n">
-        <v>3125689000000</v>
+        <v>3141177000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.1193915805057427</v>
+        <v>0.1194243745148385</v>
       </c>
       <c r="D432" t="n">
-        <v>373180949879.4145</v>
+        <v>375133098465.3968</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B433" t="n">
-        <v>3141177000000</v>
+        <v>3130303000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.1194243745148385</v>
+        <v>0.1221509810556043</v>
       </c>
       <c r="D433" t="n">
-        <v>375133098465.3968</v>
+        <v>382369582451.3014</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B434" t="n">
-        <v>3130303000000</v>
+        <v>3190477000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.1221509810556043</v>
+        <v>0.1270378458446556</v>
       </c>
       <c r="D434" t="n">
-        <v>382369582451.3014</v>
+        <v>405311325296.9192</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B435" t="n">
-        <v>3190477000000</v>
+        <v>3172864000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.1270378458446556</v>
+        <v>0.1206549148779576</v>
       </c>
       <c r="D435" t="n">
-        <v>405311325296.9192</v>
+        <v>382821635839.3359</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B436" t="n">
-        <v>3172864000000</v>
+        <v>3220531000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.1206549148779576</v>
+        <v>0.1199947202323098</v>
       </c>
       <c r="D436" t="n">
-        <v>382821635839.3359</v>
+        <v>386446716344.4808</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B437" t="n">
-        <v>3220531000000</v>
+        <v>3239383000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.1199947202323098</v>
+        <v>0.1143929167905923</v>
       </c>
       <c r="D437" t="n">
-        <v>386446716344.4808</v>
+        <v>370562469971.8594</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B438" t="n">
-        <v>3239383000000</v>
+        <v>3221827000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.1143929167905923</v>
+        <v>0.1135460429204042</v>
       </c>
       <c r="D438" t="n">
-        <v>370562469971.8594</v>
+        <v>365825706824.1172</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B439" t="n">
-        <v>3221827000000</v>
+        <v>3298888000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.1135460429204042</v>
+        <v>0.1118293037507549</v>
       </c>
       <c r="D439" t="n">
-        <v>365825706824.1172</v>
+        <v>368912348191.7202</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B440" t="n">
-        <v>3298888000000</v>
+        <v>3268769000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.1118293037507549</v>
+        <v>0.1137732794351384</v>
       </c>
       <c r="D440" t="n">
-        <v>368912348191.7202</v>
+        <v>371898568845.918</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B441" t="n">
-        <v>3268769000000</v>
+        <v>3267031000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.1137732794351384</v>
+        <v>0.1094730296770436</v>
       </c>
       <c r="D441" t="n">
-        <v>371898568845.918</v>
+        <v>357651781618.8215</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B442" t="n">
-        <v>3267031000000</v>
+        <v>3303322000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.1094730296770436</v>
+        <v>0.112585100262661</v>
       </c>
       <c r="D442" t="n">
-        <v>357651781618.8215</v>
+        <v>371904838569.854</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B443" t="n">
-        <v>3303322000000</v>
+        <v>3296521000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.112585100262661</v>
+        <v>0.1091656577940459</v>
       </c>
       <c r="D443" t="n">
-        <v>371904838569.854</v>
+        <v>359866883396.886</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B444" t="n">
-        <v>3296521000000</v>
+        <v>3348953000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.1091656577940459</v>
+        <v>0.1099589852984837</v>
       </c>
       <c r="D444" t="n">
-        <v>359866883396.886</v>
+        <v>368247473692.3127</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B445" t="n">
-        <v>3348953000000</v>
+        <v>3341036000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.1099589852984837</v>
+        <v>0.1126812618949157</v>
       </c>
       <c r="D445" t="n">
-        <v>368247473692.3127</v>
+        <v>376472152516.3416</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B446" t="n">
-        <v>3341036000000</v>
+        <v>3386768000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.1126812618949157</v>
+        <v>0.1106084571226316</v>
       </c>
       <c r="D446" t="n">
-        <v>376472152516.3416</v>
+        <v>374605183112.3008</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B447" t="n">
-        <v>3386768000000</v>
+        <v>3383263000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.1106084571226316</v>
+        <v>0.1083423618634886</v>
       </c>
       <c r="D447" t="n">
-        <v>374605183112.3008</v>
+        <v>366550704225.3521</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B448" t="n">
-        <v>3383263000000</v>
+        <v>3420052000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.1083423618634886</v>
+        <v>0.1075615790039798</v>
       </c>
       <c r="D448" t="n">
-        <v>366550704225.3521</v>
+        <v>367866193395.719</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B449" t="n">
-        <v>3420052000000</v>
+        <v>3410442000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.1075615790039798</v>
+        <v>0.1054874575412983</v>
       </c>
       <c r="D449" t="n">
-        <v>367866193395.719</v>
+        <v>359758855672.0606</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B450" t="n">
-        <v>3410442000000</v>
+        <v>3433707000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.1054874575412983</v>
+        <v>0.105400955775867</v>
       </c>
       <c r="D450" t="n">
-        <v>359758855672.0606</v>
+        <v>361915999654.2849</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B451" t="n">
-        <v>3433707000000</v>
+        <v>3507874000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.105400955775867</v>
+        <v>0.1077916086388507</v>
       </c>
       <c r="D451" t="n">
-        <v>361915999654.2849</v>
+        <v>378119381362.3997</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B452" t="n">
-        <v>3507874000000</v>
+        <v>3509682000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.1077916086388507</v>
+        <v>0.1035518276897587</v>
       </c>
       <c r="D452" t="n">
-        <v>378119381362.3997</v>
+        <v>363433985709.8478</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B453" t="n">
-        <v>3509682000000</v>
+        <v>3504689000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.1035518276897587</v>
+        <v>0.1019129052311894</v>
       </c>
       <c r="D453" t="n">
-        <v>363433985709.8478</v>
+        <v>357173037921.7921</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B454" t="n">
-        <v>3504689000000</v>
+        <v>3561868000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.1019129052311894</v>
+        <v>0.1016824376127404</v>
       </c>
       <c r="D454" t="n">
-        <v>357173037921.7921</v>
+        <v>362179420694.8164</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B455" t="n">
-        <v>3561868000000</v>
+        <v>3593417000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.1016824376127404</v>
+        <v>0.1036780836972434</v>
       </c>
       <c r="D455" t="n">
-        <v>362179420694.8164</v>
+        <v>372558588485.0974</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B456" t="n">
-        <v>3593417000000</v>
+        <v>3599353000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.1036780836972434</v>
+        <v>0.1045032542313368</v>
       </c>
       <c r="D456" t="n">
-        <v>372558588485.0974</v>
+        <v>376144101627.3247</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B457" t="n">
-        <v>3599353000000</v>
+        <v>3579821000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.1045032542313368</v>
+        <v>0.1067489914889029</v>
       </c>
       <c r="D457" t="n">
-        <v>376144101627.3247</v>
+        <v>382142281460.7959</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B458" t="n">
-        <v>3579821000000</v>
+        <v>3624226000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.1067489914889029</v>
+        <v>0.1039199649997558</v>
       </c>
       <c r="D458" t="n">
-        <v>382142281460.7959</v>
+        <v>376629439071.2049</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B459" t="n">
-        <v>3624226000000</v>
+        <v>3600782000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.1039199649997558</v>
+        <v>0.1041575528807896</v>
       </c>
       <c r="D459" t="n">
-        <v>376629439071.2049</v>
+        <v>375048641577.1953</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B460" t="n">
-        <v>3600782000000</v>
+        <v>3834576000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.1041575528807896</v>
+        <v>0.1012330181612035</v>
       </c>
       <c r="D460" t="n">
-        <v>375048641577.1953</v>
+        <v>388185701848.515</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B461" t="n">
-        <v>3834576000000</v>
+        <v>3900996000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.1012330181612035</v>
+        <v>0.1026061974143238</v>
       </c>
       <c r="D461" t="n">
-        <v>388185701848.515</v>
+        <v>400266365688.4875</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B462" t="n">
-        <v>3900996000000</v>
+        <v>3963829000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.1026061974143238</v>
+        <v>0.1062992962986585</v>
       </c>
       <c r="D462" t="n">
-        <v>400266365688.4875</v>
+        <v>421352233348.2153</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B463" t="n">
-        <v>3963829000000</v>
+        <v>4054589000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.1062992962986585</v>
+        <v>0.1073675621121347</v>
       </c>
       <c r="D463" t="n">
-        <v>421352233348.2153</v>
+        <v>435331336296.678</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B464" t="n">
-        <v>4054589000000</v>
+        <v>4104968000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.1073675621121347</v>
+        <v>0.1140038966531876</v>
       </c>
       <c r="D464" t="n">
-        <v>435331336296.678</v>
+        <v>467982347636.6422</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B465" t="n">
-        <v>4104968000000</v>
+        <v>4086280000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.1140038966531876</v>
+        <v>0.1157903268760928</v>
       </c>
       <c r="D465" t="n">
-        <v>467982347636.6422</v>
+        <v>473151696907.2404</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B466" t="n">
-        <v>4086280000000</v>
+        <v>4084505000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.1157903268760928</v>
+        <v>0.1116781881330757</v>
       </c>
       <c r="D466" t="n">
-        <v>473151696907.2404</v>
+        <v>456150117820.4885</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B467" t="n">
-        <v>4084505000000</v>
+        <v>4130997000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.1116781881330757</v>
+        <v>0.1125626692661139</v>
       </c>
       <c r="D467" t="n">
-        <v>456150117820.4885</v>
+        <v>464996049050.3088</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B468" t="n">
-        <v>4130997000000</v>
+        <v>4194139000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.1125626692661139</v>
+        <v>0.1168879745651767</v>
       </c>
       <c r="D468" t="n">
-        <v>464996049050.3088</v>
+        <v>490244412754.8158</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B469" t="n">
-        <v>4194139000000</v>
+        <v>4241163000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.1168879745651767</v>
+        <v>0.1216820351077008</v>
       </c>
       <c r="D469" t="n">
-        <v>490244412754.8158</v>
+        <v>516073345063.4815</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B470" t="n">
-        <v>4241163000000</v>
+        <v>4262410000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.1216820351077008</v>
+        <v>0.1199184554502938</v>
       </c>
       <c r="D470" t="n">
-        <v>516073345063.4815</v>
+        <v>511141623695.8868</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B471" t="n">
-        <v>4262410000000</v>
+        <v>4298127000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.1199184554502938</v>
+        <v>0.1186127057930446</v>
       </c>
       <c r="D471" t="n">
-        <v>511141623695.8868</v>
+        <v>509812473312.1412</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B472" t="n">
-        <v>4298127000000</v>
+        <v>4336988000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.1186127057930446</v>
+        <v>0.1145869141744013</v>
       </c>
       <c r="D472" t="n">
-        <v>509812473312.1412</v>
+        <v>496962071731.4083</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B473" t="n">
-        <v>4336988000000</v>
+        <v>4376563000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.1145869141744013</v>
+        <v>0.1182385296802357</v>
       </c>
       <c r="D473" t="n">
-        <v>496962071731.4083</v>
+        <v>517478374172.9214</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B474" t="n">
-        <v>4376563000000</v>
+        <v>4420366000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.1182385296802357</v>
+        <v>0.1205865328960062</v>
       </c>
       <c r="D474" t="n">
-        <v>517478374172.9214</v>
+        <v>533036610071.3873</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B475" t="n">
-        <v>4420366000000</v>
+        <v>4539396000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.1205865328960062</v>
+        <v>0.1170891633979275</v>
       </c>
       <c r="D475" t="n">
-        <v>533036610071.3873</v>
+        <v>531514079971.8986</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B476" t="n">
-        <v>4539396000000</v>
+        <v>4517677000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.1170891633979275</v>
+        <v>0.1165664195458572</v>
       </c>
       <c r="D476" t="n">
-        <v>531514079971.8986</v>
+        <v>526609432554.6697</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B477" t="n">
-        <v>4517677000000</v>
+        <v>4525957000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.1165664195458572</v>
+        <v>0.1160321641158929</v>
       </c>
       <c r="D477" t="n">
-        <v>526609432554.6697</v>
+        <v>525156585405.4744</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B478" t="n">
-        <v>4525957000000</v>
+        <v>4620809000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.1160321641158929</v>
+        <v>0.1142422369543934</v>
       </c>
       <c r="D478" t="n">
-        <v>525156585405.4744</v>
+        <v>527891556698.9934</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B479" t="n">
-        <v>4620809000000</v>
+        <v>4671069000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.1142422369543934</v>
+        <v>0.1165729420212816</v>
       </c>
       <c r="D479" t="n">
-        <v>527891556698.9934</v>
+        <v>544520255714.4056</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B480" t="n">
-        <v>4671069000000</v>
+        <v>4727294000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.1165729420212816</v>
+        <v>0.110870890847608</v>
       </c>
       <c r="D480" t="n">
-        <v>544520255714.4056</v>
+        <v>524119297078.552</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B481" t="n">
-        <v>4727294000000</v>
+        <v>4705000000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.110870890847608</v>
+        <v>0.1106413769983216</v>
       </c>
       <c r="D481" t="n">
-        <v>524119297078.552</v>
+        <v>520567678777.103</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B482" t="n">
-        <v>4705000000000</v>
+        <v>4752338000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.1106413769983216</v>
+        <v>0.1073687149038513</v>
       </c>
       <c r="D482" t="n">
-        <v>520567678777.103</v>
+        <v>510252423848.7389</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B483" t="n">
-        <v>4752338000000</v>
+        <v>4755744000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.1073687149038513</v>
+        <v>0.1058413860987923</v>
       </c>
       <c r="D483" t="n">
-        <v>510252423848.7389</v>
+        <v>503354536891.0151</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B484" t="n">
-        <v>4755744000000</v>
+        <v>4838594000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.1058413860987923</v>
+        <v>0.1065178257581406</v>
       </c>
       <c r="D484" t="n">
-        <v>503354536891.0151</v>
+        <v>515396512606.3847</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B485" t="n">
-        <v>4838594000000</v>
+        <v>4861961000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.1065178257581406</v>
+        <v>0.1019087509044402</v>
       </c>
       <c r="D485" t="n">
-        <v>515396512606.3847</v>
+        <v>495476372456.1028</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B486" t="n">
-        <v>4861961000000</v>
+        <v>4868193000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.1019087509044402</v>
+        <v>0.1025885133693351</v>
       </c>
       <c r="D486" t="n">
-        <v>495476372456.1028</v>
+        <v>499420682665.0034</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B487" t="n">
-        <v>4868193000000</v>
+        <v>4981498000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.1025885133693351</v>
+        <v>0.09788375325463479</v>
       </c>
       <c r="D487" t="n">
-        <v>499420682665.0034</v>
+        <v>487607721070.4567</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B488" t="n">
-        <v>4981498000000</v>
+        <v>4925017000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.09788375325463479</v>
+        <v>0.09863392020515854</v>
       </c>
       <c r="D488" t="n">
-        <v>487607721070.4567</v>
+        <v>485773733787.0493</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B489" t="n">
-        <v>4925017000000</v>
+        <v>4981835000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.09863392020515854</v>
+        <v>0.09392220048445071</v>
       </c>
       <c r="D489" t="n">
-        <v>485773733787.0493</v>
+        <v>467904905650.4535</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B490" t="n">
-        <v>4981835000000</v>
+        <v>4905553000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.09392220048445071</v>
+        <v>0.09016400833115437</v>
       </c>
       <c r="D490" t="n">
-        <v>467904905650.4535</v>
+        <v>442304321560.9193</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B491" t="n">
-        <v>4905553000000</v>
+        <v>4884821000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.09016400833115437</v>
+        <v>0.09069463931195419</v>
       </c>
       <c r="D491" t="n">
-        <v>442304321560.9193</v>
+        <v>443027078698.4594</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B492" t="n">
-        <v>4884821000000</v>
+        <v>4877312000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.09069463931195419</v>
+        <v>0.09528074471430069</v>
       </c>
       <c r="D492" t="n">
-        <v>443027078698.4594</v>
+        <v>464713919563.9953</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B493" t="n">
-        <v>4877312000000</v>
+        <v>4822713000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.09528074471430069</v>
+        <v>0.09609378753663576</v>
       </c>
       <c r="D493" t="n">
-        <v>464713919563.9953</v>
+        <v>463432758372.1713</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B494" t="n">
-        <v>4822713000000</v>
+        <v>4903738000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.09609378753663576</v>
+        <v>0.09566814633399663</v>
       </c>
       <c r="D494" t="n">
-        <v>463432758372.1713</v>
+        <v>469131524567.58</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B495" t="n">
-        <v>4913649000000</v>
+        <v>4814210000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.09566814633399663</v>
+        <v>0.09570211377258689</v>
       </c>
       <c r="D495" t="n">
-        <v>470079691565.8962</v>
+        <v>460730073145.1255</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B496" t="n">
-        <v>4814208000000</v>
+        <v>4779806000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.09570211377258689</v>
+        <v>0.09639297487999074</v>
       </c>
       <c r="D496" t="n">
-        <v>460729881740.898</v>
+        <v>460739719689.229</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B497" t="n">
-        <v>4779804000000</v>
+        <v>4773819000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.09639297487999074</v>
+        <v>0.09748869131180783</v>
       </c>
       <c r="D497" t="n">
-        <v>460739526903.2792</v>
+        <v>465393366869.4432</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B498" t="n">
-        <v>4773819000000</v>
+        <v>4766051000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.09748869131180783</v>
+        <v>0.09232331625351982</v>
       </c>
       <c r="D498" t="n">
-        <v>465393366869.4432</v>
+        <v>440017633753.4044</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B499" t="n">
-        <v>4766051000000</v>
+        <v>4811874000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.09232331625351982</v>
+        <v>0.09274803142303305</v>
       </c>
       <c r="D499" t="n">
-        <v>440017633753.4044</v>
+        <v>446291840955.6757</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
@@ -458,127 +458,127 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>29952</v>
+        <v>30042</v>
       </c>
       <c r="B2" t="inlineStr"/>
       <c r="C2" t="n">
-        <v>0.1759014951627089</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="D2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>29983</v>
+        <v>30072</v>
       </c>
       <c r="B3" t="inlineStr"/>
       <c r="C3" t="n">
-        <v>0.172488141440276</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="D3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>30011</v>
+        <v>30103</v>
       </c>
       <c r="B4" t="inlineStr"/>
       <c r="C4" t="n">
-        <v>0.1684352366515075</v>
+        <v>0.1633986928104575</v>
       </c>
       <c r="D4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>30042</v>
+        <v>30133</v>
       </c>
       <c r="B5" t="inlineStr"/>
       <c r="C5" t="n">
-        <v>0.1725625539257981</v>
+        <v>0.1636661211129296</v>
       </c>
       <c r="D5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>30072</v>
+        <v>30164</v>
       </c>
       <c r="B6" t="inlineStr"/>
       <c r="C6" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.1626677511183408</v>
       </c>
       <c r="D6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>30103</v>
+        <v>30195</v>
       </c>
       <c r="B7" t="inlineStr"/>
       <c r="C7" t="n">
-        <v>0.1633986928104575</v>
+        <v>0.1592356687898089</v>
       </c>
       <c r="D7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>30133</v>
+        <v>30225</v>
       </c>
       <c r="B8" t="inlineStr"/>
       <c r="C8" t="n">
-        <v>0.1636661211129296</v>
+        <v>0.1341201716738197</v>
       </c>
       <c r="D8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>30164</v>
+        <v>30256</v>
       </c>
       <c r="B9" t="inlineStr"/>
       <c r="C9" t="n">
-        <v>0.1626677511183408</v>
+        <v>0.1355380862022228</v>
       </c>
       <c r="D9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>30195</v>
+        <v>30286</v>
       </c>
       <c r="B10" t="inlineStr"/>
       <c r="C10" t="n">
-        <v>0.1592356687898089</v>
+        <v>0.1367989056087551</v>
       </c>
       <c r="D10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>30225</v>
+        <v>30317</v>
       </c>
       <c r="B11" t="inlineStr"/>
       <c r="C11" t="n">
-        <v>0.1341201716738197</v>
+        <v>0.1332445036642239</v>
       </c>
       <c r="D11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>30256</v>
+        <v>30348</v>
       </c>
       <c r="B12" t="inlineStr"/>
       <c r="C12" t="n">
-        <v>0.1355380862022228</v>
+        <v>0.133645172068159</v>
       </c>
       <c r="D12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>30286</v>
+        <v>30376</v>
       </c>
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="n">
-        <v>0.1367989056087551</v>
+        <v>0.1324503311258278</v>
       </c>
       <c r="D13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>30317</v>
+        <v>30407</v>
       </c>
       <c r="B14" t="inlineStr"/>
       <c r="C14" t="n">
@@ -588,6076 +588,6088 @@
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>30348</v>
+        <v>30437</v>
       </c>
       <c r="B15" t="inlineStr"/>
       <c r="C15" t="n">
-        <v>0.133645172068159</v>
+        <v>0.1325820351342393</v>
       </c>
       <c r="D15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>30376</v>
+        <v>30468</v>
       </c>
       <c r="B16" t="inlineStr"/>
       <c r="C16" t="n">
-        <v>0.1324503311258278</v>
+        <v>0.1310615989515072</v>
       </c>
       <c r="D16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>30407</v>
+        <v>30498</v>
       </c>
       <c r="B17" t="inlineStr"/>
       <c r="C17" t="n">
-        <v>0.1332445036642239</v>
+        <v>0.1289823294208693</v>
       </c>
       <c r="D17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>30437</v>
+        <v>30529</v>
       </c>
       <c r="B18" t="inlineStr"/>
       <c r="C18" t="n">
-        <v>0.1325820351342393</v>
+        <v>0.1261829652996845</v>
       </c>
       <c r="D18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>30468</v>
+        <v>30560</v>
       </c>
       <c r="B19" t="inlineStr"/>
       <c r="C19" t="n">
-        <v>0.1310615989515072</v>
+        <v>0.1280409731113956</v>
       </c>
       <c r="D19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>30498</v>
+        <v>30590</v>
       </c>
       <c r="B20" t="inlineStr"/>
       <c r="C20" t="n">
-        <v>0.1289823294208693</v>
+        <v>0.127787361829915</v>
       </c>
       <c r="D20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>30529</v>
+        <v>30621</v>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="n">
-        <v>0.1261829652996845</v>
+        <v>0.1256281407035176</v>
       </c>
       <c r="D21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>30560</v>
+        <v>30651</v>
       </c>
       <c r="B22" t="inlineStr"/>
       <c r="C22" t="n">
-        <v>0.1280409731113956</v>
+        <v>0.1248439450686642</v>
       </c>
       <c r="D22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>30590</v>
+        <v>30682</v>
       </c>
       <c r="B23" t="inlineStr"/>
       <c r="C23" t="n">
-        <v>0.127787361829915</v>
+        <v>0.1221299462628236</v>
       </c>
       <c r="D23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>30621</v>
+        <v>30713</v>
       </c>
       <c r="B24" t="inlineStr"/>
       <c r="C24" t="n">
-        <v>0.1256281407035176</v>
+        <v>0.1287001287001287</v>
       </c>
       <c r="D24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>30651</v>
+        <v>30742</v>
       </c>
       <c r="B25" t="inlineStr"/>
       <c r="C25" t="n">
-        <v>0.1248439450686642</v>
+        <v>0.1295336787564767</v>
       </c>
       <c r="D25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>30682</v>
+        <v>30773</v>
       </c>
       <c r="B26" t="inlineStr"/>
       <c r="C26" t="n">
-        <v>0.1221299462628236</v>
+        <v>0.1252348152786475</v>
       </c>
       <c r="D26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>30713</v>
+        <v>30803</v>
       </c>
       <c r="B27" t="inlineStr"/>
       <c r="C27" t="n">
-        <v>0.1287001287001287</v>
+        <v>0.1237317495669389</v>
       </c>
       <c r="D27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>30742</v>
+        <v>30834</v>
       </c>
       <c r="B28" t="inlineStr"/>
       <c r="C28" t="n">
-        <v>0.1295336787564767</v>
+        <v>0.122256861666361</v>
       </c>
       <c r="D28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>30773</v>
+        <v>30864</v>
       </c>
       <c r="B29" t="inlineStr"/>
       <c r="C29" t="n">
-        <v>0.1252348152786475</v>
+        <v>0.1186239620403322</v>
       </c>
       <c r="D29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>30803</v>
+        <v>30895</v>
       </c>
       <c r="B30" t="inlineStr"/>
       <c r="C30" t="n">
-        <v>0.1237317495669389</v>
+        <v>0.1201923076923077</v>
       </c>
       <c r="D30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>30834</v>
+        <v>30926</v>
       </c>
       <c r="B31" t="inlineStr"/>
       <c r="C31" t="n">
-        <v>0.122256861666361</v>
+        <v>0.1151145389662715</v>
       </c>
       <c r="D31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>30864</v>
+        <v>30956</v>
       </c>
       <c r="B32" t="inlineStr"/>
       <c r="C32" t="n">
-        <v>0.1186239620403322</v>
+        <v>0.115460108532502</v>
       </c>
       <c r="D32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>30895</v>
+        <v>30987</v>
       </c>
       <c r="B33" t="inlineStr"/>
       <c r="C33" t="n">
-        <v>0.1201923076923077</v>
+        <v>0.1131221719457014</v>
       </c>
       <c r="D33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>30926</v>
+        <v>31017</v>
       </c>
       <c r="B34" t="inlineStr"/>
       <c r="C34" t="n">
-        <v>0.1151145389662715</v>
+        <v>0.1112966054535337</v>
       </c>
       <c r="D34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>30956</v>
+        <v>31048</v>
       </c>
       <c r="B35" t="inlineStr"/>
       <c r="C35" t="n">
-        <v>0.115460108532502</v>
+        <v>0.1106194690265487</v>
       </c>
       <c r="D35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>30987</v>
+        <v>31079</v>
       </c>
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="n">
-        <v>0.1131221719457014</v>
+        <v>0.1054852320675105</v>
       </c>
       <c r="D36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>31017</v>
+        <v>31107</v>
       </c>
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="n">
-        <v>0.1112966054535337</v>
+        <v>0.1121076233183857</v>
       </c>
       <c r="D37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>31048</v>
+        <v>31138</v>
       </c>
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="n">
-        <v>0.1106194690265487</v>
+        <v>0.1109570041608877</v>
       </c>
       <c r="D38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>31079</v>
+        <v>31168</v>
       </c>
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="n">
-        <v>0.1054852320675105</v>
+        <v>0.112739571589628</v>
       </c>
       <c r="D39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>31107</v>
+        <v>31199</v>
       </c>
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="n">
-        <v>0.1121076233183857</v>
+        <v>0.1143837575064341</v>
       </c>
       <c r="D40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>31138</v>
+        <v>31229</v>
       </c>
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="n">
-        <v>0.1109570041608877</v>
+        <v>0.1207000603500302</v>
       </c>
       <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>31168</v>
+        <v>31260</v>
       </c>
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="n">
-        <v>0.112739571589628</v>
+        <v>0.1201201201201201</v>
       </c>
       <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>31199</v>
+        <v>31291</v>
       </c>
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="n">
-        <v>0.1143837575064341</v>
+        <v>0.124223602484472</v>
       </c>
       <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>31229</v>
+        <v>31321</v>
       </c>
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="n">
-        <v>0.1207000603500302</v>
+        <v>0.1269680040629761</v>
       </c>
       <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>31260</v>
+        <v>31352</v>
       </c>
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="n">
-        <v>0.1201201201201201</v>
+        <v>0.1309671927182241</v>
       </c>
       <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>31291</v>
+        <v>31382</v>
       </c>
       <c r="B46" t="inlineStr"/>
       <c r="C46" t="n">
-        <v>0.124223602484472</v>
+        <v>0.132013201320132</v>
       </c>
       <c r="D46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>31321</v>
+        <v>31413</v>
       </c>
       <c r="B47" t="inlineStr"/>
       <c r="C47" t="n">
-        <v>0.1269680040629761</v>
+        <v>0.1327580484566877</v>
       </c>
       <c r="D47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
-        <v>31352</v>
+        <v>31444</v>
       </c>
       <c r="B48" t="inlineStr"/>
       <c r="C48" t="n">
-        <v>0.1309671927182241</v>
+        <v>0.1388792444969099</v>
       </c>
       <c r="D48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
-        <v>31382</v>
+        <v>31472</v>
       </c>
       <c r="B49" t="inlineStr"/>
       <c r="C49" t="n">
-        <v>0.132013201320132</v>
+        <v>0.135685210312076</v>
       </c>
       <c r="D49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
-        <v>31413</v>
+        <v>31503</v>
       </c>
       <c r="B50" t="inlineStr"/>
       <c r="C50" t="n">
-        <v>0.1327580484566877</v>
+        <v>0.1427144284287142</v>
       </c>
       <c r="D50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
-        <v>31444</v>
+        <v>31533</v>
       </c>
       <c r="B51" t="inlineStr"/>
       <c r="C51" t="n">
-        <v>0.1388792444969099</v>
+        <v>0.135308842432853</v>
       </c>
       <c r="D51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
-        <v>31472</v>
+        <v>31564</v>
       </c>
       <c r="B52" t="inlineStr"/>
       <c r="C52" t="n">
-        <v>0.135685210312076</v>
+        <v>0.1402918069584736</v>
       </c>
       <c r="D52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
-        <v>31503</v>
+        <v>31594</v>
       </c>
       <c r="B53" t="inlineStr"/>
       <c r="C53" t="n">
-        <v>0.1427144284287142</v>
+        <v>0.143348623853211</v>
       </c>
       <c r="D53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
-        <v>31533</v>
+        <v>31625</v>
       </c>
       <c r="B54" t="inlineStr"/>
       <c r="C54" t="n">
-        <v>0.135308842432853</v>
+        <v>0.1451378809869376</v>
       </c>
       <c r="D54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
-        <v>31564</v>
+        <v>31656</v>
       </c>
       <c r="B55" t="inlineStr"/>
       <c r="C55" t="n">
-        <v>0.1402918069584736</v>
+        <v>0.1447178002894356</v>
       </c>
       <c r="D55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
-        <v>31594</v>
+        <v>31686</v>
       </c>
       <c r="B56" t="inlineStr"/>
       <c r="C56" t="n">
-        <v>0.143348623853211</v>
+        <v>0.1420858198351805</v>
       </c>
       <c r="D56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
-        <v>31625</v>
+        <v>31717</v>
       </c>
       <c r="B57" t="inlineStr"/>
       <c r="C57" t="n">
-        <v>0.1451378809869376</v>
+        <v>0.1454016721192294</v>
       </c>
       <c r="D57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
-        <v>31656</v>
+        <v>31747</v>
       </c>
       <c r="B58" t="inlineStr"/>
       <c r="C58" t="n">
-        <v>0.1447178002894356</v>
+        <v>0.1483459427384661</v>
       </c>
       <c r="D58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
-        <v>31686</v>
+        <v>31778</v>
       </c>
       <c r="B59" t="inlineStr"/>
       <c r="C59" t="n">
-        <v>0.1420858198351805</v>
+        <v>0.1528467711119602</v>
       </c>
       <c r="D59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
-        <v>31717</v>
+        <v>31809</v>
       </c>
       <c r="B60" t="inlineStr"/>
       <c r="C60" t="n">
-        <v>0.1454016721192294</v>
+        <v>0.1544401544401544</v>
       </c>
       <c r="D60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
-        <v>31747</v>
+        <v>31837</v>
       </c>
       <c r="B61" t="inlineStr"/>
       <c r="C61" t="n">
-        <v>0.1483459427384661</v>
+        <v>0.158102766798419</v>
       </c>
       <c r="D61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
-        <v>31778</v>
+        <v>31868</v>
       </c>
       <c r="B62" t="inlineStr"/>
       <c r="C62" t="n">
-        <v>0.1528467711119602</v>
+        <v>0.1591343093570974</v>
       </c>
       <c r="D62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
-        <v>31809</v>
+        <v>31898</v>
       </c>
       <c r="B63" t="inlineStr"/>
       <c r="C63" t="n">
-        <v>0.1544401544401544</v>
+        <v>0.1571832756994656</v>
       </c>
       <c r="D63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
-        <v>31837</v>
+        <v>31929</v>
       </c>
       <c r="B64" t="inlineStr"/>
       <c r="C64" t="n">
-        <v>0.158102766798419</v>
+        <v>0.1565925461948011</v>
       </c>
       <c r="D64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
-        <v>31868</v>
+        <v>31959</v>
       </c>
       <c r="B65" t="inlineStr"/>
       <c r="C65" t="n">
-        <v>0.1591343093570974</v>
+        <v>0.1541069502234551</v>
       </c>
       <c r="D65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
-        <v>31898</v>
+        <v>31990</v>
       </c>
       <c r="B66" t="inlineStr"/>
       <c r="C66" t="n">
-        <v>0.1571832756994656</v>
+        <v>0.1568381430363864</v>
       </c>
       <c r="D66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
-        <v>31929</v>
+        <v>32021</v>
       </c>
       <c r="B67" t="inlineStr"/>
       <c r="C67" t="n">
-        <v>0.1565925461948011</v>
+        <v>0.1548467017652524</v>
       </c>
       <c r="D67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
-        <v>31959</v>
+        <v>32051</v>
       </c>
       <c r="B68" t="inlineStr"/>
       <c r="C68" t="n">
-        <v>0.1541069502234551</v>
+        <v>0.1612903225806452</v>
       </c>
       <c r="D68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
-        <v>31990</v>
+        <v>32082</v>
       </c>
       <c r="B69" t="inlineStr"/>
       <c r="C69" t="n">
-        <v>0.1568381430363864</v>
+        <v>0.1677570877369569</v>
       </c>
       <c r="D69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
-        <v>32021</v>
+        <v>32112</v>
       </c>
       <c r="B70" t="inlineStr"/>
       <c r="C70" t="n">
-        <v>0.1548467017652524</v>
+        <v>0.1725625539257981</v>
       </c>
       <c r="D70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
-        <v>32051</v>
+        <v>32143</v>
       </c>
       <c r="B71" t="inlineStr"/>
       <c r="C71" t="n">
-        <v>0.1612903225806452</v>
+        <v>0.1657824933687003</v>
       </c>
       <c r="D71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
-        <v>32082</v>
+        <v>32174</v>
       </c>
       <c r="B72" t="inlineStr"/>
       <c r="C72" t="n">
-        <v>0.1677570877369569</v>
+        <v>0.1668891855807744</v>
       </c>
       <c r="D72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
-        <v>32112</v>
+        <v>32203</v>
       </c>
       <c r="B73" t="inlineStr"/>
       <c r="C73" t="n">
-        <v>0.1725625539257981</v>
+        <v>0.170328734457503</v>
       </c>
       <c r="D73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
-        <v>32143</v>
+        <v>32234</v>
       </c>
       <c r="B74" t="inlineStr"/>
       <c r="C74" t="n">
-        <v>0.1657824933687003</v>
+        <v>0.1702127659574468</v>
       </c>
       <c r="D74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
-        <v>32174</v>
+        <v>32264</v>
       </c>
       <c r="B75" t="inlineStr"/>
       <c r="C75" t="n">
-        <v>0.1668891855807744</v>
+        <v>0.1668752607425949</v>
       </c>
       <c r="D75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
-        <v>32203</v>
+        <v>32295</v>
       </c>
       <c r="B76" t="inlineStr"/>
       <c r="C76" t="n">
-        <v>0.170328734457503</v>
+        <v>0.1591089896579157</v>
       </c>
       <c r="D76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
-        <v>32234</v>
+        <v>32325</v>
       </c>
       <c r="B77" t="inlineStr"/>
       <c r="C77" t="n">
-        <v>0.1702127659574468</v>
+        <v>0.1557875058420315</v>
       </c>
       <c r="D77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
-        <v>32264</v>
+        <v>32356</v>
       </c>
       <c r="B78" t="inlineStr"/>
       <c r="C78" t="n">
-        <v>0.1668752607425949</v>
+        <v>0.1540120129370091</v>
       </c>
       <c r="D78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
-        <v>32295</v>
+        <v>32387</v>
       </c>
       <c r="B79" t="inlineStr"/>
       <c r="C79" t="n">
-        <v>0.1591089896579157</v>
+        <v>0.1556420233463035</v>
       </c>
       <c r="D79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
-        <v>32325</v>
+        <v>32417</v>
       </c>
       <c r="B80" t="inlineStr"/>
       <c r="C80" t="n">
-        <v>0.1557875058420315</v>
+        <v>0.1614205004035512</v>
       </c>
       <c r="D80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
-        <v>32356</v>
+        <v>32448</v>
       </c>
       <c r="B81" t="inlineStr"/>
       <c r="C81" t="n">
-        <v>0.1540120129370091</v>
+        <v>0.1655218074981379</v>
       </c>
       <c r="D81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
-        <v>32387</v>
+        <v>32478</v>
       </c>
       <c r="B82" t="inlineStr"/>
       <c r="C82" t="n">
-        <v>0.1556420233463035</v>
+        <v>0.1631055292774425</v>
       </c>
       <c r="D82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
-        <v>32417</v>
+        <v>32509</v>
       </c>
       <c r="B83" t="inlineStr"/>
       <c r="C83" t="n">
-        <v>0.1614205004035512</v>
+        <v>0.1572327044025157</v>
       </c>
       <c r="D83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
-        <v>32448</v>
+        <v>32540</v>
       </c>
       <c r="B84" t="inlineStr"/>
       <c r="C84" t="n">
-        <v>0.1655218074981379</v>
+        <v>0.1590583744234134</v>
       </c>
       <c r="D84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
-        <v>32478</v>
+        <v>32568</v>
       </c>
       <c r="B85" t="inlineStr"/>
       <c r="C85" t="n">
-        <v>0.1631055292774425</v>
+        <v>0.1552072016141549</v>
       </c>
       <c r="D85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
-        <v>32509</v>
+        <v>32599</v>
       </c>
       <c r="B86" t="inlineStr"/>
       <c r="C86" t="n">
-        <v>0.1572327044025157</v>
+        <v>0.1565435190983093</v>
       </c>
       <c r="D86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
-        <v>32540</v>
+        <v>32629</v>
       </c>
       <c r="B87" t="inlineStr"/>
       <c r="C87" t="n">
-        <v>0.1590583744234134</v>
+        <v>0.1500600240096039</v>
       </c>
       <c r="D87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
-        <v>32568</v>
+        <v>32660</v>
       </c>
       <c r="B88" t="inlineStr"/>
       <c r="C88" t="n">
-        <v>0.1552072016141549</v>
+        <v>0.1502178158329578</v>
       </c>
       <c r="D88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
-        <v>32599</v>
+        <v>32690</v>
       </c>
       <c r="B89" t="inlineStr"/>
       <c r="C89" t="n">
-        <v>0.1565435190983093</v>
+        <v>0.1566416040100251</v>
       </c>
       <c r="D89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
-        <v>32629</v>
+        <v>32721</v>
       </c>
       <c r="B90" t="inlineStr"/>
       <c r="C90" t="n">
-        <v>0.1500600240096039</v>
+        <v>0.1510345869204048</v>
       </c>
       <c r="D90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
-        <v>32660</v>
+        <v>32752</v>
       </c>
       <c r="B91" t="inlineStr"/>
       <c r="C91" t="n">
-        <v>0.1502178158329578</v>
+        <v>0.1554968123153475</v>
       </c>
       <c r="D91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
-        <v>32690</v>
+        <v>32782</v>
       </c>
       <c r="B92" t="inlineStr"/>
       <c r="C92" t="n">
-        <v>0.1566416040100251</v>
+        <v>0.1557632398753894</v>
       </c>
       <c r="D92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
-        <v>32721</v>
+        <v>32813</v>
       </c>
       <c r="B93" t="inlineStr"/>
       <c r="C93" t="n">
-        <v>0.1510345869204048</v>
+        <v>0.1567398119122257</v>
       </c>
       <c r="D93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
-        <v>32752</v>
+        <v>32843</v>
       </c>
       <c r="B94" t="inlineStr"/>
       <c r="C94" t="n">
-        <v>0.1554968123153475</v>
+        <v>0.1611214049786514</v>
       </c>
       <c r="D94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
-        <v>32782</v>
+        <v>32874</v>
       </c>
       <c r="B95" t="inlineStr"/>
       <c r="C95" t="n">
-        <v>0.1557632398753894</v>
+        <v>0.1623376623376623</v>
       </c>
       <c r="D95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
-        <v>32813</v>
+        <v>32905</v>
       </c>
       <c r="B96" t="inlineStr"/>
       <c r="C96" t="n">
-        <v>0.1567398119122257</v>
+        <v>0.1632253325716151</v>
       </c>
       <c r="D96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
-        <v>32843</v>
+        <v>32933</v>
       </c>
       <c r="B97" t="inlineStr"/>
       <c r="C97" t="n">
-        <v>0.1611214049786514</v>
+        <v>0.1635590448151783</v>
       </c>
       <c r="D97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
-        <v>32874</v>
+        <v>32964</v>
       </c>
       <c r="B98" t="inlineStr"/>
       <c r="C98" t="n">
-        <v>0.1623376623376623</v>
+        <v>0.1639881928501148</v>
       </c>
       <c r="D98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
-        <v>32905</v>
+        <v>32994</v>
       </c>
       <c r="B99" t="inlineStr"/>
       <c r="C99" t="n">
-        <v>0.1632253325716151</v>
+        <v>0.1630523398010761</v>
       </c>
       <c r="D99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
-        <v>32933</v>
+        <v>33025</v>
       </c>
       <c r="B100" t="inlineStr"/>
       <c r="C100" t="n">
-        <v>0.1635590448151783</v>
+        <v>0.1656314699792961</v>
       </c>
       <c r="D100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
-        <v>32964</v>
+        <v>33055</v>
       </c>
       <c r="B101" t="inlineStr"/>
       <c r="C101" t="n">
-        <v>0.1639881928501148</v>
+        <v>0.1720282126268708</v>
       </c>
       <c r="D101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
-        <v>32994</v>
+        <v>33086</v>
       </c>
       <c r="B102" t="inlineStr"/>
       <c r="C102" t="n">
-        <v>0.1630523398010761</v>
+        <v>0.1727414061150458</v>
       </c>
       <c r="D102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
-        <v>33025</v>
+        <v>33117</v>
       </c>
       <c r="B103" t="inlineStr"/>
       <c r="C103" t="n">
-        <v>0.1656314699792961</v>
+        <v>0.1735207357279195</v>
       </c>
       <c r="D103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
-        <v>33055</v>
+        <v>33147</v>
       </c>
       <c r="B104" t="inlineStr"/>
       <c r="C104" t="n">
-        <v>0.1720282126268708</v>
+        <v>0.1772735330615139</v>
       </c>
       <c r="D104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
-        <v>33086</v>
+        <v>33178</v>
       </c>
       <c r="B105" t="inlineStr"/>
       <c r="C105" t="n">
-        <v>0.1727414061150458</v>
+        <v>0.1779834475393788</v>
       </c>
       <c r="D105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
-        <v>33117</v>
+        <v>33208</v>
       </c>
       <c r="B106" t="inlineStr"/>
       <c r="C106" t="n">
-        <v>0.1735207357279195</v>
+        <v>0.1775095411378362</v>
       </c>
       <c r="D106" t="inlineStr"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
-        <v>33147</v>
+        <v>33239</v>
       </c>
       <c r="B107" t="inlineStr"/>
       <c r="C107" t="n">
-        <v>0.1772735330615139</v>
+        <v>0.1807337791433219</v>
       </c>
       <c r="D107" t="inlineStr"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
-        <v>33178</v>
+        <v>33270</v>
       </c>
       <c r="B108" t="inlineStr"/>
       <c r="C108" t="n">
-        <v>0.1779834475393788</v>
+        <v>0.1763668430335097</v>
       </c>
       <c r="D108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
-        <v>33208</v>
+        <v>33298</v>
       </c>
       <c r="B109" t="inlineStr"/>
       <c r="C109" t="n">
-        <v>0.1775095411378362</v>
+        <v>0.1631321370309951</v>
       </c>
       <c r="D109" t="inlineStr"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
-        <v>33239</v>
+        <v>33329</v>
       </c>
       <c r="B110" t="inlineStr"/>
       <c r="C110" t="n">
-        <v>0.1807337791433219</v>
+        <v>0.1626545217957059</v>
       </c>
       <c r="D110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
-        <v>33270</v>
+        <v>33359</v>
       </c>
       <c r="B111" t="inlineStr"/>
       <c r="C111" t="n">
-        <v>0.1763668430335097</v>
+        <v>0.1603206412825651</v>
       </c>
       <c r="D111" t="inlineStr"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
-        <v>33298</v>
+        <v>33390</v>
       </c>
       <c r="B112" t="inlineStr"/>
       <c r="C112" t="n">
-        <v>0.1631321370309951</v>
+        <v>0.1540476007086189</v>
       </c>
       <c r="D112" t="inlineStr"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
-        <v>33329</v>
+        <v>33420</v>
       </c>
       <c r="B113" t="inlineStr"/>
       <c r="C113" t="n">
-        <v>0.1626545217957059</v>
+        <v>0.158102766798419</v>
       </c>
       <c r="D113" t="inlineStr"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
-        <v>33359</v>
+        <v>33451</v>
       </c>
       <c r="B114" t="inlineStr"/>
       <c r="C114" t="n">
-        <v>0.1603206412825651</v>
+        <v>0.1580278128950695</v>
       </c>
       <c r="D114" t="inlineStr"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
-        <v>33390</v>
+        <v>33482</v>
       </c>
       <c r="B115" t="inlineStr"/>
       <c r="C115" t="n">
-        <v>0.1540476007086189</v>
+        <v>0.1645278051990786</v>
       </c>
       <c r="D115" t="inlineStr"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
-        <v>33420</v>
+        <v>33512</v>
       </c>
       <c r="B116" t="inlineStr"/>
       <c r="C116" t="n">
-        <v>0.158102766798419</v>
+        <v>0.1642036124794745</v>
       </c>
       <c r="D116" t="inlineStr"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
-        <v>33451</v>
+        <v>33543</v>
       </c>
       <c r="B117" t="inlineStr"/>
       <c r="C117" t="n">
-        <v>0.1580278128950695</v>
+        <v>0.1683501683501683</v>
       </c>
       <c r="D117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
-        <v>33482</v>
+        <v>33573</v>
       </c>
       <c r="B118" t="inlineStr"/>
       <c r="C118" t="n">
-        <v>0.1645278051990786</v>
+        <v>0.1801801801801802</v>
       </c>
       <c r="D118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
-        <v>33512</v>
+        <v>33604</v>
       </c>
       <c r="B119" t="inlineStr"/>
       <c r="C119" t="n">
-        <v>0.1642036124794745</v>
+        <v>0.1709401709401709</v>
       </c>
       <c r="D119" t="inlineStr"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
-        <v>33543</v>
+        <v>33635</v>
       </c>
       <c r="B120" t="inlineStr"/>
       <c r="C120" t="n">
-        <v>0.1683501683501683</v>
+        <v>0.1688048615800135</v>
       </c>
       <c r="D120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
-        <v>33573</v>
+        <v>33664</v>
       </c>
       <c r="B121" t="inlineStr"/>
       <c r="C121" t="n">
-        <v>0.1801801801801802</v>
+        <v>0.1675884028825205</v>
       </c>
       <c r="D121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
-        <v>33604</v>
+        <v>33695</v>
       </c>
       <c r="B122" t="inlineStr"/>
       <c r="C122" t="n">
-        <v>0.1709401709401709</v>
+        <v>0.1681520094165125</v>
       </c>
       <c r="D122" t="inlineStr"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
-        <v>33635</v>
+        <v>33725</v>
       </c>
       <c r="B123" t="inlineStr"/>
       <c r="C123" t="n">
-        <v>0.1688048615800135</v>
+        <v>0.1727712508638563</v>
       </c>
       <c r="D123" t="inlineStr"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
-        <v>33664</v>
+        <v>33756</v>
       </c>
       <c r="B124" t="inlineStr"/>
       <c r="C124" t="n">
-        <v>0.1675884028825205</v>
+        <v>0.1819505094614265</v>
       </c>
       <c r="D124" t="inlineStr"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
-        <v>33695</v>
+        <v>33786</v>
       </c>
       <c r="B125" t="inlineStr"/>
       <c r="C125" t="n">
-        <v>0.1681520094165125</v>
+        <v>0.1865671641791045</v>
       </c>
       <c r="D125" t="inlineStr"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
-        <v>33725</v>
+        <v>33817</v>
       </c>
       <c r="B126" t="inlineStr"/>
       <c r="C126" t="n">
-        <v>0.1727712508638563</v>
+        <v>0.1941747572815534</v>
       </c>
       <c r="D126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
-        <v>33756</v>
+        <v>33848</v>
       </c>
       <c r="B127" t="inlineStr"/>
       <c r="C127" t="n">
-        <v>0.1819505094614265</v>
+        <v>0.1896453631708705</v>
       </c>
       <c r="D127" t="inlineStr"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
-        <v>33786</v>
+        <v>33878</v>
       </c>
       <c r="B128" t="inlineStr"/>
       <c r="C128" t="n">
-        <v>0.1865671641791045</v>
+        <v>0.1721170395869191</v>
       </c>
       <c r="D128" t="inlineStr"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
-        <v>33817</v>
+        <v>33909</v>
       </c>
       <c r="B129" t="inlineStr"/>
       <c r="C129" t="n">
-        <v>0.1941747572815534</v>
+        <v>0.1481481481481481</v>
       </c>
       <c r="D129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
-        <v>33848</v>
+        <v>33939</v>
       </c>
       <c r="B130" t="inlineStr"/>
       <c r="C130" t="n">
-        <v>0.1896453631708705</v>
+        <v>0.1412030499858797</v>
       </c>
       <c r="D130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
-        <v>33878</v>
+        <v>33970</v>
       </c>
       <c r="B131" t="inlineStr"/>
       <c r="C131" t="n">
-        <v>0.1721170395869191</v>
+        <v>0.1367989056087551</v>
       </c>
       <c r="D131" t="inlineStr"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
-        <v>33909</v>
+        <v>34001</v>
       </c>
       <c r="B132" t="inlineStr"/>
       <c r="C132" t="n">
-        <v>0.1481481481481481</v>
+        <v>0.1276650070215754</v>
       </c>
       <c r="D132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
-        <v>33939</v>
+        <v>34029</v>
       </c>
       <c r="B133" t="inlineStr"/>
       <c r="C133" t="n">
-        <v>0.1412030499858797</v>
+        <v>0.1297858533419857</v>
       </c>
       <c r="D133" t="inlineStr"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
-        <v>33970</v>
+        <v>34060</v>
       </c>
       <c r="B134" t="inlineStr"/>
       <c r="C134" t="n">
-        <v>0.1367989056087551</v>
+        <v>0.1369675386933297</v>
       </c>
       <c r="D134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
-        <v>34001</v>
+        <v>34090</v>
       </c>
       <c r="B135" t="inlineStr"/>
       <c r="C135" t="n">
-        <v>0.1276650070215754</v>
+        <v>0.1395868230039084</v>
       </c>
       <c r="D135" t="inlineStr"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
-        <v>34029</v>
+        <v>34121</v>
       </c>
       <c r="B136" t="inlineStr"/>
       <c r="C136" t="n">
-        <v>0.1297858533419857</v>
+        <v>0.1291989664082687</v>
       </c>
       <c r="D136" t="inlineStr"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
-        <v>34060</v>
+        <v>34151</v>
       </c>
       <c r="B137" t="inlineStr"/>
       <c r="C137" t="n">
-        <v>0.1369675386933297</v>
+        <v>0.1213444970270598</v>
       </c>
       <c r="D137" t="inlineStr"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
-        <v>34090</v>
+        <v>34182</v>
       </c>
       <c r="B138" t="inlineStr"/>
       <c r="C138" t="n">
-        <v>0.1395868230039084</v>
+        <v>0.1223091976516634</v>
       </c>
       <c r="D138" t="inlineStr"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
-        <v>34121</v>
+        <v>34213</v>
       </c>
       <c r="B139" t="inlineStr"/>
       <c r="C139" t="n">
-        <v>0.1291989664082687</v>
+        <v>0.123304562268804</v>
       </c>
       <c r="D139" t="inlineStr"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
-        <v>34151</v>
+        <v>34243</v>
       </c>
       <c r="B140" t="inlineStr"/>
       <c r="C140" t="n">
-        <v>0.1213444970270598</v>
+        <v>0.1227596366314756</v>
       </c>
       <c r="D140" t="inlineStr"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
-        <v>34182</v>
+        <v>34274</v>
       </c>
       <c r="B141" t="inlineStr"/>
       <c r="C141" t="n">
-        <v>0.1223091976516634</v>
+        <v>0.1180776951233912</v>
       </c>
       <c r="D141" t="inlineStr"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
-        <v>34213</v>
+        <v>34304</v>
       </c>
       <c r="B142" t="inlineStr"/>
       <c r="C142" t="n">
-        <v>0.123304562268804</v>
+        <v>0.1199760047990402</v>
       </c>
       <c r="D142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
-        <v>34243</v>
+        <v>34335</v>
       </c>
       <c r="B143" t="inlineStr"/>
       <c r="C143" t="n">
-        <v>0.1227596366314756</v>
+        <v>0.1269357705001269</v>
       </c>
       <c r="D143" t="inlineStr"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
-        <v>34274</v>
+        <v>34366</v>
       </c>
       <c r="B144" t="inlineStr"/>
       <c r="C144" t="n">
-        <v>0.1180776951233912</v>
+        <v>0.1255335174491589</v>
       </c>
       <c r="D144" t="inlineStr"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
-        <v>34304</v>
+        <v>34394</v>
       </c>
       <c r="B145" t="inlineStr"/>
       <c r="C145" t="n">
-        <v>0.1199760047990402</v>
+        <v>0.1276161306789178</v>
       </c>
       <c r="D145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
-        <v>34335</v>
+        <v>34425</v>
       </c>
       <c r="B146" t="inlineStr"/>
       <c r="C146" t="n">
-        <v>0.1269357705001269</v>
+        <v>0.1314233144959916</v>
       </c>
       <c r="D146" t="inlineStr"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
-        <v>34366</v>
+        <v>34455</v>
       </c>
       <c r="B147" t="inlineStr"/>
       <c r="C147" t="n">
-        <v>0.1255335174491589</v>
+        <v>0.1280737704918033</v>
       </c>
       <c r="D147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
-        <v>34394</v>
+        <v>34486</v>
       </c>
       <c r="B148" t="inlineStr"/>
       <c r="C148" t="n">
-        <v>0.1276161306789178</v>
+        <v>0.1307018690367272</v>
       </c>
       <c r="D148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
-        <v>34425</v>
+        <v>34516</v>
       </c>
       <c r="B149" t="inlineStr"/>
       <c r="C149" t="n">
-        <v>0.1314233144959916</v>
+        <v>0.1287001287001287</v>
       </c>
       <c r="D149" t="inlineStr"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
-        <v>34455</v>
+        <v>34547</v>
       </c>
       <c r="B150" t="inlineStr"/>
       <c r="C150" t="n">
-        <v>0.1280737704918033</v>
+        <v>0.1289490651192779</v>
       </c>
       <c r="D150" t="inlineStr"/>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
-        <v>34486</v>
+        <v>34578</v>
       </c>
       <c r="B151" t="inlineStr"/>
       <c r="C151" t="n">
-        <v>0.1307018690367272</v>
+        <v>0.1337255950788981</v>
       </c>
       <c r="D151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
-        <v>34516</v>
+        <v>34608</v>
       </c>
       <c r="B152" t="inlineStr"/>
       <c r="C152" t="n">
-        <v>0.1287001287001287</v>
+        <v>0.1398601398601398</v>
       </c>
       <c r="D152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
-        <v>34547</v>
+        <v>34639</v>
       </c>
       <c r="B153" t="inlineStr"/>
       <c r="C153" t="n">
-        <v>0.1289490651192779</v>
+        <v>0.132749236691889</v>
       </c>
       <c r="D153" t="inlineStr"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
-        <v>34578</v>
+        <v>34669</v>
       </c>
       <c r="B154" t="inlineStr"/>
       <c r="C154" t="n">
-        <v>0.1337255950788981</v>
+        <v>0.134698275862069</v>
       </c>
       <c r="D154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
-        <v>34608</v>
+        <v>34700</v>
       </c>
       <c r="B155" t="inlineStr"/>
       <c r="C155" t="n">
-        <v>0.1398601398601398</v>
+        <v>0.1334400854016547</v>
       </c>
       <c r="D155" t="inlineStr"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
-        <v>34639</v>
+        <v>34731</v>
       </c>
       <c r="B156" t="inlineStr"/>
       <c r="C156" t="n">
-        <v>0.132749236691889</v>
+        <v>0.1362397820163488</v>
       </c>
       <c r="D156" t="inlineStr"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
-        <v>34669</v>
+        <v>34759</v>
       </c>
       <c r="B157" t="inlineStr"/>
       <c r="C157" t="n">
-        <v>0.134698275862069</v>
+        <v>0.1362026695723236</v>
       </c>
       <c r="D157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
-        <v>34700</v>
+        <v>34790</v>
       </c>
       <c r="B158" t="inlineStr"/>
       <c r="C158" t="n">
-        <v>0.1334400854016547</v>
+        <v>0.1374570446735395</v>
       </c>
       <c r="D158" t="inlineStr"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
-        <v>34731</v>
+        <v>34820</v>
       </c>
       <c r="B159" t="inlineStr"/>
       <c r="C159" t="n">
-        <v>0.1362397820163488</v>
+        <v>0.1362954886193267</v>
       </c>
       <c r="D159" t="inlineStr"/>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
-        <v>34759</v>
+        <v>34851</v>
       </c>
       <c r="B160" t="inlineStr"/>
       <c r="C160" t="n">
-        <v>0.1362026695723236</v>
+        <v>0.1376651982378854</v>
       </c>
       <c r="D160" t="inlineStr"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
-        <v>34790</v>
+        <v>34881</v>
       </c>
       <c r="B161" t="inlineStr"/>
       <c r="C161" t="n">
-        <v>0.1374570446735395</v>
+        <v>0.1413427561837456</v>
       </c>
       <c r="D161" t="inlineStr"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
-        <v>34820</v>
+        <v>34912</v>
       </c>
       <c r="B162" t="inlineStr"/>
       <c r="C162" t="n">
-        <v>0.1362954886193267</v>
+        <v>0.1368363437328955</v>
       </c>
       <c r="D162" t="inlineStr"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
-        <v>34851</v>
+        <v>34943</v>
       </c>
       <c r="B163" t="inlineStr"/>
       <c r="C163" t="n">
-        <v>0.1376651982378854</v>
+        <v>0.1445713459592309</v>
       </c>
       <c r="D163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
-        <v>34881</v>
+        <v>34973</v>
       </c>
       <c r="B164" t="inlineStr"/>
       <c r="C164" t="n">
-        <v>0.1413427561837456</v>
+        <v>0.1506250941406838</v>
       </c>
       <c r="D164" t="inlineStr"/>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
-        <v>34912</v>
+        <v>35004</v>
       </c>
       <c r="B165" t="inlineStr"/>
       <c r="C165" t="n">
-        <v>0.1368363437328955</v>
+        <v>0.1524390243902439</v>
       </c>
       <c r="D165" t="inlineStr"/>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
-        <v>34943</v>
+        <v>35034</v>
       </c>
       <c r="B166" t="inlineStr"/>
       <c r="C166" t="n">
-        <v>0.1445713459592309</v>
+        <v>0.1504890895410083</v>
       </c>
       <c r="D166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
-        <v>34973</v>
+        <v>35065</v>
       </c>
       <c r="B167" t="inlineStr"/>
       <c r="C167" t="n">
-        <v>0.1506250941406838</v>
+        <v>0.1442585112521639</v>
       </c>
       <c r="D167" t="inlineStr"/>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
-        <v>35004</v>
+        <v>35096</v>
       </c>
       <c r="B168" t="inlineStr"/>
       <c r="C168" t="n">
-        <v>0.1524390243902439</v>
+        <v>0.14801657785672</v>
       </c>
       <c r="D168" t="inlineStr"/>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
-        <v>35034</v>
+        <v>35125</v>
       </c>
       <c r="B169" t="inlineStr"/>
       <c r="C169" t="n">
-        <v>0.1504890895410083</v>
+        <v>0.1497454327643007</v>
       </c>
       <c r="D169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
-        <v>35065</v>
+        <v>35156</v>
       </c>
       <c r="B170" t="inlineStr"/>
       <c r="C170" t="n">
-        <v>0.1442585112521639</v>
+        <v>0.1475796930342385</v>
       </c>
       <c r="D170" t="inlineStr"/>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
-        <v>35096</v>
+        <v>35186</v>
       </c>
       <c r="B171" t="inlineStr"/>
       <c r="C171" t="n">
-        <v>0.14801657785672</v>
+        <v>0.1490312965722802</v>
       </c>
       <c r="D171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
-        <v>35125</v>
+        <v>35217</v>
       </c>
       <c r="B172" t="inlineStr"/>
       <c r="C172" t="n">
-        <v>0.1497454327643007</v>
+        <v>0.1510345869204048</v>
       </c>
       <c r="D172" t="inlineStr"/>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
-        <v>35156</v>
+        <v>35247</v>
       </c>
       <c r="B173" t="inlineStr"/>
       <c r="C173" t="n">
-        <v>0.1475796930342385</v>
+        <v>0.1515840533575868</v>
       </c>
       <c r="D173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
-        <v>35186</v>
+        <v>35278</v>
       </c>
       <c r="B174" t="inlineStr"/>
       <c r="C174" t="n">
-        <v>0.1490312965722802</v>
+        <v>0.1508523155830442</v>
       </c>
       <c r="D174" t="inlineStr"/>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
-        <v>35217</v>
+        <v>35309</v>
       </c>
       <c r="B175" t="inlineStr"/>
       <c r="C175" t="n">
-        <v>0.1510345869204048</v>
+        <v>0.1507386192342478</v>
       </c>
       <c r="D175" t="inlineStr"/>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
-        <v>35247</v>
+        <v>35339</v>
       </c>
       <c r="B176" t="inlineStr"/>
       <c r="C176" t="n">
-        <v>0.1515840533575868</v>
+        <v>0.1518833535844472</v>
       </c>
       <c r="D176" t="inlineStr"/>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
-        <v>35278</v>
+        <v>35370</v>
       </c>
       <c r="B177" t="inlineStr"/>
       <c r="C177" t="n">
-        <v>0.1508523155830442</v>
+        <v>0.1487431206306708</v>
       </c>
       <c r="D177" t="inlineStr"/>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
-        <v>35309</v>
+        <v>35400</v>
       </c>
       <c r="B178" t="inlineStr"/>
       <c r="C178" t="n">
-        <v>0.1507386192342478</v>
+        <v>0.146864444118079</v>
       </c>
       <c r="D178" t="inlineStr"/>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
-        <v>35339</v>
+        <v>35431</v>
       </c>
       <c r="B179" t="inlineStr"/>
       <c r="C179" t="n">
-        <v>0.1518833535844472</v>
+        <v>0.137797988149373</v>
       </c>
       <c r="D179" t="inlineStr"/>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
-        <v>35370</v>
+        <v>35462</v>
       </c>
       <c r="B180" t="inlineStr"/>
       <c r="C180" t="n">
-        <v>0.1487431206306708</v>
+        <v>0.1335826876836762</v>
       </c>
       <c r="D180" t="inlineStr"/>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
-        <v>35400</v>
+        <v>35490</v>
       </c>
       <c r="B181" t="inlineStr"/>
       <c r="C181" t="n">
-        <v>0.146864444118079</v>
+        <v>0.1324152542372881</v>
       </c>
       <c r="D181" t="inlineStr"/>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
-        <v>35431</v>
+        <v>35521</v>
       </c>
       <c r="B182" t="inlineStr"/>
       <c r="C182" t="n">
-        <v>0.137797988149373</v>
+        <v>0.1273074474856779</v>
       </c>
       <c r="D182" t="inlineStr"/>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
-        <v>35462</v>
+        <v>35551</v>
       </c>
       <c r="B183" t="inlineStr"/>
       <c r="C183" t="n">
-        <v>0.1335826876836762</v>
+        <v>0.1293326435592344</v>
       </c>
       <c r="D183" t="inlineStr"/>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
-        <v>35490</v>
+        <v>35582</v>
       </c>
       <c r="B184" t="inlineStr"/>
       <c r="C184" t="n">
-        <v>0.1324152542372881</v>
+        <v>0.1295001295001295</v>
       </c>
       <c r="D184" t="inlineStr"/>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
-        <v>35521</v>
+        <v>35612</v>
       </c>
       <c r="B185" t="inlineStr"/>
       <c r="C185" t="n">
-        <v>0.1273074474856779</v>
+        <v>0.125140783381304</v>
       </c>
       <c r="D185" t="inlineStr"/>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
-        <v>35551</v>
+        <v>35643</v>
       </c>
       <c r="B186" t="inlineStr"/>
       <c r="C186" t="n">
-        <v>0.1293326435592344</v>
+        <v>0.1269357705001269</v>
       </c>
       <c r="D186" t="inlineStr"/>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
-        <v>35582</v>
+        <v>35674</v>
       </c>
       <c r="B187" t="inlineStr"/>
       <c r="C187" t="n">
-        <v>0.1295001295001295</v>
+        <v>0.1320655044902272</v>
       </c>
       <c r="D187" t="inlineStr"/>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
-        <v>35612</v>
+        <v>35704</v>
       </c>
       <c r="B188" t="inlineStr"/>
       <c r="C188" t="n">
-        <v>0.125140783381304</v>
+        <v>0.1334400854016547</v>
       </c>
       <c r="D188" t="inlineStr"/>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
-        <v>35643</v>
+        <v>35735</v>
       </c>
       <c r="B189" t="inlineStr"/>
       <c r="C189" t="n">
-        <v>0.1269357705001269</v>
+        <v>0.1291155584247902</v>
       </c>
       <c r="D189" t="inlineStr"/>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
-        <v>35674</v>
+        <v>35765</v>
       </c>
       <c r="B190" t="inlineStr"/>
       <c r="C190" t="n">
-        <v>0.1320655044902272</v>
+        <v>0.1263583522870862</v>
       </c>
       <c r="D190" t="inlineStr"/>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
-        <v>35704</v>
-      </c>
-      <c r="B191" t="inlineStr"/>
+        <v>35796</v>
+      </c>
+      <c r="B191" t="n">
+        <v>866171000000</v>
+      </c>
       <c r="C191" t="n">
-        <v>0.1334400854016547</v>
-      </c>
-      <c r="D191" t="inlineStr"/>
+        <v>0.1229709788489916</v>
+      </c>
+      <c r="D191" t="n">
+        <v>106513895720.6099</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
-        <v>35735</v>
-      </c>
-      <c r="B192" t="inlineStr"/>
+        <v>35827</v>
+      </c>
+      <c r="B192" t="n">
+        <v>840564000000</v>
+      </c>
       <c r="C192" t="n">
-        <v>0.1291155584247902</v>
-      </c>
-      <c r="D192" t="inlineStr"/>
+        <v>0.1249219237976265</v>
+      </c>
+      <c r="D192" t="n">
+        <v>105004871955.0281</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
-        <v>35765</v>
-      </c>
-      <c r="B193" t="inlineStr"/>
+        <v>35855</v>
+      </c>
+      <c r="B193" t="n">
+        <v>860182000000</v>
+      </c>
       <c r="C193" t="n">
-        <v>0.1263583522870862</v>
-      </c>
-      <c r="D193" t="inlineStr"/>
+        <v>0.1247816321437484</v>
+      </c>
+      <c r="D193" t="n">
+        <v>107334913900.6738</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
-        <v>35796</v>
+        <v>35886</v>
       </c>
       <c r="B194" t="n">
-        <v>866171000000</v>
+        <v>859006000000</v>
       </c>
       <c r="C194" t="n">
-        <v>0.1229709788489916</v>
+        <v>0.1289823294208693</v>
       </c>
       <c r="D194" t="n">
-        <v>106513895720.6099</v>
+        <v>110796594866.5033</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
-        <v>35827</v>
+        <v>35916</v>
       </c>
       <c r="B195" t="n">
-        <v>840564000000</v>
+        <v>860771000000</v>
       </c>
       <c r="C195" t="n">
-        <v>0.1249219237976265</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="D195" t="n">
-        <v>105004871955.0281</v>
+        <v>109792219387.7551</v>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
-        <v>35855</v>
+        <v>35947</v>
       </c>
       <c r="B196" t="n">
-        <v>860182000000</v>
+        <v>871209000000</v>
       </c>
       <c r="C196" t="n">
-        <v>0.1247816321437484</v>
+        <v>0.1251721116535236</v>
       </c>
       <c r="D196" t="n">
-        <v>107334913900.6738</v>
+        <v>109051070221.5546</v>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
-        <v>35886</v>
+        <v>35977</v>
       </c>
       <c r="B197" t="n">
-        <v>859006000000</v>
+        <v>861701000000</v>
       </c>
       <c r="C197" t="n">
-        <v>0.1289823294208693</v>
+        <v>0.1260398285858331</v>
       </c>
       <c r="D197" t="n">
-        <v>110796594866.5033</v>
+        <v>108608646332.241</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
-        <v>35916</v>
+        <v>36008</v>
       </c>
       <c r="B198" t="n">
-        <v>860771000000</v>
+        <v>875102000000</v>
       </c>
       <c r="C198" t="n">
-        <v>0.1275510204081633</v>
+        <v>0.1249843769528809</v>
       </c>
       <c r="D198" t="n">
-        <v>109792219387.7551</v>
+        <v>109374078240.22</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
-        <v>35947</v>
+        <v>36039</v>
       </c>
       <c r="B199" t="n">
-        <v>871209000000</v>
+        <v>880147000000</v>
       </c>
       <c r="C199" t="n">
-        <v>0.1251721116535236</v>
+        <v>0.1272912423625255</v>
       </c>
       <c r="D199" t="n">
-        <v>109051070221.5546</v>
+        <v>112035005091.6497</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
-        <v>35977</v>
+        <v>36069</v>
       </c>
       <c r="B200" t="n">
-        <v>861701000000</v>
+        <v>872536000000</v>
       </c>
       <c r="C200" t="n">
-        <v>0.1260398285858331</v>
+        <v>0.1286670097786927</v>
       </c>
       <c r="D200" t="n">
-        <v>108608646332.241</v>
+        <v>112266598044.2615</v>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
-        <v>36008</v>
+        <v>36100</v>
       </c>
       <c r="B201" t="n">
-        <v>875102000000</v>
+        <v>876396000000</v>
       </c>
       <c r="C201" t="n">
-        <v>0.1249843769528809</v>
+        <v>0.1227747084100675</v>
       </c>
       <c r="D201" t="n">
-        <v>109374078240.22</v>
+        <v>107599263351.7495</v>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
-        <v>36039</v>
+        <v>36130</v>
       </c>
       <c r="B202" t="n">
-        <v>880147000000</v>
+        <v>887781000000</v>
       </c>
       <c r="C202" t="n">
-        <v>0.1272912423625255</v>
+        <v>0.1241156758098548</v>
       </c>
       <c r="D202" t="n">
-        <v>112035005091.6497</v>
+        <v>110187538786.1487</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
-        <v>36069</v>
+        <v>36161</v>
       </c>
       <c r="B203" t="n">
-        <v>872536000000</v>
+        <v>902424000000</v>
       </c>
       <c r="C203" t="n">
-        <v>0.1286670097786927</v>
+        <v>0.1279918085242545</v>
       </c>
       <c r="D203" t="n">
-        <v>112266598044.2615</v>
+        <v>115502879815.6918</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
-        <v>36100</v>
+        <v>36192</v>
       </c>
       <c r="B204" t="n">
-        <v>876396000000</v>
+        <v>892421000000</v>
       </c>
       <c r="C204" t="n">
-        <v>0.1227747084100675</v>
+        <v>0.1224589762429586</v>
       </c>
       <c r="D204" t="n">
-        <v>107599263351.7495</v>
+        <v>109284962037.7174</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
-        <v>36130</v>
+        <v>36220</v>
       </c>
       <c r="B205" t="n">
-        <v>887781000000</v>
+        <v>894623000000</v>
       </c>
       <c r="C205" t="n">
-        <v>0.1241156758098548</v>
+        <v>0.1210653753026634</v>
       </c>
       <c r="D205" t="n">
-        <v>110187538786.1487</v>
+        <v>108307869249.3947</v>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
-        <v>36161</v>
+        <v>36251</v>
       </c>
       <c r="B206" t="n">
-        <v>902424000000</v>
+        <v>888489000000</v>
       </c>
       <c r="C206" t="n">
-        <v>0.1279918085242545</v>
+        <v>0.1185817621249852</v>
       </c>
       <c r="D206" t="n">
-        <v>115502879815.6918</v>
+        <v>105358591248.666</v>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
-        <v>36192</v>
+        <v>36281</v>
       </c>
       <c r="B207" t="n">
-        <v>892421000000</v>
+        <v>895380000000</v>
       </c>
       <c r="C207" t="n">
-        <v>0.1224589762429586</v>
+        <v>0.1162925921618793</v>
       </c>
       <c r="D207" t="n">
-        <v>109284962037.7174</v>
+        <v>104126061169.9035</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
-        <v>36220</v>
+        <v>36312</v>
       </c>
       <c r="B208" t="n">
-        <v>894623000000</v>
+        <v>898006000000</v>
       </c>
       <c r="C208" t="n">
-        <v>0.1210653753026634</v>
+        <v>0.1184553423359394</v>
       </c>
       <c r="D208" t="n">
-        <v>108307869249.3947</v>
+        <v>106373608149.7276</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
-        <v>36251</v>
+        <v>36342</v>
       </c>
       <c r="B209" t="n">
-        <v>888489000000</v>
+        <v>894198000000</v>
       </c>
       <c r="C209" t="n">
-        <v>0.1185817621249852</v>
+        <v>0.1217878455730118</v>
       </c>
       <c r="D209" t="n">
-        <v>105358591248.666</v>
+        <v>108902447935.696</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
-        <v>36281</v>
+        <v>36373</v>
       </c>
       <c r="B210" t="n">
-        <v>895380000000</v>
+        <v>911379000000</v>
       </c>
       <c r="C210" t="n">
-        <v>0.1162925921618793</v>
+        <v>0.121197430614471</v>
       </c>
       <c r="D210" t="n">
-        <v>104126061169.9035</v>
+        <v>110456793115.9859</v>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
-        <v>36312</v>
+        <v>36404</v>
       </c>
       <c r="B211" t="n">
-        <v>898006000000</v>
+        <v>921677000000</v>
       </c>
       <c r="C211" t="n">
-        <v>0.1184553423359394</v>
+        <v>0.1224140041620761</v>
       </c>
       <c r="D211" t="n">
-        <v>106373608149.7276</v>
+        <v>112826172114.0898</v>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
-        <v>36342</v>
+        <v>36434</v>
       </c>
       <c r="B212" t="n">
-        <v>894198000000</v>
+        <v>956004000000</v>
       </c>
       <c r="C212" t="n">
-        <v>0.1217878455730118</v>
+        <v>0.1220554131575735</v>
       </c>
       <c r="D212" t="n">
-        <v>108902447935.696</v>
+        <v>116685463200.2929</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
-        <v>36373</v>
+        <v>36465</v>
       </c>
       <c r="B213" t="n">
-        <v>911379000000</v>
+        <v>947459000000</v>
       </c>
       <c r="C213" t="n">
-        <v>0.121197430614471</v>
+        <v>0.1176193836744295</v>
       </c>
       <c r="D213" t="n">
-        <v>110456793115.9859</v>
+        <v>111439543636.7913</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
-        <v>36404</v>
+        <v>36495</v>
       </c>
       <c r="B214" t="n">
-        <v>921677000000</v>
+        <v>965538000000</v>
       </c>
       <c r="C214" t="n">
-        <v>0.1224140041620761</v>
+        <v>0.1173020527859237</v>
       </c>
       <c r="D214" t="n">
-        <v>112826172114.0898</v>
+        <v>113259589442.8152</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
-        <v>36434</v>
+        <v>36526</v>
       </c>
       <c r="B215" t="n">
-        <v>956004000000</v>
+        <v>975471000000</v>
       </c>
       <c r="C215" t="n">
-        <v>0.1220554131575735</v>
+        <v>0.1128184300187279</v>
       </c>
       <c r="D215" t="n">
-        <v>116685463200.2929</v>
+        <v>110051106748.7985</v>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
-        <v>36465</v>
+        <v>36557</v>
       </c>
       <c r="B216" t="n">
-        <v>947459000000</v>
+        <v>968803000000</v>
       </c>
       <c r="C216" t="n">
-        <v>0.1176193836744295</v>
+        <v>0.1143445200388771</v>
       </c>
       <c r="D216" t="n">
-        <v>111439543636.7913</v>
+        <v>110777314047.2243</v>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
-        <v>36495</v>
+        <v>36586</v>
       </c>
       <c r="B217" t="n">
-        <v>965538000000</v>
+        <v>986845000000</v>
       </c>
       <c r="C217" t="n">
-        <v>0.1173020527859237</v>
+        <v>0.1153828402639959</v>
       </c>
       <c r="D217" t="n">
-        <v>113259589442.8152</v>
+        <v>113864979000.3231</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
-        <v>36526</v>
+        <v>36617</v>
       </c>
       <c r="B218" t="n">
-        <v>975471000000</v>
+        <v>1002483000000</v>
       </c>
       <c r="C218" t="n">
-        <v>0.1128184300187279</v>
+        <v>0.1122498232065285</v>
       </c>
       <c r="D218" t="n">
-        <v>110051106748.7985</v>
+        <v>112528539517.5503</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
-        <v>36557</v>
+        <v>36647</v>
       </c>
       <c r="B219" t="n">
-        <v>968803000000</v>
+        <v>983642000000</v>
       </c>
       <c r="C219" t="n">
-        <v>0.1143445200388771</v>
+        <v>0.111858074475106</v>
       </c>
       <c r="D219" t="n">
-        <v>110777314047.2243</v>
+        <v>110028300092.8422</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
-        <v>36586</v>
+        <v>36678</v>
       </c>
       <c r="B220" t="n">
-        <v>986845000000</v>
+        <v>980883000000</v>
       </c>
       <c r="C220" t="n">
-        <v>0.1153828402639959</v>
+        <v>0.1133221522143148</v>
       </c>
       <c r="D220" t="n">
-        <v>113864979000.3231</v>
+        <v>111155772630.4338</v>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
-        <v>36617</v>
+        <v>36708</v>
       </c>
       <c r="B221" t="n">
-        <v>1002483000000</v>
+        <v>958386000000</v>
       </c>
       <c r="C221" t="n">
-        <v>0.1122498232065285</v>
+        <v>0.1091917625734315</v>
       </c>
       <c r="D221" t="n">
-        <v>112528539517.5503</v>
+        <v>104647856565.7007</v>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
-        <v>36647</v>
+        <v>36739</v>
       </c>
       <c r="B222" t="n">
-        <v>983642000000</v>
+        <v>986214000000</v>
       </c>
       <c r="C222" t="n">
-        <v>0.111858074475106</v>
+        <v>0.1061469710961798</v>
       </c>
       <c r="D222" t="n">
-        <v>110028300092.8422</v>
+        <v>104683628952.6478</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
-        <v>36678</v>
+        <v>36770</v>
       </c>
       <c r="B223" t="n">
-        <v>980883000000</v>
+        <v>990896000000</v>
       </c>
       <c r="C223" t="n">
-        <v>0.1133221522143148</v>
+        <v>0.1040257983980027</v>
       </c>
       <c r="D223" t="n">
-        <v>111155772630.4338</v>
+        <v>103078747529.3873</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
-        <v>36708</v>
+        <v>36800</v>
       </c>
       <c r="B224" t="n">
-        <v>958386000000</v>
+        <v>986961000000</v>
       </c>
       <c r="C224" t="n">
-        <v>0.1091917625734315</v>
+        <v>0.1001702894921366</v>
       </c>
       <c r="D224" t="n">
-        <v>104647856565.7007</v>
+        <v>98864169087.44867</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
-        <v>36739</v>
+        <v>36831</v>
       </c>
       <c r="B225" t="n">
-        <v>986214000000</v>
+        <v>998471000000</v>
       </c>
       <c r="C225" t="n">
-        <v>0.1061469710961798</v>
+        <v>0.1000120014401728</v>
       </c>
       <c r="D225" t="n">
-        <v>104683628952.6478</v>
+        <v>99859083089.97081</v>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
-        <v>36770</v>
+        <v>36861</v>
       </c>
       <c r="B226" t="n">
-        <v>990896000000</v>
+        <v>992459000000</v>
       </c>
       <c r="C226" t="n">
-        <v>0.1040257983980027</v>
+        <v>0.1062213866139809</v>
       </c>
       <c r="D226" t="n">
-        <v>103078747529.3873</v>
+        <v>105420371137.5248</v>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
-        <v>36800</v>
+        <v>36892</v>
       </c>
       <c r="B227" t="n">
-        <v>986961000000</v>
+        <v>1006137000000</v>
       </c>
       <c r="C227" t="n">
-        <v>0.1001702894921366</v>
+        <v>0.1056579851022241</v>
       </c>
       <c r="D227" t="n">
-        <v>98864169087.44867</v>
+        <v>106306408156.7965</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
-        <v>36831</v>
+        <v>36923</v>
       </c>
       <c r="B228" t="n">
-        <v>998471000000</v>
+        <v>996586000000</v>
       </c>
       <c r="C228" t="n">
-        <v>0.1000120014401728</v>
+        <v>0.1020616452337212</v>
       </c>
       <c r="D228" t="n">
-        <v>99859083089.97081</v>
+        <v>101713206776.8932</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
-        <v>36861</v>
+        <v>36951</v>
       </c>
       <c r="B229" t="n">
-        <v>992459000000</v>
+        <v>1018615000000</v>
       </c>
       <c r="C229" t="n">
-        <v>0.1062213866139809</v>
+        <v>0.09615199707697929</v>
       </c>
       <c r="D229" t="n">
-        <v>105420371137.5248</v>
+        <v>97941866502.56726</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
-        <v>36892</v>
+        <v>36982</v>
       </c>
       <c r="B230" t="n">
-        <v>1006137000000</v>
+        <v>1028829000000</v>
       </c>
       <c r="C230" t="n">
-        <v>0.1056579851022241</v>
+        <v>0.09763146076191592</v>
       </c>
       <c r="D230" t="n">
-        <v>106306408156.7965</v>
+        <v>100446078144.2212</v>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
-        <v>36923</v>
+        <v>37012</v>
       </c>
       <c r="B231" t="n">
-        <v>996586000000</v>
+        <v>1030592000000</v>
       </c>
       <c r="C231" t="n">
-        <v>0.1020616452337212</v>
+        <v>0.09260888489641696</v>
       </c>
       <c r="D231" t="n">
-        <v>101713206776.8932</v>
+        <v>95441975903.16815</v>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
-        <v>36951</v>
+        <v>37043</v>
       </c>
       <c r="B232" t="n">
-        <v>1018615000000</v>
+        <v>1056228000000</v>
       </c>
       <c r="C232" t="n">
-        <v>0.09615199707697929</v>
+        <v>0.09215995281410416</v>
       </c>
       <c r="D232" t="n">
-        <v>97941866502.56726</v>
+        <v>97341922640.93561</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
-        <v>36982</v>
+        <v>37073</v>
       </c>
       <c r="B233" t="n">
-        <v>1028829000000</v>
+        <v>1014868000000</v>
       </c>
       <c r="C233" t="n">
-        <v>0.09763146076191592</v>
+        <v>0.09456533045854729</v>
       </c>
       <c r="D233" t="n">
-        <v>100446078144.2212</v>
+        <v>95971327791.80496</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
-        <v>37012</v>
+        <v>37104</v>
       </c>
       <c r="B234" t="n">
-        <v>1030592000000</v>
+        <v>1030481000000</v>
       </c>
       <c r="C234" t="n">
-        <v>0.09260888489641696</v>
+        <v>0.09632148258025988</v>
       </c>
       <c r="D234" t="n">
-        <v>95441975903.16815</v>
+        <v>99257457690.78879</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
-        <v>37043</v>
+        <v>37135</v>
       </c>
       <c r="B235" t="n">
-        <v>1056228000000</v>
+        <v>1058019000000</v>
       </c>
       <c r="C235" t="n">
-        <v>0.09215995281410416</v>
+        <v>0.09365575889261431</v>
       </c>
       <c r="D235" t="n">
-        <v>97341922640.93561</v>
+        <v>99089572367.8049</v>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
-        <v>37073</v>
+        <v>37165</v>
       </c>
       <c r="B236" t="n">
-        <v>1014868000000</v>
+        <v>1071663000000</v>
       </c>
       <c r="C236" t="n">
-        <v>0.09456533045854729</v>
+        <v>0.09380071100938946</v>
       </c>
       <c r="D236" t="n">
-        <v>95971327791.80496</v>
+        <v>100522751362.4553</v>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
-        <v>37104</v>
+        <v>37196</v>
       </c>
       <c r="B237" t="n">
-        <v>1030481000000</v>
+        <v>1095416000000</v>
       </c>
       <c r="C237" t="n">
-        <v>0.09632148258025988</v>
+        <v>0.09380599045055017</v>
       </c>
       <c r="D237" t="n">
-        <v>99257457690.78879</v>
+        <v>102756582835.3799</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
-        <v>37135</v>
+        <v>37226</v>
       </c>
       <c r="B238" t="n">
-        <v>1058019000000</v>
+        <v>1057699000000</v>
       </c>
       <c r="C238" t="n">
-        <v>0.09365575889261431</v>
+        <v>0.09543714986495644</v>
       </c>
       <c r="D238" t="n">
-        <v>99089572367.8049</v>
+        <v>100943777975.0146</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
-        <v>37165</v>
+        <v>37257</v>
       </c>
       <c r="B239" t="n">
-        <v>1071663000000</v>
+        <v>1053056000000</v>
       </c>
       <c r="C239" t="n">
-        <v>0.09380071100938946</v>
+        <v>0.09381127048603619</v>
       </c>
       <c r="D239" t="n">
-        <v>100522751362.4553</v>
+        <v>98788521252.94333</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
-        <v>37196</v>
+        <v>37288</v>
       </c>
       <c r="B240" t="n">
-        <v>1095416000000</v>
+        <v>1032093000000</v>
       </c>
       <c r="C240" t="n">
-        <v>0.09380599045055017</v>
+        <v>0.09584143992179339</v>
       </c>
       <c r="D240" t="n">
-        <v>102756582835.3799</v>
+        <v>98917279253.20351</v>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
-        <v>37226</v>
+        <v>37316</v>
       </c>
       <c r="B241" t="n">
-        <v>1057699000000</v>
+        <v>1055919000000</v>
       </c>
       <c r="C241" t="n">
-        <v>0.09543714986495644</v>
+        <v>0.09651019147621989</v>
       </c>
       <c r="D241" t="n">
-        <v>100943777975.0146</v>
+        <v>101906944873.3786</v>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
-        <v>37257</v>
+        <v>37347</v>
       </c>
       <c r="B242" t="n">
-        <v>1053056000000</v>
+        <v>1057670000000</v>
       </c>
       <c r="C242" t="n">
-        <v>0.09381127048603619</v>
+        <v>0.0973852071870283</v>
       </c>
       <c r="D242" t="n">
-        <v>98788521252.94333</v>
+        <v>103001412085.5042</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
-        <v>37288</v>
+        <v>37377</v>
       </c>
       <c r="B243" t="n">
-        <v>1032093000000</v>
+        <v>1038684000000</v>
       </c>
       <c r="C243" t="n">
-        <v>0.09584143992179339</v>
+        <v>0.1026904908605463</v>
       </c>
       <c r="D243" t="n">
-        <v>98917279253.20351</v>
+        <v>106662969808.9957</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
-        <v>37316</v>
+        <v>37408</v>
       </c>
       <c r="B244" t="n">
-        <v>1055919000000</v>
+        <v>1057284000000</v>
       </c>
       <c r="C244" t="n">
-        <v>0.09651019147621989</v>
+        <v>0.109158388822181</v>
       </c>
       <c r="D244" t="n">
-        <v>101906944873.3786</v>
+        <v>115411417967.4708</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
-        <v>37347</v>
+        <v>37438</v>
       </c>
       <c r="B245" t="n">
-        <v>1057670000000</v>
+        <v>1047447000000</v>
       </c>
       <c r="C245" t="n">
-        <v>0.0973852071870283</v>
+        <v>0.1048382869423913</v>
       </c>
       <c r="D245" t="n">
-        <v>103001412085.5042</v>
+        <v>109812549142.947</v>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
-        <v>37377</v>
+        <v>37469</v>
       </c>
       <c r="B246" t="n">
-        <v>1038684000000</v>
+        <v>1066994000000</v>
       </c>
       <c r="C246" t="n">
-        <v>0.1026904908605463</v>
+        <v>0.1065246338215712</v>
       </c>
       <c r="D246" t="n">
-        <v>106662969808.9957</v>
+        <v>113661145139.8136</v>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
-        <v>37408</v>
+        <v>37500</v>
       </c>
       <c r="B247" t="n">
-        <v>1057284000000</v>
+        <v>1074166000000</v>
       </c>
       <c r="C247" t="n">
-        <v>0.109158388822181</v>
+        <v>0.107781849536538</v>
       </c>
       <c r="D247" t="n">
-        <v>115411417967.4708</v>
+        <v>115775598189.2649</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
-        <v>37438</v>
+        <v>37530</v>
       </c>
       <c r="B248" t="n">
-        <v>1047447000000</v>
+        <v>1070733000000</v>
       </c>
       <c r="C248" t="n">
-        <v>0.1048382869423913</v>
+        <v>0.1094163730660656</v>
       </c>
       <c r="D248" t="n">
-        <v>109812549142.947</v>
+        <v>117155721382.1476</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
-        <v>37469</v>
+        <v>37561</v>
       </c>
       <c r="B249" t="n">
-        <v>1066994000000</v>
+        <v>1074964000000</v>
       </c>
       <c r="C249" t="n">
-        <v>0.1065246338215712</v>
+        <v>0.1105558749391943</v>
       </c>
       <c r="D249" t="n">
-        <v>113661145139.8136</v>
+        <v>118843585548.136</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
-        <v>37500</v>
+        <v>37591</v>
       </c>
       <c r="B250" t="n">
-        <v>1074166000000</v>
+        <v>1090087000000</v>
       </c>
       <c r="C250" t="n">
-        <v>0.107781849536538</v>
+        <v>0.1151211650261901</v>
       </c>
       <c r="D250" t="n">
-        <v>115775598189.2649</v>
+        <v>125492085419.9044</v>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
-        <v>37530</v>
+        <v>37622</v>
       </c>
       <c r="B251" t="n">
-        <v>1070733000000</v>
+        <v>1080435000000</v>
       </c>
       <c r="C251" t="n">
-        <v>0.1094163730660656</v>
+        <v>0.1165949607657957</v>
       </c>
       <c r="D251" t="n">
-        <v>117155721382.1476</v>
+        <v>125973276434.9925</v>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
-        <v>37561</v>
+        <v>37653</v>
       </c>
       <c r="B252" t="n">
-        <v>1074964000000</v>
+        <v>1066795000000</v>
       </c>
       <c r="C252" t="n">
-        <v>0.1105558749391943</v>
+        <v>0.117820324005891</v>
       </c>
       <c r="D252" t="n">
-        <v>118843585548.136</v>
+        <v>125690132547.8645</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
-        <v>37591</v>
+        <v>37681</v>
       </c>
       <c r="B253" t="n">
-        <v>1090087000000</v>
+        <v>1091568000000</v>
       </c>
       <c r="C253" t="n">
-        <v>0.1151211650261901</v>
+        <v>0.1184371039759336</v>
       </c>
       <c r="D253" t="n">
-        <v>125492085419.9044</v>
+        <v>129282152712.8019</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
-        <v>37622</v>
+        <v>37712</v>
       </c>
       <c r="B254" t="n">
-        <v>1080435000000</v>
+        <v>1095981000000</v>
       </c>
       <c r="C254" t="n">
-        <v>0.1165949607657957</v>
+        <v>0.1226422036351149</v>
       </c>
       <c r="D254" t="n">
-        <v>125973276434.9925</v>
+        <v>134413524982.2169</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
-        <v>37653</v>
+        <v>37742</v>
       </c>
       <c r="B255" t="n">
-        <v>1066795000000</v>
+        <v>1097716000000</v>
       </c>
       <c r="C255" t="n">
-        <v>0.117820324005891</v>
+        <v>0.1292574161442513</v>
       </c>
       <c r="D255" t="n">
-        <v>125690132547.8645</v>
+        <v>141887933820.2029</v>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
-        <v>37681</v>
+        <v>37773</v>
       </c>
       <c r="B256" t="n">
-        <v>1091568000000</v>
+        <v>1119739000000</v>
       </c>
       <c r="C256" t="n">
-        <v>0.1184371039759336</v>
+        <v>0.1253855605988415</v>
       </c>
       <c r="D256" t="n">
-        <v>129282152712.8019</v>
+        <v>140399102239.3861</v>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
-        <v>37712</v>
+        <v>37803</v>
       </c>
       <c r="B257" t="n">
-        <v>1095981000000</v>
+        <v>1096437000000</v>
       </c>
       <c r="C257" t="n">
-        <v>0.1226422036351149</v>
+        <v>0.1217255818482813</v>
       </c>
       <c r="D257" t="n">
-        <v>134413524982.2169</v>
+        <v>133464431784.9839</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
-        <v>37742</v>
+        <v>37834</v>
       </c>
       <c r="B258" t="n">
-        <v>1097716000000</v>
+        <v>1106567000000</v>
       </c>
       <c r="C258" t="n">
-        <v>0.1292574161442513</v>
+        <v>0.119422948313748</v>
       </c>
       <c r="D258" t="n">
-        <v>141887933820.2029</v>
+        <v>132149493646.6992</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
-        <v>37773</v>
+        <v>37865</v>
       </c>
       <c r="B259" t="n">
-        <v>1119739000000</v>
+        <v>1115806000000</v>
       </c>
       <c r="C259" t="n">
-        <v>0.1253855605988415</v>
+        <v>0.1290289282857217</v>
       </c>
       <c r="D259" t="n">
-        <v>140399102239.3861</v>
+        <v>143971252354.7779</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
-        <v>37803</v>
+        <v>37895</v>
       </c>
       <c r="B260" t="n">
-        <v>1096437000000</v>
+        <v>1125284000000</v>
       </c>
       <c r="C260" t="n">
-        <v>0.1217255818482813</v>
+        <v>0.1277041350598933</v>
       </c>
       <c r="D260" t="n">
-        <v>133464431784.9839</v>
+        <v>143703419916.7369</v>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
-        <v>37834</v>
+        <v>37926</v>
       </c>
       <c r="B261" t="n">
-        <v>1106567000000</v>
+        <v>1132313000000</v>
       </c>
       <c r="C261" t="n">
-        <v>0.119422948313748</v>
+        <v>0.1324398061081239</v>
       </c>
       <c r="D261" t="n">
-        <v>132149493646.6992</v>
+        <v>149963314173.7081</v>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
-        <v>37865</v>
+        <v>37956</v>
       </c>
       <c r="B262" t="n">
-        <v>1115806000000</v>
+        <v>1141285000000</v>
       </c>
       <c r="C262" t="n">
-        <v>0.1290289282857217</v>
+        <v>0.1390956004061591</v>
       </c>
       <c r="D262" t="n">
-        <v>143971252354.7779</v>
+        <v>158747722309.5433</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
-        <v>37895</v>
+        <v>37987</v>
       </c>
       <c r="B263" t="n">
-        <v>1125284000000</v>
+        <v>1142941000000</v>
       </c>
       <c r="C263" t="n">
-        <v>0.1277041350598933</v>
+        <v>0.1355307383714627</v>
       </c>
       <c r="D263" t="n">
-        <v>143703419916.7369</v>
+        <v>154903637645.0179</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
-        <v>37926</v>
+        <v>38018</v>
       </c>
       <c r="B264" t="n">
-        <v>1132313000000</v>
+        <v>1141447000000</v>
       </c>
       <c r="C264" t="n">
-        <v>0.1324398061081239</v>
+        <v>0.1353143352006712</v>
       </c>
       <c r="D264" t="n">
-        <v>149963314173.7081</v>
+        <v>154454141971.8005</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
-        <v>37956</v>
+        <v>38047</v>
       </c>
       <c r="B265" t="n">
-        <v>1141285000000</v>
+        <v>1165434000000</v>
       </c>
       <c r="C265" t="n">
-        <v>0.1390956004061591</v>
+        <v>0.1327051954084002</v>
       </c>
       <c r="D265" t="n">
-        <v>158747722309.5433</v>
+        <v>154659146705.5935</v>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
-        <v>37987</v>
+        <v>38078</v>
       </c>
       <c r="B266" t="n">
-        <v>1142941000000</v>
+        <v>1152565000000</v>
       </c>
       <c r="C266" t="n">
-        <v>0.1355307383714627</v>
+        <v>0.1308592216493496</v>
       </c>
       <c r="D266" t="n">
-        <v>154903637645.0179</v>
+        <v>150823758800.2827</v>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
-        <v>38018</v>
+        <v>38108</v>
       </c>
       <c r="B267" t="n">
-        <v>1141447000000</v>
+        <v>1156039000000</v>
       </c>
       <c r="C267" t="n">
-        <v>0.1353143352006712</v>
+        <v>0.1340931947703654</v>
       </c>
       <c r="D267" t="n">
-        <v>154454141971.8005</v>
+        <v>155016962789.1385</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
-        <v>38047</v>
+        <v>38139</v>
       </c>
       <c r="B268" t="n">
-        <v>1165434000000</v>
+        <v>1146407000000</v>
       </c>
       <c r="C268" t="n">
-        <v>0.1327051954084002</v>
+        <v>0.1330282552014048</v>
       </c>
       <c r="D268" t="n">
-        <v>154659146705.5935</v>
+        <v>152504522960.6769</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
-        <v>38078</v>
+        <v>38169</v>
       </c>
       <c r="B269" t="n">
-        <v>1152565000000</v>
+        <v>1134922000000</v>
       </c>
       <c r="C269" t="n">
-        <v>0.1308592216493496</v>
+        <v>0.1303865962579047</v>
       </c>
       <c r="D269" t="n">
-        <v>150823758800.2827</v>
+        <v>147978616598.2137</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
-        <v>38108</v>
+        <v>38200</v>
       </c>
       <c r="B270" t="n">
-        <v>1156039000000</v>
+        <v>1144971000000</v>
       </c>
       <c r="C270" t="n">
-        <v>0.1340931947703654</v>
+        <v>0.1333795715848161</v>
       </c>
       <c r="D270" t="n">
-        <v>155016962789.1385</v>
+        <v>152715741457.0384</v>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
-        <v>38139</v>
+        <v>38231</v>
       </c>
       <c r="B271" t="n">
-        <v>1146407000000</v>
+        <v>1158562000000</v>
       </c>
       <c r="C271" t="n">
-        <v>0.1330282552014048</v>
+        <v>0.137421154612541</v>
       </c>
       <c r="D271" t="n">
-        <v>152504522960.6769</v>
+        <v>159210927730.2148</v>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
-        <v>38169</v>
+        <v>38261</v>
       </c>
       <c r="B272" t="n">
-        <v>1134922000000</v>
+        <v>1150911000000</v>
       </c>
       <c r="C272" t="n">
-        <v>0.1303865962579047</v>
+        <v>0.1414927484966395</v>
       </c>
       <c r="D272" t="n">
-        <v>147978616598.2137</v>
+        <v>162845560665.0159</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
-        <v>38200</v>
+        <v>38292</v>
       </c>
       <c r="B273" t="n">
-        <v>1144971000000</v>
+        <v>1166940000000</v>
       </c>
       <c r="C273" t="n">
-        <v>0.1333795715848161</v>
+        <v>0.1487342713508047</v>
       </c>
       <c r="D273" t="n">
-        <v>152715741457.0384</v>
+        <v>173563970610.108</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
-        <v>38231</v>
+        <v>38322</v>
       </c>
       <c r="B274" t="n">
-        <v>1158562000000</v>
+        <v>1167217000000</v>
       </c>
       <c r="C274" t="n">
-        <v>0.137421154612541</v>
+        <v>0.1501478956772421</v>
       </c>
       <c r="D274" t="n">
-        <v>159210927730.2148</v>
+        <v>175255176348.7035</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
-        <v>38261</v>
+        <v>38353</v>
       </c>
       <c r="B275" t="n">
-        <v>1150911000000</v>
+        <v>1182178000000</v>
       </c>
       <c r="C275" t="n">
-        <v>0.1414927484966395</v>
+        <v>0.143110653157021</v>
       </c>
       <c r="D275" t="n">
-        <v>162845560665.0159</v>
+        <v>169182265727.8608</v>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
-        <v>38292</v>
+        <v>38384</v>
       </c>
       <c r="B276" t="n">
-        <v>1166940000000</v>
+        <v>1193213000000</v>
       </c>
       <c r="C276" t="n">
-        <v>0.1487342713508047</v>
+        <v>0.1460237726701907</v>
       </c>
       <c r="D276" t="n">
-        <v>173563970610.108</v>
+        <v>174237463859.1163</v>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
-        <v>38322</v>
+        <v>38412</v>
       </c>
       <c r="B277" t="n">
-        <v>1167217000000</v>
+        <v>1202546000000</v>
       </c>
       <c r="C277" t="n">
-        <v>0.1501478956772421</v>
+        <v>0.141468728337601</v>
       </c>
       <c r="D277" t="n">
-        <v>175255176348.7035</v>
+        <v>170122653387.4687</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
-        <v>38353</v>
+        <v>38443</v>
       </c>
       <c r="B278" t="n">
-        <v>1182178000000</v>
+        <v>1204895000000</v>
       </c>
       <c r="C278" t="n">
-        <v>0.143110653157021</v>
+        <v>0.1402622904832036</v>
       </c>
       <c r="D278" t="n">
-        <v>169182265727.8608</v>
+        <v>169001332491.7596</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
-        <v>38384</v>
+        <v>38473</v>
       </c>
       <c r="B279" t="n">
-        <v>1193213000000</v>
+        <v>1232347000000</v>
       </c>
       <c r="C279" t="n">
-        <v>0.1460237726701907</v>
+        <v>0.1344122153821339</v>
       </c>
       <c r="D279" t="n">
-        <v>174237463859.1163</v>
+        <v>165642490389.5266</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
-        <v>38412</v>
+        <v>38504</v>
       </c>
       <c r="B280" t="n">
-        <v>1202546000000</v>
+        <v>1269278000000</v>
       </c>
       <c r="C280" t="n">
-        <v>0.141468728337601</v>
+        <v>0.1281985539203118</v>
       </c>
       <c r="D280" t="n">
-        <v>170122653387.4687</v>
+        <v>162719604122.8655</v>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
-        <v>38443</v>
+        <v>38534</v>
       </c>
       <c r="B281" t="n">
-        <v>1204895000000</v>
+        <v>1247684000000</v>
       </c>
       <c r="C281" t="n">
-        <v>0.1402622904832036</v>
+        <v>0.1289357642022744</v>
       </c>
       <c r="D281" t="n">
-        <v>169001332491.7596</v>
+        <v>160871090022.9506</v>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
-        <v>38473</v>
+        <v>38565</v>
       </c>
       <c r="B282" t="n">
-        <v>1232347000000</v>
+        <v>1234266000000</v>
       </c>
       <c r="C282" t="n">
-        <v>0.1344122153821339</v>
+        <v>0.1323924642209365</v>
       </c>
       <c r="D282" t="n">
-        <v>165642490389.5266</v>
+        <v>163407517244.1184</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
-        <v>38504</v>
+        <v>38596</v>
       </c>
       <c r="B283" t="n">
-        <v>1269278000000</v>
+        <v>1249624000000</v>
       </c>
       <c r="C283" t="n">
-        <v>0.1281985539203118</v>
+        <v>0.1292473924338577</v>
       </c>
       <c r="D283" t="n">
-        <v>162719604122.8655</v>
+        <v>161510643522.7669</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
-        <v>38534</v>
+        <v>38626</v>
       </c>
       <c r="B284" t="n">
-        <v>1247684000000</v>
+        <v>1278403000000</v>
       </c>
       <c r="C284" t="n">
-        <v>0.1289357642022744</v>
+        <v>0.1257782529400667</v>
       </c>
       <c r="D284" t="n">
-        <v>160871090022.9506</v>
+        <v>160795295893.3401</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
-        <v>38565</v>
+        <v>38657</v>
       </c>
       <c r="B285" t="n">
-        <v>1234266000000</v>
+        <v>1272808000000</v>
       </c>
       <c r="C285" t="n">
-        <v>0.1323924642209365</v>
+        <v>0.1238114104595879</v>
       </c>
       <c r="D285" t="n">
-        <v>163407517244.1184</v>
+        <v>157588153724.2472</v>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
-        <v>38596</v>
+        <v>38687</v>
       </c>
       <c r="B286" t="n">
-        <v>1249624000000</v>
+        <v>1296915000000</v>
       </c>
       <c r="C286" t="n">
-        <v>0.1292473924338577</v>
+        <v>0.1259763164525069</v>
       </c>
       <c r="D286" t="n">
-        <v>161510643522.7669</v>
+        <v>163380574452.003</v>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
-        <v>38626</v>
+        <v>38718</v>
       </c>
       <c r="B287" t="n">
-        <v>1278403000000</v>
+        <v>1324312000000</v>
       </c>
       <c r="C287" t="n">
-        <v>0.1257782529400667</v>
+        <v>0.1317644578551382</v>
       </c>
       <c r="D287" t="n">
-        <v>160795295893.3401</v>
+        <v>174497252711.0537</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
-        <v>38657</v>
+        <v>38749</v>
       </c>
       <c r="B288" t="n">
-        <v>1272808000000</v>
+        <v>1316408000000</v>
       </c>
       <c r="C288" t="n">
-        <v>0.1238114104595879</v>
+        <v>0.1264254469139549</v>
       </c>
       <c r="D288" t="n">
-        <v>157588153724.2472</v>
+        <v>166427469721.1055</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
-        <v>38687</v>
+        <v>38777</v>
       </c>
       <c r="B289" t="n">
-        <v>1296915000000</v>
+        <v>1312677000000</v>
       </c>
       <c r="C289" t="n">
-        <v>0.1259763164525069</v>
+        <v>0.1283219340681903</v>
       </c>
       <c r="D289" t="n">
-        <v>163380574452.003</v>
+        <v>168445251446.8298</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
-        <v>38718</v>
+        <v>38808</v>
       </c>
       <c r="B290" t="n">
-        <v>1324312000000</v>
+        <v>1338016000000</v>
       </c>
       <c r="C290" t="n">
-        <v>0.1317644578551382</v>
+        <v>0.1359748718436833</v>
       </c>
       <c r="D290" t="n">
-        <v>174497252711.0537</v>
+        <v>181936554124.7977</v>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
-        <v>38749</v>
+        <v>38838</v>
       </c>
       <c r="B291" t="n">
-        <v>1316408000000</v>
+        <v>1326782000000</v>
       </c>
       <c r="C291" t="n">
-        <v>0.1264254469139549</v>
+        <v>0.1382781603473547</v>
       </c>
       <c r="D291" t="n">
-        <v>166427469721.1055</v>
+        <v>183464974141.984</v>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
-        <v>38777</v>
+        <v>38869</v>
       </c>
       <c r="B292" t="n">
-        <v>1312677000000</v>
+        <v>1359775000000</v>
       </c>
       <c r="C292" t="n">
-        <v>0.1283219340681903</v>
+        <v>0.1389718859874647</v>
       </c>
       <c r="D292" t="n">
-        <v>168445251446.8298</v>
+        <v>188970496268.6049</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
-        <v>38808</v>
+        <v>38899</v>
       </c>
       <c r="B293" t="n">
-        <v>1338016000000</v>
+        <v>1350041000000</v>
       </c>
       <c r="C293" t="n">
-        <v>0.1359748718436833</v>
+        <v>0.1387020264366062</v>
       </c>
       <c r="D293" t="n">
-        <v>181936554124.7977</v>
+        <v>187253422472.5023</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
-        <v>38838</v>
+        <v>38930</v>
       </c>
       <c r="B294" t="n">
-        <v>1326782000000</v>
+        <v>1383208000000</v>
       </c>
       <c r="C294" t="n">
-        <v>0.1382781603473547</v>
+        <v>0.1380872158855533</v>
       </c>
       <c r="D294" t="n">
-        <v>183464974141.984</v>
+        <v>191003341710.6244</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
-        <v>38869</v>
+        <v>38961</v>
       </c>
       <c r="B295" t="n">
-        <v>1359775000000</v>
+        <v>1413386000000</v>
       </c>
       <c r="C295" t="n">
-        <v>0.1389718859874647</v>
+        <v>0.1365970932138564</v>
       </c>
       <c r="D295" t="n">
-        <v>188970496268.6049</v>
+        <v>193064419189.1596</v>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
-        <v>38899</v>
+        <v>38991</v>
       </c>
       <c r="B296" t="n">
-        <v>1350041000000</v>
+        <v>1416864000000</v>
       </c>
       <c r="C296" t="n">
-        <v>0.1387020264366062</v>
+        <v>0.1385367745868141</v>
       </c>
       <c r="D296" t="n">
-        <v>187253422472.5023</v>
+        <v>196287768588.1717</v>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
-        <v>38930</v>
+        <v>39022</v>
       </c>
       <c r="B297" t="n">
-        <v>1383208000000</v>
+        <v>1430398000000</v>
       </c>
       <c r="C297" t="n">
-        <v>0.1380872158855533</v>
+        <v>0.1461112491050686</v>
       </c>
       <c r="D297" t="n">
-        <v>191003341710.6244</v>
+        <v>208997238497.3919</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
-        <v>38961</v>
+        <v>39052</v>
       </c>
       <c r="B298" t="n">
-        <v>1413386000000</v>
+        <v>1468209000000</v>
       </c>
       <c r="C298" t="n">
-        <v>0.1365970932138564</v>
+        <v>0.1461176539349484</v>
       </c>
       <c r="D298" t="n">
-        <v>193064419189.1596</v>
+        <v>214531254566.1767</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
-        <v>38991</v>
+        <v>39083</v>
       </c>
       <c r="B299" t="n">
-        <v>1416864000000</v>
+        <v>1472034000000</v>
       </c>
       <c r="C299" t="n">
-        <v>0.1385367745868141</v>
+        <v>0.143959461015778</v>
       </c>
       <c r="D299" t="n">
-        <v>196287768588.1717</v>
+        <v>211913221236.8997</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
-        <v>39022</v>
+        <v>39114</v>
       </c>
       <c r="B300" t="n">
-        <v>1430398000000</v>
+        <v>1457317000000</v>
       </c>
       <c r="C300" t="n">
-        <v>0.1461112491050686</v>
+        <v>0.1430144587617808</v>
       </c>
       <c r="D300" t="n">
-        <v>208997238497.3919</v>
+        <v>208417401999.3421</v>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
-        <v>39052</v>
+        <v>39142</v>
       </c>
       <c r="B301" t="n">
-        <v>1468209000000</v>
+        <v>1495732000000</v>
       </c>
       <c r="C301" t="n">
-        <v>0.1461176539349484</v>
+        <v>0.1433157532675992</v>
       </c>
       <c r="D301" t="n">
-        <v>214531254566.1767</v>
+        <v>214361958266.4527</v>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
-        <v>39083</v>
+        <v>39173</v>
       </c>
       <c r="B302" t="n">
-        <v>1472034000000</v>
+        <v>1512648000000</v>
       </c>
       <c r="C302" t="n">
-        <v>0.143959461015778</v>
+        <v>0.1492604146454319</v>
       </c>
       <c r="D302" t="n">
-        <v>211913221236.8997</v>
+        <v>225778467692.5833</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
-        <v>39114</v>
+        <v>39203</v>
       </c>
       <c r="B303" t="n">
-        <v>1457317000000</v>
+        <v>1502632000000</v>
       </c>
       <c r="C303" t="n">
-        <v>0.1430144587617808</v>
+        <v>0.1446215254678506</v>
       </c>
       <c r="D303" t="n">
-        <v>208417401999.3421</v>
+        <v>217312932056.8073</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
-        <v>39142</v>
+        <v>39234</v>
       </c>
       <c r="B304" t="n">
-        <v>1495732000000</v>
+        <v>1564788000000</v>
       </c>
       <c r="C304" t="n">
-        <v>0.1433157532675992</v>
+        <v>0.1466383165921255</v>
       </c>
       <c r="D304" t="n">
-        <v>214361958266.4527</v>
+        <v>229457878143.5589</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
-        <v>39173</v>
+        <v>39264</v>
       </c>
       <c r="B305" t="n">
-        <v>1512648000000</v>
+        <v>1528577000000</v>
       </c>
       <c r="C305" t="n">
-        <v>0.1492604146454319</v>
+        <v>0.1485530928753937</v>
       </c>
       <c r="D305" t="n">
-        <v>225778467692.5833</v>
+        <v>227074841048.1906</v>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
-        <v>39203</v>
+        <v>39295</v>
       </c>
       <c r="B306" t="n">
-        <v>1502632000000</v>
+        <v>1562807000000</v>
       </c>
       <c r="C306" t="n">
-        <v>0.1446215254678506</v>
+        <v>0.1451694853741743</v>
       </c>
       <c r="D306" t="n">
-        <v>217312932056.8073</v>
+        <v>226871887929.1573</v>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
-        <v>39234</v>
+        <v>39326</v>
       </c>
       <c r="B307" t="n">
-        <v>1564788000000</v>
+        <v>1582639000000</v>
       </c>
       <c r="C307" t="n">
-        <v>0.1466383165921255</v>
+        <v>0.1554363876583508</v>
       </c>
       <c r="D307" t="n">
-        <v>229457878143.5589</v>
+        <v>245999689127.2246</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
-        <v>39264</v>
+        <v>39356</v>
       </c>
       <c r="B308" t="n">
-        <v>1528577000000</v>
+        <v>1583783000000</v>
       </c>
       <c r="C308" t="n">
-        <v>0.1485530928753937</v>
+        <v>0.1575646803012637</v>
       </c>
       <c r="D308" t="n">
-        <v>227074841048.1906</v>
+        <v>249548262061.5763</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
-        <v>39295</v>
+        <v>39387</v>
       </c>
       <c r="B309" t="n">
-        <v>1562807000000</v>
+        <v>1585362000000</v>
       </c>
       <c r="C309" t="n">
-        <v>0.1451694853741743</v>
+        <v>0.1565435190983093</v>
       </c>
       <c r="D309" t="n">
-        <v>226871887929.1573</v>
+        <v>248178146524.7339</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
-        <v>39326</v>
+        <v>39417</v>
       </c>
       <c r="B310" t="n">
-        <v>1582639000000</v>
+        <v>1639424000000</v>
       </c>
       <c r="C310" t="n">
-        <v>0.1554363876583508</v>
+        <v>0.154640769492469</v>
       </c>
       <c r="D310" t="n">
-        <v>245999689127.2246</v>
+        <v>253521788884.4215</v>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
-        <v>39356</v>
+        <v>39448</v>
       </c>
       <c r="B311" t="n">
-        <v>1583783000000</v>
+        <v>1647669000000</v>
       </c>
       <c r="C311" t="n">
-        <v>0.1575646803012637</v>
+        <v>0.1570302440249992</v>
       </c>
       <c r="D311" t="n">
-        <v>249548262061.5763</v>
+        <v>258733865142.4264</v>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
-        <v>39387</v>
+        <v>39479</v>
       </c>
       <c r="B312" t="n">
-        <v>1585362000000</v>
+        <v>1635309000000</v>
       </c>
       <c r="C312" t="n">
-        <v>0.1565435190983093</v>
+        <v>0.1623086786450471</v>
       </c>
       <c r="D312" t="n">
-        <v>248178146524.7339</v>
+        <v>265424842966.3534</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
-        <v>39417</v>
+        <v>39508</v>
       </c>
       <c r="B313" t="n">
-        <v>1639424000000</v>
+        <v>1639881000000</v>
       </c>
       <c r="C313" t="n">
-        <v>0.154640769492469</v>
+        <v>0.1681378730559059</v>
       </c>
       <c r="D313" t="n">
-        <v>253521788884.4215</v>
+        <v>275726103404.7919</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
-        <v>39448</v>
+        <v>39539</v>
       </c>
       <c r="B314" t="n">
-        <v>1647669000000</v>
+        <v>1658874000000</v>
       </c>
       <c r="C314" t="n">
-        <v>0.1570302440249992</v>
+        <v>0.1671975187888212</v>
       </c>
       <c r="D314" t="n">
-        <v>258733865142.4264</v>
+        <v>277359616783.2869</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
-        <v>39479</v>
+        <v>39569</v>
       </c>
       <c r="B315" t="n">
-        <v>1635309000000</v>
+        <v>1665238000000</v>
       </c>
       <c r="C315" t="n">
-        <v>0.1623086786450471</v>
+        <v>0.1667261323205277</v>
       </c>
       <c r="D315" t="n">
-        <v>265424842966.3534</v>
+        <v>277638691133.1708</v>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
-        <v>39508</v>
+        <v>39600</v>
       </c>
       <c r="B316" t="n">
-        <v>1639881000000</v>
+        <v>1681350000000</v>
       </c>
       <c r="C316" t="n">
-        <v>0.1681378730559059</v>
+        <v>0.1664115023630433</v>
       </c>
       <c r="D316" t="n">
-        <v>275726103404.7919</v>
+        <v>279795979498.1029</v>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
-        <v>39539</v>
+        <v>39630</v>
       </c>
       <c r="B317" t="n">
-        <v>1658874000000</v>
+        <v>1698412000000</v>
       </c>
       <c r="C317" t="n">
-        <v>0.1671975187888212</v>
+        <v>0.1653493832468005</v>
       </c>
       <c r="D317" t="n">
-        <v>277359616783.2869</v>
+        <v>280831376698.965</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
-        <v>39569</v>
+        <v>39661</v>
       </c>
       <c r="B318" t="n">
-        <v>1665238000000</v>
+        <v>1704771000000</v>
       </c>
       <c r="C318" t="n">
-        <v>0.1667261323205277</v>
+        <v>0.1550724188195887</v>
       </c>
       <c r="D318" t="n">
-        <v>277638691133.1708</v>
+        <v>264362962503.4891</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
-        <v>39600</v>
+        <v>39692</v>
       </c>
       <c r="B319" t="n">
-        <v>1681350000000</v>
+        <v>1728656000000</v>
       </c>
       <c r="C319" t="n">
-        <v>0.1664115023630433</v>
+        <v>0.144654997830175</v>
       </c>
       <c r="D319" t="n">
-        <v>279795979498.1029</v>
+        <v>250058729929.119</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
-        <v>39630</v>
+        <v>39722</v>
       </c>
       <c r="B320" t="n">
-        <v>1698412000000</v>
+        <v>1732394000000</v>
       </c>
       <c r="C320" t="n">
-        <v>0.1653493832468005</v>
+        <v>0.1293440188738792</v>
       </c>
       <c r="D320" t="n">
-        <v>280831376698.965</v>
+        <v>224074802232.9951</v>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
-        <v>39661</v>
+        <v>39753</v>
       </c>
       <c r="B321" t="n">
-        <v>1704771000000</v>
+        <v>1759008000000</v>
       </c>
       <c r="C321" t="n">
-        <v>0.1550724188195887</v>
+        <v>0.1236469927814886</v>
       </c>
       <c r="D321" t="n">
-        <v>264362962503.4891</v>
+        <v>217496049478.5806</v>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
-        <v>39692</v>
+        <v>39783</v>
       </c>
       <c r="B322" t="n">
-        <v>1728656000000</v>
+        <v>1859493000000</v>
       </c>
       <c r="C322" t="n">
-        <v>0.144654997830175</v>
+        <v>0.1276161306789178</v>
       </c>
       <c r="D322" t="n">
-        <v>250058729929.119</v>
+        <v>237301301684.5329</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
-        <v>39722</v>
+        <v>39814</v>
       </c>
       <c r="B323" t="n">
-        <v>1732394000000</v>
+        <v>1853010000000</v>
       </c>
       <c r="C323" t="n">
-        <v>0.1293440188738792</v>
+        <v>0.119624808749837</v>
       </c>
       <c r="D323" t="n">
-        <v>224074802232.9951</v>
+        <v>221665966861.5355</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
-        <v>39753</v>
+        <v>39845</v>
       </c>
       <c r="B324" t="n">
-        <v>1759008000000</v>
+        <v>1806389000000</v>
       </c>
       <c r="C324" t="n">
-        <v>0.1236469927814886</v>
+        <v>0.1111064199511576</v>
       </c>
       <c r="D324" t="n">
-        <v>217496049478.5806</v>
+        <v>200701414829.1517</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
-        <v>39783</v>
+        <v>39873</v>
       </c>
       <c r="B325" t="n">
-        <v>1859493000000</v>
+        <v>1822861000000</v>
       </c>
       <c r="C325" t="n">
-        <v>0.1276161306789178</v>
+        <v>0.1213196177461484</v>
       </c>
       <c r="D325" t="n">
-        <v>237301301684.5329</v>
+        <v>221148799724.3618</v>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
-        <v>39814</v>
+        <v>39904</v>
       </c>
       <c r="B326" t="n">
-        <v>1853010000000</v>
+        <v>1818228000000</v>
       </c>
       <c r="C326" t="n">
-        <v>0.119624808749837</v>
+        <v>0.1243751702385143</v>
       </c>
       <c r="D326" t="n">
-        <v>221665966861.5355</v>
+        <v>226142417032.4333</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
-        <v>39845</v>
+        <v>39934</v>
       </c>
       <c r="B327" t="n">
-        <v>1806389000000</v>
+        <v>1815725000000</v>
       </c>
       <c r="C327" t="n">
-        <v>0.1111064199511576</v>
+        <v>0.132173205054832</v>
       </c>
       <c r="D327" t="n">
-        <v>200701414829.1517</v>
+        <v>239990192748.1849</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
-        <v>39873</v>
+        <v>39965</v>
       </c>
       <c r="B328" t="n">
-        <v>1822861000000</v>
+        <v>1844614000000</v>
       </c>
       <c r="C328" t="n">
-        <v>0.1213196177461484</v>
+        <v>0.1299209171377383</v>
       </c>
       <c r="D328" t="n">
-        <v>221148799724.3618</v>
+        <v>239653942645.1119</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
-        <v>39904</v>
+        <v>39995</v>
       </c>
       <c r="B329" t="n">
-        <v>1818228000000</v>
+        <v>1820464000000</v>
       </c>
       <c r="C329" t="n">
-        <v>0.1243751702385143</v>
+        <v>0.1386699059956707</v>
       </c>
       <c r="D329" t="n">
-        <v>226142417032.4333</v>
+        <v>252443571748.5027</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
-        <v>39934</v>
+        <v>40026</v>
       </c>
       <c r="B330" t="n">
-        <v>1815725000000</v>
+        <v>1841487000000</v>
       </c>
       <c r="C330" t="n">
-        <v>0.132173205054832</v>
+        <v>0.1405700678531717</v>
       </c>
       <c r="D330" t="n">
-        <v>239990192748.1849</v>
+        <v>258857952540.7337</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
-        <v>39965</v>
+        <v>40057</v>
       </c>
       <c r="B331" t="n">
-        <v>1844614000000</v>
+        <v>1841834000000</v>
       </c>
       <c r="C331" t="n">
-        <v>0.1299209171377383</v>
+        <v>0.1438230171480183</v>
       </c>
       <c r="D331" t="n">
-        <v>239653942645.1119</v>
+        <v>264898122965.8032</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
-        <v>39995</v>
+        <v>40087</v>
       </c>
       <c r="B332" t="n">
-        <v>1820464000000</v>
+        <v>1844029000000</v>
       </c>
       <c r="C332" t="n">
-        <v>0.1386699059956707</v>
+        <v>0.1410399439225183</v>
       </c>
       <c r="D332" t="n">
-        <v>252443571748.5027</v>
+        <v>260081746751.4975</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
-        <v>40026</v>
+        <v>40118</v>
       </c>
       <c r="B333" t="n">
-        <v>1841487000000</v>
+        <v>1848196000000</v>
       </c>
       <c r="C333" t="n">
-        <v>0.1405700678531717</v>
+        <v>0.143480462982758</v>
       </c>
       <c r="D333" t="n">
-        <v>258857952540.7337</v>
+        <v>265180017762.8813</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
-        <v>40057</v>
+        <v>40148</v>
       </c>
       <c r="B334" t="n">
-        <v>1841834000000</v>
+        <v>1911694000000</v>
       </c>
       <c r="C334" t="n">
-        <v>0.1438230171480183</v>
+        <v>0.1398306092000151</v>
       </c>
       <c r="D334" t="n">
-        <v>264898122965.8032</v>
+        <v>267313336624.0137</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
-        <v>40087</v>
+        <v>40179</v>
       </c>
       <c r="B335" t="n">
-        <v>1844029000000</v>
+        <v>1910380000000</v>
       </c>
       <c r="C335" t="n">
-        <v>0.1410399439225183</v>
+        <v>0.1353859650785442</v>
       </c>
       <c r="D335" t="n">
-        <v>260081746751.4975</v>
+        <v>258638639966.7492</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
-        <v>40118</v>
+        <v>40210</v>
       </c>
       <c r="B336" t="n">
-        <v>1848196000000</v>
+        <v>1890845000000</v>
       </c>
       <c r="C336" t="n">
-        <v>0.143480462982758</v>
+        <v>0.1402801956628169</v>
       </c>
       <c r="D336" t="n">
-        <v>265180017762.8813</v>
+        <v>265248106568.0591</v>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
-        <v>40148</v>
+        <v>40238</v>
       </c>
       <c r="B337" t="n">
-        <v>1911694000000</v>
+        <v>1897152000000</v>
       </c>
       <c r="C337" t="n">
-        <v>0.1398306092000151</v>
+        <v>0.1386214649793662</v>
       </c>
       <c r="D337" t="n">
-        <v>267313336624.0137</v>
+        <v>262985989528.5345</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
-        <v>40179</v>
+        <v>40269</v>
       </c>
       <c r="B338" t="n">
-        <v>1910380000000</v>
+        <v>1904391000000</v>
       </c>
       <c r="C338" t="n">
-        <v>0.1353859650785442</v>
+        <v>0.1381253625790768</v>
       </c>
       <c r="D338" t="n">
-        <v>258638639966.7492</v>
+        <v>263044697367.3306</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
-        <v>40210</v>
+        <v>40299</v>
       </c>
       <c r="B339" t="n">
-        <v>1890845000000</v>
+        <v>1888615000000</v>
       </c>
       <c r="C339" t="n">
-        <v>0.1402801956628169</v>
+        <v>0.1282692628365465</v>
       </c>
       <c r="D339" t="n">
-        <v>265248106568.0591</v>
+        <v>242251253832.0442</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
-        <v>40238</v>
+        <v>40330</v>
       </c>
       <c r="B340" t="n">
-        <v>1897152000000</v>
+        <v>1923549000000</v>
       </c>
       <c r="C340" t="n">
-        <v>0.1386214649793662</v>
+        <v>0.1284615572366891</v>
       </c>
       <c r="D340" t="n">
-        <v>262985989528.5345</v>
+        <v>247102099961.0761</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
-        <v>40269</v>
+        <v>40360</v>
       </c>
       <c r="B341" t="n">
-        <v>1904391000000</v>
+        <v>1932649000000</v>
       </c>
       <c r="C341" t="n">
-        <v>0.1381253625790768</v>
+        <v>0.1386097442650218</v>
       </c>
       <c r="D341" t="n">
-        <v>263044697367.3306</v>
+        <v>267883983644.0501</v>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
-        <v>40299</v>
+        <v>40391</v>
       </c>
       <c r="B342" t="n">
-        <v>1888615000000</v>
+        <v>1915269000000</v>
       </c>
       <c r="C342" t="n">
-        <v>0.1282692628365465</v>
+        <v>0.135451799477156</v>
       </c>
       <c r="D342" t="n">
-        <v>242251253832.0442</v>
+        <v>259426632532.8132</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
-        <v>40330</v>
+        <v>40422</v>
       </c>
       <c r="B343" t="n">
-        <v>1923549000000</v>
+        <v>1938219000000</v>
       </c>
       <c r="C343" t="n">
-        <v>0.1284615572366891</v>
+        <v>0.1484208026597008</v>
       </c>
       <c r="D343" t="n">
-        <v>247102099961.0761</v>
+        <v>287672019710.2826</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
-        <v>40360</v>
+        <v>40452</v>
       </c>
       <c r="B344" t="n">
-        <v>1932649000000</v>
+        <v>1967820000000</v>
       </c>
       <c r="C344" t="n">
-        <v>0.1386097442650218</v>
+        <v>0.1496244426489511</v>
       </c>
       <c r="D344" t="n">
-        <v>267883983644.0501</v>
+        <v>294433970733.459</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
-        <v>40391</v>
+        <v>40483</v>
       </c>
       <c r="B345" t="n">
-        <v>1915269000000</v>
+        <v>1963638000000</v>
       </c>
       <c r="C345" t="n">
-        <v>0.135451799477156</v>
+        <v>0.1423305199333893</v>
       </c>
       <c r="D345" t="n">
-        <v>259426632532.8132</v>
+        <v>279485617500.9608</v>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
-        <v>40422</v>
+        <v>40513</v>
       </c>
       <c r="B346" t="n">
-        <v>1938219000000</v>
+        <v>2007359000000</v>
       </c>
       <c r="C346" t="n">
-        <v>0.1484208026597008</v>
+        <v>0.1486966736554103</v>
       </c>
       <c r="D346" t="n">
-        <v>287672019710.2826</v>
+        <v>298487606132.2508</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
-        <v>40452</v>
+        <v>40544</v>
       </c>
       <c r="B347" t="n">
-        <v>1967820000000</v>
+        <v>2003040000000</v>
       </c>
       <c r="C347" t="n">
-        <v>0.1496244426489511</v>
+        <v>0.1551662606482846</v>
       </c>
       <c r="D347" t="n">
-        <v>294433970733.459</v>
+        <v>310804226728.9401</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
-        <v>40483</v>
+        <v>40575</v>
       </c>
       <c r="B348" t="n">
-        <v>1963638000000</v>
+        <v>1959126000000</v>
       </c>
       <c r="C348" t="n">
-        <v>0.1423305199333893</v>
+        <v>0.1582078217947095</v>
       </c>
       <c r="D348" t="n">
-        <v>279485617500.9608</v>
+        <v>309949057081.3821</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
-        <v>40513</v>
+        <v>40603</v>
       </c>
       <c r="B349" t="n">
-        <v>2007359000000</v>
+        <v>1989081000000</v>
       </c>
       <c r="C349" t="n">
-        <v>0.1486966736554103</v>
+        <v>0.1581953079271669</v>
       </c>
       <c r="D349" t="n">
-        <v>298487606132.2508</v>
+        <v>314663281287.077</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
-        <v>40544</v>
+        <v>40634</v>
       </c>
       <c r="B350" t="n">
-        <v>2003040000000</v>
+        <v>1982383000000</v>
       </c>
       <c r="C350" t="n">
-        <v>0.1551662606482846</v>
+        <v>0.1655738790648387</v>
       </c>
       <c r="D350" t="n">
-        <v>310804226728.9401</v>
+        <v>328230843102.1922</v>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
-        <v>40575</v>
+        <v>40664</v>
       </c>
       <c r="B351" t="n">
-        <v>1959126000000</v>
+        <v>1960772000000</v>
       </c>
       <c r="C351" t="n">
-        <v>0.1582078217947095</v>
+        <v>0.1621349935956677</v>
       </c>
       <c r="D351" t="n">
-        <v>309949057081.3821</v>
+        <v>317909755662.5646</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
-        <v>40603</v>
+        <v>40695</v>
       </c>
       <c r="B352" t="n">
-        <v>1989081000000</v>
+        <v>2011341000000</v>
       </c>
       <c r="C352" t="n">
-        <v>0.1581953079271669</v>
+        <v>0.1580902695439096</v>
       </c>
       <c r="D352" t="n">
-        <v>314663281287.077</v>
+        <v>317973440834.7166</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
-        <v>40634</v>
+        <v>40725</v>
       </c>
       <c r="B353" t="n">
-        <v>1982383000000</v>
+        <v>1989856000000</v>
       </c>
       <c r="C353" t="n">
-        <v>0.1655738790648387</v>
+        <v>0.1591723040191007</v>
       </c>
       <c r="D353" t="n">
-        <v>328230843102.1922</v>
+        <v>316729964186.2316</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
-        <v>40664</v>
+        <v>40756</v>
       </c>
       <c r="B354" t="n">
-        <v>1960772000000</v>
+        <v>2016768000000</v>
       </c>
       <c r="C354" t="n">
-        <v>0.1621349935956677</v>
+        <v>0.1576988582602662</v>
       </c>
       <c r="D354" t="n">
-        <v>317909755662.5646</v>
+        <v>318042010975.8405</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
-        <v>40695</v>
+        <v>40787</v>
       </c>
       <c r="B355" t="n">
-        <v>2011341000000</v>
+        <v>2064662000000</v>
       </c>
       <c r="C355" t="n">
-        <v>0.1580902695439096</v>
+        <v>0.1457109968089292</v>
       </c>
       <c r="D355" t="n">
-        <v>317973440834.7166</v>
+        <v>300843958093.5173</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
-        <v>40725</v>
+        <v>40817</v>
       </c>
       <c r="B356" t="n">
-        <v>1989856000000</v>
+        <v>2075646000000</v>
       </c>
       <c r="C356" t="n">
-        <v>0.1591723040191007</v>
+        <v>0.1537893700787402</v>
       </c>
       <c r="D356" t="n">
-        <v>316729964186.2316</v>
+        <v>319212290846.4567</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
-        <v>40756</v>
+        <v>40848</v>
       </c>
       <c r="B357" t="n">
-        <v>2016768000000</v>
+        <v>2079009000000</v>
       </c>
       <c r="C357" t="n">
-        <v>0.1576988582602662</v>
+        <v>0.1479246176148635</v>
       </c>
       <c r="D357" t="n">
-        <v>318042010975.8405</v>
+        <v>307536611342.8597</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
-        <v>40787</v>
+        <v>40878</v>
       </c>
       <c r="B358" t="n">
-        <v>2064662000000</v>
+        <v>2131071000000</v>
       </c>
       <c r="C358" t="n">
-        <v>0.1457109968089292</v>
+        <v>0.1455116918644413</v>
       </c>
       <c r="D358" t="n">
-        <v>300843958093.5173</v>
+        <v>310095746693.2468</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
-        <v>40817</v>
+        <v>40909</v>
       </c>
       <c r="B359" t="n">
-        <v>2075646000000</v>
+        <v>2178811000000</v>
       </c>
       <c r="C359" t="n">
-        <v>0.1537893700787402</v>
+        <v>0.1471085808435206</v>
       </c>
       <c r="D359" t="n">
-        <v>319212290846.4567</v>
+        <v>320521794136.252</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
-        <v>40848</v>
+        <v>40940</v>
       </c>
       <c r="B360" t="n">
-        <v>2079009000000</v>
+        <v>2152416000000</v>
       </c>
       <c r="C360" t="n">
-        <v>0.1479246176148635</v>
+        <v>0.1511053355293976</v>
       </c>
       <c r="D360" t="n">
-        <v>307536611342.8597</v>
+        <v>325241541878.8438</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
-        <v>40878</v>
+        <v>40969</v>
       </c>
       <c r="B361" t="n">
-        <v>2131071000000</v>
+        <v>2167952000000</v>
       </c>
       <c r="C361" t="n">
-        <v>0.1455116918644413</v>
+        <v>0.1514440187184807</v>
       </c>
       <c r="D361" t="n">
-        <v>310095746693.2468</v>
+        <v>328323363268.7677</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
-        <v>40909</v>
+        <v>41000</v>
       </c>
       <c r="B362" t="n">
-        <v>2178811000000</v>
+        <v>2145844000000</v>
       </c>
       <c r="C362" t="n">
-        <v>0.1471085808435206</v>
+        <v>0.1487984524960941</v>
       </c>
       <c r="D362" t="n">
-        <v>320521794136.252</v>
+        <v>319298266498.0285</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
-        <v>40940</v>
+        <v>41030</v>
       </c>
       <c r="B363" t="n">
-        <v>2152416000000</v>
+        <v>2105771000000</v>
       </c>
       <c r="C363" t="n">
-        <v>0.1511053355293976</v>
+        <v>0.1376329878745338</v>
       </c>
       <c r="D363" t="n">
-        <v>325241541878.8438</v>
+        <v>289823554509.5449</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
-        <v>40969</v>
+        <v>41061</v>
       </c>
       <c r="B364" t="n">
-        <v>2167952000000</v>
+        <v>2167991000000</v>
       </c>
       <c r="C364" t="n">
-        <v>0.1514440187184807</v>
+        <v>0.1446926727630513</v>
       </c>
       <c r="D364" t="n">
-        <v>328323363268.7677</v>
+        <v>313692412316.2403</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
-        <v>41000</v>
+        <v>41091</v>
       </c>
       <c r="B365" t="n">
-        <v>2145844000000</v>
+        <v>2146292000000</v>
       </c>
       <c r="C365" t="n">
-        <v>0.1487984524960941</v>
+        <v>0.1471475448432143</v>
       </c>
       <c r="D365" t="n">
-        <v>319298266498.0285</v>
+        <v>315821598316.6321</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
-        <v>41030</v>
+        <v>41122</v>
       </c>
       <c r="B366" t="n">
-        <v>2105771000000</v>
+        <v>2154752000000</v>
       </c>
       <c r="C366" t="n">
-        <v>0.1376329878745338</v>
+        <v>0.151014059408931</v>
       </c>
       <c r="D366" t="n">
-        <v>289823554509.5449</v>
+        <v>325397846539.5128</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
-        <v>41061</v>
+        <v>41153</v>
       </c>
       <c r="B367" t="n">
-        <v>2167991000000</v>
+        <v>2219458000000</v>
       </c>
       <c r="C367" t="n">
-        <v>0.1446926727630513</v>
+        <v>0.1523855965134176</v>
       </c>
       <c r="D367" t="n">
-        <v>313692412316.2403</v>
+        <v>338213431266.4767</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
-        <v>41091</v>
+        <v>41183</v>
       </c>
       <c r="B368" t="n">
-        <v>2146292000000</v>
+        <v>2207863000000</v>
       </c>
       <c r="C368" t="n">
-        <v>0.1471475448432143</v>
+        <v>0.1507454361819196</v>
       </c>
       <c r="D368" t="n">
-        <v>315821598316.6321</v>
+        <v>332825270964.9216</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
-        <v>41122</v>
+        <v>41214</v>
       </c>
       <c r="B369" t="n">
-        <v>2154752000000</v>
+        <v>2193213000000</v>
       </c>
       <c r="C369" t="n">
-        <v>0.151014059408931</v>
+        <v>0.1501742772487472</v>
       </c>
       <c r="D369" t="n">
-        <v>325397846539.5128</v>
+        <v>329364177127.5566</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
-        <v>41153</v>
+        <v>41244</v>
       </c>
       <c r="B370" t="n">
-        <v>2219458000000</v>
+        <v>2258026000000</v>
       </c>
       <c r="C370" t="n">
-        <v>0.1523855965134176</v>
+        <v>0.1536759282026063</v>
       </c>
       <c r="D370" t="n">
-        <v>338213431266.4767</v>
+        <v>347004241455.6184</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
-        <v>41183</v>
+        <v>41275</v>
       </c>
       <c r="B371" t="n">
-        <v>2207863000000</v>
+        <v>2253474000000</v>
       </c>
       <c r="C371" t="n">
-        <v>0.1507454361819196</v>
+        <v>0.1572067504578647</v>
       </c>
       <c r="D371" t="n">
-        <v>332825270964.9216</v>
+        <v>354261324781.2861</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
-        <v>41214</v>
+        <v>41306</v>
       </c>
       <c r="B372" t="n">
-        <v>2193213000000</v>
+        <v>2212071000000</v>
       </c>
       <c r="C372" t="n">
-        <v>0.1501742772487472</v>
+        <v>0.154719725217768</v>
       </c>
       <c r="D372" t="n">
-        <v>329364177127.5566</v>
+        <v>342251017282.1933</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
-        <v>41244</v>
+        <v>41334</v>
       </c>
       <c r="B373" t="n">
-        <v>2258026000000</v>
+        <v>2270214000000</v>
       </c>
       <c r="C373" t="n">
-        <v>0.1536759282026063</v>
+        <v>0.1534942976868409</v>
       </c>
       <c r="D373" t="n">
-        <v>347004241455.6184</v>
+        <v>348464903528.8339</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
-        <v>41275</v>
+        <v>41365</v>
       </c>
       <c r="B374" t="n">
-        <v>2253474000000</v>
+        <v>2245340000000</v>
       </c>
       <c r="C374" t="n">
-        <v>0.1572067504578647</v>
+        <v>0.1543066999969139</v>
       </c>
       <c r="D374" t="n">
-        <v>354261324781.2861</v>
+        <v>346471005771.0706</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
-        <v>41306</v>
+        <v>41395</v>
       </c>
       <c r="B375" t="n">
-        <v>2212071000000</v>
+        <v>2229984000000</v>
       </c>
       <c r="C375" t="n">
-        <v>0.154719725217768</v>
+        <v>0.1512401693889897</v>
       </c>
       <c r="D375" t="n">
-        <v>342251017282.1933</v>
+        <v>337263157894.7368</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
-        <v>41334</v>
+        <v>41426</v>
       </c>
       <c r="B376" t="n">
-        <v>2270214000000</v>
+        <v>2268611000000</v>
       </c>
       <c r="C376" t="n">
-        <v>0.1534942976868409</v>
+        <v>0.149438857091621</v>
       </c>
       <c r="D376" t="n">
-        <v>348464903528.8339</v>
+        <v>339018635025.4793</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
-        <v>41365</v>
+        <v>41456</v>
       </c>
       <c r="B377" t="n">
-        <v>2245340000000</v>
+        <v>2249293000000</v>
       </c>
       <c r="C377" t="n">
-        <v>0.1543066999969139</v>
+        <v>0.1535529857610316</v>
       </c>
       <c r="D377" t="n">
-        <v>346471005771.0706</v>
+        <v>345385656001.3881</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
-        <v>41395</v>
+        <v>41487</v>
       </c>
       <c r="B378" t="n">
-        <v>2229984000000</v>
+        <v>2260894000000</v>
       </c>
       <c r="C378" t="n">
-        <v>0.1512401693889897</v>
+        <v>0.1511823213440713</v>
       </c>
       <c r="D378" t="n">
-        <v>337263157894.7368</v>
+        <v>341807203232.8828</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
-        <v>41426</v>
+        <v>41518</v>
       </c>
       <c r="B379" t="n">
-        <v>2268611000000</v>
+        <v>2293914000000</v>
       </c>
       <c r="C379" t="n">
-        <v>0.149438857091621</v>
+        <v>0.1555984315678098</v>
       </c>
       <c r="D379" t="n">
-        <v>339018635025.4793</v>
+        <v>356929420551.4409</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
-        <v>41456</v>
+        <v>41548</v>
       </c>
       <c r="B380" t="n">
-        <v>2249293000000</v>
+        <v>2315736000000</v>
       </c>
       <c r="C380" t="n">
-        <v>0.1535529857610316</v>
+        <v>0.1543019380323417</v>
       </c>
       <c r="D380" t="n">
-        <v>345385656001.3881</v>
+        <v>357322552771.2628</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
-        <v>41487</v>
+        <v>41579</v>
       </c>
       <c r="B381" t="n">
-        <v>2260894000000</v>
+        <v>2335920000000</v>
       </c>
       <c r="C381" t="n">
-        <v>0.1511823213440713</v>
+        <v>0.1527734491967172</v>
       </c>
       <c r="D381" t="n">
-        <v>341807203232.8828</v>
+        <v>356866555447.5956</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
-        <v>41518</v>
+        <v>41609</v>
       </c>
       <c r="B382" t="n">
-        <v>2293914000000</v>
+        <v>2387438000000</v>
       </c>
       <c r="C382" t="n">
-        <v>0.1555984315678098</v>
+        <v>0.1556587400047632</v>
       </c>
       <c r="D382" t="n">
-        <v>356929420551.4409</v>
+        <v>371625590919.4918</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
-        <v>41548</v>
+        <v>41640</v>
       </c>
       <c r="B383" t="n">
-        <v>2315736000000</v>
+        <v>2377887000000</v>
       </c>
       <c r="C383" t="n">
-        <v>0.1543019380323417</v>
+        <v>0.1530158662151679</v>
       </c>
       <c r="D383" t="n">
-        <v>357322552771.2628</v>
+        <v>363854439066.7869</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
-        <v>41579</v>
+        <v>41671</v>
       </c>
       <c r="B384" t="n">
-        <v>2335920000000</v>
+        <v>2355583000000</v>
       </c>
       <c r="C384" t="n">
-        <v>0.1527734491967172</v>
+        <v>0.1562424320071996</v>
       </c>
       <c r="D384" t="n">
-        <v>356866555447.5956</v>
+        <v>368042016714.8154</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
-        <v>41609</v>
+        <v>41699</v>
       </c>
       <c r="B385" t="n">
-        <v>2387438000000</v>
+        <v>2361204000000</v>
       </c>
       <c r="C385" t="n">
-        <v>0.1556587400047632</v>
+        <v>0.1546677967727018</v>
       </c>
       <c r="D385" t="n">
-        <v>371625590919.4918</v>
+        <v>365202220410.8905</v>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
-        <v>41640</v>
+        <v>41730</v>
       </c>
       <c r="B386" t="n">
-        <v>2377887000000</v>
+        <v>2362905000000</v>
       </c>
       <c r="C386" t="n">
-        <v>0.1530158662151679</v>
+        <v>0.1538702996470215</v>
       </c>
       <c r="D386" t="n">
-        <v>363854439066.7869</v>
+        <v>363580900387.4454</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
-        <v>41671</v>
+        <v>41760</v>
       </c>
       <c r="B387" t="n">
-        <v>2355583000000</v>
+        <v>2377199000000</v>
       </c>
       <c r="C387" t="n">
-        <v>0.1562424320071996</v>
+        <v>0.1496909630068723</v>
       </c>
       <c r="D387" t="n">
-        <v>368042016714.8154</v>
+        <v>355845207568.9739</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
-        <v>41699</v>
+        <v>41791</v>
       </c>
       <c r="B388" t="n">
-        <v>2361204000000</v>
+        <v>2423708000000</v>
       </c>
       <c r="C388" t="n">
-        <v>0.1546677967727018</v>
+        <v>0.1497037363058507</v>
       </c>
       <c r="D388" t="n">
-        <v>365202220410.8905</v>
+        <v>362838143314.3809</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
-        <v>41730</v>
+        <v>41821</v>
       </c>
       <c r="B389" t="n">
-        <v>2362905000000</v>
+        <v>2400777000000</v>
       </c>
       <c r="C389" t="n">
-        <v>0.1538702996470215</v>
+        <v>0.1449863712810996</v>
       </c>
       <c r="D389" t="n">
-        <v>363580900387.4454</v>
+        <v>348079945485.1245</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
-        <v>41760</v>
+        <v>41852</v>
       </c>
       <c r="B390" t="n">
-        <v>2377199000000</v>
+        <v>2412498000000</v>
       </c>
       <c r="C390" t="n">
-        <v>0.1496909630068723</v>
+        <v>0.1430778916041893</v>
       </c>
       <c r="D390" t="n">
-        <v>355845207568.9739</v>
+        <v>345175127339.3235</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
-        <v>41791</v>
+        <v>41883</v>
       </c>
       <c r="B391" t="n">
-        <v>2423708000000</v>
+        <v>2432652000000</v>
       </c>
       <c r="C391" t="n">
-        <v>0.1497037363058507</v>
+        <v>0.1386462579374983</v>
       </c>
       <c r="D391" t="n">
-        <v>362838143314.3809</v>
+        <v>337278096664.171</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
-        <v>41821</v>
+        <v>41913</v>
       </c>
       <c r="B392" t="n">
-        <v>2400777000000</v>
+        <v>2451122000000</v>
       </c>
       <c r="C392" t="n">
-        <v>0.1449863712810996</v>
+        <v>0.1353344791652569</v>
       </c>
       <c r="D392" t="n">
-        <v>348079945485.1245</v>
+        <v>331721319240.5029</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
-        <v>41852</v>
+        <v>41944</v>
       </c>
       <c r="B393" t="n">
-        <v>2412498000000</v>
+        <v>2467099000000</v>
       </c>
       <c r="C393" t="n">
-        <v>0.1430778916041893</v>
+        <v>0.1342894743909972</v>
       </c>
       <c r="D393" t="n">
-        <v>345175127339.3235</v>
+        <v>331305427980.5549</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
-        <v>41883</v>
+        <v>41974</v>
       </c>
       <c r="B394" t="n">
-        <v>2432652000000</v>
+        <v>2522075000000</v>
       </c>
       <c r="C394" t="n">
-        <v>0.1386462579374983</v>
+        <v>0.128498863427553</v>
       </c>
       <c r="D394" t="n">
-        <v>337278096664.171</v>
+        <v>324083770979.0457</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
-        <v>41913</v>
+        <v>42005</v>
       </c>
       <c r="B395" t="n">
-        <v>2451122000000</v>
+        <v>2507795000000</v>
       </c>
       <c r="C395" t="n">
-        <v>0.1353344791652569</v>
+        <v>0.1210321134506619</v>
       </c>
       <c r="D395" t="n">
-        <v>331721319240.5029</v>
+        <v>303523728951.0026</v>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
-        <v>41944</v>
+        <v>42036</v>
       </c>
       <c r="B396" t="n">
-        <v>2467099000000</v>
+        <v>2509859000000</v>
       </c>
       <c r="C396" t="n">
-        <v>0.1342894743909972</v>
+        <v>0.1199688081098914</v>
       </c>
       <c r="D396" t="n">
-        <v>331305427980.5549</v>
+        <v>301104792753.884</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
-        <v>41974</v>
+        <v>42064</v>
       </c>
       <c r="B397" t="n">
-        <v>2522075000000</v>
+        <v>2548335000000</v>
       </c>
       <c r="C397" t="n">
-        <v>0.128498863427553</v>
+        <v>0.1159339640140976</v>
       </c>
       <c r="D397" t="n">
-        <v>324083770979.0457</v>
+        <v>295438578185.8654</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
-        <v>42005</v>
+        <v>42095</v>
       </c>
       <c r="B398" t="n">
-        <v>2507795000000</v>
+        <v>2546771000000</v>
       </c>
       <c r="C398" t="n">
-        <v>0.1210321134506619</v>
+        <v>0.1200768491834774</v>
       </c>
       <c r="D398" t="n">
-        <v>303523728951.0026</v>
+        <v>305808237271.854</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
-        <v>42036</v>
+        <v>42125</v>
       </c>
       <c r="B399" t="n">
-        <v>2509859000000</v>
+        <v>2580783000000</v>
       </c>
       <c r="C399" t="n">
-        <v>0.1199688081098914</v>
+        <v>0.117470162578705</v>
       </c>
       <c r="D399" t="n">
-        <v>301104792753.884</v>
+        <v>303164998590.358</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
-        <v>42064</v>
+        <v>42156</v>
       </c>
       <c r="B400" t="n">
-        <v>2548335000000</v>
+        <v>2638101000000</v>
       </c>
       <c r="C400" t="n">
-        <v>0.1159339640140976</v>
+        <v>0.1207773228498617</v>
       </c>
       <c r="D400" t="n">
-        <v>295438578185.8654</v>
+        <v>318622776187.543</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
-        <v>42095</v>
+        <v>42186</v>
       </c>
       <c r="B401" t="n">
-        <v>2546771000000</v>
+        <v>2617231000000</v>
       </c>
       <c r="C401" t="n">
-        <v>0.1200768491834774</v>
+        <v>0.1159931332065142</v>
       </c>
       <c r="D401" t="n">
-        <v>305808237271.854</v>
+        <v>303580824015.2183</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
-        <v>42125</v>
+        <v>42217</v>
       </c>
       <c r="B402" t="n">
-        <v>2580783000000</v>
+        <v>2619938000000</v>
       </c>
       <c r="C402" t="n">
-        <v>0.117470162578705</v>
+        <v>0.1180902445648965</v>
       </c>
       <c r="D402" t="n">
-        <v>303164998590.358</v>
+        <v>309389119164.8658</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
-        <v>42156</v>
+        <v>42248</v>
       </c>
       <c r="B403" t="n">
-        <v>2638101000000</v>
+        <v>2640658000000</v>
       </c>
       <c r="C403" t="n">
-        <v>0.1207773228498617</v>
+        <v>0.1195114372445443</v>
       </c>
       <c r="D403" t="n">
-        <v>318622776187.543</v>
+        <v>315588832851.3038</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
-        <v>42186</v>
+        <v>42278</v>
       </c>
       <c r="B404" t="n">
-        <v>2617231000000</v>
+        <v>2675262000000</v>
       </c>
       <c r="C404" t="n">
-        <v>0.1159931332065142</v>
+        <v>0.1172016923924382</v>
       </c>
       <c r="D404" t="n">
-        <v>303580824015.2183</v>
+        <v>313545233993.1789</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
-        <v>42217</v>
+        <v>42309</v>
       </c>
       <c r="B405" t="n">
-        <v>2619938000000</v>
+        <v>2694519000000</v>
       </c>
       <c r="C405" t="n">
-        <v>0.1180902445648965</v>
+        <v>0.1146434016990152</v>
       </c>
       <c r="D405" t="n">
-        <v>309389119164.8658</v>
+        <v>308908824102.6288</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
-        <v>42248</v>
+        <v>42339</v>
       </c>
       <c r="B406" t="n">
-        <v>2640658000000</v>
+        <v>2728918000000</v>
       </c>
       <c r="C406" t="n">
-        <v>0.1195114372445443</v>
+        <v>0.1183544004166075</v>
       </c>
       <c r="D406" t="n">
-        <v>315588832851.3038</v>
+        <v>322979453676.0877</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
-        <v>42278</v>
+        <v>42370</v>
       </c>
       <c r="B407" t="n">
-        <v>2675262000000</v>
+        <v>2748884000000</v>
       </c>
       <c r="C407" t="n">
-        <v>0.1172016923924382</v>
+        <v>0.1166480029861889</v>
       </c>
       <c r="D407" t="n">
-        <v>313545233993.1789</v>
+        <v>320651829040.6869</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
-        <v>42309</v>
+        <v>42401</v>
       </c>
       <c r="B408" t="n">
-        <v>2694519000000</v>
+        <v>2732370000000</v>
       </c>
       <c r="C408" t="n">
-        <v>0.1146434016990152</v>
+        <v>0.1167624118443791</v>
       </c>
       <c r="D408" t="n">
-        <v>308908824102.6288</v>
+        <v>319038111251.226</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
-        <v>42339</v>
+        <v>42430</v>
       </c>
       <c r="B409" t="n">
-        <v>2728918000000</v>
+        <v>2766495000000</v>
       </c>
       <c r="C409" t="n">
-        <v>0.1183544004166075</v>
+        <v>0.1233410627065963</v>
       </c>
       <c r="D409" t="n">
-        <v>322979453676.0877</v>
+        <v>341222433272.4851</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
-        <v>42370</v>
+        <v>42461</v>
       </c>
       <c r="B410" t="n">
-        <v>2748884000000</v>
+        <v>2781493000000</v>
       </c>
       <c r="C410" t="n">
-        <v>0.1166480029861889</v>
+        <v>0.1246665170668462</v>
       </c>
       <c r="D410" t="n">
-        <v>320651829040.6869</v>
+        <v>346759044555.8132</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
-        <v>42401</v>
+        <v>42491</v>
       </c>
       <c r="B411" t="n">
-        <v>2732370000000</v>
+        <v>2776382000000</v>
       </c>
       <c r="C411" t="n">
-        <v>0.1167624118443791</v>
+        <v>0.1200364910932924</v>
       </c>
       <c r="D411" t="n">
-        <v>319038111251.226</v>
+        <v>333267153214.5772</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
-        <v>42430</v>
+        <v>42522</v>
       </c>
       <c r="B412" t="n">
-        <v>2766495000000</v>
+        <v>2814128000000</v>
       </c>
       <c r="C412" t="n">
-        <v>0.1233410627065963</v>
+        <v>0.1183986815122827</v>
       </c>
       <c r="D412" t="n">
-        <v>341222433272.4851</v>
+        <v>333189044806.7971</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
-        <v>42461</v>
+        <v>42552</v>
       </c>
       <c r="B413" t="n">
-        <v>2781493000000</v>
+        <v>2841544000000</v>
       </c>
       <c r="C413" t="n">
-        <v>0.1246665170668462</v>
+        <v>0.1168770453482936</v>
       </c>
       <c r="D413" t="n">
-        <v>346759044555.8132</v>
+        <v>332111266947.1716</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
-        <v>42491</v>
+        <v>42583</v>
       </c>
       <c r="B414" t="n">
-        <v>2776382000000</v>
+        <v>2842117000000</v>
       </c>
       <c r="C414" t="n">
-        <v>0.1200364910932924</v>
+        <v>0.1169809555004445</v>
       </c>
       <c r="D414" t="n">
-        <v>333267153214.5772</v>
+        <v>332473562304.0569</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
-        <v>42522</v>
+        <v>42614</v>
       </c>
       <c r="B415" t="n">
-        <v>2814128000000</v>
+        <v>2867299000000</v>
       </c>
       <c r="C415" t="n">
-        <v>0.1183986815122827</v>
+        <v>0.1168027808406063</v>
       </c>
       <c r="D415" t="n">
-        <v>333189044806.7971</v>
+        <v>334908496701.4895</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
-        <v>42552</v>
+        <v>42644</v>
       </c>
       <c r="B416" t="n">
-        <v>2841544000000</v>
+        <v>2883246000000</v>
       </c>
       <c r="C416" t="n">
-        <v>0.1168770453482936</v>
+        <v>0.1107444240182507</v>
       </c>
       <c r="D416" t="n">
-        <v>332111266947.1716</v>
+        <v>319303417572.9252</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
-        <v>42583</v>
+        <v>42675</v>
       </c>
       <c r="B417" t="n">
-        <v>2842117000000</v>
+        <v>2903568000000</v>
       </c>
       <c r="C417" t="n">
-        <v>0.1169809555004445</v>
+        <v>0.1083529271543271</v>
       </c>
       <c r="D417" t="n">
-        <v>332473562304.0569</v>
+        <v>314610091991.6351</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
-        <v>42614</v>
+        <v>42705</v>
       </c>
       <c r="B418" t="n">
-        <v>2867299000000</v>
+        <v>2917782000000</v>
       </c>
       <c r="C418" t="n">
-        <v>0.1168027808406063</v>
+        <v>0.1100291577267976</v>
       </c>
       <c r="D418" t="n">
-        <v>334908496701.4895</v>
+        <v>321041095890.411</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
-        <v>42644</v>
+        <v>42736</v>
       </c>
       <c r="B419" t="n">
-        <v>2883246000000</v>
+        <v>2960969000000</v>
       </c>
       <c r="C419" t="n">
-        <v>0.1107444240182507</v>
+        <v>0.1144007687731662</v>
       </c>
       <c r="D419" t="n">
-        <v>319303417572.9252</v>
+        <v>338737129913.5131</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
-        <v>42675</v>
+        <v>42767</v>
       </c>
       <c r="B420" t="n">
-        <v>2903568000000</v>
+        <v>2944067000000</v>
       </c>
       <c r="C420" t="n">
-        <v>0.1083529271543271</v>
+        <v>0.1106659879152741</v>
       </c>
       <c r="D420" t="n">
-        <v>314610091991.6351</v>
+        <v>325808083043.7574</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
-        <v>42705</v>
+        <v>42795</v>
       </c>
       <c r="B421" t="n">
-        <v>2917782000000</v>
+        <v>3031836000000</v>
       </c>
       <c r="C421" t="n">
-        <v>0.1100291577267976</v>
+        <v>0.1116937803318422</v>
       </c>
       <c r="D421" t="n">
-        <v>321041095890.411</v>
+        <v>338637224186.1712</v>
       </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
-        <v>42736</v>
+        <v>42826</v>
       </c>
       <c r="B422" t="n">
-        <v>2960969000000</v>
+        <v>3027781000000</v>
       </c>
       <c r="C422" t="n">
-        <v>0.1144007687731662</v>
+        <v>0.1130142714421977</v>
       </c>
       <c r="D422" t="n">
-        <v>338737129913.5131</v>
+        <v>342182463801.5289</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
-        <v>42767</v>
+        <v>42856</v>
       </c>
       <c r="B423" t="n">
-        <v>2944067000000</v>
+        <v>3030922000000</v>
       </c>
       <c r="C423" t="n">
-        <v>0.1106659879152741</v>
+        <v>0.1150755931571449</v>
       </c>
       <c r="D423" t="n">
-        <v>325808083043.7574</v>
+        <v>348785146963.04</v>
       </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
-        <v>42795</v>
+        <v>42887</v>
       </c>
       <c r="B424" t="n">
-        <v>3031836000000</v>
+        <v>3085090000000</v>
       </c>
       <c r="C424" t="n">
-        <v>0.1116937803318422</v>
+        <v>0.1187391798922323</v>
       </c>
       <c r="D424" t="n">
-        <v>338637224186.1712</v>
+        <v>366321056493.727</v>
       </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
-        <v>42826</v>
+        <v>42917</v>
       </c>
       <c r="B425" t="n">
-        <v>3027781000000</v>
+        <v>3089508000000</v>
       </c>
       <c r="C425" t="n">
-        <v>0.1130142714421977</v>
+        <v>0.1239736531192391</v>
       </c>
       <c r="D425" t="n">
-        <v>342182463801.5289</v>
+        <v>383017593101.1142</v>
       </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
-        <v>42856</v>
+        <v>42948</v>
       </c>
       <c r="B426" t="n">
-        <v>3030922000000</v>
+        <v>3083488000000</v>
       </c>
       <c r="C426" t="n">
-        <v>0.1150755931571449</v>
+        <v>0.1259969508737888</v>
       </c>
       <c r="D426" t="n">
-        <v>348785146963.04</v>
+        <v>388510086055.9174</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
-        <v>42887</v>
+        <v>42979</v>
       </c>
       <c r="B427" t="n">
-        <v>3085090000000</v>
+        <v>3119085000000</v>
       </c>
       <c r="C427" t="n">
-        <v>0.1187391798922323</v>
+        <v>0.1228839385776921</v>
       </c>
       <c r="D427" t="n">
-        <v>366321056493.727</v>
+        <v>383285449558.6009</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
-        <v>42917</v>
+        <v>43009</v>
       </c>
       <c r="B428" t="n">
-        <v>3089508000000</v>
+        <v>3125689000000</v>
       </c>
       <c r="C428" t="n">
-        <v>0.1239736531192391</v>
+        <v>0.1193915805057427</v>
       </c>
       <c r="D428" t="n">
-        <v>383017593101.1142</v>
+        <v>373180949879.4145</v>
       </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
-        <v>42948</v>
+        <v>43040</v>
       </c>
       <c r="B429" t="n">
-        <v>3083488000000</v>
+        <v>3141177000000</v>
       </c>
       <c r="C429" t="n">
-        <v>0.1259969508737888</v>
+        <v>0.1194243745148385</v>
       </c>
       <c r="D429" t="n">
-        <v>388510086055.9174</v>
+        <v>375133098465.3968</v>
       </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
-        <v>42979</v>
+        <v>43070</v>
       </c>
       <c r="B430" t="n">
-        <v>3119085000000</v>
+        <v>3130303000000</v>
       </c>
       <c r="C430" t="n">
-        <v>0.1228839385776921</v>
+        <v>0.1221509810556043</v>
       </c>
       <c r="D430" t="n">
-        <v>383285449558.6009</v>
+        <v>382369582451.3014</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
-        <v>43009</v>
+        <v>43101</v>
       </c>
       <c r="B431" t="n">
-        <v>3125689000000</v>
+        <v>3190477000000</v>
       </c>
       <c r="C431" t="n">
-        <v>0.1193915805057427</v>
+        <v>0.1270378458446556</v>
       </c>
       <c r="D431" t="n">
-        <v>373180949879.4145</v>
+        <v>405311325296.9192</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
-        <v>43040</v>
+        <v>43132</v>
       </c>
       <c r="B432" t="n">
-        <v>3141177000000</v>
+        <v>3172864000000</v>
       </c>
       <c r="C432" t="n">
-        <v>0.1194243745148385</v>
+        <v>0.1206549148779576</v>
       </c>
       <c r="D432" t="n">
-        <v>375133098465.3968</v>
+        <v>382821635839.3359</v>
       </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
-        <v>43070</v>
+        <v>43160</v>
       </c>
       <c r="B433" t="n">
-        <v>3130303000000</v>
+        <v>3220531000000</v>
       </c>
       <c r="C433" t="n">
-        <v>0.1221509810556043</v>
+        <v>0.1199947202323098</v>
       </c>
       <c r="D433" t="n">
-        <v>382369582451.3014</v>
+        <v>386446716344.4808</v>
       </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
-        <v>43101</v>
+        <v>43191</v>
       </c>
       <c r="B434" t="n">
-        <v>3190477000000</v>
+        <v>3239383000000</v>
       </c>
       <c r="C434" t="n">
-        <v>0.1270378458446556</v>
+        <v>0.1143929167905923</v>
       </c>
       <c r="D434" t="n">
-        <v>405311325296.9192</v>
+        <v>370562469971.8594</v>
       </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
-        <v>43132</v>
+        <v>43221</v>
       </c>
       <c r="B435" t="n">
-        <v>3172864000000</v>
+        <v>3221827000000</v>
       </c>
       <c r="C435" t="n">
-        <v>0.1206549148779576</v>
+        <v>0.1135460429204042</v>
       </c>
       <c r="D435" t="n">
-        <v>382821635839.3359</v>
+        <v>365825706824.1172</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
-        <v>43160</v>
+        <v>43252</v>
       </c>
       <c r="B436" t="n">
-        <v>3220531000000</v>
+        <v>3298888000000</v>
       </c>
       <c r="C436" t="n">
-        <v>0.1199947202323098</v>
+        <v>0.1118293037507549</v>
       </c>
       <c r="D436" t="n">
-        <v>386446716344.4808</v>
+        <v>368912348191.7202</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
-        <v>43191</v>
+        <v>43282</v>
       </c>
       <c r="B437" t="n">
-        <v>3239383000000</v>
+        <v>3268769000000</v>
       </c>
       <c r="C437" t="n">
-        <v>0.1143929167905923</v>
+        <v>0.1137732794351384</v>
       </c>
       <c r="D437" t="n">
-        <v>370562469971.8594</v>
+        <v>371898568845.918</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
-        <v>43221</v>
+        <v>43313</v>
       </c>
       <c r="B438" t="n">
-        <v>3221827000000</v>
+        <v>3267031000000</v>
       </c>
       <c r="C438" t="n">
-        <v>0.1135460429204042</v>
+        <v>0.1094730296770436</v>
       </c>
       <c r="D438" t="n">
-        <v>365825706824.1172</v>
+        <v>357651781618.8215</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
-        <v>43252</v>
+        <v>43344</v>
       </c>
       <c r="B439" t="n">
-        <v>3298888000000</v>
+        <v>3303322000000</v>
       </c>
       <c r="C439" t="n">
-        <v>0.1118293037507549</v>
+        <v>0.112585100262661</v>
       </c>
       <c r="D439" t="n">
-        <v>368912348191.7202</v>
+        <v>371904838569.854</v>
       </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
-        <v>43282</v>
+        <v>43374</v>
       </c>
       <c r="B440" t="n">
-        <v>3268769000000</v>
+        <v>3296521000000</v>
       </c>
       <c r="C440" t="n">
-        <v>0.1137732794351384</v>
+        <v>0.1091656577940459</v>
       </c>
       <c r="D440" t="n">
-        <v>371898568845.918</v>
+        <v>359866883396.886</v>
       </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
-        <v>43313</v>
+        <v>43405</v>
       </c>
       <c r="B441" t="n">
-        <v>3267031000000</v>
+        <v>3348953000000</v>
       </c>
       <c r="C441" t="n">
-        <v>0.1094730296770436</v>
+        <v>0.1099589852984837</v>
       </c>
       <c r="D441" t="n">
-        <v>357651781618.8215</v>
+        <v>368247473692.3127</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
-        <v>43344</v>
+        <v>43435</v>
       </c>
       <c r="B442" t="n">
-        <v>3303322000000</v>
+        <v>3341036000000</v>
       </c>
       <c r="C442" t="n">
-        <v>0.112585100262661</v>
+        <v>0.1126812618949157</v>
       </c>
       <c r="D442" t="n">
-        <v>371904838569.854</v>
+        <v>376472152516.3416</v>
       </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
-        <v>43374</v>
+        <v>43466</v>
       </c>
       <c r="B443" t="n">
-        <v>3296521000000</v>
+        <v>3386768000000</v>
       </c>
       <c r="C443" t="n">
-        <v>0.1091656577940459</v>
+        <v>0.1106084571226316</v>
       </c>
       <c r="D443" t="n">
-        <v>359866883396.886</v>
+        <v>374605183112.3008</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
-        <v>43405</v>
+        <v>43497</v>
       </c>
       <c r="B444" t="n">
-        <v>3348953000000</v>
+        <v>3383263000000</v>
       </c>
       <c r="C444" t="n">
-        <v>0.1099589852984837</v>
+        <v>0.1083423618634886</v>
       </c>
       <c r="D444" t="n">
-        <v>368247473692.3127</v>
+        <v>366550704225.3521</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
-        <v>43435</v>
+        <v>43525</v>
       </c>
       <c r="B445" t="n">
-        <v>3341036000000</v>
+        <v>3420052000000</v>
       </c>
       <c r="C445" t="n">
-        <v>0.1126812618949157</v>
+        <v>0.1075615790039798</v>
       </c>
       <c r="D445" t="n">
-        <v>376472152516.3416</v>
+        <v>367866193395.719</v>
       </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
-        <v>43466</v>
+        <v>43556</v>
       </c>
       <c r="B446" t="n">
-        <v>3386768000000</v>
+        <v>3410442000000</v>
       </c>
       <c r="C446" t="n">
-        <v>0.1106084571226316</v>
+        <v>0.1054874575412983</v>
       </c>
       <c r="D446" t="n">
-        <v>374605183112.3008</v>
+        <v>359758855672.0606</v>
       </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
-        <v>43497</v>
+        <v>43586</v>
       </c>
       <c r="B447" t="n">
-        <v>3383263000000</v>
+        <v>3433707000000</v>
       </c>
       <c r="C447" t="n">
-        <v>0.1083423618634886</v>
+        <v>0.105400955775867</v>
       </c>
       <c r="D447" t="n">
-        <v>366550704225.3521</v>
+        <v>361915999654.2849</v>
       </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
-        <v>43525</v>
+        <v>43617</v>
       </c>
       <c r="B448" t="n">
-        <v>3420052000000</v>
+        <v>3507874000000</v>
       </c>
       <c r="C448" t="n">
-        <v>0.1075615790039798</v>
+        <v>0.1077916086388507</v>
       </c>
       <c r="D448" t="n">
-        <v>367866193395.719</v>
+        <v>378119381362.3997</v>
       </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
-        <v>43556</v>
+        <v>43647</v>
       </c>
       <c r="B449" t="n">
-        <v>3410442000000</v>
+        <v>3509682000000</v>
       </c>
       <c r="C449" t="n">
-        <v>0.1054874575412983</v>
+        <v>0.1035518276897587</v>
       </c>
       <c r="D449" t="n">
-        <v>359758855672.0606</v>
+        <v>363433985709.8478</v>
       </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
-        <v>43586</v>
+        <v>43678</v>
       </c>
       <c r="B450" t="n">
-        <v>3433707000000</v>
+        <v>3504689000000</v>
       </c>
       <c r="C450" t="n">
-        <v>0.105400955775867</v>
+        <v>0.1019129052311894</v>
       </c>
       <c r="D450" t="n">
-        <v>361915999654.2849</v>
+        <v>357173037921.7921</v>
       </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
-        <v>43617</v>
+        <v>43709</v>
       </c>
       <c r="B451" t="n">
-        <v>3507874000000</v>
+        <v>3561868000000</v>
       </c>
       <c r="C451" t="n">
-        <v>0.1077916086388507</v>
+        <v>0.1016824376127404</v>
       </c>
       <c r="D451" t="n">
-        <v>378119381362.3997</v>
+        <v>362179420694.8164</v>
       </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
-        <v>43647</v>
+        <v>43739</v>
       </c>
       <c r="B452" t="n">
-        <v>3509682000000</v>
+        <v>3593417000000</v>
       </c>
       <c r="C452" t="n">
-        <v>0.1035518276897587</v>
+        <v>0.1036780836972434</v>
       </c>
       <c r="D452" t="n">
-        <v>363433985709.8478</v>
+        <v>372558588485.0974</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
-        <v>43678</v>
+        <v>43770</v>
       </c>
       <c r="B453" t="n">
-        <v>3504689000000</v>
+        <v>3599353000000</v>
       </c>
       <c r="C453" t="n">
-        <v>0.1019129052311894</v>
+        <v>0.1045032542313368</v>
       </c>
       <c r="D453" t="n">
-        <v>357173037921.7921</v>
+        <v>376144101627.3247</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
-        <v>43709</v>
+        <v>43800</v>
       </c>
       <c r="B454" t="n">
-        <v>3561868000000</v>
+        <v>3579821000000</v>
       </c>
       <c r="C454" t="n">
-        <v>0.1016824376127404</v>
+        <v>0.1067489914889029</v>
       </c>
       <c r="D454" t="n">
-        <v>362179420694.8164</v>
+        <v>382142281460.7959</v>
       </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
-        <v>43739</v>
+        <v>43831</v>
       </c>
       <c r="B455" t="n">
-        <v>3593417000000</v>
+        <v>3624226000000</v>
       </c>
       <c r="C455" t="n">
-        <v>0.1036780836972434</v>
+        <v>0.1039199649997558</v>
       </c>
       <c r="D455" t="n">
-        <v>372558588485.0974</v>
+        <v>376629439071.2049</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
-        <v>43770</v>
+        <v>43862</v>
       </c>
       <c r="B456" t="n">
-        <v>3599353000000</v>
+        <v>3600782000000</v>
       </c>
       <c r="C456" t="n">
-        <v>0.1045032542313368</v>
+        <v>0.1041575528807896</v>
       </c>
       <c r="D456" t="n">
-        <v>376144101627.3247</v>
+        <v>375048641577.1953</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
-        <v>43800</v>
+        <v>43891</v>
       </c>
       <c r="B457" t="n">
-        <v>3579821000000</v>
+        <v>3834576000000</v>
       </c>
       <c r="C457" t="n">
-        <v>0.1067489914889029</v>
+        <v>0.1012330181612035</v>
       </c>
       <c r="D457" t="n">
-        <v>382142281460.7959</v>
+        <v>388185701848.515</v>
       </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
-        <v>43831</v>
+        <v>43922</v>
       </c>
       <c r="B458" t="n">
-        <v>3624226000000</v>
+        <v>3900996000000</v>
       </c>
       <c r="C458" t="n">
-        <v>0.1039199649997558</v>
+        <v>0.1026061974143238</v>
       </c>
       <c r="D458" t="n">
-        <v>376629439071.2049</v>
+        <v>400266365688.4875</v>
       </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
-        <v>43862</v>
+        <v>43952</v>
       </c>
       <c r="B459" t="n">
-        <v>3600782000000</v>
+        <v>3963829000000</v>
       </c>
       <c r="C459" t="n">
-        <v>0.1041575528807896</v>
+        <v>0.1062992962986585</v>
       </c>
       <c r="D459" t="n">
-        <v>375048641577.1953</v>
+        <v>421352233348.2153</v>
       </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
-        <v>43891</v>
+        <v>43983</v>
       </c>
       <c r="B460" t="n">
-        <v>3834576000000</v>
+        <v>4054589000000</v>
       </c>
       <c r="C460" t="n">
-        <v>0.1012330181612035</v>
+        <v>0.1073675621121347</v>
       </c>
       <c r="D460" t="n">
-        <v>388185701848.515</v>
+        <v>435331336296.678</v>
       </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
-        <v>43922</v>
+        <v>44013</v>
       </c>
       <c r="B461" t="n">
-        <v>3900996000000</v>
+        <v>4104968000000</v>
       </c>
       <c r="C461" t="n">
-        <v>0.1026061974143238</v>
+        <v>0.1140038966531876</v>
       </c>
       <c r="D461" t="n">
-        <v>400266365688.4875</v>
+        <v>467982347636.6422</v>
       </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
-        <v>43952</v>
+        <v>44044</v>
       </c>
       <c r="B462" t="n">
-        <v>3963829000000</v>
+        <v>4086280000000</v>
       </c>
       <c r="C462" t="n">
-        <v>0.1062992962986585</v>
+        <v>0.1157903268760928</v>
       </c>
       <c r="D462" t="n">
-        <v>421352233348.2153</v>
+        <v>473151696907.2404</v>
       </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
-        <v>43983</v>
+        <v>44075</v>
       </c>
       <c r="B463" t="n">
-        <v>4054589000000</v>
+        <v>4084505000000</v>
       </c>
       <c r="C463" t="n">
-        <v>0.1073675621121347</v>
+        <v>0.1116781881330757</v>
       </c>
       <c r="D463" t="n">
-        <v>435331336296.678</v>
+        <v>456150117820.4885</v>
       </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
-        <v>44013</v>
+        <v>44105</v>
       </c>
       <c r="B464" t="n">
-        <v>4104968000000</v>
+        <v>4130997000000</v>
       </c>
       <c r="C464" t="n">
-        <v>0.1140038966531876</v>
+        <v>0.1125626692661139</v>
       </c>
       <c r="D464" t="n">
-        <v>467982347636.6422</v>
+        <v>464996049050.3088</v>
       </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
-        <v>44044</v>
+        <v>44136</v>
       </c>
       <c r="B465" t="n">
-        <v>4086280000000</v>
+        <v>4194139000000</v>
       </c>
       <c r="C465" t="n">
-        <v>0.1157903268760928</v>
+        <v>0.1168879745651767</v>
       </c>
       <c r="D465" t="n">
-        <v>473151696907.2404</v>
+        <v>490244412754.8158</v>
       </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
-        <v>44075</v>
+        <v>44166</v>
       </c>
       <c r="B466" t="n">
-        <v>4084505000000</v>
+        <v>4241163000000</v>
       </c>
       <c r="C466" t="n">
-        <v>0.1116781881330757</v>
+        <v>0.1216820351077008</v>
       </c>
       <c r="D466" t="n">
-        <v>456150117820.4885</v>
+        <v>516073345063.4815</v>
       </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
-        <v>44105</v>
+        <v>44197</v>
       </c>
       <c r="B467" t="n">
-        <v>4130997000000</v>
+        <v>4262410000000</v>
       </c>
       <c r="C467" t="n">
-        <v>0.1125626692661139</v>
+        <v>0.1199184554502938</v>
       </c>
       <c r="D467" t="n">
-        <v>464996049050.3088</v>
+        <v>511141623695.8868</v>
       </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
-        <v>44136</v>
+        <v>44228</v>
       </c>
       <c r="B468" t="n">
-        <v>4194139000000</v>
+        <v>4298127000000</v>
       </c>
       <c r="C468" t="n">
-        <v>0.1168879745651767</v>
+        <v>0.1186127057930446</v>
       </c>
       <c r="D468" t="n">
-        <v>490244412754.8158</v>
+        <v>509812473312.1412</v>
       </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
-        <v>44166</v>
+        <v>44256</v>
       </c>
       <c r="B469" t="n">
-        <v>4241163000000</v>
+        <v>4336988000000</v>
       </c>
       <c r="C469" t="n">
-        <v>0.1216820351077008</v>
+        <v>0.1145869141744013</v>
       </c>
       <c r="D469" t="n">
-        <v>516073345063.4815</v>
+        <v>496962071731.4083</v>
       </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
-        <v>44197</v>
+        <v>44287</v>
       </c>
       <c r="B470" t="n">
-        <v>4262410000000</v>
+        <v>4376563000000</v>
       </c>
       <c r="C470" t="n">
-        <v>0.1199184554502938</v>
+        <v>0.1182385296802357</v>
       </c>
       <c r="D470" t="n">
-        <v>511141623695.8868</v>
+        <v>517478374172.9214</v>
       </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
-        <v>44228</v>
+        <v>44317</v>
       </c>
       <c r="B471" t="n">
-        <v>4298127000000</v>
+        <v>4420366000000</v>
       </c>
       <c r="C471" t="n">
-        <v>0.1186127057930446</v>
+        <v>0.1205865328960062</v>
       </c>
       <c r="D471" t="n">
-        <v>509812473312.1412</v>
+        <v>533036610071.3873</v>
       </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
-        <v>44256</v>
+        <v>44348</v>
       </c>
       <c r="B472" t="n">
-        <v>4336988000000</v>
+        <v>4539396000000</v>
       </c>
       <c r="C472" t="n">
-        <v>0.1145869141744013</v>
+        <v>0.1170891633979275</v>
       </c>
       <c r="D472" t="n">
-        <v>496962071731.4083</v>
+        <v>531514079971.8986</v>
       </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
-        <v>44287</v>
+        <v>44378</v>
       </c>
       <c r="B473" t="n">
-        <v>4376563000000</v>
+        <v>4517677000000</v>
       </c>
       <c r="C473" t="n">
-        <v>0.1182385296802357</v>
+        <v>0.1165664195458572</v>
       </c>
       <c r="D473" t="n">
-        <v>517478374172.9214</v>
+        <v>526609432554.6697</v>
       </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
-        <v>44317</v>
+        <v>44409</v>
       </c>
       <c r="B474" t="n">
-        <v>4420366000000</v>
+        <v>4525957000000</v>
       </c>
       <c r="C474" t="n">
-        <v>0.1205865328960062</v>
+        <v>0.1160321641158929</v>
       </c>
       <c r="D474" t="n">
-        <v>533036610071.3873</v>
+        <v>525156585405.4744</v>
       </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
-        <v>44348</v>
+        <v>44440</v>
       </c>
       <c r="B475" t="n">
-        <v>4539396000000</v>
+        <v>4620809000000</v>
       </c>
       <c r="C475" t="n">
-        <v>0.1170891633979275</v>
+        <v>0.1142422369543934</v>
       </c>
       <c r="D475" t="n">
-        <v>531514079971.8986</v>
+        <v>527891556698.9934</v>
       </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
-        <v>44378</v>
+        <v>44470</v>
       </c>
       <c r="B476" t="n">
-        <v>4517677000000</v>
+        <v>4671069000000</v>
       </c>
       <c r="C476" t="n">
-        <v>0.1165664195458572</v>
+        <v>0.1165729420212816</v>
       </c>
       <c r="D476" t="n">
-        <v>526609432554.6697</v>
+        <v>544520255714.4056</v>
       </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
-        <v>44409</v>
+        <v>44501</v>
       </c>
       <c r="B477" t="n">
-        <v>4525957000000</v>
+        <v>4727294000000</v>
       </c>
       <c r="C477" t="n">
-        <v>0.1160321641158929</v>
+        <v>0.110870890847608</v>
       </c>
       <c r="D477" t="n">
-        <v>525156585405.4744</v>
+        <v>524119297078.552</v>
       </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
-        <v>44440</v>
+        <v>44531</v>
       </c>
       <c r="B478" t="n">
-        <v>4620809000000</v>
+        <v>4705000000000</v>
       </c>
       <c r="C478" t="n">
-        <v>0.1142422369543934</v>
+        <v>0.1106413769983216</v>
       </c>
       <c r="D478" t="n">
-        <v>527891556698.9934</v>
+        <v>520567678777.103</v>
       </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
-        <v>44470</v>
+        <v>44562</v>
       </c>
       <c r="B479" t="n">
-        <v>4671069000000</v>
+        <v>4752338000000</v>
       </c>
       <c r="C479" t="n">
-        <v>0.1165729420212816</v>
+        <v>0.1073687149038513</v>
       </c>
       <c r="D479" t="n">
-        <v>544520255714.4056</v>
+        <v>510252423848.7389</v>
       </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
-        <v>44501</v>
+        <v>44593</v>
       </c>
       <c r="B480" t="n">
-        <v>4727294000000</v>
+        <v>4755744000000</v>
       </c>
       <c r="C480" t="n">
-        <v>0.110870890847608</v>
+        <v>0.1058413860987923</v>
       </c>
       <c r="D480" t="n">
-        <v>524119297078.552</v>
+        <v>503354536891.0151</v>
       </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
-        <v>44531</v>
+        <v>44621</v>
       </c>
       <c r="B481" t="n">
-        <v>4705000000000</v>
+        <v>4838594000000</v>
       </c>
       <c r="C481" t="n">
-        <v>0.1106413769983216</v>
+        <v>0.1065178257581406</v>
       </c>
       <c r="D481" t="n">
-        <v>520567678777.103</v>
+        <v>515396512606.3847</v>
       </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
-        <v>44562</v>
+        <v>44652</v>
       </c>
       <c r="B482" t="n">
-        <v>4752338000000</v>
+        <v>4861961000000</v>
       </c>
       <c r="C482" t="n">
-        <v>0.1073687149038513</v>
+        <v>0.1019087509044402</v>
       </c>
       <c r="D482" t="n">
-        <v>510252423848.7389</v>
+        <v>495476372456.1028</v>
       </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
-        <v>44593</v>
+        <v>44682</v>
       </c>
       <c r="B483" t="n">
-        <v>4755744000000</v>
+        <v>4868193000000</v>
       </c>
       <c r="C483" t="n">
-        <v>0.1058413860987923</v>
+        <v>0.1025885133693351</v>
       </c>
       <c r="D483" t="n">
-        <v>503354536891.0151</v>
+        <v>499420682665.0034</v>
       </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
-        <v>44621</v>
+        <v>44713</v>
       </c>
       <c r="B484" t="n">
-        <v>4838594000000</v>
+        <v>4981498000000</v>
       </c>
       <c r="C484" t="n">
-        <v>0.1065178257581406</v>
+        <v>0.09788375325463479</v>
       </c>
       <c r="D484" t="n">
-        <v>515396512606.3847</v>
+        <v>487607721070.4567</v>
       </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
-        <v>44652</v>
+        <v>44743</v>
       </c>
       <c r="B485" t="n">
-        <v>4861961000000</v>
+        <v>4925017000000</v>
       </c>
       <c r="C485" t="n">
-        <v>0.1019087509044402</v>
+        <v>0.09863392020515854</v>
       </c>
       <c r="D485" t="n">
-        <v>495476372456.1028</v>
+        <v>485773733787.0493</v>
       </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
-        <v>44682</v>
+        <v>44774</v>
       </c>
       <c r="B486" t="n">
-        <v>4868193000000</v>
+        <v>4981835000000</v>
       </c>
       <c r="C486" t="n">
-        <v>0.1025885133693351</v>
+        <v>0.09392220048445071</v>
       </c>
       <c r="D486" t="n">
-        <v>499420682665.0034</v>
+        <v>467904905650.4535</v>
       </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
-        <v>44713</v>
+        <v>44805</v>
       </c>
       <c r="B487" t="n">
-        <v>4981498000000</v>
+        <v>4905553000000</v>
       </c>
       <c r="C487" t="n">
-        <v>0.09788375325463479</v>
+        <v>0.09016400833115437</v>
       </c>
       <c r="D487" t="n">
-        <v>487607721070.4567</v>
+        <v>442304321560.9193</v>
       </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
-        <v>44743</v>
+        <v>44835</v>
       </c>
       <c r="B488" t="n">
-        <v>4925017000000</v>
+        <v>4884821000000</v>
       </c>
       <c r="C488" t="n">
-        <v>0.09863392020515854</v>
+        <v>0.09069463931195419</v>
       </c>
       <c r="D488" t="n">
-        <v>485773733787.0493</v>
+        <v>443027078698.4594</v>
       </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
-        <v>44774</v>
+        <v>44866</v>
       </c>
       <c r="B489" t="n">
-        <v>4981835000000</v>
+        <v>4877312000000</v>
       </c>
       <c r="C489" t="n">
-        <v>0.09392220048445071</v>
+        <v>0.09528074471430069</v>
       </c>
       <c r="D489" t="n">
-        <v>467904905650.4535</v>
+        <v>464713919563.9953</v>
       </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
-        <v>44805</v>
+        <v>44896</v>
       </c>
       <c r="B490" t="n">
-        <v>4905553000000</v>
+        <v>4822713000000</v>
       </c>
       <c r="C490" t="n">
-        <v>0.09016400833115437</v>
+        <v>0.09609378753663576</v>
       </c>
       <c r="D490" t="n">
-        <v>442304321560.9193</v>
+        <v>463432758372.1713</v>
       </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
-        <v>44835</v>
+        <v>44927</v>
       </c>
       <c r="B491" t="n">
-        <v>4884821000000</v>
+        <v>4903738000000</v>
       </c>
       <c r="C491" t="n">
-        <v>0.09069463931195419</v>
+        <v>0.09566814633399663</v>
       </c>
       <c r="D491" t="n">
-        <v>443027078698.4594</v>
+        <v>469131524567.58</v>
       </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
-        <v>44866</v>
+        <v>44958</v>
       </c>
       <c r="B492" t="n">
-        <v>4877312000000</v>
+        <v>4814210000000</v>
       </c>
       <c r="C492" t="n">
-        <v>0.09528074471430069</v>
+        <v>0.09570211377258689</v>
       </c>
       <c r="D492" t="n">
-        <v>464713919563.9953</v>
+        <v>460730073145.1255</v>
       </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
-        <v>44896</v>
+        <v>44986</v>
       </c>
       <c r="B493" t="n">
-        <v>4822713000000</v>
+        <v>4779806000000</v>
       </c>
       <c r="C493" t="n">
-        <v>0.09609378753663576</v>
+        <v>0.09639297487999074</v>
       </c>
       <c r="D493" t="n">
-        <v>463432758372.1713</v>
+        <v>460739719689.229</v>
       </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
-        <v>44927</v>
+        <v>45017</v>
       </c>
       <c r="B494" t="n">
-        <v>4903738000000</v>
+        <v>4773819000000</v>
       </c>
       <c r="C494" t="n">
-        <v>0.09566814633399663</v>
+        <v>0.09748869131180783</v>
       </c>
       <c r="D494" t="n">
-        <v>469131524567.58</v>
+        <v>465393366869.4432</v>
       </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
-        <v>44958</v>
+        <v>45047</v>
       </c>
       <c r="B495" t="n">
-        <v>4814210000000</v>
+        <v>4766051000000</v>
       </c>
       <c r="C495" t="n">
-        <v>0.09570211377258689</v>
+        <v>0.09232331625351982</v>
       </c>
       <c r="D495" t="n">
-        <v>460730073145.1255</v>
+        <v>440017633753.4044</v>
       </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
-        <v>44986</v>
+        <v>45078</v>
       </c>
       <c r="B496" t="n">
-        <v>4779806000000</v>
+        <v>4812070000000</v>
       </c>
       <c r="C496" t="n">
-        <v>0.09639297487999074</v>
+        <v>0.09274803142303305</v>
       </c>
       <c r="D496" t="n">
-        <v>460739719689.229</v>
+        <v>446310019569.8347</v>
       </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
-        <v>45017</v>
+        <v>45108</v>
       </c>
       <c r="B497" t="n">
-        <v>4773819000000</v>
+        <v>4784709000000</v>
       </c>
       <c r="C497" t="n">
-        <v>0.09748869131180783</v>
+        <v>0.09520635978483362</v>
       </c>
       <c r="D497" t="n">
-        <v>465393366869.4432</v>
+        <v>455534726519.7315</v>
       </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
-        <v>45047</v>
+        <v>45139</v>
       </c>
       <c r="B498" t="n">
-        <v>4766051000000</v>
+        <v>4765034000000</v>
       </c>
       <c r="C498" t="n">
-        <v>0.09232331625351982</v>
+        <v>0.09137426900584794</v>
       </c>
       <c r="D498" t="n">
-        <v>440017633753.4044</v>
+        <v>435401498538.0117</v>
       </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
-        <v>45078</v>
+        <v>45170</v>
       </c>
       <c r="B499" t="n">
-        <v>4811874000000</v>
+        <v>4744031000000</v>
       </c>
       <c r="C499" t="n">
-        <v>0.09274803142303305</v>
+        <v>0.0915818008645322</v>
       </c>
       <c r="D499" t="n">
-        <v>446291840955.6757</v>
+        <v>434466902337.1675</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Sweden_M2 (SEK)</t>
+  </si>
+  <si>
+    <t>Sweden_FX (USD)</t>
+  </si>
+  <si>
+    <t>Sweden_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,6253 +385,5863 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Sweden_M2 (SEK)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sweden_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sweden_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>30042</v>
       </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>0.1725625539257981</v>
       </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30072</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>0.1709401709401709</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30103</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>0.1633986928104575</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30133</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>0.1636661211129296</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30164</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>0.1626677511183408</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30195</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>0.1592356687898089</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30225</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>0.1341201716738197</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30256</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="C9">
         <v>0.1355380862022228</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30286</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>0.1367989056087551</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30317</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>0.1332445036642239</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30348</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="C12">
         <v>0.133645172068159</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30376</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
+      <c r="C13">
         <v>0.1324503311258278</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30407</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+      <c r="C14">
         <v>0.1332445036642239</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30437</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
+      <c r="C15">
         <v>0.1325820351342393</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30468</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
+      <c r="C16">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>30498</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
+      <c r="C17">
         <v>0.1289823294208693</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>30529</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
+      <c r="C18">
         <v>0.1261829652996845</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>30560</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
+      <c r="C19">
         <v>0.1280409731113956</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>30590</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
+      <c r="C20">
         <v>0.127787361829915</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>30621</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
+      <c r="C21">
         <v>0.1256281407035176</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>30651</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
+      <c r="C22">
         <v>0.1248439450686642</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
         <v>30682</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
+      <c r="C23">
         <v>0.1221299462628236</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>30713</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
+      <c r="C24">
         <v>0.1287001287001287</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>30742</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
+      <c r="C25">
         <v>0.1295336787564767</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>30773</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
+      <c r="C26">
         <v>0.1252348152786475</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
         <v>30803</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
+      <c r="C27">
         <v>0.1237317495669389</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>30834</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
+      <c r="C28">
         <v>0.122256861666361</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>30864</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
+      <c r="C29">
         <v>0.1186239620403322</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>30895</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C30">
         <v>0.1201923076923077</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>30926</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C31">
         <v>0.1151145389662715</v>
       </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>30956</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C32">
         <v>0.115460108532502</v>
       </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
         <v>30987</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C33">
         <v>0.1131221719457014</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
         <v>31017</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C34">
         <v>0.1112966054535337</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
         <v>31048</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C35">
         <v>0.1106194690265487</v>
       </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
         <v>31079</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C36">
         <v>0.1054852320675105</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
         <v>31107</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C37">
         <v>0.1121076233183857</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>31138</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C38">
         <v>0.1109570041608877</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>31168</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C39">
         <v>0.112739571589628</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>31199</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C40">
         <v>0.1143837575064341</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
         <v>31229</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C41">
         <v>0.1207000603500302</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
         <v>31260</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C42">
         <v>0.1201201201201201</v>
       </c>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
         <v>31291</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
+      <c r="C43">
         <v>0.124223602484472</v>
       </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
         <v>31321</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="n">
+      <c r="C44">
         <v>0.1269680040629761</v>
       </c>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
         <v>31352</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="n">
+      <c r="C45">
         <v>0.1309671927182241</v>
       </c>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
         <v>31382</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
+      <c r="C46">
         <v>0.132013201320132</v>
       </c>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
         <v>31413</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="n">
+      <c r="C47">
         <v>0.1327580484566877</v>
       </c>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
         <v>31444</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
+      <c r="C48">
         <v>0.1388792444969099</v>
       </c>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
         <v>31472</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
+      <c r="C49">
         <v>0.135685210312076</v>
       </c>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
         <v>31503</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="n">
+      <c r="C50">
         <v>0.1427144284287142</v>
       </c>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
         <v>31533</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="n">
+      <c r="C51">
         <v>0.135308842432853</v>
       </c>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
         <v>31564</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="n">
+      <c r="C52">
         <v>0.1402918069584736</v>
       </c>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
         <v>31594</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="n">
+      <c r="C53">
         <v>0.143348623853211</v>
       </c>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
         <v>31625</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="n">
+      <c r="C54">
         <v>0.1451378809869376</v>
       </c>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
         <v>31656</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="n">
+      <c r="C55">
         <v>0.1447178002894356</v>
       </c>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
         <v>31686</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="n">
+      <c r="C56">
         <v>0.1420858198351805</v>
       </c>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
         <v>31717</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="n">
+      <c r="C57">
         <v>0.1454016721192294</v>
       </c>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
         <v>31747</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="n">
+      <c r="C58">
         <v>0.1483459427384661</v>
       </c>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
         <v>31778</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="n">
+      <c r="C59">
         <v>0.1528467711119602</v>
       </c>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
         <v>31809</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="n">
+      <c r="C60">
         <v>0.1544401544401544</v>
       </c>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
         <v>31837</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="n">
+      <c r="C61">
         <v>0.158102766798419</v>
       </c>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
         <v>31868</v>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="n">
+      <c r="C62">
         <v>0.1591343093570974</v>
       </c>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
         <v>31898</v>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="n">
+      <c r="C63">
         <v>0.1571832756994656</v>
       </c>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
         <v>31929</v>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
+      <c r="C64">
         <v>0.1565925461948011</v>
       </c>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
         <v>31959</v>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="n">
+      <c r="C65">
         <v>0.1541069502234551</v>
       </c>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
         <v>31990</v>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="n">
+      <c r="C66">
         <v>0.1568381430363864</v>
       </c>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
         <v>32021</v>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="n">
+      <c r="C67">
         <v>0.1548467017652524</v>
       </c>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
         <v>32051</v>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="n">
+      <c r="C68">
         <v>0.1612903225806452</v>
       </c>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
         <v>32082</v>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="n">
+      <c r="C69">
         <v>0.1677570877369569</v>
       </c>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
         <v>32112</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="n">
+      <c r="C70">
         <v>0.1725625539257981</v>
       </c>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
         <v>32143</v>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="n">
+      <c r="C71">
         <v>0.1657824933687003</v>
       </c>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
         <v>32174</v>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="n">
+      <c r="C72">
         <v>0.1668891855807744</v>
       </c>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
         <v>32203</v>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="n">
+      <c r="C73">
         <v>0.170328734457503</v>
       </c>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
         <v>32234</v>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="n">
+      <c r="C74">
         <v>0.1702127659574468</v>
       </c>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
         <v>32264</v>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="n">
+      <c r="C75">
         <v>0.1668752607425949</v>
       </c>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
         <v>32295</v>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="n">
+      <c r="C76">
         <v>0.1591089896579157</v>
       </c>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
         <v>32325</v>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="n">
+      <c r="C77">
         <v>0.1557875058420315</v>
       </c>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
         <v>32356</v>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="n">
+      <c r="C78">
         <v>0.1540120129370091</v>
       </c>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
         <v>32387</v>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="n">
+      <c r="C79">
         <v>0.1556420233463035</v>
       </c>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
         <v>32417</v>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="n">
+      <c r="C80">
         <v>0.1614205004035512</v>
       </c>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
         <v>32448</v>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="n">
+      <c r="C81">
         <v>0.1655218074981379</v>
       </c>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
         <v>32478</v>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="n">
+      <c r="C82">
         <v>0.1631055292774425</v>
       </c>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
         <v>32509</v>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="n">
+      <c r="C83">
         <v>0.1572327044025157</v>
       </c>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
         <v>32540</v>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="n">
+      <c r="C84">
         <v>0.1590583744234134</v>
       </c>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
         <v>32568</v>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="n">
+      <c r="C85">
         <v>0.1552072016141549</v>
       </c>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
         <v>32599</v>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="n">
+      <c r="C86">
         <v>0.1565435190983093</v>
       </c>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
         <v>32629</v>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="n">
+      <c r="C87">
         <v>0.1500600240096039</v>
       </c>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
         <v>32660</v>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="n">
+      <c r="C88">
         <v>0.1502178158329578</v>
       </c>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
         <v>32690</v>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="n">
+      <c r="C89">
         <v>0.1566416040100251</v>
       </c>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
         <v>32721</v>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="n">
+      <c r="C90">
         <v>0.1510345869204048</v>
       </c>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
         <v>32752</v>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="n">
+      <c r="C91">
         <v>0.1554968123153475</v>
       </c>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
         <v>32782</v>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="n">
+      <c r="C92">
         <v>0.1557632398753894</v>
       </c>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
         <v>32813</v>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="n">
+      <c r="C93">
         <v>0.1567398119122257</v>
       </c>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
         <v>32843</v>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="n">
+      <c r="C94">
         <v>0.1611214049786514</v>
       </c>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
         <v>32874</v>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="n">
+      <c r="C95">
         <v>0.1623376623376623</v>
       </c>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
         <v>32905</v>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="n">
+      <c r="C96">
         <v>0.1632253325716151</v>
       </c>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
         <v>32933</v>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="n">
+      <c r="C97">
         <v>0.1635590448151783</v>
       </c>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
         <v>32964</v>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="n">
+      <c r="C98">
         <v>0.1639881928501148</v>
       </c>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
         <v>32994</v>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="n">
+      <c r="C99">
         <v>0.1630523398010761</v>
       </c>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
         <v>33025</v>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="n">
+      <c r="C100">
         <v>0.1656314699792961</v>
       </c>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
         <v>33055</v>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="n">
+      <c r="C101">
         <v>0.1720282126268708</v>
       </c>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
         <v>33086</v>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="n">
+      <c r="C102">
         <v>0.1727414061150458</v>
       </c>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
         <v>33117</v>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="n">
+      <c r="C103">
         <v>0.1735207357279195</v>
       </c>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
         <v>33147</v>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="n">
+      <c r="C104">
         <v>0.1772735330615139</v>
       </c>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
         <v>33178</v>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="n">
+      <c r="C105">
         <v>0.1779834475393788</v>
       </c>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
         <v>33208</v>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="n">
+      <c r="C106">
         <v>0.1775095411378362</v>
       </c>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
         <v>33239</v>
       </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="n">
+      <c r="C107">
         <v>0.1807337791433219</v>
       </c>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
         <v>33270</v>
       </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="n">
+      <c r="C108">
         <v>0.1763668430335097</v>
       </c>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
         <v>33298</v>
       </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="n">
+      <c r="C109">
         <v>0.1631321370309951</v>
       </c>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
         <v>33329</v>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="n">
+      <c r="C110">
         <v>0.1626545217957059</v>
       </c>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
         <v>33359</v>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="n">
+      <c r="C111">
         <v>0.1603206412825651</v>
       </c>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
         <v>33390</v>
       </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="n">
+      <c r="C112">
         <v>0.1540476007086189</v>
       </c>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
         <v>33420</v>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="n">
+      <c r="C113">
         <v>0.158102766798419</v>
       </c>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
         <v>33451</v>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="n">
+      <c r="C114">
         <v>0.1580278128950695</v>
       </c>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
         <v>33482</v>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="n">
+      <c r="C115">
         <v>0.1645278051990786</v>
       </c>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
         <v>33512</v>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="n">
+      <c r="C116">
         <v>0.1642036124794745</v>
       </c>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
         <v>33543</v>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="n">
+      <c r="C117">
         <v>0.1683501683501683</v>
       </c>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
         <v>33573</v>
       </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="n">
+      <c r="C118">
         <v>0.1801801801801802</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
         <v>33604</v>
       </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="n">
+      <c r="C119">
         <v>0.1709401709401709</v>
       </c>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
         <v>33635</v>
       </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="n">
+      <c r="C120">
         <v>0.1688048615800135</v>
       </c>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
         <v>33664</v>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="n">
+      <c r="C121">
         <v>0.1675884028825205</v>
       </c>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
         <v>33695</v>
       </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="n">
+      <c r="C122">
         <v>0.1681520094165125</v>
       </c>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
         <v>33725</v>
       </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="n">
+      <c r="C123">
         <v>0.1727712508638563</v>
       </c>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
         <v>33756</v>
       </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="n">
+      <c r="C124">
         <v>0.1819505094614265</v>
       </c>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
         <v>33786</v>
       </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="n">
+      <c r="C125">
         <v>0.1865671641791045</v>
       </c>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
         <v>33817</v>
       </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="n">
+      <c r="C126">
         <v>0.1941747572815534</v>
       </c>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
         <v>33848</v>
       </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="n">
+      <c r="C127">
         <v>0.1896453631708705</v>
       </c>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
         <v>33878</v>
       </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="n">
+      <c r="C128">
         <v>0.1721170395869191</v>
       </c>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
         <v>33909</v>
       </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="n">
+      <c r="C129">
         <v>0.1481481481481481</v>
       </c>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
         <v>33939</v>
       </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="n">
+      <c r="C130">
         <v>0.1412030499858797</v>
       </c>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
         <v>33970</v>
       </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="n">
+      <c r="C131">
         <v>0.1367989056087551</v>
       </c>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
         <v>34001</v>
       </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="n">
+      <c r="C132">
         <v>0.1276650070215754</v>
       </c>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
         <v>34029</v>
       </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="n">
+      <c r="C133">
         <v>0.1297858533419857</v>
       </c>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
         <v>34060</v>
       </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="n">
+      <c r="C134">
         <v>0.1369675386933297</v>
       </c>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
         <v>34090</v>
       </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="n">
+      <c r="C135">
         <v>0.1395868230039084</v>
       </c>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
         <v>34121</v>
       </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="n">
+      <c r="C136">
         <v>0.1291989664082687</v>
       </c>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
         <v>34151</v>
       </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="n">
+      <c r="C137">
         <v>0.1213444970270598</v>
       </c>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
         <v>34182</v>
       </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="n">
+      <c r="C138">
         <v>0.1223091976516634</v>
       </c>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
         <v>34213</v>
       </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="n">
+      <c r="C139">
         <v>0.123304562268804</v>
       </c>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
         <v>34243</v>
       </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="n">
+      <c r="C140">
         <v>0.1227596366314756</v>
       </c>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
         <v>34274</v>
       </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="n">
+      <c r="C141">
         <v>0.1180776951233912</v>
       </c>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
         <v>34304</v>
       </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="n">
+      <c r="C142">
         <v>0.1199760047990402</v>
       </c>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
         <v>34335</v>
       </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="n">
+      <c r="C143">
         <v>0.1269357705001269</v>
       </c>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
         <v>34366</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="n">
+      <c r="C144">
         <v>0.1255335174491589</v>
       </c>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
         <v>34394</v>
       </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="n">
+      <c r="C145">
         <v>0.1276161306789178</v>
       </c>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
         <v>34425</v>
       </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="n">
+      <c r="C146">
         <v>0.1314233144959916</v>
       </c>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
         <v>34455</v>
       </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="n">
+      <c r="C147">
         <v>0.1280737704918033</v>
       </c>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
         <v>34486</v>
       </c>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="n">
+      <c r="C148">
         <v>0.1307018690367272</v>
       </c>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
         <v>34516</v>
       </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="n">
+      <c r="C149">
         <v>0.1287001287001287</v>
       </c>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
         <v>34547</v>
       </c>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="n">
+      <c r="C150">
         <v>0.1289490651192779</v>
       </c>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
         <v>34578</v>
       </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="n">
+      <c r="C151">
         <v>0.1337255950788981</v>
       </c>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
         <v>34608</v>
       </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="n">
+      <c r="C152">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
         <v>34639</v>
       </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="n">
+      <c r="C153">
         <v>0.132749236691889</v>
       </c>
-      <c r="D153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
         <v>34669</v>
       </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="n">
+      <c r="C154">
         <v>0.134698275862069</v>
       </c>
-      <c r="D154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
         <v>34700</v>
       </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="n">
+      <c r="C155">
         <v>0.1334400854016547</v>
       </c>
-      <c r="D155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
         <v>34731</v>
       </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="n">
+      <c r="C156">
         <v>0.1362397820163488</v>
       </c>
-      <c r="D156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
         <v>34759</v>
       </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="n">
+      <c r="C157">
         <v>0.1362026695723236</v>
       </c>
-      <c r="D157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
         <v>34790</v>
       </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="n">
+      <c r="C158">
         <v>0.1374570446735395</v>
       </c>
-      <c r="D158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
         <v>34820</v>
       </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="n">
+      <c r="C159">
         <v>0.1362954886193267</v>
       </c>
-      <c r="D159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
         <v>34851</v>
       </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="n">
+      <c r="C160">
         <v>0.1376651982378854</v>
       </c>
-      <c r="D160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
         <v>34881</v>
       </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="n">
+      <c r="C161">
         <v>0.1413427561837456</v>
       </c>
-      <c r="D161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
         <v>34912</v>
       </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="n">
+      <c r="C162">
         <v>0.1368363437328955</v>
       </c>
-      <c r="D162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
         <v>34943</v>
       </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="n">
+      <c r="C163">
         <v>0.1445713459592309</v>
       </c>
-      <c r="D163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
         <v>34973</v>
       </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="n">
+      <c r="C164">
         <v>0.1506250941406838</v>
       </c>
-      <c r="D164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
         <v>35004</v>
       </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="n">
+      <c r="C165">
         <v>0.1524390243902439</v>
       </c>
-      <c r="D165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
         <v>35034</v>
       </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="n">
+      <c r="C166">
         <v>0.1504890895410083</v>
       </c>
-      <c r="D166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
         <v>35065</v>
       </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="n">
+      <c r="C167">
         <v>0.1442585112521639</v>
       </c>
-      <c r="D167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
         <v>35096</v>
       </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="n">
+      <c r="C168">
         <v>0.14801657785672</v>
       </c>
-      <c r="D168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
         <v>35125</v>
       </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="n">
+      <c r="C169">
         <v>0.1497454327643007</v>
       </c>
-      <c r="D169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
         <v>35156</v>
       </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="n">
+      <c r="C170">
         <v>0.1475796930342385</v>
       </c>
-      <c r="D170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
         <v>35186</v>
       </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="n">
+      <c r="C171">
         <v>0.1490312965722802</v>
       </c>
-      <c r="D171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
         <v>35217</v>
       </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="n">
+      <c r="C172">
         <v>0.1510345869204048</v>
       </c>
-      <c r="D172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
         <v>35247</v>
       </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="n">
+      <c r="C173">
         <v>0.1515840533575868</v>
       </c>
-      <c r="D173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
         <v>35278</v>
       </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="n">
+      <c r="C174">
         <v>0.1508523155830442</v>
       </c>
-      <c r="D174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
         <v>35309</v>
       </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="n">
+      <c r="C175">
         <v>0.1507386192342478</v>
       </c>
-      <c r="D175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
         <v>35339</v>
       </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="n">
+      <c r="C176">
         <v>0.1518833535844472</v>
       </c>
-      <c r="D176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35370</v>
       </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="n">
+      <c r="C177">
         <v>0.1487431206306708</v>
       </c>
-      <c r="D177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35400</v>
       </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="n">
+      <c r="C178">
         <v>0.146864444118079</v>
       </c>
-      <c r="D178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35431</v>
       </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="n">
+      <c r="C179">
         <v>0.137797988149373</v>
       </c>
-      <c r="D179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35462</v>
       </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="n">
+      <c r="C180">
         <v>0.1335826876836762</v>
       </c>
-      <c r="D180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35490</v>
       </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="n">
+      <c r="C181">
         <v>0.1324152542372881</v>
       </c>
-      <c r="D181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35521</v>
       </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="n">
+      <c r="C182">
         <v>0.1273074474856779</v>
       </c>
-      <c r="D182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35551</v>
       </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="n">
+      <c r="C183">
         <v>0.1293326435592344</v>
       </c>
-      <c r="D183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35582</v>
       </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="n">
+      <c r="C184">
         <v>0.1295001295001295</v>
       </c>
-      <c r="D184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35612</v>
       </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="n">
+      <c r="C185">
         <v>0.125140783381304</v>
       </c>
-      <c r="D185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35643</v>
       </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="n">
+      <c r="C186">
         <v>0.1269357705001269</v>
       </c>
-      <c r="D186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35674</v>
       </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="n">
+      <c r="C187">
         <v>0.1320655044902272</v>
       </c>
-      <c r="D187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35704</v>
       </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="n">
+      <c r="C188">
         <v>0.1334400854016547</v>
       </c>
-      <c r="D188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35735</v>
       </c>
-      <c r="B189" t="inlineStr"/>
-      <c r="C189" t="n">
+      <c r="C189">
         <v>0.1291155584247902</v>
       </c>
-      <c r="D189" t="inlineStr"/>
-    </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35765</v>
       </c>
-      <c r="B190" t="inlineStr"/>
-      <c r="C190" t="n">
+      <c r="C190">
         <v>0.1263583522870862</v>
       </c>
-      <c r="D190" t="inlineStr"/>
-    </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35796</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B191">
         <v>866171000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C191">
         <v>0.1229709788489916</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D191">
         <v>106513895720.6099</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35827</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B192">
         <v>840564000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C192">
         <v>0.1249219237976265</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D192">
         <v>105004871955.0281</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35855</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B193">
         <v>860182000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C193">
         <v>0.1247816321437484</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D193">
         <v>107334913900.6738</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35886</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B194">
         <v>859006000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C194">
         <v>0.1289823294208693</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D194">
         <v>110796594866.5033</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>35916</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B195">
         <v>860771000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C195">
         <v>0.1275510204081633</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D195">
         <v>109792219387.7551</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>35947</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B196">
         <v>871209000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C196">
         <v>0.1251721116535236</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D196">
         <v>109051070221.5546</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>35977</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B197">
         <v>861701000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C197">
         <v>0.1260398285858331</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D197">
         <v>108608646332.241</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>36008</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B198">
         <v>875102000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C198">
         <v>0.1249843769528809</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D198">
         <v>109374078240.22</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>36039</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B199">
         <v>880147000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C199">
         <v>0.1272912423625255</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D199">
         <v>112035005091.6497</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36069</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B200">
         <v>872536000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C200">
         <v>0.1286670097786927</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D200">
         <v>112266598044.2615</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36100</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B201">
         <v>876396000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C201">
         <v>0.1227747084100675</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D201">
         <v>107599263351.7495</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36130</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B202">
         <v>887781000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C202">
         <v>0.1241156758098548</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D202">
         <v>110187538786.1487</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36161</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B203">
         <v>902424000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C203">
         <v>0.1279918085242545</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D203">
         <v>115502879815.6918</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36192</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B204">
         <v>892421000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C204">
         <v>0.1224589762429586</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D204">
         <v>109284962037.7174</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36220</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B205">
         <v>894623000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C205">
         <v>0.1210653753026634</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D205">
         <v>108307869249.3947</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36251</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B206">
         <v>888489000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C206">
         <v>0.1185817621249852</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D206">
         <v>105358591248.666</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36281</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B207">
         <v>895380000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C207">
         <v>0.1162925921618793</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D207">
         <v>104126061169.9035</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36312</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B208">
         <v>898006000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C208">
         <v>0.1184553423359394</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D208">
         <v>106373608149.7276</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36342</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B209">
         <v>894198000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C209">
         <v>0.1217878455730118</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D209">
         <v>108902447935.696</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36373</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B210">
         <v>911379000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C210">
         <v>0.121197430614471</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D210">
         <v>110456793115.9859</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36404</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B211">
         <v>921677000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C211">
         <v>0.1224140041620761</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D211">
         <v>112826172114.0898</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36434</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B212">
         <v>956004000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C212">
         <v>0.1220554131575735</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D212">
         <v>116685463200.2929</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36465</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B213">
         <v>947459000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C213">
         <v>0.1176193836744295</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D213">
         <v>111439543636.7913</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36495</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B214">
         <v>965538000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C214">
         <v>0.1173020527859237</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D214">
         <v>113259589442.8152</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36526</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B215">
         <v>975471000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C215">
         <v>0.1128184300187279</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D215">
         <v>110051106748.7985</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36557</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B216">
         <v>968803000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C216">
         <v>0.1143445200388771</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D216">
         <v>110777314047.2243</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36586</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B217">
         <v>986845000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C217">
         <v>0.1153828402639959</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D217">
         <v>113864979000.3231</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36617</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B218">
         <v>1002483000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C218">
         <v>0.1122498232065285</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D218">
         <v>112528539517.5503</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36647</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B219">
         <v>983642000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C219">
         <v>0.111858074475106</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D219">
         <v>110028300092.8422</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36678</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B220">
         <v>980883000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C220">
         <v>0.1133221522143148</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D220">
         <v>111155772630.4338</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36708</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B221">
         <v>958386000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C221">
         <v>0.1091917625734315</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D221">
         <v>104647856565.7007</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36739</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B222">
         <v>986214000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C222">
         <v>0.1061469710961798</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D222">
         <v>104683628952.6478</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36770</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B223">
         <v>990896000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C223">
         <v>0.1040257983980027</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D223">
         <v>103078747529.3873</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36800</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B224">
         <v>986961000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C224">
         <v>0.1001702894921366</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D224">
         <v>98864169087.44867</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36831</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B225">
         <v>998471000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C225">
         <v>0.1000120014401728</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D225">
         <v>99859083089.97081</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36861</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B226">
         <v>992459000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C226">
         <v>0.1062213866139809</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D226">
         <v>105420371137.5248</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36892</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B227">
         <v>1006137000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C227">
         <v>0.1056579851022241</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D227">
         <v>106306408156.7965</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>36923</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B228">
         <v>996586000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C228">
         <v>0.1020616452337212</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D228">
         <v>101713206776.8932</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>36951</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B229">
         <v>1018615000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C229">
         <v>0.09615199707697929</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D229">
         <v>97941866502.56726</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>36982</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B230">
         <v>1028829000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C230">
         <v>0.09763146076191592</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D230">
         <v>100446078144.2212</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>37012</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B231">
         <v>1030592000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C231">
         <v>0.09260888489641696</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D231">
         <v>95441975903.16815</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>37043</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B232">
         <v>1056228000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C232">
         <v>0.09215995281410416</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D232">
         <v>97341922640.93561</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37073</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B233">
         <v>1014868000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C233">
         <v>0.09456533045854729</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D233">
         <v>95971327791.80496</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37104</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B234">
         <v>1030481000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C234">
         <v>0.09632148258025988</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D234">
         <v>99257457690.78879</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37135</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B235">
         <v>1058019000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C235">
         <v>0.09365575889261431</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D235">
         <v>99089572367.8049</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37165</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B236">
         <v>1071663000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C236">
         <v>0.09380071100938946</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D236">
         <v>100522751362.4553</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37196</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B237">
         <v>1095416000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C237">
         <v>0.09380599045055017</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D237">
         <v>102756582835.3799</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37226</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B238">
         <v>1057699000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C238">
         <v>0.09543714986495644</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D238">
         <v>100943777975.0146</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37257</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B239">
         <v>1053056000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C239">
         <v>0.09381127048603619</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D239">
         <v>98788521252.94333</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37288</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B240">
         <v>1032093000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C240">
         <v>0.09584143992179339</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D240">
         <v>98917279253.20351</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37316</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B241">
         <v>1055919000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C241">
         <v>0.09651019147621989</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D241">
         <v>101906944873.3786</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37347</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B242">
         <v>1057670000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C242">
         <v>0.0973852071870283</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D242">
         <v>103001412085.5042</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37377</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B243">
         <v>1038684000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C243">
         <v>0.1026904908605463</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D243">
         <v>106662969808.9957</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37408</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B244">
         <v>1057284000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C244">
         <v>0.109158388822181</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D244">
         <v>115411417967.4708</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37438</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B245">
         <v>1047447000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C245">
         <v>0.1048382869423913</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D245">
         <v>109812549142.947</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37469</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B246">
         <v>1066994000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C246">
         <v>0.1065246338215712</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D246">
         <v>113661145139.8136</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37500</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B247">
         <v>1074166000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C247">
         <v>0.107781849536538</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D247">
         <v>115775598189.2649</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37530</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B248">
         <v>1070733000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C248">
         <v>0.1094163730660656</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D248">
         <v>117155721382.1476</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37561</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B249">
         <v>1074964000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C249">
         <v>0.1105558749391943</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D249">
         <v>118843585548.136</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37591</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B250">
         <v>1090087000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C250">
         <v>0.1151211650261901</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D250">
         <v>125492085419.9044</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37622</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B251">
         <v>1080435000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C251">
         <v>0.1165949607657957</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D251">
         <v>125973276434.9925</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37653</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B252">
         <v>1066795000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C252">
         <v>0.117820324005891</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D252">
         <v>125690132547.8645</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37681</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B253">
         <v>1091568000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C253">
         <v>0.1184371039759336</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D253">
         <v>129282152712.8019</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37712</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B254">
         <v>1095981000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C254">
         <v>0.1226422036351149</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D254">
         <v>134413524982.2169</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37742</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B255">
         <v>1097716000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C255">
         <v>0.1292574161442513</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D255">
         <v>141887933820.2029</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37773</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B256">
         <v>1119739000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C256">
         <v>0.1253855605988415</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D256">
         <v>140399102239.3861</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37803</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B257">
         <v>1096437000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C257">
         <v>0.1217255818482813</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D257">
         <v>133464431784.9839</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37834</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B258">
         <v>1106567000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C258">
         <v>0.119422948313748</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D258">
         <v>132149493646.6992</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37865</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B259">
         <v>1115806000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C259">
         <v>0.1290289282857217</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D259">
         <v>143971252354.7779</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37895</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B260">
         <v>1125284000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C260">
         <v>0.1277041350598933</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D260">
         <v>143703419916.7369</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>37926</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B261">
         <v>1132313000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C261">
         <v>0.1324398061081239</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D261">
         <v>149963314173.7081</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>37956</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B262">
         <v>1141285000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C262">
         <v>0.1390956004061591</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D262">
         <v>158747722309.5433</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>37987</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B263">
         <v>1142941000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C263">
         <v>0.1355307383714627</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D263">
         <v>154903637645.0179</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>38018</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B264">
         <v>1141447000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C264">
         <v>0.1353143352006712</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D264">
         <v>154454141971.8005</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>38047</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B265">
         <v>1165434000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C265">
         <v>0.1327051954084002</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D265">
         <v>154659146705.5935</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38078</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B266">
         <v>1152565000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C266">
         <v>0.1308592216493496</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D266">
         <v>150823758800.2827</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38108</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B267">
         <v>1156039000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C267">
         <v>0.1340931947703654</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D267">
         <v>155016962789.1385</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38139</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B268">
         <v>1146407000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C268">
         <v>0.1330282552014048</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D268">
         <v>152504522960.6769</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38169</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B269">
         <v>1134922000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C269">
         <v>0.1303865962579047</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D269">
         <v>147978616598.2137</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38200</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B270">
         <v>1144971000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C270">
         <v>0.1333795715848161</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D270">
         <v>152715741457.0384</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38231</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B271">
         <v>1158562000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C271">
         <v>0.137421154612541</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D271">
         <v>159210927730.2148</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38261</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B272">
         <v>1150911000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C272">
         <v>0.1414927484966395</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D272">
         <v>162845560665.0159</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38292</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B273">
         <v>1166940000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C273">
         <v>0.1487342713508047</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D273">
         <v>173563970610.108</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38322</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B274">
         <v>1167217000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C274">
         <v>0.1501478956772421</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D274">
         <v>175255176348.7035</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38353</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B275">
         <v>1182178000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C275">
         <v>0.143110653157021</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D275">
         <v>169182265727.8608</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38384</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B276">
         <v>1193213000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C276">
         <v>0.1460237726701907</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D276">
         <v>174237463859.1163</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38412</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B277">
         <v>1202546000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C277">
         <v>0.141468728337601</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D277">
         <v>170122653387.4687</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38443</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B278">
         <v>1204895000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C278">
         <v>0.1402622904832036</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D278">
         <v>169001332491.7596</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38473</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B279">
         <v>1232347000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C279">
         <v>0.1344122153821339</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D279">
         <v>165642490389.5266</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38504</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B280">
         <v>1269278000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C280">
         <v>0.1281985539203118</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D280">
         <v>162719604122.8655</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38534</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B281">
         <v>1247684000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C281">
         <v>0.1289357642022744</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D281">
         <v>160871090022.9506</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38565</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B282">
         <v>1234266000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C282">
         <v>0.1323924642209365</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D282">
         <v>163407517244.1184</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38596</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B283">
         <v>1249624000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C283">
         <v>0.1292473924338577</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D283">
         <v>161510643522.7669</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38626</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B284">
         <v>1278403000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C284">
         <v>0.1257782529400667</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D284">
         <v>160795295893.3401</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38657</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B285">
         <v>1272808000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C285">
         <v>0.1238114104595879</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D285">
         <v>157588153724.2472</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38687</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B286">
         <v>1296915000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C286">
         <v>0.1259763164525069</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D286">
         <v>163380574452.003</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38718</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B287">
         <v>1324312000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C287">
         <v>0.1317644578551382</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D287">
         <v>174497252711.0537</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38749</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B288">
         <v>1316408000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C288">
         <v>0.1264254469139549</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D288">
         <v>166427469721.1055</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38777</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B289">
         <v>1312677000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C289">
         <v>0.1283219340681903</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D289">
         <v>168445251446.8298</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38808</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B290">
         <v>1338016000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C290">
         <v>0.1359748718436833</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D290">
         <v>181936554124.7977</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38838</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B291">
         <v>1326782000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C291">
         <v>0.1382781603473547</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D291">
         <v>183464974141.984</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38869</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B292">
         <v>1359775000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C292">
         <v>0.1389718859874647</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D292">
         <v>188970496268.6049</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38899</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B293">
         <v>1350041000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C293">
         <v>0.1387020264366062</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D293">
         <v>187253422472.5023</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>38930</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B294">
         <v>1383208000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C294">
         <v>0.1380872158855533</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D294">
         <v>191003341710.6244</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>38961</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B295">
         <v>1413386000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C295">
         <v>0.1365970932138564</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D295">
         <v>193064419189.1596</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>38991</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B296">
         <v>1416864000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C296">
         <v>0.1385367745868141</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D296">
         <v>196287768588.1717</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>39022</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B297">
         <v>1430398000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C297">
         <v>0.1461112491050686</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D297">
         <v>208997238497.3919</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>39052</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B298">
         <v>1468209000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C298">
         <v>0.1461176539349484</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D298">
         <v>214531254566.1767</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39083</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B299">
         <v>1472034000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C299">
         <v>0.143959461015778</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D299">
         <v>211913221236.8997</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39114</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B300">
         <v>1457317000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C300">
         <v>0.1430144587617808</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D300">
         <v>208417401999.3421</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39142</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B301">
         <v>1495732000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C301">
         <v>0.1433157532675992</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D301">
         <v>214361958266.4527</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39173</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B302">
         <v>1512648000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C302">
         <v>0.1492604146454319</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D302">
         <v>225778467692.5833</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39203</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B303">
         <v>1502632000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C303">
         <v>0.1446215254678506</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D303">
         <v>217312932056.8073</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39234</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B304">
         <v>1564788000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C304">
         <v>0.1466383165921255</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D304">
         <v>229457878143.5589</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39264</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B305">
         <v>1528577000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C305">
         <v>0.1485530928753937</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D305">
         <v>227074841048.1906</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39295</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B306">
         <v>1562807000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C306">
         <v>0.1451694853741743</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D306">
         <v>226871887929.1573</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39326</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B307">
         <v>1582639000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C307">
         <v>0.1554363876583508</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D307">
         <v>245999689127.2246</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39356</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B308">
         <v>1583783000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C308">
         <v>0.1575646803012637</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D308">
         <v>249548262061.5763</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39387</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B309">
         <v>1585362000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C309">
         <v>0.1565435190983093</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D309">
         <v>248178146524.7339</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39417</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B310">
         <v>1639424000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C310">
         <v>0.154640769492469</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D310">
         <v>253521788884.4215</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39448</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B311">
         <v>1647669000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C311">
         <v>0.1570302440249992</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D311">
         <v>258733865142.4264</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39479</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B312">
         <v>1635309000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C312">
         <v>0.1623086786450471</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D312">
         <v>265424842966.3534</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39508</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B313">
         <v>1639881000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C313">
         <v>0.1681378730559059</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D313">
         <v>275726103404.7919</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39539</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B314">
         <v>1658874000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C314">
         <v>0.1671975187888212</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D314">
         <v>277359616783.2869</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39569</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B315">
         <v>1665238000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C315">
         <v>0.1667261323205277</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D315">
         <v>277638691133.1708</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39600</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B316">
         <v>1681350000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C316">
         <v>0.1664115023630433</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D316">
         <v>279795979498.1029</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39630</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B317">
         <v>1698412000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C317">
         <v>0.1653493832468005</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D317">
         <v>280831376698.965</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39661</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B318">
         <v>1704771000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C318">
         <v>0.1550724188195887</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D318">
         <v>264362962503.4891</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39692</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B319">
         <v>1728656000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C319">
         <v>0.144654997830175</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D319">
         <v>250058729929.119</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39722</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B320">
         <v>1732394000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C320">
         <v>0.1293440188738792</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D320">
         <v>224074802232.9951</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39753</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B321">
         <v>1759008000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C321">
         <v>0.1236469927814886</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D321">
         <v>217496049478.5806</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39783</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B322">
         <v>1859493000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C322">
         <v>0.1276161306789178</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D322">
         <v>237301301684.5329</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39814</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B323">
         <v>1853010000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C323">
         <v>0.119624808749837</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D323">
         <v>221665966861.5355</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39845</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B324">
         <v>1806389000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C324">
         <v>0.1111064199511576</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D324">
         <v>200701414829.1517</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39873</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B325">
         <v>1822861000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C325">
         <v>0.1213196177461484</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D325">
         <v>221148799724.3618</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39904</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B326">
         <v>1818228000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C326">
         <v>0.1243751702385143</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D326">
         <v>226142417032.4333</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>39934</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B327">
         <v>1815725000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C327">
         <v>0.132173205054832</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D327">
         <v>239990192748.1849</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>39965</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B328">
         <v>1844614000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C328">
         <v>0.1299209171377383</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D328">
         <v>239653942645.1119</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>39995</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B329">
         <v>1820464000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C329">
         <v>0.1386699059956707</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D329">
         <v>252443571748.5027</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>40026</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B330">
         <v>1841487000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C330">
         <v>0.1405700678531717</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D330">
         <v>258857952540.7337</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>40057</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B331">
         <v>1841834000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C331">
         <v>0.1438230171480183</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D331">
         <v>264898122965.8032</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40087</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B332">
         <v>1844029000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C332">
         <v>0.1410399439225183</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D332">
         <v>260081746751.4975</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40118</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B333">
         <v>1848196000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C333">
         <v>0.143480462982758</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D333">
         <v>265180017762.8813</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40148</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B334">
         <v>1911694000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C334">
         <v>0.1398306092000151</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D334">
         <v>267313336624.0137</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40179</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B335">
         <v>1910380000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C335">
         <v>0.1353859650785442</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D335">
         <v>258638639966.7492</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40210</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B336">
         <v>1890845000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C336">
         <v>0.1402801956628169</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D336">
         <v>265248106568.0591</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40238</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B337">
         <v>1897152000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C337">
         <v>0.1386214649793662</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D337">
         <v>262985989528.5345</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40269</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B338">
         <v>1904391000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C338">
         <v>0.1381253625790768</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D338">
         <v>263044697367.3306</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40299</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B339">
         <v>1888615000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C339">
         <v>0.1282692628365465</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D339">
         <v>242251253832.0442</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40330</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B340">
         <v>1923549000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C340">
         <v>0.1284615572366891</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D340">
         <v>247102099961.0761</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40360</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B341">
         <v>1932649000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C341">
         <v>0.1386097442650218</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D341">
         <v>267883983644.0501</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40391</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B342">
         <v>1915269000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C342">
         <v>0.135451799477156</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D342">
         <v>259426632532.8132</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40422</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B343">
         <v>1938219000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C343">
         <v>0.1484208026597008</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D343">
         <v>287672019710.2826</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40452</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B344">
         <v>1967820000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C344">
         <v>0.1496244426489511</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D344">
         <v>294433970733.459</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40483</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B345">
         <v>1963638000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C345">
         <v>0.1423305199333893</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D345">
         <v>279485617500.9608</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40513</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B346">
         <v>2007359000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C346">
         <v>0.1486966736554103</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D346">
         <v>298487606132.2508</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40544</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B347">
         <v>2003040000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C347">
         <v>0.1551662606482846</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D347">
         <v>310804226728.9401</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40575</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B348">
         <v>1959126000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C348">
         <v>0.1582078217947095</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D348">
         <v>309949057081.3821</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40603</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B349">
         <v>1989081000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C349">
         <v>0.1581953079271669</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D349">
         <v>314663281287.077</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40634</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B350">
         <v>1982383000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C350">
         <v>0.1655738790648387</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D350">
         <v>328230843102.1922</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40664</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B351">
         <v>1960772000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C351">
         <v>0.1621349935956677</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D351">
         <v>317909755662.5646</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40695</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B352">
         <v>2011341000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C352">
         <v>0.1580902695439096</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D352">
         <v>317973440834.7166</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40725</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B353">
         <v>1989856000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C353">
         <v>0.1591723040191007</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D353">
         <v>316729964186.2316</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40756</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B354">
         <v>2016768000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C354">
         <v>0.1576988582602662</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D354">
         <v>318042010975.8405</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40787</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B355">
         <v>2064662000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C355">
         <v>0.1457109968089292</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D355">
         <v>300843958093.5173</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40817</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B356">
         <v>2075646000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C356">
         <v>0.1537893700787402</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D356">
         <v>319212290846.4567</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40848</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B357">
         <v>2079009000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C357">
         <v>0.1479246176148635</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D357">
         <v>307536611342.8597</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40878</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B358">
         <v>2131071000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C358">
         <v>0.1455116918644413</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D358">
         <v>310095746693.2468</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>40909</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B359">
         <v>2178811000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C359">
         <v>0.1471085808435206</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D359">
         <v>320521794136.252</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>40940</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B360">
         <v>2152416000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C360">
         <v>0.1511053355293976</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D360">
         <v>325241541878.8438</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>40969</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B361">
         <v>2167952000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C361">
         <v>0.1514440187184807</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D361">
         <v>328323363268.7677</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>41000</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B362">
         <v>2145844000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C362">
         <v>0.1487984524960941</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D362">
         <v>319298266498.0285</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>41030</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B363">
         <v>2105771000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C363">
         <v>0.1376329878745338</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D363">
         <v>289823554509.5449</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41061</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B364">
         <v>2167991000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C364">
         <v>0.1446926727630513</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D364">
         <v>313692412316.2403</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41091</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B365">
         <v>2146292000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C365">
         <v>0.1471475448432143</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D365">
         <v>315821598316.6321</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41122</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B366">
         <v>2154752000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C366">
         <v>0.151014059408931</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D366">
         <v>325397846539.5128</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41153</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B367">
         <v>2219458000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C367">
         <v>0.1523855965134176</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D367">
         <v>338213431266.4767</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41183</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B368">
         <v>2207863000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C368">
         <v>0.1507454361819196</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D368">
         <v>332825270964.9216</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41214</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B369">
         <v>2193213000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C369">
         <v>0.1501742772487472</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D369">
         <v>329364177127.5566</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41244</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B370">
         <v>2258026000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C370">
         <v>0.1536759282026063</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D370">
         <v>347004241455.6184</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41275</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B371">
         <v>2253474000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C371">
         <v>0.1572067504578647</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D371">
         <v>354261324781.2861</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41306</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B372">
         <v>2212071000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C372">
         <v>0.154719725217768</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D372">
         <v>342251017282.1933</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41334</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B373">
         <v>2270214000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C373">
         <v>0.1534942976868409</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D373">
         <v>348464903528.8339</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41365</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B374">
         <v>2245340000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C374">
         <v>0.1543066999969139</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D374">
         <v>346471005771.0706</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41395</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B375">
         <v>2229984000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C375">
         <v>0.1512401693889897</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D375">
         <v>337263157894.7368</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41426</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B376">
         <v>2268611000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C376">
         <v>0.149438857091621</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D376">
         <v>339018635025.4793</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41456</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B377">
         <v>2249293000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C377">
         <v>0.1535529857610316</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D377">
         <v>345385656001.3881</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41487</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B378">
         <v>2260894000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C378">
         <v>0.1511823213440713</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D378">
         <v>341807203232.8828</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41518</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B379">
         <v>2293914000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C379">
         <v>0.1555984315678098</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D379">
         <v>356929420551.4409</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41548</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B380">
         <v>2315736000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C380">
         <v>0.1543019380323417</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D380">
         <v>357322552771.2628</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41579</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B381">
         <v>2335920000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C381">
         <v>0.1527734491967172</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D381">
         <v>356866555447.5956</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41609</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B382">
         <v>2387438000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C382">
         <v>0.1556587400047632</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D382">
         <v>371625590919.4918</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41640</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B383">
         <v>2377887000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C383">
         <v>0.1530158662151679</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D383">
         <v>363854439066.7869</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41671</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B384">
         <v>2355583000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C384">
         <v>0.1562424320071996</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D384">
         <v>368042016714.8154</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41699</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B385">
         <v>2361204000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C385">
         <v>0.1546677967727018</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D385">
         <v>365202220410.8905</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41730</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B386">
         <v>2362905000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C386">
         <v>0.1538702996470215</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D386">
         <v>363580900387.4454</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41760</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B387">
         <v>2377199000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C387">
         <v>0.1496909630068723</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D387">
         <v>355845207568.9739</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41791</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B388">
         <v>2423708000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C388">
         <v>0.1497037363058507</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D388">
         <v>362838143314.3809</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41821</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B389">
         <v>2400777000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C389">
         <v>0.1449863712810996</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D389">
         <v>348079945485.1245</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41852</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B390">
         <v>2412498000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C390">
         <v>0.1430778916041893</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D390">
         <v>345175127339.3235</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41883</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B391">
         <v>2432652000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C391">
         <v>0.1386462579374983</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D391">
         <v>337278096664.171</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>41913</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B392">
         <v>2451122000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C392">
         <v>0.1353344791652569</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D392">
         <v>331721319240.5029</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>41944</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B393">
         <v>2467099000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C393">
         <v>0.1342894743909972</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D393">
         <v>331305427980.5549</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>41974</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B394">
         <v>2522075000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C394">
         <v>0.128498863427553</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D394">
         <v>324083770979.0457</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>42005</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B395">
         <v>2507795000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C395">
         <v>0.1210321134506619</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D395">
         <v>303523728951.0026</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>42036</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B396">
         <v>2509859000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C396">
         <v>0.1199688081098914</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D396">
         <v>301104792753.884</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42064</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B397">
         <v>2548335000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C397">
         <v>0.1159339640140976</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D397">
         <v>295438578185.8654</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42095</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B398">
         <v>2546771000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C398">
         <v>0.1200768491834774</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D398">
         <v>305808237271.854</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42125</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B399">
         <v>2580783000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C399">
         <v>0.117470162578705</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D399">
         <v>303164998590.358</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42156</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B400">
         <v>2638101000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C400">
         <v>0.1207773228498617</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D400">
         <v>318622776187.543</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42186</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B401">
         <v>2617231000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C401">
         <v>0.1159931332065142</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D401">
         <v>303580824015.2183</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42217</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B402">
         <v>2619938000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C402">
         <v>0.1180902445648965</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D402">
         <v>309389119164.8658</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42248</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B403">
         <v>2640658000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C403">
         <v>0.1195114372445443</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D403">
         <v>315588832851.3038</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42278</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B404">
         <v>2675262000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C404">
         <v>0.1172016923924382</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D404">
         <v>313545233993.1789</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42309</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B405">
         <v>2694519000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C405">
         <v>0.1146434016990152</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D405">
         <v>308908824102.6288</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42339</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B406">
         <v>2728918000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C406">
         <v>0.1183544004166075</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D406">
         <v>322979453676.0877</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42370</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B407">
         <v>2748884000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C407">
         <v>0.1166480029861889</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D407">
         <v>320651829040.6869</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42401</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B408">
         <v>2732370000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C408">
         <v>0.1167624118443791</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D408">
         <v>319038111251.226</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42430</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B409">
         <v>2766495000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C409">
         <v>0.1233410627065963</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D409">
         <v>341222433272.4851</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42461</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B410">
         <v>2781493000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C410">
         <v>0.1246665170668462</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D410">
         <v>346759044555.8132</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42491</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B411">
         <v>2776382000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C411">
         <v>0.1200364910932924</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D411">
         <v>333267153214.5772</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42522</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B412">
         <v>2814128000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C412">
         <v>0.1183986815122827</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D412">
         <v>333189044806.7971</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42552</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B413">
         <v>2841544000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C413">
         <v>0.1168770453482936</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D413">
         <v>332111266947.1716</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42583</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B414">
         <v>2842117000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C414">
         <v>0.1169809555004445</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D414">
         <v>332473562304.0569</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42614</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B415">
         <v>2867299000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C415">
         <v>0.1168027808406063</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D415">
         <v>334908496701.4895</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42644</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B416">
         <v>2883246000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C416">
         <v>0.1107444240182507</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D416">
         <v>319303417572.9252</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42675</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B417">
         <v>2903568000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C417">
         <v>0.1083529271543271</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D417">
         <v>314610091991.6351</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42705</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B418">
         <v>2917782000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C418">
         <v>0.1100291577267976</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D418">
         <v>321041095890.411</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42736</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B419">
         <v>2960969000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C419">
         <v>0.1144007687731662</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D419">
         <v>338737129913.5131</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42767</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B420">
         <v>2944067000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C420">
         <v>0.1106659879152741</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D420">
         <v>325808083043.7574</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42795</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B421">
         <v>3031836000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C421">
         <v>0.1116937803318422</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D421">
         <v>338637224186.1712</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42826</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B422">
         <v>3027781000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C422">
         <v>0.1130142714421977</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D422">
         <v>342182463801.5289</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42856</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B423">
         <v>3030922000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C423">
         <v>0.1150755931571449</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D423">
         <v>348785146963.04</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42887</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B424">
         <v>3085090000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C424">
         <v>0.1187391798922323</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D424">
         <v>366321056493.727</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>42917</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B425">
         <v>3089508000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C425">
         <v>0.1239736531192391</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D425">
         <v>383017593101.1142</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>42948</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B426">
         <v>3083488000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C426">
         <v>0.1259969508737888</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D426">
         <v>388510086055.9174</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>42979</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B427">
         <v>3119085000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C427">
         <v>0.1228839385776921</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D427">
         <v>383285449558.6009</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>43009</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B428">
         <v>3125689000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C428">
         <v>0.1193915805057427</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D428">
         <v>373180949879.4145</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>43040</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B429">
         <v>3141177000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C429">
         <v>0.1194243745148385</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D429">
         <v>375133098465.3968</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43070</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B430">
         <v>3130303000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C430">
         <v>0.1221509810556043</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D430">
         <v>382369582451.3014</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43101</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B431">
         <v>3190477000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C431">
         <v>0.1270378458446556</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D431">
         <v>405311325296.9192</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43132</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B432">
         <v>3172864000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C432">
         <v>0.1206549148779576</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D432">
         <v>382821635839.3359</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43160</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B433">
         <v>3220531000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C433">
         <v>0.1199947202323098</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D433">
         <v>386446716344.4808</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43191</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B434">
         <v>3239383000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C434">
         <v>0.1143929167905923</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D434">
         <v>370562469971.8594</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43221</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B435">
         <v>3221827000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C435">
         <v>0.1135460429204042</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D435">
         <v>365825706824.1172</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43252</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B436">
         <v>3298888000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C436">
         <v>0.1118293037507549</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D436">
         <v>368912348191.7202</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43282</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B437">
         <v>3268769000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C437">
         <v>0.1137732794351384</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D437">
         <v>371898568845.918</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43313</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B438">
         <v>3267031000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C438">
         <v>0.1094730296770436</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D438">
         <v>357651781618.8215</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43344</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B439">
         <v>3303322000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C439">
         <v>0.112585100262661</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D439">
         <v>371904838569.854</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43374</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B440">
         <v>3296521000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C440">
         <v>0.1091656577940459</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D440">
         <v>359866883396.886</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43405</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B441">
         <v>3348953000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C441">
         <v>0.1099589852984837</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D441">
         <v>368247473692.3127</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43435</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B442">
         <v>3341036000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C442">
         <v>0.1126812618949157</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D442">
         <v>376472152516.3416</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43466</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B443">
         <v>3386768000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C443">
         <v>0.1106084571226316</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D443">
         <v>374605183112.3008</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43497</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B444">
         <v>3383263000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C444">
         <v>0.1083423618634886</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D444">
         <v>366550704225.3521</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43525</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B445">
         <v>3420052000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C445">
         <v>0.1075615790039798</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D445">
         <v>367866193395.719</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43556</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B446">
         <v>3410442000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C446">
         <v>0.1054874575412983</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D446">
         <v>359758855672.0606</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43586</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B447">
         <v>3433707000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C447">
         <v>0.105400955775867</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D447">
         <v>361915999654.2849</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43617</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B448">
         <v>3507874000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C448">
         <v>0.1077916086388507</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D448">
         <v>378119381362.3997</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43647</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B449">
         <v>3509682000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C449">
         <v>0.1035518276897587</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D449">
         <v>363433985709.8478</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43678</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B450">
         <v>3504689000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C450">
         <v>0.1019129052311894</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D450">
         <v>357173037921.7921</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43709</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B451">
         <v>3561868000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C451">
         <v>0.1016824376127404</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D451">
         <v>362179420694.8164</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43739</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B452">
         <v>3593417000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C452">
         <v>0.1036780836972434</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D452">
         <v>372558588485.0974</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43770</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B453">
         <v>3599353000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C453">
         <v>0.1045032542313368</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D453">
         <v>376144101627.3247</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43800</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B454">
         <v>3579821000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C454">
         <v>0.1067489914889029</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D454">
         <v>382142281460.7959</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43831</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B455">
         <v>3624226000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C455">
         <v>0.1039199649997558</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D455">
         <v>376629439071.2049</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43862</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B456">
         <v>3600782000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C456">
         <v>0.1041575528807896</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D456">
         <v>375048641577.1953</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43891</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B457">
         <v>3834576000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C457">
         <v>0.1012330181612035</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D457">
         <v>388185701848.515</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>43922</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B458">
         <v>3900996000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C458">
         <v>0.1026061974143238</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D458">
         <v>400266365688.4875</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>43952</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B459">
         <v>3963829000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C459">
         <v>0.1062992962986585</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D459">
         <v>421352233348.2153</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>43983</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B460">
         <v>4054589000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C460">
         <v>0.1073675621121347</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D460">
         <v>435331336296.678</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>44013</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B461">
         <v>4104968000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C461">
         <v>0.1140038966531876</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D461">
         <v>467982347636.6422</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>44044</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B462">
         <v>4086280000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C462">
         <v>0.1157903268760928</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D462">
         <v>473151696907.2404</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44075</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B463">
         <v>4084505000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C463">
         <v>0.1116781881330757</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D463">
         <v>456150117820.4885</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44105</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B464">
         <v>4130997000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C464">
         <v>0.1125626692661139</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D464">
         <v>464996049050.3088</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44136</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B465">
         <v>4194139000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C465">
         <v>0.1168879745651767</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D465">
         <v>490244412754.8158</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44166</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B466">
         <v>4241163000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C466">
         <v>0.1216820351077008</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D466">
         <v>516073345063.4815</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44197</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B467">
         <v>4262410000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C467">
         <v>0.1199184554502938</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D467">
         <v>511141623695.8868</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44228</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B468">
         <v>4298127000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C468">
         <v>0.1186127057930446</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D468">
         <v>509812473312.1412</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44256</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B469">
         <v>4336988000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C469">
         <v>0.1145869141744013</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D469">
         <v>496962071731.4083</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44287</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B470">
         <v>4376563000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C470">
         <v>0.1182385296802357</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D470">
         <v>517478374172.9214</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44317</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B471">
         <v>4420366000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C471">
         <v>0.1205865328960062</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D471">
         <v>533036610071.3873</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44348</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B472">
         <v>4539396000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C472">
         <v>0.1170891633979275</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D472">
         <v>531514079971.8986</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44378</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B473">
         <v>4517677000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C473">
         <v>0.1165664195458572</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D473">
         <v>526609432554.6697</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44409</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B474">
         <v>4525957000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C474">
         <v>0.1160321641158929</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D474">
         <v>525156585405.4744</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44440</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B475">
         <v>4620809000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C475">
         <v>0.1142422369543934</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D475">
         <v>527891556698.9934</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44470</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B476">
         <v>4671069000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C476">
         <v>0.1165729420212816</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D476">
         <v>544520255714.4056</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44501</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B477">
         <v>4727294000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C477">
         <v>0.110870890847608</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D477">
         <v>524119297078.552</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44531</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B478">
         <v>4705000000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C478">
         <v>0.1106413769983216</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D478">
         <v>520567678777.103</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44562</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B479">
         <v>4752338000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C479">
         <v>0.1073687149038513</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D479">
         <v>510252423848.7389</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44593</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B480">
         <v>4755744000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C480">
         <v>0.1058413860987923</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D480">
         <v>503354536891.0151</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44621</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B481">
         <v>4838594000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C481">
         <v>0.1065178257581406</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D481">
         <v>515396512606.3847</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44652</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B482">
         <v>4861961000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C482">
         <v>0.1019087509044402</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D482">
         <v>495476372456.1028</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44682</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B483">
         <v>4868193000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C483">
         <v>0.1025885133693351</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D483">
         <v>499420682665.0034</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44713</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B484">
         <v>4981498000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C484">
         <v>0.09788375325463479</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D484">
         <v>487607721070.4567</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44743</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B485">
         <v>4925017000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C485">
         <v>0.09863392020515854</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D485">
         <v>485773733787.0493</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44774</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B486">
         <v>4981835000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C486">
         <v>0.09392220048445071</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D486">
         <v>467904905650.4535</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44805</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B487">
         <v>4905553000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C487">
         <v>0.09016400833115437</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D487">
         <v>442304321560.9193</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44835</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B488">
         <v>4884821000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C488">
         <v>0.09069463931195419</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D488">
         <v>443027078698.4594</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44866</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B489">
         <v>4877312000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C489">
         <v>0.09528074471430069</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D489">
         <v>464713919563.9953</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44896</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B490">
         <v>4822713000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C490">
         <v>0.09609378753663576</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D490">
         <v>463432758372.1713</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>44927</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B491">
         <v>4903738000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C491">
         <v>0.09566814633399663</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D491">
         <v>469131524567.58</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>44958</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B492">
         <v>4814210000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C492">
         <v>0.09570211377258689</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D492">
         <v>460730073145.1255</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>44986</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B493">
         <v>4779806000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C493">
         <v>0.09639297487999074</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D493">
         <v>460739719689.229</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>45017</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B494">
         <v>4773819000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C494">
         <v>0.09748869131180783</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D494">
         <v>465393366869.4432</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>45047</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B495">
         <v>4766051000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C495">
         <v>0.09232331625351982</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D495">
         <v>440017633753.4044</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45078</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B496">
         <v>4812070000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C496">
         <v>0.09274803142303305</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D496">
         <v>446310019569.8347</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45108</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B497">
         <v>4784709000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C497">
         <v>0.09520635978483362</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D497">
         <v>455534726519.7315</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45139</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B498">
         <v>4765034000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C498">
         <v>0.09137426900584794</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D498">
         <v>435401498538.0117</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
         <v>45170</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B499">
         <v>4744031000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C499">
         <v>0.0915818008645322</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D499">
         <v>434466902337.1675</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
@@ -405,5840 +405,5846 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="2">
-        <v>30042</v>
+        <v>30072</v>
       </c>
       <c r="C2">
-        <v>0.1725625539257981</v>
+        <v>0.1709401709401709</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="2">
-        <v>30072</v>
+        <v>30103</v>
       </c>
       <c r="C3">
-        <v>0.1709401709401709</v>
+        <v>0.1633986928104575</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="2">
-        <v>30103</v>
+        <v>30133</v>
       </c>
       <c r="C4">
-        <v>0.1633986928104575</v>
+        <v>0.1636661211129296</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="2">
-        <v>30133</v>
+        <v>30164</v>
       </c>
       <c r="C5">
-        <v>0.1636661211129296</v>
+        <v>0.1626677511183408</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="2">
-        <v>30164</v>
+        <v>30195</v>
       </c>
       <c r="C6">
-        <v>0.1626677511183408</v>
+        <v>0.1592356687898089</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="2">
-        <v>30195</v>
+        <v>30225</v>
       </c>
       <c r="C7">
-        <v>0.1592356687898089</v>
+        <v>0.1341201716738197</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="2">
-        <v>30225</v>
+        <v>30256</v>
       </c>
       <c r="C8">
-        <v>0.1341201716738197</v>
+        <v>0.1355380862022228</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="2">
-        <v>30256</v>
+        <v>30286</v>
       </c>
       <c r="C9">
-        <v>0.1355380862022228</v>
+        <v>0.1367989056087551</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="2">
-        <v>30286</v>
+        <v>30317</v>
       </c>
       <c r="C10">
-        <v>0.1367989056087551</v>
+        <v>0.1332445036642239</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2">
-        <v>30317</v>
+        <v>30348</v>
       </c>
       <c r="C11">
-        <v>0.1332445036642239</v>
+        <v>0.133645172068159</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2">
-        <v>30348</v>
+        <v>30376</v>
       </c>
       <c r="C12">
-        <v>0.133645172068159</v>
+        <v>0.1324503311258278</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="2">
-        <v>30376</v>
+        <v>30407</v>
       </c>
       <c r="C13">
-        <v>0.1324503311258278</v>
+        <v>0.1332445036642239</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="2">
-        <v>30407</v>
+        <v>30437</v>
       </c>
       <c r="C14">
-        <v>0.1332445036642239</v>
+        <v>0.1325820351342393</v>
       </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="2">
-        <v>30437</v>
+        <v>30468</v>
       </c>
       <c r="C15">
-        <v>0.1325820351342393</v>
+        <v>0.1310615989515072</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="2">
-        <v>30468</v>
+        <v>30498</v>
       </c>
       <c r="C16">
-        <v>0.1310615989515072</v>
+        <v>0.1289823294208693</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" s="2">
-        <v>30498</v>
+        <v>30529</v>
       </c>
       <c r="C17">
-        <v>0.1289823294208693</v>
+        <v>0.1261829652996845</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>30529</v>
+        <v>30560</v>
       </c>
       <c r="C18">
-        <v>0.1261829652996845</v>
+        <v>0.1280409731113956</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>30560</v>
+        <v>30590</v>
       </c>
       <c r="C19">
-        <v>0.1280409731113956</v>
+        <v>0.127787361829915</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2">
-        <v>30590</v>
+        <v>30621</v>
       </c>
       <c r="C20">
-        <v>0.127787361829915</v>
+        <v>0.1256281407035176</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>30621</v>
+        <v>30651</v>
       </c>
       <c r="C21">
-        <v>0.1256281407035176</v>
+        <v>0.1248439450686642</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>30651</v>
+        <v>30682</v>
       </c>
       <c r="C22">
-        <v>0.1248439450686642</v>
+        <v>0.1221299462628236</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2">
-        <v>30682</v>
+        <v>30713</v>
       </c>
       <c r="C23">
-        <v>0.1221299462628236</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>30713</v>
+        <v>30742</v>
       </c>
       <c r="C24">
-        <v>0.1287001287001287</v>
+        <v>0.1295336787564767</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>30742</v>
+        <v>30773</v>
       </c>
       <c r="C25">
-        <v>0.1295336787564767</v>
+        <v>0.1252348152786475</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>30773</v>
+        <v>30803</v>
       </c>
       <c r="C26">
-        <v>0.1252348152786475</v>
+        <v>0.1237317495669389</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" s="2">
-        <v>30803</v>
+        <v>30834</v>
       </c>
       <c r="C27">
-        <v>0.1237317495669389</v>
+        <v>0.122256861666361</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2">
-        <v>30834</v>
+        <v>30864</v>
       </c>
       <c r="C28">
-        <v>0.122256861666361</v>
+        <v>0.1186239620403322</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>30864</v>
+        <v>30895</v>
       </c>
       <c r="C29">
-        <v>0.1186239620403322</v>
+        <v>0.1201923076923077</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>30895</v>
+        <v>30926</v>
       </c>
       <c r="C30">
-        <v>0.1201923076923077</v>
+        <v>0.1151145389662715</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>30926</v>
+        <v>30956</v>
       </c>
       <c r="C31">
-        <v>0.1151145389662715</v>
+        <v>0.115460108532502</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>30956</v>
+        <v>30987</v>
       </c>
       <c r="C32">
-        <v>0.115460108532502</v>
+        <v>0.1131221719457014</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>30987</v>
+        <v>31017</v>
       </c>
       <c r="C33">
-        <v>0.1131221719457014</v>
+        <v>0.1112966054535337</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2">
-        <v>31017</v>
+        <v>31048</v>
       </c>
       <c r="C34">
-        <v>0.1112966054535337</v>
+        <v>0.1106194690265487</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="2">
-        <v>31048</v>
+        <v>31079</v>
       </c>
       <c r="C35">
-        <v>0.1106194690265487</v>
+        <v>0.1054852320675105</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>31079</v>
+        <v>31107</v>
       </c>
       <c r="C36">
-        <v>0.1054852320675105</v>
+        <v>0.1121076233183857</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2">
-        <v>31107</v>
+        <v>31138</v>
       </c>
       <c r="C37">
-        <v>0.1121076233183857</v>
+        <v>0.1109570041608877</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" s="2">
-        <v>31138</v>
+        <v>31168</v>
       </c>
       <c r="C38">
-        <v>0.1109570041608877</v>
+        <v>0.112739571589628</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="2">
-        <v>31168</v>
+        <v>31199</v>
       </c>
       <c r="C39">
-        <v>0.112739571589628</v>
+        <v>0.1143837575064341</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="2">
-        <v>31199</v>
+        <v>31229</v>
       </c>
       <c r="C40">
-        <v>0.1143837575064341</v>
+        <v>0.1207000603500302</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="2">
-        <v>31229</v>
+        <v>31260</v>
       </c>
       <c r="C41">
-        <v>0.1207000603500302</v>
+        <v>0.1201201201201201</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="2">
-        <v>31260</v>
+        <v>31291</v>
       </c>
       <c r="C42">
-        <v>0.1201201201201201</v>
+        <v>0.124223602484472</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="2">
-        <v>31291</v>
+        <v>31321</v>
       </c>
       <c r="C43">
-        <v>0.124223602484472</v>
+        <v>0.1269680040629761</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2">
-        <v>31321</v>
+        <v>31352</v>
       </c>
       <c r="C44">
-        <v>0.1269680040629761</v>
+        <v>0.1309671927182241</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="2">
-        <v>31352</v>
+        <v>31382</v>
       </c>
       <c r="C45">
-        <v>0.1309671927182241</v>
+        <v>0.132013201320132</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" s="2">
-        <v>31382</v>
+        <v>31413</v>
       </c>
       <c r="C46">
-        <v>0.132013201320132</v>
+        <v>0.1327580484566877</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="2">
-        <v>31413</v>
+        <v>31444</v>
       </c>
       <c r="C47">
-        <v>0.1327580484566877</v>
+        <v>0.1388792444969099</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" s="2">
-        <v>31444</v>
+        <v>31472</v>
       </c>
       <c r="C48">
-        <v>0.1388792444969099</v>
+        <v>0.135685210312076</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="2">
-        <v>31472</v>
+        <v>31503</v>
       </c>
       <c r="C49">
-        <v>0.135685210312076</v>
+        <v>0.1427144284287142</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="2">
-        <v>31503</v>
+        <v>31533</v>
       </c>
       <c r="C50">
-        <v>0.1427144284287142</v>
+        <v>0.135308842432853</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="2">
-        <v>31533</v>
+        <v>31564</v>
       </c>
       <c r="C51">
-        <v>0.135308842432853</v>
+        <v>0.1402918069584736</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="2">
-        <v>31564</v>
+        <v>31594</v>
       </c>
       <c r="C52">
-        <v>0.1402918069584736</v>
+        <v>0.143348623853211</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="2">
-        <v>31594</v>
+        <v>31625</v>
       </c>
       <c r="C53">
-        <v>0.143348623853211</v>
+        <v>0.1451378809869376</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="2">
-        <v>31625</v>
+        <v>31656</v>
       </c>
       <c r="C54">
-        <v>0.1451378809869376</v>
+        <v>0.1447178002894356</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="2">
-        <v>31656</v>
+        <v>31686</v>
       </c>
       <c r="C55">
-        <v>0.1447178002894356</v>
+        <v>0.1420858198351805</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="2">
-        <v>31686</v>
+        <v>31717</v>
       </c>
       <c r="C56">
-        <v>0.1420858198351805</v>
+        <v>0.1454016721192294</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="2">
-        <v>31717</v>
+        <v>31747</v>
       </c>
       <c r="C57">
-        <v>0.1454016721192294</v>
+        <v>0.1483459427384661</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="2">
-        <v>31747</v>
+        <v>31778</v>
       </c>
       <c r="C58">
-        <v>0.1483459427384661</v>
+        <v>0.1528467711119602</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" s="2">
-        <v>31778</v>
+        <v>31809</v>
       </c>
       <c r="C59">
-        <v>0.1528467711119602</v>
+        <v>0.1544401544401544</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="2">
-        <v>31809</v>
+        <v>31837</v>
       </c>
       <c r="C60">
-        <v>0.1544401544401544</v>
+        <v>0.158102766798419</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="2">
-        <v>31837</v>
+        <v>31868</v>
       </c>
       <c r="C61">
-        <v>0.158102766798419</v>
+        <v>0.1591343093570974</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="2">
-        <v>31868</v>
+        <v>31898</v>
       </c>
       <c r="C62">
-        <v>0.1591343093570974</v>
+        <v>0.1571832756994656</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="2">
-        <v>31898</v>
+        <v>31929</v>
       </c>
       <c r="C63">
-        <v>0.1571832756994656</v>
+        <v>0.1565925461948011</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="2">
-        <v>31929</v>
+        <v>31959</v>
       </c>
       <c r="C64">
-        <v>0.1565925461948011</v>
+        <v>0.1541069502234551</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="2">
-        <v>31959</v>
+        <v>31990</v>
       </c>
       <c r="C65">
-        <v>0.1541069502234551</v>
+        <v>0.1568381430363864</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="2">
-        <v>31990</v>
+        <v>32021</v>
       </c>
       <c r="C66">
-        <v>0.1568381430363864</v>
+        <v>0.1548467017652524</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="2">
-        <v>32021</v>
+        <v>32051</v>
       </c>
       <c r="C67">
-        <v>0.1548467017652524</v>
+        <v>0.1612903225806452</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="2">
-        <v>32051</v>
+        <v>32082</v>
       </c>
       <c r="C68">
-        <v>0.1612903225806452</v>
+        <v>0.1677570877369569</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="2">
-        <v>32082</v>
+        <v>32112</v>
       </c>
       <c r="C69">
-        <v>0.1677570877369569</v>
+        <v>0.1725625539257981</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" s="2">
-        <v>32112</v>
+        <v>32143</v>
       </c>
       <c r="C70">
-        <v>0.1725625539257981</v>
+        <v>0.1657824933687003</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" s="2">
-        <v>32143</v>
+        <v>32174</v>
       </c>
       <c r="C71">
-        <v>0.1657824933687003</v>
+        <v>0.1668891855807744</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="2">
-        <v>32174</v>
+        <v>32203</v>
       </c>
       <c r="C72">
-        <v>0.1668891855807744</v>
+        <v>0.170328734457503</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" s="2">
-        <v>32203</v>
+        <v>32234</v>
       </c>
       <c r="C73">
-        <v>0.170328734457503</v>
+        <v>0.1702127659574468</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="2">
-        <v>32234</v>
+        <v>32264</v>
       </c>
       <c r="C74">
-        <v>0.1702127659574468</v>
+        <v>0.1668752607425949</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2">
-        <v>32264</v>
+        <v>32295</v>
       </c>
       <c r="C75">
-        <v>0.1668752607425949</v>
+        <v>0.1591089896579157</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2">
-        <v>32295</v>
+        <v>32325</v>
       </c>
       <c r="C76">
-        <v>0.1591089896579157</v>
+        <v>0.1557875058420315</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2">
-        <v>32325</v>
+        <v>32356</v>
       </c>
       <c r="C77">
-        <v>0.1557875058420315</v>
+        <v>0.1540120129370091</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2">
-        <v>32356</v>
+        <v>32387</v>
       </c>
       <c r="C78">
-        <v>0.1540120129370091</v>
+        <v>0.1556420233463035</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2">
-        <v>32387</v>
+        <v>32417</v>
       </c>
       <c r="C79">
-        <v>0.1556420233463035</v>
+        <v>0.1614205004035512</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2">
-        <v>32417</v>
+        <v>32448</v>
       </c>
       <c r="C80">
-        <v>0.1614205004035512</v>
+        <v>0.1655218074981379</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="2">
-        <v>32448</v>
+        <v>32478</v>
       </c>
       <c r="C81">
-        <v>0.1655218074981379</v>
+        <v>0.1631055292774425</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="2">
-        <v>32478</v>
+        <v>32509</v>
       </c>
       <c r="C82">
-        <v>0.1631055292774425</v>
+        <v>0.1572327044025157</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2">
-        <v>32509</v>
+        <v>32540</v>
       </c>
       <c r="C83">
-        <v>0.1572327044025157</v>
+        <v>0.1590583744234134</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2">
-        <v>32540</v>
+        <v>32568</v>
       </c>
       <c r="C84">
-        <v>0.1590583744234134</v>
+        <v>0.1552072016141549</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="2">
-        <v>32568</v>
+        <v>32599</v>
       </c>
       <c r="C85">
-        <v>0.1552072016141549</v>
+        <v>0.1565435190983093</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2">
-        <v>32599</v>
+        <v>32629</v>
       </c>
       <c r="C86">
-        <v>0.1565435190983093</v>
+        <v>0.1500600240096039</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="2">
-        <v>32629</v>
+        <v>32660</v>
       </c>
       <c r="C87">
-        <v>0.1500600240096039</v>
+        <v>0.1502178158329578</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2">
-        <v>32660</v>
+        <v>32690</v>
       </c>
       <c r="C88">
-        <v>0.1502178158329578</v>
+        <v>0.1566416040100251</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2">
-        <v>32690</v>
+        <v>32721</v>
       </c>
       <c r="C89">
-        <v>0.1566416040100251</v>
+        <v>0.1510345869204048</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2">
-        <v>32721</v>
+        <v>32752</v>
       </c>
       <c r="C90">
-        <v>0.1510345869204048</v>
+        <v>0.1554968123153475</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2">
-        <v>32752</v>
+        <v>32782</v>
       </c>
       <c r="C91">
-        <v>0.1554968123153475</v>
+        <v>0.1557632398753894</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2">
-        <v>32782</v>
+        <v>32813</v>
       </c>
       <c r="C92">
-        <v>0.1557632398753894</v>
+        <v>0.1567398119122257</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2">
-        <v>32813</v>
+        <v>32843</v>
       </c>
       <c r="C93">
-        <v>0.1567398119122257</v>
+        <v>0.1611214049786514</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2">
-        <v>32843</v>
+        <v>32874</v>
       </c>
       <c r="C94">
-        <v>0.1611214049786514</v>
+        <v>0.1623376623376623</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2">
-        <v>32874</v>
+        <v>32905</v>
       </c>
       <c r="C95">
-        <v>0.1623376623376623</v>
+        <v>0.1632253325716151</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2">
-        <v>32905</v>
+        <v>32933</v>
       </c>
       <c r="C96">
-        <v>0.1632253325716151</v>
+        <v>0.1635590448151783</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2">
-        <v>32933</v>
+        <v>32964</v>
       </c>
       <c r="C97">
-        <v>0.1635590448151783</v>
+        <v>0.1639881928501148</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" s="2">
-        <v>32964</v>
+        <v>32994</v>
       </c>
       <c r="C98">
-        <v>0.1639881928501148</v>
+        <v>0.1630523398010761</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2">
-        <v>32994</v>
+        <v>33025</v>
       </c>
       <c r="C99">
-        <v>0.1630523398010761</v>
+        <v>0.1656314699792961</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2">
-        <v>33025</v>
+        <v>33055</v>
       </c>
       <c r="C100">
-        <v>0.1656314699792961</v>
+        <v>0.1720282126268708</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2">
-        <v>33055</v>
+        <v>33086</v>
       </c>
       <c r="C101">
-        <v>0.1720282126268708</v>
+        <v>0.1727414061150458</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2">
-        <v>33086</v>
+        <v>33117</v>
       </c>
       <c r="C102">
-        <v>0.1727414061150458</v>
+        <v>0.1735207357279195</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="2">
-        <v>33117</v>
+        <v>33147</v>
       </c>
       <c r="C103">
-        <v>0.1735207357279195</v>
+        <v>0.1772735330615139</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2">
-        <v>33147</v>
+        <v>33178</v>
       </c>
       <c r="C104">
-        <v>0.1772735330615139</v>
+        <v>0.1779834475393788</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2">
-        <v>33178</v>
+        <v>33208</v>
       </c>
       <c r="C105">
-        <v>0.1779834475393788</v>
+        <v>0.1775095411378362</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2">
-        <v>33208</v>
+        <v>33239</v>
       </c>
       <c r="C106">
-        <v>0.1775095411378362</v>
+        <v>0.1807337791433219</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2">
-        <v>33239</v>
+        <v>33270</v>
       </c>
       <c r="C107">
-        <v>0.1807337791433219</v>
+        <v>0.1763668430335097</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2">
-        <v>33270</v>
+        <v>33298</v>
       </c>
       <c r="C108">
-        <v>0.1763668430335097</v>
+        <v>0.1631321370309951</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2">
-        <v>33298</v>
+        <v>33329</v>
       </c>
       <c r="C109">
-        <v>0.1631321370309951</v>
+        <v>0.1626545217957059</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2">
-        <v>33329</v>
+        <v>33359</v>
       </c>
       <c r="C110">
-        <v>0.1626545217957059</v>
+        <v>0.1603206412825651</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="2">
-        <v>33359</v>
+        <v>33390</v>
       </c>
       <c r="C111">
-        <v>0.1603206412825651</v>
+        <v>0.1540476007086189</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2">
-        <v>33390</v>
+        <v>33420</v>
       </c>
       <c r="C112">
-        <v>0.1540476007086189</v>
+        <v>0.158102766798419</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2">
-        <v>33420</v>
+        <v>33451</v>
       </c>
       <c r="C113">
-        <v>0.158102766798419</v>
+        <v>0.1580278128950695</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2">
-        <v>33451</v>
+        <v>33482</v>
       </c>
       <c r="C114">
-        <v>0.1580278128950695</v>
+        <v>0.1645278051990786</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2">
-        <v>33482</v>
+        <v>33512</v>
       </c>
       <c r="C115">
-        <v>0.1645278051990786</v>
+        <v>0.1642036124794745</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2">
-        <v>33512</v>
+        <v>33543</v>
       </c>
       <c r="C116">
-        <v>0.1642036124794745</v>
+        <v>0.1683501683501683</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2">
-        <v>33543</v>
+        <v>33573</v>
       </c>
       <c r="C117">
-        <v>0.1683501683501683</v>
+        <v>0.1801801801801802</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="2">
-        <v>33573</v>
+        <v>33604</v>
       </c>
       <c r="C118">
-        <v>0.1801801801801802</v>
+        <v>0.1709401709401709</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2">
-        <v>33604</v>
+        <v>33635</v>
       </c>
       <c r="C119">
-        <v>0.1709401709401709</v>
+        <v>0.1688048615800135</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2">
-        <v>33635</v>
+        <v>33664</v>
       </c>
       <c r="C120">
-        <v>0.1688048615800135</v>
+        <v>0.1675884028825205</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="2">
-        <v>33664</v>
+        <v>33695</v>
       </c>
       <c r="C121">
-        <v>0.1675884028825205</v>
+        <v>0.1681520094165125</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2">
-        <v>33695</v>
+        <v>33725</v>
       </c>
       <c r="C122">
-        <v>0.1681520094165125</v>
+        <v>0.1727712508638563</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2">
-        <v>33725</v>
+        <v>33756</v>
       </c>
       <c r="C123">
-        <v>0.1727712508638563</v>
+        <v>0.1819505094614265</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2">
-        <v>33756</v>
+        <v>33786</v>
       </c>
       <c r="C124">
-        <v>0.1819505094614265</v>
+        <v>0.1865671641791045</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2">
-        <v>33786</v>
+        <v>33817</v>
       </c>
       <c r="C125">
-        <v>0.1865671641791045</v>
+        <v>0.1941747572815534</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="2">
-        <v>33817</v>
+        <v>33848</v>
       </c>
       <c r="C126">
-        <v>0.1941747572815534</v>
+        <v>0.1896453631708705</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2">
-        <v>33848</v>
+        <v>33878</v>
       </c>
       <c r="C127">
-        <v>0.1896453631708705</v>
+        <v>0.1721170395869191</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2">
-        <v>33878</v>
+        <v>33909</v>
       </c>
       <c r="C128">
-        <v>0.1721170395869191</v>
+        <v>0.1481481481481481</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2">
-        <v>33909</v>
+        <v>33939</v>
       </c>
       <c r="C129">
-        <v>0.1481481481481481</v>
+        <v>0.1412030499858797</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="2">
-        <v>33939</v>
+        <v>33970</v>
       </c>
       <c r="C130">
-        <v>0.1412030499858797</v>
+        <v>0.1367989056087551</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2">
-        <v>33970</v>
+        <v>34001</v>
       </c>
       <c r="C131">
-        <v>0.1367989056087551</v>
+        <v>0.1276650070215754</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2">
-        <v>34001</v>
+        <v>34029</v>
       </c>
       <c r="C132">
-        <v>0.1276650070215754</v>
+        <v>0.1297858533419857</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2">
-        <v>34029</v>
+        <v>34060</v>
       </c>
       <c r="C133">
-        <v>0.1297858533419857</v>
+        <v>0.1369675386933297</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="2">
-        <v>34060</v>
+        <v>34090</v>
       </c>
       <c r="C134">
-        <v>0.1369675386933297</v>
+        <v>0.1395868230039084</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2">
-        <v>34090</v>
+        <v>34121</v>
       </c>
       <c r="C135">
-        <v>0.1395868230039084</v>
+        <v>0.1291989664082687</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2">
-        <v>34121</v>
+        <v>34151</v>
       </c>
       <c r="C136">
-        <v>0.1291989664082687</v>
+        <v>0.1213444970270598</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2">
-        <v>34151</v>
+        <v>34182</v>
       </c>
       <c r="C137">
-        <v>0.1213444970270598</v>
+        <v>0.1223091976516634</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="2">
-        <v>34182</v>
+        <v>34213</v>
       </c>
       <c r="C138">
-        <v>0.1223091976516634</v>
+        <v>0.123304562268804</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2">
-        <v>34213</v>
+        <v>34243</v>
       </c>
       <c r="C139">
-        <v>0.123304562268804</v>
+        <v>0.1227596366314756</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="2">
-        <v>34243</v>
+        <v>34274</v>
       </c>
       <c r="C140">
-        <v>0.1227596366314756</v>
+        <v>0.1180776951233912</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="2">
-        <v>34274</v>
+        <v>34304</v>
       </c>
       <c r="C141">
-        <v>0.1180776951233912</v>
+        <v>0.1199760047990402</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="2">
-        <v>34304</v>
+        <v>34335</v>
       </c>
       <c r="C142">
-        <v>0.1199760047990402</v>
+        <v>0.1269357705001269</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="2">
-        <v>34335</v>
+        <v>34366</v>
       </c>
       <c r="C143">
-        <v>0.1269357705001269</v>
+        <v>0.1255335174491589</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2">
-        <v>34366</v>
+        <v>34394</v>
       </c>
       <c r="C144">
-        <v>0.1255335174491589</v>
+        <v>0.1276161306789178</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="2">
-        <v>34394</v>
+        <v>34425</v>
       </c>
       <c r="C145">
-        <v>0.1276161306789178</v>
+        <v>0.1314233144959916</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="2">
-        <v>34425</v>
+        <v>34455</v>
       </c>
       <c r="C146">
-        <v>0.1314233144959916</v>
+        <v>0.1280737704918033</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="2">
-        <v>34455</v>
+        <v>34486</v>
       </c>
       <c r="C147">
-        <v>0.1280737704918033</v>
+        <v>0.1307018690367272</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="2">
-        <v>34486</v>
+        <v>34516</v>
       </c>
       <c r="C148">
-        <v>0.1307018690367272</v>
+        <v>0.1287001287001287</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="2">
-        <v>34516</v>
+        <v>34547</v>
       </c>
       <c r="C149">
-        <v>0.1287001287001287</v>
+        <v>0.1289490651192779</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="2">
-        <v>34547</v>
+        <v>34578</v>
       </c>
       <c r="C150">
-        <v>0.1289490651192779</v>
+        <v>0.1337255950788981</v>
       </c>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="2">
-        <v>34578</v>
+        <v>34608</v>
       </c>
       <c r="C151">
-        <v>0.1337255950788981</v>
+        <v>0.1398601398601398</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="2">
-        <v>34608</v>
+        <v>34639</v>
       </c>
       <c r="C152">
-        <v>0.1398601398601398</v>
+        <v>0.132749236691889</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="2">
-        <v>34639</v>
+        <v>34669</v>
       </c>
       <c r="C153">
-        <v>0.132749236691889</v>
+        <v>0.134698275862069</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="2">
-        <v>34669</v>
+        <v>34700</v>
       </c>
       <c r="C154">
-        <v>0.134698275862069</v>
+        <v>0.1334400854016547</v>
       </c>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="2">
-        <v>34700</v>
+        <v>34731</v>
       </c>
       <c r="C155">
-        <v>0.1334400854016547</v>
+        <v>0.1362397820163488</v>
       </c>
     </row>
     <row r="156" spans="1:3">
       <c r="A156" s="2">
-        <v>34731</v>
+        <v>34759</v>
       </c>
       <c r="C156">
-        <v>0.1362397820163488</v>
+        <v>0.1362026695723236</v>
       </c>
     </row>
     <row r="157" spans="1:3">
       <c r="A157" s="2">
-        <v>34759</v>
+        <v>34790</v>
       </c>
       <c r="C157">
-        <v>0.1362026695723236</v>
+        <v>0.1374570446735395</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158" s="2">
-        <v>34790</v>
+        <v>34820</v>
       </c>
       <c r="C158">
-        <v>0.1374570446735395</v>
+        <v>0.1362954886193267</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2">
-        <v>34820</v>
+        <v>34851</v>
       </c>
       <c r="C159">
-        <v>0.1362954886193267</v>
+        <v>0.1376651982378854</v>
       </c>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="2">
-        <v>34851</v>
+        <v>34881</v>
       </c>
       <c r="C160">
-        <v>0.1376651982378854</v>
+        <v>0.1413427561837456</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161" s="2">
-        <v>34881</v>
+        <v>34912</v>
       </c>
       <c r="C161">
-        <v>0.1413427561837456</v>
+        <v>0.1368363437328955</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162" s="2">
-        <v>34912</v>
+        <v>34943</v>
       </c>
       <c r="C162">
-        <v>0.1368363437328955</v>
+        <v>0.1445713459592309</v>
       </c>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="2">
-        <v>34943</v>
+        <v>34973</v>
       </c>
       <c r="C163">
-        <v>0.1445713459592309</v>
+        <v>0.1506250941406838</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2">
-        <v>34973</v>
+        <v>35004</v>
       </c>
       <c r="C164">
-        <v>0.1506250941406838</v>
+        <v>0.1524390243902439</v>
       </c>
     </row>
     <row r="165" spans="1:3">
       <c r="A165" s="2">
-        <v>35004</v>
+        <v>35034</v>
       </c>
       <c r="C165">
-        <v>0.1524390243902439</v>
+        <v>0.1504890895410083</v>
       </c>
     </row>
     <row r="166" spans="1:3">
       <c r="A166" s="2">
-        <v>35034</v>
+        <v>35065</v>
       </c>
       <c r="C166">
-        <v>0.1504890895410083</v>
+        <v>0.1442585112521639</v>
       </c>
     </row>
     <row r="167" spans="1:3">
       <c r="A167" s="2">
-        <v>35065</v>
+        <v>35096</v>
       </c>
       <c r="C167">
-        <v>0.1442585112521639</v>
+        <v>0.14801657785672</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="2">
-        <v>35096</v>
+        <v>35125</v>
       </c>
       <c r="C168">
-        <v>0.14801657785672</v>
+        <v>0.1497454327643007</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="2">
-        <v>35125</v>
+        <v>35156</v>
       </c>
       <c r="C169">
-        <v>0.1497454327643007</v>
+        <v>0.1475796930342385</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170" s="2">
-        <v>35156</v>
+        <v>35186</v>
       </c>
       <c r="C170">
-        <v>0.1475796930342385</v>
+        <v>0.1490312965722802</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171" s="2">
-        <v>35186</v>
+        <v>35217</v>
       </c>
       <c r="C171">
-        <v>0.1490312965722802</v>
+        <v>0.1510345869204048</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172" s="2">
-        <v>35217</v>
+        <v>35247</v>
       </c>
       <c r="C172">
-        <v>0.1510345869204048</v>
+        <v>0.1515840533575868</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173" s="2">
-        <v>35247</v>
+        <v>35278</v>
       </c>
       <c r="C173">
-        <v>0.1515840533575868</v>
+        <v>0.1508523155830442</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="2">
-        <v>35278</v>
+        <v>35309</v>
       </c>
       <c r="C174">
-        <v>0.1508523155830442</v>
+        <v>0.1507386192342478</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="2">
-        <v>35309</v>
+        <v>35339</v>
       </c>
       <c r="C175">
-        <v>0.1507386192342478</v>
+        <v>0.1518833535844472</v>
       </c>
     </row>
     <row r="176" spans="1:3">
       <c r="A176" s="2">
-        <v>35339</v>
+        <v>35370</v>
       </c>
       <c r="C176">
-        <v>0.1518833535844472</v>
+        <v>0.1487431206306708</v>
       </c>
     </row>
     <row r="177" spans="1:4">
       <c r="A177" s="2">
-        <v>35370</v>
+        <v>35400</v>
       </c>
       <c r="C177">
-        <v>0.1487431206306708</v>
+        <v>0.146864444118079</v>
       </c>
     </row>
     <row r="178" spans="1:4">
       <c r="A178" s="2">
-        <v>35400</v>
+        <v>35431</v>
       </c>
       <c r="C178">
-        <v>0.146864444118079</v>
+        <v>0.137797988149373</v>
       </c>
     </row>
     <row r="179" spans="1:4">
       <c r="A179" s="2">
-        <v>35431</v>
+        <v>35462</v>
       </c>
       <c r="C179">
-        <v>0.137797988149373</v>
+        <v>0.1335826876836762</v>
       </c>
     </row>
     <row r="180" spans="1:4">
       <c r="A180" s="2">
-        <v>35462</v>
+        <v>35490</v>
       </c>
       <c r="C180">
-        <v>0.1335826876836762</v>
+        <v>0.1324152542372881</v>
       </c>
     </row>
     <row r="181" spans="1:4">
       <c r="A181" s="2">
-        <v>35490</v>
+        <v>35521</v>
       </c>
       <c r="C181">
-        <v>0.1324152542372881</v>
+        <v>0.1273074474856779</v>
       </c>
     </row>
     <row r="182" spans="1:4">
       <c r="A182" s="2">
-        <v>35521</v>
+        <v>35551</v>
       </c>
       <c r="C182">
-        <v>0.1273074474856779</v>
+        <v>0.1293326435592344</v>
       </c>
     </row>
     <row r="183" spans="1:4">
       <c r="A183" s="2">
-        <v>35551</v>
+        <v>35582</v>
       </c>
       <c r="C183">
-        <v>0.1293326435592344</v>
+        <v>0.1295001295001295</v>
       </c>
     </row>
     <row r="184" spans="1:4">
       <c r="A184" s="2">
-        <v>35582</v>
+        <v>35612</v>
       </c>
       <c r="C184">
-        <v>0.1295001295001295</v>
+        <v>0.125140783381304</v>
       </c>
     </row>
     <row r="185" spans="1:4">
       <c r="A185" s="2">
-        <v>35612</v>
+        <v>35643</v>
       </c>
       <c r="C185">
-        <v>0.125140783381304</v>
+        <v>0.1269357705001269</v>
       </c>
     </row>
     <row r="186" spans="1:4">
       <c r="A186" s="2">
-        <v>35643</v>
+        <v>35674</v>
       </c>
       <c r="C186">
-        <v>0.1269357705001269</v>
+        <v>0.1320655044902272</v>
       </c>
     </row>
     <row r="187" spans="1:4">
       <c r="A187" s="2">
-        <v>35674</v>
+        <v>35704</v>
       </c>
       <c r="C187">
-        <v>0.1320655044902272</v>
+        <v>0.1334400854016547</v>
       </c>
     </row>
     <row r="188" spans="1:4">
       <c r="A188" s="2">
-        <v>35704</v>
+        <v>35735</v>
       </c>
       <c r="C188">
-        <v>0.1334400854016547</v>
+        <v>0.1291155584247902</v>
       </c>
     </row>
     <row r="189" spans="1:4">
       <c r="A189" s="2">
-        <v>35735</v>
+        <v>35765</v>
       </c>
       <c r="C189">
-        <v>0.1291155584247902</v>
+        <v>0.1263583522870862</v>
       </c>
     </row>
     <row r="190" spans="1:4">
       <c r="A190" s="2">
-        <v>35765</v>
+        <v>35796</v>
+      </c>
+      <c r="B190">
+        <v>866171000000</v>
       </c>
       <c r="C190">
-        <v>0.1263583522870862</v>
+        <v>0.1229709788489916</v>
+      </c>
+      <c r="D190">
+        <v>106513895720.6099</v>
       </c>
     </row>
     <row r="191" spans="1:4">
       <c r="A191" s="2">
-        <v>35796</v>
+        <v>35827</v>
       </c>
       <c r="B191">
-        <v>866171000000</v>
+        <v>840564000000</v>
       </c>
       <c r="C191">
-        <v>0.1229709788489916</v>
+        <v>0.1249219237976265</v>
       </c>
       <c r="D191">
-        <v>106513895720.6099</v>
+        <v>105004871955.0281</v>
       </c>
     </row>
     <row r="192" spans="1:4">
       <c r="A192" s="2">
-        <v>35827</v>
+        <v>35855</v>
       </c>
       <c r="B192">
-        <v>840564000000</v>
+        <v>860182000000</v>
       </c>
       <c r="C192">
-        <v>0.1249219237976265</v>
+        <v>0.1247816321437484</v>
       </c>
       <c r="D192">
-        <v>105004871955.0281</v>
+        <v>107334913900.6738</v>
       </c>
     </row>
     <row r="193" spans="1:4">
       <c r="A193" s="2">
-        <v>35855</v>
+        <v>35886</v>
       </c>
       <c r="B193">
-        <v>860182000000</v>
+        <v>859006000000</v>
       </c>
       <c r="C193">
-        <v>0.1247816321437484</v>
+        <v>0.1289823294208693</v>
       </c>
       <c r="D193">
-        <v>107334913900.6738</v>
+        <v>110796594866.5033</v>
       </c>
     </row>
     <row r="194" spans="1:4">
       <c r="A194" s="2">
-        <v>35886</v>
+        <v>35916</v>
       </c>
       <c r="B194">
-        <v>859006000000</v>
+        <v>860771000000</v>
       </c>
       <c r="C194">
-        <v>0.1289823294208693</v>
+        <v>0.1275510204081633</v>
       </c>
       <c r="D194">
-        <v>110796594866.5033</v>
+        <v>109792219387.7551</v>
       </c>
     </row>
     <row r="195" spans="1:4">
       <c r="A195" s="2">
-        <v>35916</v>
+        <v>35947</v>
       </c>
       <c r="B195">
-        <v>860771000000</v>
+        <v>871209000000</v>
       </c>
       <c r="C195">
-        <v>0.1275510204081633</v>
+        <v>0.1251721116535236</v>
       </c>
       <c r="D195">
-        <v>109792219387.7551</v>
+        <v>109051070221.5546</v>
       </c>
     </row>
     <row r="196" spans="1:4">
       <c r="A196" s="2">
-        <v>35947</v>
+        <v>35977</v>
       </c>
       <c r="B196">
-        <v>871209000000</v>
+        <v>861701000000</v>
       </c>
       <c r="C196">
-        <v>0.1251721116535236</v>
+        <v>0.1260398285858331</v>
       </c>
       <c r="D196">
-        <v>109051070221.5546</v>
+        <v>108608646332.241</v>
       </c>
     </row>
     <row r="197" spans="1:4">
       <c r="A197" s="2">
-        <v>35977</v>
+        <v>36008</v>
       </c>
       <c r="B197">
-        <v>861701000000</v>
+        <v>875102000000</v>
       </c>
       <c r="C197">
-        <v>0.1260398285858331</v>
+        <v>0.1249843769528809</v>
       </c>
       <c r="D197">
-        <v>108608646332.241</v>
+        <v>109374078240.22</v>
       </c>
     </row>
     <row r="198" spans="1:4">
       <c r="A198" s="2">
-        <v>36008</v>
+        <v>36039</v>
       </c>
       <c r="B198">
-        <v>875102000000</v>
+        <v>880147000000</v>
       </c>
       <c r="C198">
-        <v>0.1249843769528809</v>
+        <v>0.1272912423625255</v>
       </c>
       <c r="D198">
-        <v>109374078240.22</v>
+        <v>112035005091.6497</v>
       </c>
     </row>
     <row r="199" spans="1:4">
       <c r="A199" s="2">
-        <v>36039</v>
+        <v>36069</v>
       </c>
       <c r="B199">
-        <v>880147000000</v>
+        <v>872536000000</v>
       </c>
       <c r="C199">
-        <v>0.1272912423625255</v>
+        <v>0.1286670097786927</v>
       </c>
       <c r="D199">
-        <v>112035005091.6497</v>
+        <v>112266598044.2615</v>
       </c>
     </row>
     <row r="200" spans="1:4">
       <c r="A200" s="2">
-        <v>36069</v>
+        <v>36100</v>
       </c>
       <c r="B200">
-        <v>872536000000</v>
+        <v>876396000000</v>
       </c>
       <c r="C200">
-        <v>0.1286670097786927</v>
+        <v>0.1227747084100675</v>
       </c>
       <c r="D200">
-        <v>112266598044.2615</v>
+        <v>107599263351.7495</v>
       </c>
     </row>
     <row r="201" spans="1:4">
       <c r="A201" s="2">
-        <v>36100</v>
+        <v>36130</v>
       </c>
       <c r="B201">
-        <v>876396000000</v>
+        <v>887781000000</v>
       </c>
       <c r="C201">
-        <v>0.1227747084100675</v>
+        <v>0.1241156758098548</v>
       </c>
       <c r="D201">
-        <v>107599263351.7495</v>
+        <v>110187538786.1487</v>
       </c>
     </row>
     <row r="202" spans="1:4">
       <c r="A202" s="2">
-        <v>36130</v>
+        <v>36161</v>
       </c>
       <c r="B202">
-        <v>887781000000</v>
+        <v>902424000000</v>
       </c>
       <c r="C202">
-        <v>0.1241156758098548</v>
+        <v>0.1279918085242545</v>
       </c>
       <c r="D202">
-        <v>110187538786.1487</v>
+        <v>115502879815.6918</v>
       </c>
     </row>
     <row r="203" spans="1:4">
       <c r="A203" s="2">
-        <v>36161</v>
+        <v>36192</v>
       </c>
       <c r="B203">
-        <v>902424000000</v>
+        <v>892421000000</v>
       </c>
       <c r="C203">
-        <v>0.1279918085242545</v>
+        <v>0.1224589762429586</v>
       </c>
       <c r="D203">
-        <v>115502879815.6918</v>
+        <v>109284962037.7174</v>
       </c>
     </row>
     <row r="204" spans="1:4">
       <c r="A204" s="2">
-        <v>36192</v>
+        <v>36220</v>
       </c>
       <c r="B204">
-        <v>892421000000</v>
+        <v>894623000000</v>
       </c>
       <c r="C204">
-        <v>0.1224589762429586</v>
+        <v>0.1210653753026634</v>
       </c>
       <c r="D204">
-        <v>109284962037.7174</v>
+        <v>108307869249.3947</v>
       </c>
     </row>
     <row r="205" spans="1:4">
       <c r="A205" s="2">
-        <v>36220</v>
+        <v>36251</v>
       </c>
       <c r="B205">
-        <v>894623000000</v>
+        <v>888489000000</v>
       </c>
       <c r="C205">
-        <v>0.1210653753026634</v>
+        <v>0.1185817621249852</v>
       </c>
       <c r="D205">
-        <v>108307869249.3947</v>
+        <v>105358591248.666</v>
       </c>
     </row>
     <row r="206" spans="1:4">
       <c r="A206" s="2">
-        <v>36251</v>
+        <v>36281</v>
       </c>
       <c r="B206">
-        <v>888489000000</v>
+        <v>895380000000</v>
       </c>
       <c r="C206">
-        <v>0.1185817621249852</v>
+        <v>0.1162925921618793</v>
       </c>
       <c r="D206">
-        <v>105358591248.666</v>
+        <v>104126061169.9035</v>
       </c>
     </row>
     <row r="207" spans="1:4">
       <c r="A207" s="2">
-        <v>36281</v>
+        <v>36312</v>
       </c>
       <c r="B207">
-        <v>895380000000</v>
+        <v>898006000000</v>
       </c>
       <c r="C207">
-        <v>0.1162925921618793</v>
+        <v>0.1184553423359394</v>
       </c>
       <c r="D207">
-        <v>104126061169.9035</v>
+        <v>106373608149.7276</v>
       </c>
     </row>
     <row r="208" spans="1:4">
       <c r="A208" s="2">
-        <v>36312</v>
+        <v>36342</v>
       </c>
       <c r="B208">
-        <v>898006000000</v>
+        <v>894198000000</v>
       </c>
       <c r="C208">
-        <v>0.1184553423359394</v>
+        <v>0.1217878455730118</v>
       </c>
       <c r="D208">
-        <v>106373608149.7276</v>
+        <v>108902447935.696</v>
       </c>
     </row>
     <row r="209" spans="1:4">
       <c r="A209" s="2">
-        <v>36342</v>
+        <v>36373</v>
       </c>
       <c r="B209">
-        <v>894198000000</v>
+        <v>911379000000</v>
       </c>
       <c r="C209">
-        <v>0.1217878455730118</v>
+        <v>0.121197430614471</v>
       </c>
       <c r="D209">
-        <v>108902447935.696</v>
+        <v>110456793115.9859</v>
       </c>
     </row>
     <row r="210" spans="1:4">
       <c r="A210" s="2">
-        <v>36373</v>
+        <v>36404</v>
       </c>
       <c r="B210">
-        <v>911379000000</v>
+        <v>921677000000</v>
       </c>
       <c r="C210">
-        <v>0.121197430614471</v>
+        <v>0.1224140041620761</v>
       </c>
       <c r="D210">
-        <v>110456793115.9859</v>
+        <v>112826172114.0898</v>
       </c>
     </row>
     <row r="211" spans="1:4">
       <c r="A211" s="2">
-        <v>36404</v>
+        <v>36434</v>
       </c>
       <c r="B211">
-        <v>921677000000</v>
+        <v>956004000000</v>
       </c>
       <c r="C211">
-        <v>0.1224140041620761</v>
+        <v>0.1220554131575735</v>
       </c>
       <c r="D211">
-        <v>112826172114.0898</v>
+        <v>116685463200.2929</v>
       </c>
     </row>
     <row r="212" spans="1:4">
       <c r="A212" s="2">
-        <v>36434</v>
+        <v>36465</v>
       </c>
       <c r="B212">
-        <v>956004000000</v>
+        <v>947459000000</v>
       </c>
       <c r="C212">
-        <v>0.1220554131575735</v>
+        <v>0.1176193836744295</v>
       </c>
       <c r="D212">
-        <v>116685463200.2929</v>
+        <v>111439543636.7913</v>
       </c>
     </row>
     <row r="213" spans="1:4">
       <c r="A213" s="2">
-        <v>36465</v>
+        <v>36495</v>
       </c>
       <c r="B213">
-        <v>947459000000</v>
+        <v>965538000000</v>
       </c>
       <c r="C213">
-        <v>0.1176193836744295</v>
+        <v>0.1173020527859237</v>
       </c>
       <c r="D213">
-        <v>111439543636.7913</v>
+        <v>113259589442.8152</v>
       </c>
     </row>
     <row r="214" spans="1:4">
       <c r="A214" s="2">
-        <v>36495</v>
+        <v>36526</v>
       </c>
       <c r="B214">
-        <v>965538000000</v>
+        <v>975471000000</v>
       </c>
       <c r="C214">
-        <v>0.1173020527859237</v>
+        <v>0.1128184300187279</v>
       </c>
       <c r="D214">
-        <v>113259589442.8152</v>
+        <v>110051106748.7985</v>
       </c>
     </row>
     <row r="215" spans="1:4">
       <c r="A215" s="2">
-        <v>36526</v>
+        <v>36557</v>
       </c>
       <c r="B215">
-        <v>975471000000</v>
+        <v>968803000000</v>
       </c>
       <c r="C215">
-        <v>0.1128184300187279</v>
+        <v>0.1143445200388771</v>
       </c>
       <c r="D215">
-        <v>110051106748.7985</v>
+        <v>110777314047.2243</v>
       </c>
     </row>
     <row r="216" spans="1:4">
       <c r="A216" s="2">
-        <v>36557</v>
+        <v>36586</v>
       </c>
       <c r="B216">
-        <v>968803000000</v>
+        <v>986845000000</v>
       </c>
       <c r="C216">
-        <v>0.1143445200388771</v>
+        <v>0.1153828402639959</v>
       </c>
       <c r="D216">
-        <v>110777314047.2243</v>
+        <v>113864979000.3231</v>
       </c>
     </row>
     <row r="217" spans="1:4">
       <c r="A217" s="2">
-        <v>36586</v>
+        <v>36617</v>
       </c>
       <c r="B217">
-        <v>986845000000</v>
+        <v>1002483000000</v>
       </c>
       <c r="C217">
-        <v>0.1153828402639959</v>
+        <v>0.1122498232065285</v>
       </c>
       <c r="D217">
-        <v>113864979000.3231</v>
+        <v>112528539517.5503</v>
       </c>
     </row>
     <row r="218" spans="1:4">
       <c r="A218" s="2">
-        <v>36617</v>
+        <v>36647</v>
       </c>
       <c r="B218">
-        <v>1002483000000</v>
+        <v>983642000000</v>
       </c>
       <c r="C218">
-        <v>0.1122498232065285</v>
+        <v>0.111858074475106</v>
       </c>
       <c r="D218">
-        <v>112528539517.5503</v>
+        <v>110028300092.8422</v>
       </c>
     </row>
     <row r="219" spans="1:4">
       <c r="A219" s="2">
-        <v>36647</v>
+        <v>36678</v>
       </c>
       <c r="B219">
-        <v>983642000000</v>
+        <v>980883000000</v>
       </c>
       <c r="C219">
-        <v>0.111858074475106</v>
+        <v>0.1133221522143148</v>
       </c>
       <c r="D219">
-        <v>110028300092.8422</v>
+        <v>111155772630.4338</v>
       </c>
     </row>
     <row r="220" spans="1:4">
       <c r="A220" s="2">
-        <v>36678</v>
+        <v>36708</v>
       </c>
       <c r="B220">
-        <v>980883000000</v>
+        <v>958386000000</v>
       </c>
       <c r="C220">
-        <v>0.1133221522143148</v>
+        <v>0.1091917625734315</v>
       </c>
       <c r="D220">
-        <v>111155772630.4338</v>
+        <v>104647856565.7007</v>
       </c>
     </row>
     <row r="221" spans="1:4">
       <c r="A221" s="2">
-        <v>36708</v>
+        <v>36739</v>
       </c>
       <c r="B221">
-        <v>958386000000</v>
+        <v>986214000000</v>
       </c>
       <c r="C221">
-        <v>0.1091917625734315</v>
+        <v>0.1061469710961798</v>
       </c>
       <c r="D221">
-        <v>104647856565.7007</v>
+        <v>104683628952.6478</v>
       </c>
     </row>
     <row r="222" spans="1:4">
       <c r="A222" s="2">
-        <v>36739</v>
+        <v>36770</v>
       </c>
       <c r="B222">
-        <v>986214000000</v>
+        <v>990896000000</v>
       </c>
       <c r="C222">
-        <v>0.1061469710961798</v>
+        <v>0.1040257983980027</v>
       </c>
       <c r="D222">
-        <v>104683628952.6478</v>
+        <v>103078747529.3873</v>
       </c>
     </row>
     <row r="223" spans="1:4">
       <c r="A223" s="2">
-        <v>36770</v>
+        <v>36800</v>
       </c>
       <c r="B223">
-        <v>990896000000</v>
+        <v>986961000000</v>
       </c>
       <c r="C223">
-        <v>0.1040257983980027</v>
+        <v>0.1001702894921366</v>
       </c>
       <c r="D223">
-        <v>103078747529.3873</v>
+        <v>98864169087.44867</v>
       </c>
     </row>
     <row r="224" spans="1:4">
       <c r="A224" s="2">
-        <v>36800</v>
+        <v>36831</v>
       </c>
       <c r="B224">
-        <v>986961000000</v>
+        <v>998471000000</v>
       </c>
       <c r="C224">
-        <v>0.1001702894921366</v>
+        <v>0.1000120014401728</v>
       </c>
       <c r="D224">
-        <v>98864169087.44867</v>
+        <v>99859083089.97081</v>
       </c>
     </row>
     <row r="225" spans="1:4">
       <c r="A225" s="2">
-        <v>36831</v>
+        <v>36861</v>
       </c>
       <c r="B225">
-        <v>998471000000</v>
+        <v>992459000000</v>
       </c>
       <c r="C225">
-        <v>0.1000120014401728</v>
+        <v>0.1062213866139809</v>
       </c>
       <c r="D225">
-        <v>99859083089.97081</v>
+        <v>105420371137.5248</v>
       </c>
     </row>
     <row r="226" spans="1:4">
       <c r="A226" s="2">
-        <v>36861</v>
+        <v>36892</v>
       </c>
       <c r="B226">
-        <v>992459000000</v>
+        <v>1006137000000</v>
       </c>
       <c r="C226">
-        <v>0.1062213866139809</v>
+        <v>0.1056579851022241</v>
       </c>
       <c r="D226">
-        <v>105420371137.5248</v>
+        <v>106306408156.7965</v>
       </c>
     </row>
     <row r="227" spans="1:4">
       <c r="A227" s="2">
-        <v>36892</v>
+        <v>36923</v>
       </c>
       <c r="B227">
-        <v>1006137000000</v>
+        <v>996586000000</v>
       </c>
       <c r="C227">
-        <v>0.1056579851022241</v>
+        <v>0.1020616452337212</v>
       </c>
       <c r="D227">
-        <v>106306408156.7965</v>
+        <v>101713206776.8932</v>
       </c>
     </row>
     <row r="228" spans="1:4">
       <c r="A228" s="2">
-        <v>36923</v>
+        <v>36951</v>
       </c>
       <c r="B228">
-        <v>996586000000</v>
+        <v>1018615000000</v>
       </c>
       <c r="C228">
-        <v>0.1020616452337212</v>
+        <v>0.09615199707697929</v>
       </c>
       <c r="D228">
-        <v>101713206776.8932</v>
+        <v>97941866502.56726</v>
       </c>
     </row>
     <row r="229" spans="1:4">
       <c r="A229" s="2">
-        <v>36951</v>
+        <v>36982</v>
       </c>
       <c r="B229">
-        <v>1018615000000</v>
+        <v>1028829000000</v>
       </c>
       <c r="C229">
-        <v>0.09615199707697929</v>
+        <v>0.09763146076191592</v>
       </c>
       <c r="D229">
-        <v>97941866502.56726</v>
+        <v>100446078144.2212</v>
       </c>
     </row>
     <row r="230" spans="1:4">
       <c r="A230" s="2">
-        <v>36982</v>
+        <v>37012</v>
       </c>
       <c r="B230">
-        <v>1028829000000</v>
+        <v>1030592000000</v>
       </c>
       <c r="C230">
-        <v>0.09763146076191592</v>
+        <v>0.09260888489641696</v>
       </c>
       <c r="D230">
-        <v>100446078144.2212</v>
+        <v>95441975903.16815</v>
       </c>
     </row>
     <row r="231" spans="1:4">
       <c r="A231" s="2">
-        <v>37012</v>
+        <v>37043</v>
       </c>
       <c r="B231">
-        <v>1030592000000</v>
+        <v>1056228000000</v>
       </c>
       <c r="C231">
-        <v>0.09260888489641696</v>
+        <v>0.09215995281410416</v>
       </c>
       <c r="D231">
-        <v>95441975903.16815</v>
+        <v>97341922640.93561</v>
       </c>
     </row>
     <row r="232" spans="1:4">
       <c r="A232" s="2">
-        <v>37043</v>
+        <v>37073</v>
       </c>
       <c r="B232">
-        <v>1056228000000</v>
+        <v>1014868000000</v>
       </c>
       <c r="C232">
-        <v>0.09215995281410416</v>
+        <v>0.09456533045854729</v>
       </c>
       <c r="D232">
-        <v>97341922640.93561</v>
+        <v>95971327791.80496</v>
       </c>
     </row>
     <row r="233" spans="1:4">
       <c r="A233" s="2">
-        <v>37073</v>
+        <v>37104</v>
       </c>
       <c r="B233">
-        <v>1014868000000</v>
+        <v>1030481000000</v>
       </c>
       <c r="C233">
-        <v>0.09456533045854729</v>
+        <v>0.09632148258025988</v>
       </c>
       <c r="D233">
-        <v>95971327791.80496</v>
+        <v>99257457690.78879</v>
       </c>
     </row>
     <row r="234" spans="1:4">
       <c r="A234" s="2">
-        <v>37104</v>
+        <v>37135</v>
       </c>
       <c r="B234">
-        <v>1030481000000</v>
+        <v>1058019000000</v>
       </c>
       <c r="C234">
-        <v>0.09632148258025988</v>
+        <v>0.09365575889261431</v>
       </c>
       <c r="D234">
-        <v>99257457690.78879</v>
+        <v>99089572367.8049</v>
       </c>
     </row>
     <row r="235" spans="1:4">
       <c r="A235" s="2">
-        <v>37135</v>
+        <v>37165</v>
       </c>
       <c r="B235">
-        <v>1058019000000</v>
+        <v>1071663000000</v>
       </c>
       <c r="C235">
-        <v>0.09365575889261431</v>
+        <v>0.09380071100938946</v>
       </c>
       <c r="D235">
-        <v>99089572367.8049</v>
+        <v>100522751362.4553</v>
       </c>
     </row>
     <row r="236" spans="1:4">
       <c r="A236" s="2">
-        <v>37165</v>
+        <v>37196</v>
       </c>
       <c r="B236">
-        <v>1071663000000</v>
+        <v>1095416000000</v>
       </c>
       <c r="C236">
-        <v>0.09380071100938946</v>
+        <v>0.09380599045055017</v>
       </c>
       <c r="D236">
-        <v>100522751362.4553</v>
+        <v>102756582835.3799</v>
       </c>
     </row>
     <row r="237" spans="1:4">
       <c r="A237" s="2">
-        <v>37196</v>
+        <v>37226</v>
       </c>
       <c r="B237">
-        <v>1095416000000</v>
+        <v>1057699000000</v>
       </c>
       <c r="C237">
-        <v>0.09380599045055017</v>
+        <v>0.09543714986495644</v>
       </c>
       <c r="D237">
-        <v>102756582835.3799</v>
+        <v>100943777975.0146</v>
       </c>
     </row>
     <row r="238" spans="1:4">
       <c r="A238" s="2">
-        <v>37226</v>
+        <v>37257</v>
       </c>
       <c r="B238">
-        <v>1057699000000</v>
+        <v>1053056000000</v>
       </c>
       <c r="C238">
-        <v>0.09543714986495644</v>
+        <v>0.09381127048603619</v>
       </c>
       <c r="D238">
-        <v>100943777975.0146</v>
+        <v>98788521252.94333</v>
       </c>
     </row>
     <row r="239" spans="1:4">
       <c r="A239" s="2">
-        <v>37257</v>
+        <v>37288</v>
       </c>
       <c r="B239">
-        <v>1053056000000</v>
+        <v>1032093000000</v>
       </c>
       <c r="C239">
-        <v>0.09381127048603619</v>
+        <v>0.09584143992179339</v>
       </c>
       <c r="D239">
-        <v>98788521252.94333</v>
+        <v>98917279253.20351</v>
       </c>
     </row>
     <row r="240" spans="1:4">
       <c r="A240" s="2">
-        <v>37288</v>
+        <v>37316</v>
       </c>
       <c r="B240">
-        <v>1032093000000</v>
+        <v>1055919000000</v>
       </c>
       <c r="C240">
-        <v>0.09584143992179339</v>
+        <v>0.09651019147621989</v>
       </c>
       <c r="D240">
-        <v>98917279253.20351</v>
+        <v>101906944873.3786</v>
       </c>
     </row>
     <row r="241" spans="1:4">
       <c r="A241" s="2">
-        <v>37316</v>
+        <v>37347</v>
       </c>
       <c r="B241">
-        <v>1055919000000</v>
+        <v>1057670000000</v>
       </c>
       <c r="C241">
-        <v>0.09651019147621989</v>
+        <v>0.0973852071870283</v>
       </c>
       <c r="D241">
-        <v>101906944873.3786</v>
+        <v>103001412085.5042</v>
       </c>
     </row>
     <row r="242" spans="1:4">
       <c r="A242" s="2">
-        <v>37347</v>
+        <v>37377</v>
       </c>
       <c r="B242">
-        <v>1057670000000</v>
+        <v>1038684000000</v>
       </c>
       <c r="C242">
-        <v>0.0973852071870283</v>
+        <v>0.1026904908605463</v>
       </c>
       <c r="D242">
-        <v>103001412085.5042</v>
+        <v>106662969808.9957</v>
       </c>
     </row>
     <row r="243" spans="1:4">
       <c r="A243" s="2">
-        <v>37377</v>
+        <v>37408</v>
       </c>
       <c r="B243">
-        <v>1038684000000</v>
+        <v>1057284000000</v>
       </c>
       <c r="C243">
-        <v>0.1026904908605463</v>
+        <v>0.109158388822181</v>
       </c>
       <c r="D243">
-        <v>106662969808.9957</v>
+        <v>115411417967.4708</v>
       </c>
     </row>
     <row r="244" spans="1:4">
       <c r="A244" s="2">
-        <v>37408</v>
+        <v>37438</v>
       </c>
       <c r="B244">
-        <v>1057284000000</v>
+        <v>1047447000000</v>
       </c>
       <c r="C244">
-        <v>0.109158388822181</v>
+        <v>0.1048382869423913</v>
       </c>
       <c r="D244">
-        <v>115411417967.4708</v>
+        <v>109812549142.947</v>
       </c>
     </row>
     <row r="245" spans="1:4">
       <c r="A245" s="2">
-        <v>37438</v>
+        <v>37469</v>
       </c>
       <c r="B245">
-        <v>1047447000000</v>
+        <v>1066994000000</v>
       </c>
       <c r="C245">
-        <v>0.1048382869423913</v>
+        <v>0.1065246338215712</v>
       </c>
       <c r="D245">
-        <v>109812549142.947</v>
+        <v>113661145139.8136</v>
       </c>
     </row>
     <row r="246" spans="1:4">
       <c r="A246" s="2">
-        <v>37469</v>
+        <v>37500</v>
       </c>
       <c r="B246">
-        <v>1066994000000</v>
+        <v>1074166000000</v>
       </c>
       <c r="C246">
-        <v>0.1065246338215712</v>
+        <v>0.107781849536538</v>
       </c>
       <c r="D246">
-        <v>113661145139.8136</v>
+        <v>115775598189.2649</v>
       </c>
     </row>
     <row r="247" spans="1:4">
       <c r="A247" s="2">
-        <v>37500</v>
+        <v>37530</v>
       </c>
       <c r="B247">
-        <v>1074166000000</v>
+        <v>1070733000000</v>
       </c>
       <c r="C247">
-        <v>0.107781849536538</v>
+        <v>0.1094163730660656</v>
       </c>
       <c r="D247">
-        <v>115775598189.2649</v>
+        <v>117155721382.1476</v>
       </c>
     </row>
     <row r="248" spans="1:4">
       <c r="A248" s="2">
-        <v>37530</v>
+        <v>37561</v>
       </c>
       <c r="B248">
-        <v>1070733000000</v>
+        <v>1074964000000</v>
       </c>
       <c r="C248">
-        <v>0.1094163730660656</v>
+        <v>0.1105558749391943</v>
       </c>
       <c r="D248">
-        <v>117155721382.1476</v>
+        <v>118843585548.136</v>
       </c>
     </row>
     <row r="249" spans="1:4">
       <c r="A249" s="2">
-        <v>37561</v>
+        <v>37591</v>
       </c>
       <c r="B249">
-        <v>1074964000000</v>
+        <v>1090087000000</v>
       </c>
       <c r="C249">
-        <v>0.1105558749391943</v>
+        <v>0.1151211650261901</v>
       </c>
       <c r="D249">
-        <v>118843585548.136</v>
+        <v>125492085419.9044</v>
       </c>
     </row>
     <row r="250" spans="1:4">
       <c r="A250" s="2">
-        <v>37591</v>
+        <v>37622</v>
       </c>
       <c r="B250">
-        <v>1090087000000</v>
+        <v>1080435000000</v>
       </c>
       <c r="C250">
-        <v>0.1151211650261901</v>
+        <v>0.1165949607657957</v>
       </c>
       <c r="D250">
-        <v>125492085419.9044</v>
+        <v>125973276434.9925</v>
       </c>
     </row>
     <row r="251" spans="1:4">
       <c r="A251" s="2">
-        <v>37622</v>
+        <v>37653</v>
       </c>
       <c r="B251">
-        <v>1080435000000</v>
+        <v>1066795000000</v>
       </c>
       <c r="C251">
-        <v>0.1165949607657957</v>
+        <v>0.117820324005891</v>
       </c>
       <c r="D251">
-        <v>125973276434.9925</v>
+        <v>125690132547.8645</v>
       </c>
     </row>
     <row r="252" spans="1:4">
       <c r="A252" s="2">
-        <v>37653</v>
+        <v>37681</v>
       </c>
       <c r="B252">
-        <v>1066795000000</v>
+        <v>1091568000000</v>
       </c>
       <c r="C252">
-        <v>0.117820324005891</v>
+        <v>0.1184371039759336</v>
       </c>
       <c r="D252">
-        <v>125690132547.8645</v>
+        <v>129282152712.8019</v>
       </c>
     </row>
     <row r="253" spans="1:4">
       <c r="A253" s="2">
-        <v>37681</v>
+        <v>37712</v>
       </c>
       <c r="B253">
-        <v>1091568000000</v>
+        <v>1095981000000</v>
       </c>
       <c r="C253">
-        <v>0.1184371039759336</v>
+        <v>0.1226422036351149</v>
       </c>
       <c r="D253">
-        <v>129282152712.8019</v>
+        <v>134413524982.2169</v>
       </c>
     </row>
     <row r="254" spans="1:4">
       <c r="A254" s="2">
-        <v>37712</v>
+        <v>37742</v>
       </c>
       <c r="B254">
-        <v>1095981000000</v>
+        <v>1097716000000</v>
       </c>
       <c r="C254">
-        <v>0.1226422036351149</v>
+        <v>0.1292574161442513</v>
       </c>
       <c r="D254">
-        <v>134413524982.2169</v>
+        <v>141887933820.2029</v>
       </c>
     </row>
     <row r="255" spans="1:4">
       <c r="A255" s="2">
-        <v>37742</v>
+        <v>37773</v>
       </c>
       <c r="B255">
-        <v>1097716000000</v>
+        <v>1119739000000</v>
       </c>
       <c r="C255">
-        <v>0.1292574161442513</v>
+        <v>0.1253855605988415</v>
       </c>
       <c r="D255">
-        <v>141887933820.2029</v>
+        <v>140399102239.3861</v>
       </c>
     </row>
     <row r="256" spans="1:4">
       <c r="A256" s="2">
-        <v>37773</v>
+        <v>37803</v>
       </c>
       <c r="B256">
-        <v>1119739000000</v>
+        <v>1096437000000</v>
       </c>
       <c r="C256">
-        <v>0.1253855605988415</v>
+        <v>0.1217255818482813</v>
       </c>
       <c r="D256">
-        <v>140399102239.3861</v>
+        <v>133464431784.9839</v>
       </c>
     </row>
     <row r="257" spans="1:4">
       <c r="A257" s="2">
-        <v>37803</v>
+        <v>37834</v>
       </c>
       <c r="B257">
-        <v>1096437000000</v>
+        <v>1106567000000</v>
       </c>
       <c r="C257">
-        <v>0.1217255818482813</v>
+        <v>0.119422948313748</v>
       </c>
       <c r="D257">
-        <v>133464431784.9839</v>
+        <v>132149493646.6992</v>
       </c>
     </row>
     <row r="258" spans="1:4">
       <c r="A258" s="2">
-        <v>37834</v>
+        <v>37865</v>
       </c>
       <c r="B258">
-        <v>1106567000000</v>
+        <v>1115806000000</v>
       </c>
       <c r="C258">
-        <v>0.119422948313748</v>
+        <v>0.1290289282857217</v>
       </c>
       <c r="D258">
-        <v>132149493646.6992</v>
+        <v>143971252354.7779</v>
       </c>
     </row>
     <row r="259" spans="1:4">
       <c r="A259" s="2">
-        <v>37865</v>
+        <v>37895</v>
       </c>
       <c r="B259">
-        <v>1115806000000</v>
+        <v>1125284000000</v>
       </c>
       <c r="C259">
-        <v>0.1290289282857217</v>
+        <v>0.1277041350598933</v>
       </c>
       <c r="D259">
-        <v>143971252354.7779</v>
+        <v>143703419916.7369</v>
       </c>
     </row>
     <row r="260" spans="1:4">
       <c r="A260" s="2">
-        <v>37895</v>
+        <v>37926</v>
       </c>
       <c r="B260">
-        <v>1125284000000</v>
+        <v>1132313000000</v>
       </c>
       <c r="C260">
-        <v>0.1277041350598933</v>
+        <v>0.1324398061081239</v>
       </c>
       <c r="D260">
-        <v>143703419916.7369</v>
+        <v>149963314173.7081</v>
       </c>
     </row>
     <row r="261" spans="1:4">
       <c r="A261" s="2">
-        <v>37926</v>
+        <v>37956</v>
       </c>
       <c r="B261">
-        <v>1132313000000</v>
+        <v>1141285000000</v>
       </c>
       <c r="C261">
-        <v>0.1324398061081239</v>
+        <v>0.1390956004061591</v>
       </c>
       <c r="D261">
-        <v>149963314173.7081</v>
+        <v>158747722309.5433</v>
       </c>
     </row>
     <row r="262" spans="1:4">
       <c r="A262" s="2">
-        <v>37956</v>
+        <v>37987</v>
       </c>
       <c r="B262">
-        <v>1141285000000</v>
+        <v>1142941000000</v>
       </c>
       <c r="C262">
-        <v>0.1390956004061591</v>
+        <v>0.1355307383714627</v>
       </c>
       <c r="D262">
-        <v>158747722309.5433</v>
+        <v>154903637645.0179</v>
       </c>
     </row>
     <row r="263" spans="1:4">
       <c r="A263" s="2">
-        <v>37987</v>
+        <v>38018</v>
       </c>
       <c r="B263">
-        <v>1142941000000</v>
+        <v>1141447000000</v>
       </c>
       <c r="C263">
-        <v>0.1355307383714627</v>
+        <v>0.1353143352006712</v>
       </c>
       <c r="D263">
-        <v>154903637645.0179</v>
+        <v>154454141971.8005</v>
       </c>
     </row>
     <row r="264" spans="1:4">
       <c r="A264" s="2">
-        <v>38018</v>
+        <v>38047</v>
       </c>
       <c r="B264">
-        <v>1141447000000</v>
+        <v>1165434000000</v>
       </c>
       <c r="C264">
-        <v>0.1353143352006712</v>
+        <v>0.1327051954084002</v>
       </c>
       <c r="D264">
-        <v>154454141971.8005</v>
+        <v>154659146705.5935</v>
       </c>
     </row>
     <row r="265" spans="1:4">
       <c r="A265" s="2">
-        <v>38047</v>
+        <v>38078</v>
       </c>
       <c r="B265">
-        <v>1165434000000</v>
+        <v>1152565000000</v>
       </c>
       <c r="C265">
-        <v>0.1327051954084002</v>
+        <v>0.1308592216493496</v>
       </c>
       <c r="D265">
-        <v>154659146705.5935</v>
+        <v>150823758800.2827</v>
       </c>
     </row>
     <row r="266" spans="1:4">
       <c r="A266" s="2">
-        <v>38078</v>
+        <v>38108</v>
       </c>
       <c r="B266">
-        <v>1152565000000</v>
+        <v>1156039000000</v>
       </c>
       <c r="C266">
-        <v>0.1308592216493496</v>
+        <v>0.1340931947703654</v>
       </c>
       <c r="D266">
-        <v>150823758800.2827</v>
+        <v>155016962789.1385</v>
       </c>
     </row>
     <row r="267" spans="1:4">
       <c r="A267" s="2">
-        <v>38108</v>
+        <v>38139</v>
       </c>
       <c r="B267">
-        <v>1156039000000</v>
+        <v>1146407000000</v>
       </c>
       <c r="C267">
-        <v>0.1340931947703654</v>
+        <v>0.1330282552014048</v>
       </c>
       <c r="D267">
-        <v>155016962789.1385</v>
+        <v>152504522960.6769</v>
       </c>
     </row>
     <row r="268" spans="1:4">
       <c r="A268" s="2">
-        <v>38139</v>
+        <v>38169</v>
       </c>
       <c r="B268">
-        <v>1146407000000</v>
+        <v>1134922000000</v>
       </c>
       <c r="C268">
-        <v>0.1330282552014048</v>
+        <v>0.1303865962579047</v>
       </c>
       <c r="D268">
-        <v>152504522960.6769</v>
+        <v>147978616598.2137</v>
       </c>
     </row>
     <row r="269" spans="1:4">
       <c r="A269" s="2">
-        <v>38169</v>
+        <v>38200</v>
       </c>
       <c r="B269">
-        <v>1134922000000</v>
+        <v>1144971000000</v>
       </c>
       <c r="C269">
-        <v>0.1303865962579047</v>
+        <v>0.1333795715848161</v>
       </c>
       <c r="D269">
-        <v>147978616598.2137</v>
+        <v>152715741457.0384</v>
       </c>
     </row>
     <row r="270" spans="1:4">
       <c r="A270" s="2">
-        <v>38200</v>
+        <v>38231</v>
       </c>
       <c r="B270">
-        <v>1144971000000</v>
+        <v>1158562000000</v>
       </c>
       <c r="C270">
-        <v>0.1333795715848161</v>
+        <v>0.137421154612541</v>
       </c>
       <c r="D270">
-        <v>152715741457.0384</v>
+        <v>159210927730.2148</v>
       </c>
     </row>
     <row r="271" spans="1:4">
       <c r="A271" s="2">
-        <v>38231</v>
+        <v>38261</v>
       </c>
       <c r="B271">
-        <v>1158562000000</v>
+        <v>1150911000000</v>
       </c>
       <c r="C271">
-        <v>0.137421154612541</v>
+        <v>0.1414927484966395</v>
       </c>
       <c r="D271">
-        <v>159210927730.2148</v>
+        <v>162845560665.0159</v>
       </c>
     </row>
     <row r="272" spans="1:4">
       <c r="A272" s="2">
-        <v>38261</v>
+        <v>38292</v>
       </c>
       <c r="B272">
-        <v>1150911000000</v>
+        <v>1166940000000</v>
       </c>
       <c r="C272">
-        <v>0.1414927484966395</v>
+        <v>0.1487342713508047</v>
       </c>
       <c r="D272">
-        <v>162845560665.0159</v>
+        <v>173563970610.108</v>
       </c>
     </row>
     <row r="273" spans="1:4">
       <c r="A273" s="2">
-        <v>38292</v>
+        <v>38322</v>
       </c>
       <c r="B273">
-        <v>1166940000000</v>
+        <v>1167217000000</v>
       </c>
       <c r="C273">
-        <v>0.1487342713508047</v>
+        <v>0.1501478956772421</v>
       </c>
       <c r="D273">
-        <v>173563970610.108</v>
+        <v>175255176348.7035</v>
       </c>
     </row>
     <row r="274" spans="1:4">
       <c r="A274" s="2">
-        <v>38322</v>
+        <v>38353</v>
       </c>
       <c r="B274">
-        <v>1167217000000</v>
+        <v>1182178000000</v>
       </c>
       <c r="C274">
-        <v>0.1501478956772421</v>
+        <v>0.143110653157021</v>
       </c>
       <c r="D274">
-        <v>175255176348.7035</v>
+        <v>169182265727.8608</v>
       </c>
     </row>
     <row r="275" spans="1:4">
       <c r="A275" s="2">
-        <v>38353</v>
+        <v>38384</v>
       </c>
       <c r="B275">
-        <v>1182178000000</v>
+        <v>1193213000000</v>
       </c>
       <c r="C275">
-        <v>0.143110653157021</v>
+        <v>0.1460237726701907</v>
       </c>
       <c r="D275">
-        <v>169182265727.8608</v>
+        <v>174237463859.1163</v>
       </c>
     </row>
     <row r="276" spans="1:4">
       <c r="A276" s="2">
-        <v>38384</v>
+        <v>38412</v>
       </c>
       <c r="B276">
-        <v>1193213000000</v>
+        <v>1202546000000</v>
       </c>
       <c r="C276">
-        <v>0.1460237726701907</v>
+        <v>0.141468728337601</v>
       </c>
       <c r="D276">
-        <v>174237463859.1163</v>
+        <v>170122653387.4687</v>
       </c>
     </row>
     <row r="277" spans="1:4">
       <c r="A277" s="2">
-        <v>38412</v>
+        <v>38443</v>
       </c>
       <c r="B277">
-        <v>1202546000000</v>
+        <v>1204895000000</v>
       </c>
       <c r="C277">
-        <v>0.141468728337601</v>
+        <v>0.1402622904832036</v>
       </c>
       <c r="D277">
-        <v>170122653387.4687</v>
+        <v>169001332491.7596</v>
       </c>
     </row>
     <row r="278" spans="1:4">
       <c r="A278" s="2">
-        <v>38443</v>
+        <v>38473</v>
       </c>
       <c r="B278">
-        <v>1204895000000</v>
+        <v>1232347000000</v>
       </c>
       <c r="C278">
-        <v>0.1402622904832036</v>
+        <v>0.1344122153821339</v>
       </c>
       <c r="D278">
-        <v>169001332491.7596</v>
+        <v>165642490389.5266</v>
       </c>
     </row>
     <row r="279" spans="1:4">
       <c r="A279" s="2">
-        <v>38473</v>
+        <v>38504</v>
       </c>
       <c r="B279">
-        <v>1232347000000</v>
+        <v>1269278000000</v>
       </c>
       <c r="C279">
-        <v>0.1344122153821339</v>
+        <v>0.1281985539203118</v>
       </c>
       <c r="D279">
-        <v>165642490389.5266</v>
+        <v>162719604122.8655</v>
       </c>
     </row>
     <row r="280" spans="1:4">
       <c r="A280" s="2">
-        <v>38504</v>
+        <v>38534</v>
       </c>
       <c r="B280">
-        <v>1269278000000</v>
+        <v>1247684000000</v>
       </c>
       <c r="C280">
-        <v>0.1281985539203118</v>
+        <v>0.1289357642022744</v>
       </c>
       <c r="D280">
-        <v>162719604122.8655</v>
+        <v>160871090022.9506</v>
       </c>
     </row>
     <row r="281" spans="1:4">
       <c r="A281" s="2">
-        <v>38534</v>
+        <v>38565</v>
       </c>
       <c r="B281">
-        <v>1247684000000</v>
+        <v>1234266000000</v>
       </c>
       <c r="C281">
-        <v>0.1289357642022744</v>
+        <v>0.1323924642209365</v>
       </c>
       <c r="D281">
-        <v>160871090022.9506</v>
+        <v>163407517244.1184</v>
       </c>
     </row>
     <row r="282" spans="1:4">
       <c r="A282" s="2">
-        <v>38565</v>
+        <v>38596</v>
       </c>
       <c r="B282">
-        <v>1234266000000</v>
+        <v>1249624000000</v>
       </c>
       <c r="C282">
-        <v>0.1323924642209365</v>
+        <v>0.1292473924338577</v>
       </c>
       <c r="D282">
-        <v>163407517244.1184</v>
+        <v>161510643522.7669</v>
       </c>
     </row>
     <row r="283" spans="1:4">
       <c r="A283" s="2">
-        <v>38596</v>
+        <v>38626</v>
       </c>
       <c r="B283">
-        <v>1249624000000</v>
+        <v>1278403000000</v>
       </c>
       <c r="C283">
-        <v>0.1292473924338577</v>
+        <v>0.1257782529400667</v>
       </c>
       <c r="D283">
-        <v>161510643522.7669</v>
+        <v>160795295893.3401</v>
       </c>
     </row>
     <row r="284" spans="1:4">
       <c r="A284" s="2">
-        <v>38626</v>
+        <v>38657</v>
       </c>
       <c r="B284">
-        <v>1278403000000</v>
+        <v>1272808000000</v>
       </c>
       <c r="C284">
-        <v>0.1257782529400667</v>
+        <v>0.1238114104595879</v>
       </c>
       <c r="D284">
-        <v>160795295893.3401</v>
+        <v>157588153724.2472</v>
       </c>
     </row>
     <row r="285" spans="1:4">
       <c r="A285" s="2">
-        <v>38657</v>
+        <v>38687</v>
       </c>
       <c r="B285">
-        <v>1272808000000</v>
+        <v>1296915000000</v>
       </c>
       <c r="C285">
-        <v>0.1238114104595879</v>
+        <v>0.1259763164525069</v>
       </c>
       <c r="D285">
-        <v>157588153724.2472</v>
+        <v>163380574452.003</v>
       </c>
     </row>
     <row r="286" spans="1:4">
       <c r="A286" s="2">
-        <v>38687</v>
+        <v>38718</v>
       </c>
       <c r="B286">
-        <v>1296915000000</v>
+        <v>1324312000000</v>
       </c>
       <c r="C286">
-        <v>0.1259763164525069</v>
+        <v>0.1317644578551382</v>
       </c>
       <c r="D286">
-        <v>163380574452.003</v>
+        <v>174497252711.0537</v>
       </c>
     </row>
     <row r="287" spans="1:4">
       <c r="A287" s="2">
-        <v>38718</v>
+        <v>38749</v>
       </c>
       <c r="B287">
-        <v>1324312000000</v>
+        <v>1316408000000</v>
       </c>
       <c r="C287">
-        <v>0.1317644578551382</v>
+        <v>0.1264254469139549</v>
       </c>
       <c r="D287">
-        <v>174497252711.0537</v>
+        <v>166427469721.1055</v>
       </c>
     </row>
     <row r="288" spans="1:4">
       <c r="A288" s="2">
-        <v>38749</v>
+        <v>38777</v>
       </c>
       <c r="B288">
-        <v>1316408000000</v>
+        <v>1312677000000</v>
       </c>
       <c r="C288">
-        <v>0.1264254469139549</v>
+        <v>0.1283219340681903</v>
       </c>
       <c r="D288">
-        <v>166427469721.1055</v>
+        <v>168445251446.8298</v>
       </c>
     </row>
     <row r="289" spans="1:4">
       <c r="A289" s="2">
-        <v>38777</v>
+        <v>38808</v>
       </c>
       <c r="B289">
-        <v>1312677000000</v>
+        <v>1338016000000</v>
       </c>
       <c r="C289">
-        <v>0.1283219340681903</v>
+        <v>0.1359748718436833</v>
       </c>
       <c r="D289">
-        <v>168445251446.8298</v>
+        <v>181936554124.7977</v>
       </c>
     </row>
     <row r="290" spans="1:4">
       <c r="A290" s="2">
-        <v>38808</v>
+        <v>38838</v>
       </c>
       <c r="B290">
-        <v>1338016000000</v>
+        <v>1326782000000</v>
       </c>
       <c r="C290">
-        <v>0.1359748718436833</v>
+        <v>0.1382781603473547</v>
       </c>
       <c r="D290">
-        <v>181936554124.7977</v>
+        <v>183464974141.984</v>
       </c>
     </row>
     <row r="291" spans="1:4">
       <c r="A291" s="2">
-        <v>38838</v>
+        <v>38869</v>
       </c>
       <c r="B291">
-        <v>1326782000000</v>
+        <v>1359775000000</v>
       </c>
       <c r="C291">
-        <v>0.1382781603473547</v>
+        <v>0.1389718859874647</v>
       </c>
       <c r="D291">
-        <v>183464974141.984</v>
+        <v>188970496268.6049</v>
       </c>
     </row>
     <row r="292" spans="1:4">
       <c r="A292" s="2">
-        <v>38869</v>
+        <v>38899</v>
       </c>
       <c r="B292">
-        <v>1359775000000</v>
+        <v>1350041000000</v>
       </c>
       <c r="C292">
-        <v>0.1389718859874647</v>
+        <v>0.1387020264366062</v>
       </c>
       <c r="D292">
-        <v>188970496268.6049</v>
+        <v>187253422472.5023</v>
       </c>
     </row>
     <row r="293" spans="1:4">
       <c r="A293" s="2">
-        <v>38899</v>
+        <v>38930</v>
       </c>
       <c r="B293">
-        <v>1350041000000</v>
+        <v>1383208000000</v>
       </c>
       <c r="C293">
-        <v>0.1387020264366062</v>
+        <v>0.1380872158855533</v>
       </c>
       <c r="D293">
-        <v>187253422472.5023</v>
+        <v>191003341710.6244</v>
       </c>
     </row>
     <row r="294" spans="1:4">
       <c r="A294" s="2">
-        <v>38930</v>
+        <v>38961</v>
       </c>
       <c r="B294">
-        <v>1383208000000</v>
+        <v>1413386000000</v>
       </c>
       <c r="C294">
-        <v>0.1380872158855533</v>
+        <v>0.1365970932138564</v>
       </c>
       <c r="D294">
-        <v>191003341710.6244</v>
+        <v>193064419189.1596</v>
       </c>
     </row>
     <row r="295" spans="1:4">
       <c r="A295" s="2">
-        <v>38961</v>
+        <v>38991</v>
       </c>
       <c r="B295">
-        <v>1413386000000</v>
+        <v>1416864000000</v>
       </c>
       <c r="C295">
-        <v>0.1365970932138564</v>
+        <v>0.1385367745868141</v>
       </c>
       <c r="D295">
-        <v>193064419189.1596</v>
+        <v>196287768588.1717</v>
       </c>
     </row>
     <row r="296" spans="1:4">
       <c r="A296" s="2">
-        <v>38991</v>
+        <v>39022</v>
       </c>
       <c r="B296">
-        <v>1416864000000</v>
+        <v>1430398000000</v>
       </c>
       <c r="C296">
-        <v>0.1385367745868141</v>
+        <v>0.1461112491050686</v>
       </c>
       <c r="D296">
-        <v>196287768588.1717</v>
+        <v>208997238497.3919</v>
       </c>
     </row>
     <row r="297" spans="1:4">
       <c r="A297" s="2">
-        <v>39022</v>
+        <v>39052</v>
       </c>
       <c r="B297">
-        <v>1430398000000</v>
+        <v>1468209000000</v>
       </c>
       <c r="C297">
-        <v>0.1461112491050686</v>
+        <v>0.1461176539349484</v>
       </c>
       <c r="D297">
-        <v>208997238497.3919</v>
+        <v>214531254566.1767</v>
       </c>
     </row>
     <row r="298" spans="1:4">
       <c r="A298" s="2">
-        <v>39052</v>
+        <v>39083</v>
       </c>
       <c r="B298">
-        <v>1468209000000</v>
+        <v>1472034000000</v>
       </c>
       <c r="C298">
-        <v>0.1461176539349484</v>
+        <v>0.143959461015778</v>
       </c>
       <c r="D298">
-        <v>214531254566.1767</v>
+        <v>211913221236.8997</v>
       </c>
     </row>
     <row r="299" spans="1:4">
       <c r="A299" s="2">
-        <v>39083</v>
+        <v>39114</v>
       </c>
       <c r="B299">
-        <v>1472034000000</v>
+        <v>1457317000000</v>
       </c>
       <c r="C299">
-        <v>0.143959461015778</v>
+        <v>0.1430144587617808</v>
       </c>
       <c r="D299">
-        <v>211913221236.8997</v>
+        <v>208417401999.3421</v>
       </c>
     </row>
     <row r="300" spans="1:4">
       <c r="A300" s="2">
-        <v>39114</v>
+        <v>39142</v>
       </c>
       <c r="B300">
-        <v>1457317000000</v>
+        <v>1495732000000</v>
       </c>
       <c r="C300">
-        <v>0.1430144587617808</v>
+        <v>0.1433157532675992</v>
       </c>
       <c r="D300">
-        <v>208417401999.3421</v>
+        <v>214361958266.4527</v>
       </c>
     </row>
     <row r="301" spans="1:4">
       <c r="A301" s="2">
-        <v>39142</v>
+        <v>39173</v>
       </c>
       <c r="B301">
-        <v>1495732000000</v>
+        <v>1512648000000</v>
       </c>
       <c r="C301">
-        <v>0.1433157532675992</v>
+        <v>0.1492604146454319</v>
       </c>
       <c r="D301">
-        <v>214361958266.4527</v>
+        <v>225778467692.5833</v>
       </c>
     </row>
     <row r="302" spans="1:4">
       <c r="A302" s="2">
-        <v>39173</v>
+        <v>39203</v>
       </c>
       <c r="B302">
-        <v>1512648000000</v>
+        <v>1502632000000</v>
       </c>
       <c r="C302">
-        <v>0.1492604146454319</v>
+        <v>0.1446215254678506</v>
       </c>
       <c r="D302">
-        <v>225778467692.5833</v>
+        <v>217312932056.8073</v>
       </c>
     </row>
     <row r="303" spans="1:4">
       <c r="A303" s="2">
-        <v>39203</v>
+        <v>39234</v>
       </c>
       <c r="B303">
-        <v>1502632000000</v>
+        <v>1564788000000</v>
       </c>
       <c r="C303">
-        <v>0.1446215254678506</v>
+        <v>0.1466383165921255</v>
       </c>
       <c r="D303">
-        <v>217312932056.8073</v>
+        <v>229457878143.5589</v>
       </c>
     </row>
     <row r="304" spans="1:4">
       <c r="A304" s="2">
-        <v>39234</v>
+        <v>39264</v>
       </c>
       <c r="B304">
-        <v>1564788000000</v>
+        <v>1528577000000</v>
       </c>
       <c r="C304">
-        <v>0.1466383165921255</v>
+        <v>0.1485530928753937</v>
       </c>
       <c r="D304">
-        <v>229457878143.5589</v>
+        <v>227074841048.1906</v>
       </c>
     </row>
     <row r="305" spans="1:4">
       <c r="A305" s="2">
-        <v>39264</v>
+        <v>39295</v>
       </c>
       <c r="B305">
-        <v>1528577000000</v>
+        <v>1562807000000</v>
       </c>
       <c r="C305">
-        <v>0.1485530928753937</v>
+        <v>0.1451694853741743</v>
       </c>
       <c r="D305">
-        <v>227074841048.1906</v>
+        <v>226871887929.1573</v>
       </c>
     </row>
     <row r="306" spans="1:4">
       <c r="A306" s="2">
-        <v>39295</v>
+        <v>39326</v>
       </c>
       <c r="B306">
-        <v>1562807000000</v>
+        <v>1582639000000</v>
       </c>
       <c r="C306">
-        <v>0.1451694853741743</v>
+        <v>0.1554363876583508</v>
       </c>
       <c r="D306">
-        <v>226871887929.1573</v>
+        <v>245999689127.2246</v>
       </c>
     </row>
     <row r="307" spans="1:4">
       <c r="A307" s="2">
-        <v>39326</v>
+        <v>39356</v>
       </c>
       <c r="B307">
-        <v>1582639000000</v>
+        <v>1583783000000</v>
       </c>
       <c r="C307">
-        <v>0.1554363876583508</v>
+        <v>0.1575646803012637</v>
       </c>
       <c r="D307">
-        <v>245999689127.2246</v>
+        <v>249548262061.5763</v>
       </c>
     </row>
     <row r="308" spans="1:4">
       <c r="A308" s="2">
-        <v>39356</v>
+        <v>39387</v>
       </c>
       <c r="B308">
-        <v>1583783000000</v>
+        <v>1585362000000</v>
       </c>
       <c r="C308">
-        <v>0.1575646803012637</v>
+        <v>0.1565435190983093</v>
       </c>
       <c r="D308">
-        <v>249548262061.5763</v>
+        <v>248178146524.7339</v>
       </c>
     </row>
     <row r="309" spans="1:4">
       <c r="A309" s="2">
-        <v>39387</v>
+        <v>39417</v>
       </c>
       <c r="B309">
-        <v>1585362000000</v>
+        <v>1639424000000</v>
       </c>
       <c r="C309">
-        <v>0.1565435190983093</v>
+        <v>0.154640769492469</v>
       </c>
       <c r="D309">
-        <v>248178146524.7339</v>
+        <v>253521788884.4215</v>
       </c>
     </row>
     <row r="310" spans="1:4">
       <c r="A310" s="2">
-        <v>39417</v>
+        <v>39448</v>
       </c>
       <c r="B310">
-        <v>1639424000000</v>
+        <v>1647669000000</v>
       </c>
       <c r="C310">
-        <v>0.154640769492469</v>
+        <v>0.1570302440249992</v>
       </c>
       <c r="D310">
-        <v>253521788884.4215</v>
+        <v>258733865142.4264</v>
       </c>
     </row>
     <row r="311" spans="1:4">
       <c r="A311" s="2">
-        <v>39448</v>
+        <v>39479</v>
       </c>
       <c r="B311">
-        <v>1647669000000</v>
+        <v>1635309000000</v>
       </c>
       <c r="C311">
-        <v>0.1570302440249992</v>
+        <v>0.1623086786450471</v>
       </c>
       <c r="D311">
-        <v>258733865142.4264</v>
+        <v>265424842966.3534</v>
       </c>
     </row>
     <row r="312" spans="1:4">
       <c r="A312" s="2">
-        <v>39479</v>
+        <v>39508</v>
       </c>
       <c r="B312">
-        <v>1635309000000</v>
+        <v>1639881000000</v>
       </c>
       <c r="C312">
-        <v>0.1623086786450471</v>
+        <v>0.1681378730559059</v>
       </c>
       <c r="D312">
-        <v>265424842966.3534</v>
+        <v>275726103404.7919</v>
       </c>
     </row>
     <row r="313" spans="1:4">
       <c r="A313" s="2">
-        <v>39508</v>
+        <v>39539</v>
       </c>
       <c r="B313">
-        <v>1639881000000</v>
+        <v>1658874000000</v>
       </c>
       <c r="C313">
-        <v>0.1681378730559059</v>
+        <v>0.1671975187888212</v>
       </c>
       <c r="D313">
-        <v>275726103404.7919</v>
+        <v>277359616783.2869</v>
       </c>
     </row>
     <row r="314" spans="1:4">
       <c r="A314" s="2">
-        <v>39539</v>
+        <v>39569</v>
       </c>
       <c r="B314">
-        <v>1658874000000</v>
+        <v>1665238000000</v>
       </c>
       <c r="C314">
-        <v>0.1671975187888212</v>
+        <v>0.1667261323205277</v>
       </c>
       <c r="D314">
-        <v>277359616783.2869</v>
+        <v>277638691133.1708</v>
       </c>
     </row>
     <row r="315" spans="1:4">
       <c r="A315" s="2">
-        <v>39569</v>
+        <v>39600</v>
       </c>
       <c r="B315">
-        <v>1665238000000</v>
+        <v>1681350000000</v>
       </c>
       <c r="C315">
-        <v>0.1667261323205277</v>
+        <v>0.1664115023630433</v>
       </c>
       <c r="D315">
-        <v>277638691133.1708</v>
+        <v>279795979498.1029</v>
       </c>
     </row>
     <row r="316" spans="1:4">
       <c r="A316" s="2">
-        <v>39600</v>
+        <v>39630</v>
       </c>
       <c r="B316">
-        <v>1681350000000</v>
+        <v>1698412000000</v>
       </c>
       <c r="C316">
-        <v>0.1664115023630433</v>
+        <v>0.1653493832468005</v>
       </c>
       <c r="D316">
-        <v>279795979498.1029</v>
+        <v>280831376698.965</v>
       </c>
     </row>
     <row r="317" spans="1:4">
       <c r="A317" s="2">
-        <v>39630</v>
+        <v>39661</v>
       </c>
       <c r="B317">
-        <v>1698412000000</v>
+        <v>1704771000000</v>
       </c>
       <c r="C317">
-        <v>0.1653493832468005</v>
+        <v>0.1550724188195887</v>
       </c>
       <c r="D317">
-        <v>280831376698.965</v>
+        <v>264362962503.4891</v>
       </c>
     </row>
     <row r="318" spans="1:4">
       <c r="A318" s="2">
-        <v>39661</v>
+        <v>39692</v>
       </c>
       <c r="B318">
-        <v>1704771000000</v>
+        <v>1728656000000</v>
       </c>
       <c r="C318">
-        <v>0.1550724188195887</v>
+        <v>0.144654997830175</v>
       </c>
       <c r="D318">
-        <v>264362962503.4891</v>
+        <v>250058729929.119</v>
       </c>
     </row>
     <row r="319" spans="1:4">
       <c r="A319" s="2">
-        <v>39692</v>
+        <v>39722</v>
       </c>
       <c r="B319">
-        <v>1728656000000</v>
+        <v>1732394000000</v>
       </c>
       <c r="C319">
-        <v>0.144654997830175</v>
+        <v>0.1293440188738792</v>
       </c>
       <c r="D319">
-        <v>250058729929.119</v>
+        <v>224074802232.9951</v>
       </c>
     </row>
     <row r="320" spans="1:4">
       <c r="A320" s="2">
-        <v>39722</v>
+        <v>39753</v>
       </c>
       <c r="B320">
-        <v>1732394000000</v>
+        <v>1759008000000</v>
       </c>
       <c r="C320">
-        <v>0.1293440188738792</v>
+        <v>0.1236469927814886</v>
       </c>
       <c r="D320">
-        <v>224074802232.9951</v>
+        <v>217496049478.5806</v>
       </c>
     </row>
     <row r="321" spans="1:4">
       <c r="A321" s="2">
-        <v>39753</v>
+        <v>39783</v>
       </c>
       <c r="B321">
-        <v>1759008000000</v>
+        <v>1859493000000</v>
       </c>
       <c r="C321">
-        <v>0.1236469927814886</v>
+        <v>0.1276161306789178</v>
       </c>
       <c r="D321">
-        <v>217496049478.5806</v>
+        <v>237301301684.5329</v>
       </c>
     </row>
     <row r="322" spans="1:4">
       <c r="A322" s="2">
-        <v>39783</v>
+        <v>39814</v>
       </c>
       <c r="B322">
-        <v>1859493000000</v>
+        <v>1853010000000</v>
       </c>
       <c r="C322">
-        <v>0.1276161306789178</v>
+        <v>0.119624808749837</v>
       </c>
       <c r="D322">
-        <v>237301301684.5329</v>
+        <v>221665966861.5355</v>
       </c>
     </row>
     <row r="323" spans="1:4">
       <c r="A323" s="2">
-        <v>39814</v>
+        <v>39845</v>
       </c>
       <c r="B323">
-        <v>1853010000000</v>
+        <v>1806389000000</v>
       </c>
       <c r="C323">
-        <v>0.119624808749837</v>
+        <v>0.1111064199511576</v>
       </c>
       <c r="D323">
-        <v>221665966861.5355</v>
+        <v>200701414829.1517</v>
       </c>
     </row>
     <row r="324" spans="1:4">
       <c r="A324" s="2">
-        <v>39845</v>
+        <v>39873</v>
       </c>
       <c r="B324">
-        <v>1806389000000</v>
+        <v>1822861000000</v>
       </c>
       <c r="C324">
-        <v>0.1111064199511576</v>
+        <v>0.1213196177461484</v>
       </c>
       <c r="D324">
-        <v>200701414829.1517</v>
+        <v>221148799724.3618</v>
       </c>
     </row>
     <row r="325" spans="1:4">
       <c r="A325" s="2">
-        <v>39873</v>
+        <v>39904</v>
       </c>
       <c r="B325">
-        <v>1822861000000</v>
+        <v>1818228000000</v>
       </c>
       <c r="C325">
-        <v>0.1213196177461484</v>
+        <v>0.1243751702385143</v>
       </c>
       <c r="D325">
-        <v>221148799724.3618</v>
+        <v>226142417032.4333</v>
       </c>
     </row>
     <row r="326" spans="1:4">
       <c r="A326" s="2">
-        <v>39904</v>
+        <v>39934</v>
       </c>
       <c r="B326">
-        <v>1818228000000</v>
+        <v>1815725000000</v>
       </c>
       <c r="C326">
-        <v>0.1243751702385143</v>
+        <v>0.132173205054832</v>
       </c>
       <c r="D326">
-        <v>226142417032.4333</v>
+        <v>239990192748.1849</v>
       </c>
     </row>
     <row r="327" spans="1:4">
       <c r="A327" s="2">
-        <v>39934</v>
+        <v>39965</v>
       </c>
       <c r="B327">
-        <v>1815725000000</v>
+        <v>1844614000000</v>
       </c>
       <c r="C327">
-        <v>0.132173205054832</v>
+        <v>0.1299209171377383</v>
       </c>
       <c r="D327">
-        <v>239990192748.1849</v>
+        <v>239653942645.1119</v>
       </c>
     </row>
     <row r="328" spans="1:4">
       <c r="A328" s="2">
-        <v>39965</v>
+        <v>39995</v>
       </c>
       <c r="B328">
-        <v>1844614000000</v>
+        <v>1820464000000</v>
       </c>
       <c r="C328">
-        <v>0.1299209171377383</v>
+        <v>0.1386699059956707</v>
       </c>
       <c r="D328">
-        <v>239653942645.1119</v>
+        <v>252443571748.5027</v>
       </c>
     </row>
     <row r="329" spans="1:4">
       <c r="A329" s="2">
-        <v>39995</v>
+        <v>40026</v>
       </c>
       <c r="B329">
-        <v>1820464000000</v>
+        <v>1841487000000</v>
       </c>
       <c r="C329">
-        <v>0.1386699059956707</v>
+        <v>0.1405700678531717</v>
       </c>
       <c r="D329">
-        <v>252443571748.5027</v>
+        <v>258857952540.7337</v>
       </c>
     </row>
     <row r="330" spans="1:4">
       <c r="A330" s="2">
-        <v>40026</v>
+        <v>40057</v>
       </c>
       <c r="B330">
-        <v>1841487000000</v>
+        <v>1841834000000</v>
       </c>
       <c r="C330">
-        <v>0.1405700678531717</v>
+        <v>0.1438230171480183</v>
       </c>
       <c r="D330">
-        <v>258857952540.7337</v>
+        <v>264898122965.8032</v>
       </c>
     </row>
     <row r="331" spans="1:4">
       <c r="A331" s="2">
-        <v>40057</v>
+        <v>40087</v>
       </c>
       <c r="B331">
-        <v>1841834000000</v>
+        <v>1844029000000</v>
       </c>
       <c r="C331">
-        <v>0.1438230171480183</v>
+        <v>0.1410399439225183</v>
       </c>
       <c r="D331">
-        <v>264898122965.8032</v>
+        <v>260081746751.4975</v>
       </c>
     </row>
     <row r="332" spans="1:4">
       <c r="A332" s="2">
-        <v>40087</v>
+        <v>40118</v>
       </c>
       <c r="B332">
-        <v>1844029000000</v>
+        <v>1848196000000</v>
       </c>
       <c r="C332">
-        <v>0.1410399439225183</v>
+        <v>0.143480462982758</v>
       </c>
       <c r="D332">
-        <v>260081746751.4975</v>
+        <v>265180017762.8813</v>
       </c>
     </row>
     <row r="333" spans="1:4">
       <c r="A333" s="2">
-        <v>40118</v>
+        <v>40148</v>
       </c>
       <c r="B333">
-        <v>1848196000000</v>
+        <v>1911694000000</v>
       </c>
       <c r="C333">
-        <v>0.143480462982758</v>
+        <v>0.1398306092000151</v>
       </c>
       <c r="D333">
-        <v>265180017762.8813</v>
+        <v>267313336624.0137</v>
       </c>
     </row>
     <row r="334" spans="1:4">
       <c r="A334" s="2">
-        <v>40148</v>
+        <v>40179</v>
       </c>
       <c r="B334">
-        <v>1911694000000</v>
+        <v>1910380000000</v>
       </c>
       <c r="C334">
-        <v>0.1398306092000151</v>
+        <v>0.1353859650785442</v>
       </c>
       <c r="D334">
-        <v>267313336624.0137</v>
+        <v>258638639966.7492</v>
       </c>
     </row>
     <row r="335" spans="1:4">
       <c r="A335" s="2">
-        <v>40179</v>
+        <v>40210</v>
       </c>
       <c r="B335">
-        <v>1910380000000</v>
+        <v>1890845000000</v>
       </c>
       <c r="C335">
-        <v>0.1353859650785442</v>
+        <v>0.1402801956628169</v>
       </c>
       <c r="D335">
-        <v>258638639966.7492</v>
+        <v>265248106568.0591</v>
       </c>
     </row>
     <row r="336" spans="1:4">
       <c r="A336" s="2">
-        <v>40210</v>
+        <v>40238</v>
       </c>
       <c r="B336">
-        <v>1890845000000</v>
+        <v>1897152000000</v>
       </c>
       <c r="C336">
-        <v>0.1402801956628169</v>
+        <v>0.1386214649793662</v>
       </c>
       <c r="D336">
-        <v>265248106568.0591</v>
+        <v>262985989528.5345</v>
       </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337" s="2">
-        <v>40238</v>
+        <v>40269</v>
       </c>
       <c r="B337">
-        <v>1897152000000</v>
+        <v>1904391000000</v>
       </c>
       <c r="C337">
-        <v>0.1386214649793662</v>
+        <v>0.1381253625790768</v>
       </c>
       <c r="D337">
-        <v>262985989528.5345</v>
+        <v>263044697367.3306</v>
       </c>
     </row>
     <row r="338" spans="1:4">
       <c r="A338" s="2">
-        <v>40269</v>
+        <v>40299</v>
       </c>
       <c r="B338">
-        <v>1904391000000</v>
+        <v>1888615000000</v>
       </c>
       <c r="C338">
-        <v>0.1381253625790768</v>
+        <v>0.1282692628365465</v>
       </c>
       <c r="D338">
-        <v>263044697367.3306</v>
+        <v>242251253832.0442</v>
       </c>
     </row>
     <row r="339" spans="1:4">
       <c r="A339" s="2">
-        <v>40299</v>
+        <v>40330</v>
       </c>
       <c r="B339">
-        <v>1888615000000</v>
+        <v>1923549000000</v>
       </c>
       <c r="C339">
-        <v>0.1282692628365465</v>
+        <v>0.1284615572366891</v>
       </c>
       <c r="D339">
-        <v>242251253832.0442</v>
+        <v>247102099961.0761</v>
       </c>
     </row>
     <row r="340" spans="1:4">
       <c r="A340" s="2">
-        <v>40330</v>
+        <v>40360</v>
       </c>
       <c r="B340">
-        <v>1923549000000</v>
+        <v>1932649000000</v>
       </c>
       <c r="C340">
-        <v>0.1284615572366891</v>
+        <v>0.1386097442650218</v>
       </c>
       <c r="D340">
-        <v>247102099961.0761</v>
+        <v>267883983644.0501</v>
       </c>
     </row>
     <row r="341" spans="1:4">
       <c r="A341" s="2">
-        <v>40360</v>
+        <v>40391</v>
       </c>
       <c r="B341">
-        <v>1932649000000</v>
+        <v>1915269000000</v>
       </c>
       <c r="C341">
-        <v>0.1386097442650218</v>
+        <v>0.135451799477156</v>
       </c>
       <c r="D341">
-        <v>267883983644.0501</v>
+        <v>259426632532.8132</v>
       </c>
     </row>
     <row r="342" spans="1:4">
       <c r="A342" s="2">
-        <v>40391</v>
+        <v>40422</v>
       </c>
       <c r="B342">
-        <v>1915269000000</v>
+        <v>1938219000000</v>
       </c>
       <c r="C342">
-        <v>0.135451799477156</v>
+        <v>0.1484208026597008</v>
       </c>
       <c r="D342">
-        <v>259426632532.8132</v>
+        <v>287672019710.2826</v>
       </c>
     </row>
     <row r="343" spans="1:4">
       <c r="A343" s="2">
-        <v>40422</v>
+        <v>40452</v>
       </c>
       <c r="B343">
-        <v>1938219000000</v>
+        <v>1967820000000</v>
       </c>
       <c r="C343">
-        <v>0.1484208026597008</v>
+        <v>0.1496244426489511</v>
       </c>
       <c r="D343">
-        <v>287672019710.2826</v>
+        <v>294433970733.459</v>
       </c>
     </row>
     <row r="344" spans="1:4">
       <c r="A344" s="2">
-        <v>40452</v>
+        <v>40483</v>
       </c>
       <c r="B344">
-        <v>1967820000000</v>
+        <v>1963638000000</v>
       </c>
       <c r="C344">
-        <v>0.1496244426489511</v>
+        <v>0.1423305199333893</v>
       </c>
       <c r="D344">
-        <v>294433970733.459</v>
+        <v>279485617500.9608</v>
       </c>
     </row>
     <row r="345" spans="1:4">
       <c r="A345" s="2">
-        <v>40483</v>
+        <v>40513</v>
       </c>
       <c r="B345">
-        <v>1963638000000</v>
+        <v>2007359000000</v>
       </c>
       <c r="C345">
-        <v>0.1423305199333893</v>
+        <v>0.1486966736554103</v>
       </c>
       <c r="D345">
-        <v>279485617500.9608</v>
+        <v>298487606132.2508</v>
       </c>
     </row>
     <row r="346" spans="1:4">
       <c r="A346" s="2">
-        <v>40513</v>
+        <v>40544</v>
       </c>
       <c r="B346">
-        <v>2007359000000</v>
+        <v>2003040000000</v>
       </c>
       <c r="C346">
-        <v>0.1486966736554103</v>
+        <v>0.1551662606482846</v>
       </c>
       <c r="D346">
-        <v>298487606132.2508</v>
+        <v>310804226728.9401</v>
       </c>
     </row>
     <row r="347" spans="1:4">
       <c r="A347" s="2">
-        <v>40544</v>
+        <v>40575</v>
       </c>
       <c r="B347">
-        <v>2003040000000</v>
+        <v>1959126000000</v>
       </c>
       <c r="C347">
-        <v>0.1551662606482846</v>
+        <v>0.1582078217947095</v>
       </c>
       <c r="D347">
-        <v>310804226728.9401</v>
+        <v>309949057081.3821</v>
       </c>
     </row>
     <row r="348" spans="1:4">
       <c r="A348" s="2">
-        <v>40575</v>
+        <v>40603</v>
       </c>
       <c r="B348">
-        <v>1959126000000</v>
+        <v>1989081000000</v>
       </c>
       <c r="C348">
-        <v>0.1582078217947095</v>
+        <v>0.1581953079271669</v>
       </c>
       <c r="D348">
-        <v>309949057081.3821</v>
+        <v>314663281287.077</v>
       </c>
     </row>
     <row r="349" spans="1:4">
       <c r="A349" s="2">
-        <v>40603</v>
+        <v>40634</v>
       </c>
       <c r="B349">
-        <v>1989081000000</v>
+        <v>1982383000000</v>
       </c>
       <c r="C349">
-        <v>0.1581953079271669</v>
+        <v>0.1655738790648387</v>
       </c>
       <c r="D349">
-        <v>314663281287.077</v>
+        <v>328230843102.1922</v>
       </c>
     </row>
     <row r="350" spans="1:4">
       <c r="A350" s="2">
-        <v>40634</v>
+        <v>40664</v>
       </c>
       <c r="B350">
-        <v>1982383000000</v>
+        <v>1960772000000</v>
       </c>
       <c r="C350">
-        <v>0.1655738790648387</v>
+        <v>0.1621349935956677</v>
       </c>
       <c r="D350">
-        <v>328230843102.1922</v>
+        <v>317909755662.5646</v>
       </c>
     </row>
     <row r="351" spans="1:4">
       <c r="A351" s="2">
-        <v>40664</v>
+        <v>40695</v>
       </c>
       <c r="B351">
-        <v>1960772000000</v>
+        <v>2011341000000</v>
       </c>
       <c r="C351">
-        <v>0.1621349935956677</v>
+        <v>0.1580902695439096</v>
       </c>
       <c r="D351">
-        <v>317909755662.5646</v>
+        <v>317973440834.7166</v>
       </c>
     </row>
     <row r="352" spans="1:4">
       <c r="A352" s="2">
-        <v>40695</v>
+        <v>40725</v>
       </c>
       <c r="B352">
-        <v>2011341000000</v>
+        <v>1989856000000</v>
       </c>
       <c r="C352">
-        <v>0.1580902695439096</v>
+        <v>0.1591723040191007</v>
       </c>
       <c r="D352">
-        <v>317973440834.7166</v>
+        <v>316729964186.2316</v>
       </c>
     </row>
     <row r="353" spans="1:4">
       <c r="A353" s="2">
-        <v>40725</v>
+        <v>40756</v>
       </c>
       <c r="B353">
-        <v>1989856000000</v>
+        <v>2016768000000</v>
       </c>
       <c r="C353">
-        <v>0.1591723040191007</v>
+        <v>0.1576988582602662</v>
       </c>
       <c r="D353">
-        <v>316729964186.2316</v>
+        <v>318042010975.8405</v>
       </c>
     </row>
     <row r="354" spans="1:4">
       <c r="A354" s="2">
-        <v>40756</v>
+        <v>40787</v>
       </c>
       <c r="B354">
-        <v>2016768000000</v>
+        <v>2064662000000</v>
       </c>
       <c r="C354">
-        <v>0.1576988582602662</v>
+        <v>0.1457109968089292</v>
       </c>
       <c r="D354">
-        <v>318042010975.8405</v>
+        <v>300843958093.5173</v>
       </c>
     </row>
     <row r="355" spans="1:4">
       <c r="A355" s="2">
-        <v>40787</v>
+        <v>40817</v>
       </c>
       <c r="B355">
-        <v>2064662000000</v>
+        <v>2075646000000</v>
       </c>
       <c r="C355">
-        <v>0.1457109968089292</v>
+        <v>0.1537893700787402</v>
       </c>
       <c r="D355">
-        <v>300843958093.5173</v>
+        <v>319212290846.4567</v>
       </c>
     </row>
     <row r="356" spans="1:4">
       <c r="A356" s="2">
-        <v>40817</v>
+        <v>40848</v>
       </c>
       <c r="B356">
-        <v>2075646000000</v>
+        <v>2079009000000</v>
       </c>
       <c r="C356">
-        <v>0.1537893700787402</v>
+        <v>0.1479246176148635</v>
       </c>
       <c r="D356">
-        <v>319212290846.4567</v>
+        <v>307536611342.8597</v>
       </c>
     </row>
     <row r="357" spans="1:4">
       <c r="A357" s="2">
-        <v>40848</v>
+        <v>40878</v>
       </c>
       <c r="B357">
-        <v>2079009000000</v>
+        <v>2131071000000</v>
       </c>
       <c r="C357">
-        <v>0.1479246176148635</v>
+        <v>0.1455116918644413</v>
       </c>
       <c r="D357">
-        <v>307536611342.8597</v>
+        <v>310095746693.2468</v>
       </c>
     </row>
     <row r="358" spans="1:4">
       <c r="A358" s="2">
-        <v>40878</v>
+        <v>40909</v>
       </c>
       <c r="B358">
-        <v>2131071000000</v>
+        <v>2178811000000</v>
       </c>
       <c r="C358">
-        <v>0.1455116918644413</v>
+        <v>0.1471085808435206</v>
       </c>
       <c r="D358">
-        <v>310095746693.2468</v>
+        <v>320521794136.252</v>
       </c>
     </row>
     <row r="359" spans="1:4">
       <c r="A359" s="2">
-        <v>40909</v>
+        <v>40940</v>
       </c>
       <c r="B359">
-        <v>2178811000000</v>
+        <v>2152416000000</v>
       </c>
       <c r="C359">
-        <v>0.1471085808435206</v>
+        <v>0.1511053355293976</v>
       </c>
       <c r="D359">
-        <v>320521794136.252</v>
+        <v>325241541878.8438</v>
       </c>
     </row>
     <row r="360" spans="1:4">
       <c r="A360" s="2">
-        <v>40940</v>
+        <v>40969</v>
       </c>
       <c r="B360">
-        <v>2152416000000</v>
+        <v>2167952000000</v>
       </c>
       <c r="C360">
-        <v>0.1511053355293976</v>
+        <v>0.1514440187184807</v>
       </c>
       <c r="D360">
-        <v>325241541878.8438</v>
+        <v>328323363268.7677</v>
       </c>
     </row>
     <row r="361" spans="1:4">
       <c r="A361" s="2">
-        <v>40969</v>
+        <v>41000</v>
       </c>
       <c r="B361">
-        <v>2167952000000</v>
+        <v>2145844000000</v>
       </c>
       <c r="C361">
-        <v>0.1514440187184807</v>
+        <v>0.1487984524960941</v>
       </c>
       <c r="D361">
-        <v>328323363268.7677</v>
+        <v>319298266498.0285</v>
       </c>
     </row>
     <row r="362" spans="1:4">
       <c r="A362" s="2">
-        <v>41000</v>
+        <v>41030</v>
       </c>
       <c r="B362">
-        <v>2145844000000</v>
+        <v>2105771000000</v>
       </c>
       <c r="C362">
-        <v>0.1487984524960941</v>
+        <v>0.1376329878745338</v>
       </c>
       <c r="D362">
-        <v>319298266498.0285</v>
+        <v>289823554509.5449</v>
       </c>
     </row>
     <row r="363" spans="1:4">
       <c r="A363" s="2">
-        <v>41030</v>
+        <v>41061</v>
       </c>
       <c r="B363">
-        <v>2105771000000</v>
+        <v>2167991000000</v>
       </c>
       <c r="C363">
-        <v>0.1376329878745338</v>
+        <v>0.1446926727630513</v>
       </c>
       <c r="D363">
-        <v>289823554509.5449</v>
+        <v>313692412316.2403</v>
       </c>
     </row>
     <row r="364" spans="1:4">
       <c r="A364" s="2">
-        <v>41061</v>
+        <v>41091</v>
       </c>
       <c r="B364">
-        <v>2167991000000</v>
+        <v>2146292000000</v>
       </c>
       <c r="C364">
-        <v>0.1446926727630513</v>
+        <v>0.1471475448432143</v>
       </c>
       <c r="D364">
-        <v>313692412316.2403</v>
+        <v>315821598316.6321</v>
       </c>
     </row>
     <row r="365" spans="1:4">
       <c r="A365" s="2">
-        <v>41091</v>
+        <v>41122</v>
       </c>
       <c r="B365">
-        <v>2146292000000</v>
+        <v>2154752000000</v>
       </c>
       <c r="C365">
-        <v>0.1471475448432143</v>
+        <v>0.151014059408931</v>
       </c>
       <c r="D365">
-        <v>315821598316.6321</v>
+        <v>325397846539.5128</v>
       </c>
     </row>
     <row r="366" spans="1:4">
       <c r="A366" s="2">
-        <v>41122</v>
+        <v>41153</v>
       </c>
       <c r="B366">
-        <v>2154752000000</v>
+        <v>2219458000000</v>
       </c>
       <c r="C366">
-        <v>0.151014059408931</v>
+        <v>0.1523855965134176</v>
       </c>
       <c r="D366">
-        <v>325397846539.5128</v>
+        <v>338213431266.4767</v>
       </c>
     </row>
     <row r="367" spans="1:4">
       <c r="A367" s="2">
-        <v>41153</v>
+        <v>41183</v>
       </c>
       <c r="B367">
-        <v>2219458000000</v>
+        <v>2207863000000</v>
       </c>
       <c r="C367">
-        <v>0.1523855965134176</v>
+        <v>0.1507454361819196</v>
       </c>
       <c r="D367">
-        <v>338213431266.4767</v>
+        <v>332825270964.9216</v>
       </c>
     </row>
     <row r="368" spans="1:4">
       <c r="A368" s="2">
-        <v>41183</v>
+        <v>41214</v>
       </c>
       <c r="B368">
-        <v>2207863000000</v>
+        <v>2193213000000</v>
       </c>
       <c r="C368">
-        <v>0.1507454361819196</v>
+        <v>0.1501742772487472</v>
       </c>
       <c r="D368">
-        <v>332825270964.9216</v>
+        <v>329364177127.5566</v>
       </c>
     </row>
     <row r="369" spans="1:4">
       <c r="A369" s="2">
-        <v>41214</v>
+        <v>41244</v>
       </c>
       <c r="B369">
-        <v>2193213000000</v>
+        <v>2258026000000</v>
       </c>
       <c r="C369">
-        <v>0.1501742772487472</v>
+        <v>0.1536759282026063</v>
       </c>
       <c r="D369">
-        <v>329364177127.5566</v>
+        <v>347004241455.6184</v>
       </c>
     </row>
     <row r="370" spans="1:4">
       <c r="A370" s="2">
-        <v>41244</v>
+        <v>41275</v>
       </c>
       <c r="B370">
-        <v>2258026000000</v>
+        <v>2253474000000</v>
       </c>
       <c r="C370">
-        <v>0.1536759282026063</v>
+        <v>0.1572067504578647</v>
       </c>
       <c r="D370">
-        <v>347004241455.6184</v>
+        <v>354261324781.2861</v>
       </c>
     </row>
     <row r="371" spans="1:4">
       <c r="A371" s="2">
-        <v>41275</v>
+        <v>41306</v>
       </c>
       <c r="B371">
-        <v>2253474000000</v>
+        <v>2212071000000</v>
       </c>
       <c r="C371">
-        <v>0.1572067504578647</v>
+        <v>0.154719725217768</v>
       </c>
       <c r="D371">
-        <v>354261324781.2861</v>
+        <v>342251017282.1933</v>
       </c>
     </row>
     <row r="372" spans="1:4">
       <c r="A372" s="2">
-        <v>41306</v>
+        <v>41334</v>
       </c>
       <c r="B372">
-        <v>2212071000000</v>
+        <v>2270214000000</v>
       </c>
       <c r="C372">
-        <v>0.154719725217768</v>
+        <v>0.1534942976868409</v>
       </c>
       <c r="D372">
-        <v>342251017282.1933</v>
+        <v>348464903528.8339</v>
       </c>
     </row>
     <row r="373" spans="1:4">
       <c r="A373" s="2">
-        <v>41334</v>
+        <v>41365</v>
       </c>
       <c r="B373">
-        <v>2270214000000</v>
+        <v>2245340000000</v>
       </c>
       <c r="C373">
-        <v>0.1534942976868409</v>
+        <v>0.1543066999969139</v>
       </c>
       <c r="D373">
-        <v>348464903528.8339</v>
+        <v>346471005771.0706</v>
       </c>
     </row>
     <row r="374" spans="1:4">
       <c r="A374" s="2">
-        <v>41365</v>
+        <v>41395</v>
       </c>
       <c r="B374">
-        <v>2245340000000</v>
+        <v>2229984000000</v>
       </c>
       <c r="C374">
-        <v>0.1543066999969139</v>
+        <v>0.1512401693889897</v>
       </c>
       <c r="D374">
-        <v>346471005771.0706</v>
+        <v>337263157894.7368</v>
       </c>
     </row>
     <row r="375" spans="1:4">
       <c r="A375" s="2">
-        <v>41395</v>
+        <v>41426</v>
       </c>
       <c r="B375">
-        <v>2229984000000</v>
+        <v>2268611000000</v>
       </c>
       <c r="C375">
-        <v>0.1512401693889897</v>
+        <v>0.149438857091621</v>
       </c>
       <c r="D375">
-        <v>337263157894.7368</v>
+        <v>339018635025.4793</v>
       </c>
     </row>
     <row r="376" spans="1:4">
       <c r="A376" s="2">
-        <v>41426</v>
+        <v>41456</v>
       </c>
       <c r="B376">
-        <v>2268611000000</v>
+        <v>2249293000000</v>
       </c>
       <c r="C376">
-        <v>0.149438857091621</v>
+        <v>0.1535529857610316</v>
       </c>
       <c r="D376">
-        <v>339018635025.4793</v>
+        <v>345385656001.3881</v>
       </c>
     </row>
     <row r="377" spans="1:4">
       <c r="A377" s="2">
-        <v>41456</v>
+        <v>41487</v>
       </c>
       <c r="B377">
-        <v>2249293000000</v>
+        <v>2260894000000</v>
       </c>
       <c r="C377">
-        <v>0.1535529857610316</v>
+        <v>0.1511823213440713</v>
       </c>
       <c r="D377">
-        <v>345385656001.3881</v>
+        <v>341807203232.8828</v>
       </c>
     </row>
     <row r="378" spans="1:4">
       <c r="A378" s="2">
-        <v>41487</v>
+        <v>41518</v>
       </c>
       <c r="B378">
-        <v>2260894000000</v>
+        <v>2293914000000</v>
       </c>
       <c r="C378">
-        <v>0.1511823213440713</v>
+        <v>0.1555984315678098</v>
       </c>
       <c r="D378">
-        <v>341807203232.8828</v>
+        <v>356929420551.4409</v>
       </c>
     </row>
     <row r="379" spans="1:4">
       <c r="A379" s="2">
-        <v>41518</v>
+        <v>41548</v>
       </c>
       <c r="B379">
-        <v>2293914000000</v>
+        <v>2315736000000</v>
       </c>
       <c r="C379">
-        <v>0.1555984315678098</v>
+        <v>0.1543019380323417</v>
       </c>
       <c r="D379">
-        <v>356929420551.4409</v>
+        <v>357322552771.2628</v>
       </c>
     </row>
     <row r="380" spans="1:4">
       <c r="A380" s="2">
-        <v>41548</v>
+        <v>41579</v>
       </c>
       <c r="B380">
-        <v>2315736000000</v>
+        <v>2335920000000</v>
       </c>
       <c r="C380">
-        <v>0.1543019380323417</v>
+        <v>0.1527734491967172</v>
       </c>
       <c r="D380">
-        <v>357322552771.2628</v>
+        <v>356866555447.5956</v>
       </c>
     </row>
     <row r="381" spans="1:4">
       <c r="A381" s="2">
-        <v>41579</v>
+        <v>41609</v>
       </c>
       <c r="B381">
-        <v>2335920000000</v>
+        <v>2387438000000</v>
       </c>
       <c r="C381">
-        <v>0.1527734491967172</v>
+        <v>0.1556587400047632</v>
       </c>
       <c r="D381">
-        <v>356866555447.5956</v>
+        <v>371625590919.4918</v>
       </c>
     </row>
     <row r="382" spans="1:4">
       <c r="A382" s="2">
-        <v>41609</v>
+        <v>41640</v>
       </c>
       <c r="B382">
-        <v>2387438000000</v>
+        <v>2377887000000</v>
       </c>
       <c r="C382">
-        <v>0.1556587400047632</v>
+        <v>0.1530158662151679</v>
       </c>
       <c r="D382">
-        <v>371625590919.4918</v>
+        <v>363854439066.7869</v>
       </c>
     </row>
     <row r="383" spans="1:4">
       <c r="A383" s="2">
-        <v>41640</v>
+        <v>41671</v>
       </c>
       <c r="B383">
-        <v>2377887000000</v>
+        <v>2355583000000</v>
       </c>
       <c r="C383">
-        <v>0.1530158662151679</v>
+        <v>0.1562424320071996</v>
       </c>
       <c r="D383">
-        <v>363854439066.7869</v>
+        <v>368042016714.8154</v>
       </c>
     </row>
     <row r="384" spans="1:4">
       <c r="A384" s="2">
-        <v>41671</v>
+        <v>41699</v>
       </c>
       <c r="B384">
-        <v>2355583000000</v>
+        <v>2361204000000</v>
       </c>
       <c r="C384">
-        <v>0.1562424320071996</v>
+        <v>0.1546677967727018</v>
       </c>
       <c r="D384">
-        <v>368042016714.8154</v>
+        <v>365202220410.8905</v>
       </c>
     </row>
     <row r="385" spans="1:4">
       <c r="A385" s="2">
-        <v>41699</v>
+        <v>41730</v>
       </c>
       <c r="B385">
-        <v>2361204000000</v>
+        <v>2362905000000</v>
       </c>
       <c r="C385">
-        <v>0.1546677967727018</v>
+        <v>0.1538702996470215</v>
       </c>
       <c r="D385">
-        <v>365202220410.8905</v>
+        <v>363580900387.4454</v>
       </c>
     </row>
     <row r="386" spans="1:4">
       <c r="A386" s="2">
-        <v>41730</v>
+        <v>41760</v>
       </c>
       <c r="B386">
-        <v>2362905000000</v>
+        <v>2377199000000</v>
       </c>
       <c r="C386">
-        <v>0.1538702996470215</v>
+        <v>0.1496909630068723</v>
       </c>
       <c r="D386">
-        <v>363580900387.4454</v>
+        <v>355845207568.9739</v>
       </c>
     </row>
     <row r="387" spans="1:4">
       <c r="A387" s="2">
-        <v>41760</v>
+        <v>41791</v>
       </c>
       <c r="B387">
-        <v>2377199000000</v>
+        <v>2423708000000</v>
       </c>
       <c r="C387">
-        <v>0.1496909630068723</v>
+        <v>0.1497037363058507</v>
       </c>
       <c r="D387">
-        <v>355845207568.9739</v>
+        <v>362838143314.3809</v>
       </c>
     </row>
     <row r="388" spans="1:4">
       <c r="A388" s="2">
-        <v>41791</v>
+        <v>41821</v>
       </c>
       <c r="B388">
-        <v>2423708000000</v>
+        <v>2400777000000</v>
       </c>
       <c r="C388">
-        <v>0.1497037363058507</v>
+        <v>0.1449863712810996</v>
       </c>
       <c r="D388">
-        <v>362838143314.3809</v>
+        <v>348079945485.1245</v>
       </c>
     </row>
     <row r="389" spans="1:4">
       <c r="A389" s="2">
-        <v>41821</v>
+        <v>41852</v>
       </c>
       <c r="B389">
-        <v>2400777000000</v>
+        <v>2412498000000</v>
       </c>
       <c r="C389">
-        <v>0.1449863712810996</v>
+        <v>0.1430778916041893</v>
       </c>
       <c r="D389">
-        <v>348079945485.1245</v>
+        <v>345175127339.3235</v>
       </c>
     </row>
     <row r="390" spans="1:4">
       <c r="A390" s="2">
-        <v>41852</v>
+        <v>41883</v>
       </c>
       <c r="B390">
-        <v>2412498000000</v>
+        <v>2432652000000</v>
       </c>
       <c r="C390">
-        <v>0.1430778916041893</v>
+        <v>0.1386462579374983</v>
       </c>
       <c r="D390">
-        <v>345175127339.3235</v>
+        <v>337278096664.171</v>
       </c>
     </row>
     <row r="391" spans="1:4">
       <c r="A391" s="2">
-        <v>41883</v>
+        <v>41913</v>
       </c>
       <c r="B391">
-        <v>2432652000000</v>
+        <v>2451122000000</v>
       </c>
       <c r="C391">
-        <v>0.1386462579374983</v>
+        <v>0.1353344791652569</v>
       </c>
       <c r="D391">
-        <v>337278096664.171</v>
+        <v>331721319240.5029</v>
       </c>
     </row>
     <row r="392" spans="1:4">
       <c r="A392" s="2">
-        <v>41913</v>
+        <v>41944</v>
       </c>
       <c r="B392">
-        <v>2451122000000</v>
+        <v>2467099000000</v>
       </c>
       <c r="C392">
-        <v>0.1353344791652569</v>
+        <v>0.1342894743909972</v>
       </c>
       <c r="D392">
-        <v>331721319240.5029</v>
+        <v>331305427980.5549</v>
       </c>
     </row>
     <row r="393" spans="1:4">
       <c r="A393" s="2">
-        <v>41944</v>
+        <v>41974</v>
       </c>
       <c r="B393">
-        <v>2467099000000</v>
+        <v>2522075000000</v>
       </c>
       <c r="C393">
-        <v>0.1342894743909972</v>
+        <v>0.128498863427553</v>
       </c>
       <c r="D393">
-        <v>331305427980.5549</v>
+        <v>324083770979.0457</v>
       </c>
     </row>
     <row r="394" spans="1:4">
       <c r="A394" s="2">
-        <v>41974</v>
+        <v>42005</v>
       </c>
       <c r="B394">
-        <v>2522075000000</v>
+        <v>2507795000000</v>
       </c>
       <c r="C394">
-        <v>0.128498863427553</v>
+        <v>0.1210321134506619</v>
       </c>
       <c r="D394">
-        <v>324083770979.0457</v>
+        <v>303523728951.0026</v>
       </c>
     </row>
     <row r="395" spans="1:4">
       <c r="A395" s="2">
-        <v>42005</v>
+        <v>42036</v>
       </c>
       <c r="B395">
-        <v>2507795000000</v>
+        <v>2509859000000</v>
       </c>
       <c r="C395">
-        <v>0.1210321134506619</v>
+        <v>0.1199688081098914</v>
       </c>
       <c r="D395">
-        <v>303523728951.0026</v>
+        <v>301104792753.884</v>
       </c>
     </row>
     <row r="396" spans="1:4">
       <c r="A396" s="2">
-        <v>42036</v>
+        <v>42064</v>
       </c>
       <c r="B396">
-        <v>2509859000000</v>
+        <v>2548335000000</v>
       </c>
       <c r="C396">
-        <v>0.1199688081098914</v>
+        <v>0.1159339640140976</v>
       </c>
       <c r="D396">
-        <v>301104792753.884</v>
+        <v>295438578185.8654</v>
       </c>
     </row>
     <row r="397" spans="1:4">
       <c r="A397" s="2">
-        <v>42064</v>
+        <v>42095</v>
       </c>
       <c r="B397">
-        <v>2548335000000</v>
+        <v>2546771000000</v>
       </c>
       <c r="C397">
-        <v>0.1159339640140976</v>
+        <v>0.1200768491834774</v>
       </c>
       <c r="D397">
-        <v>295438578185.8654</v>
+        <v>305808237271.854</v>
       </c>
     </row>
     <row r="398" spans="1:4">
       <c r="A398" s="2">
-        <v>42095</v>
+        <v>42125</v>
       </c>
       <c r="B398">
-        <v>2546771000000</v>
+        <v>2580783000000</v>
       </c>
       <c r="C398">
-        <v>0.1200768491834774</v>
+        <v>0.117470162578705</v>
       </c>
       <c r="D398">
-        <v>305808237271.854</v>
+        <v>303164998590.358</v>
       </c>
     </row>
     <row r="399" spans="1:4">
       <c r="A399" s="2">
-        <v>42125</v>
+        <v>42156</v>
       </c>
       <c r="B399">
-        <v>2580783000000</v>
+        <v>2638101000000</v>
       </c>
       <c r="C399">
-        <v>0.117470162578705</v>
+        <v>0.1207773228498617</v>
       </c>
       <c r="D399">
-        <v>303164998590.358</v>
+        <v>318622776187.543</v>
       </c>
     </row>
     <row r="400" spans="1:4">
       <c r="A400" s="2">
-        <v>42156</v>
+        <v>42186</v>
       </c>
       <c r="B400">
-        <v>2638101000000</v>
+        <v>2617231000000</v>
       </c>
       <c r="C400">
-        <v>0.1207773228498617</v>
+        <v>0.1159931332065142</v>
       </c>
       <c r="D400">
-        <v>318622776187.543</v>
+        <v>303580824015.2183</v>
       </c>
     </row>
     <row r="401" spans="1:4">
       <c r="A401" s="2">
-        <v>42186</v>
+        <v>42217</v>
       </c>
       <c r="B401">
-        <v>2617231000000</v>
+        <v>2619938000000</v>
       </c>
       <c r="C401">
-        <v>0.1159931332065142</v>
+        <v>0.1180902445648965</v>
       </c>
       <c r="D401">
-        <v>303580824015.2183</v>
+        <v>309389119164.8658</v>
       </c>
     </row>
     <row r="402" spans="1:4">
       <c r="A402" s="2">
-        <v>42217</v>
+        <v>42248</v>
       </c>
       <c r="B402">
-        <v>2619938000000</v>
+        <v>2640658000000</v>
       </c>
       <c r="C402">
-        <v>0.1180902445648965</v>
+        <v>0.1195114372445443</v>
       </c>
       <c r="D402">
-        <v>309389119164.8658</v>
+        <v>315588832851.3038</v>
       </c>
     </row>
     <row r="403" spans="1:4">
       <c r="A403" s="2">
-        <v>42248</v>
+        <v>42278</v>
       </c>
       <c r="B403">
-        <v>2640658000000</v>
+        <v>2675262000000</v>
       </c>
       <c r="C403">
-        <v>0.1195114372445443</v>
+        <v>0.1172016923924382</v>
       </c>
       <c r="D403">
-        <v>315588832851.3038</v>
+        <v>313545233993.1789</v>
       </c>
     </row>
     <row r="404" spans="1:4">
       <c r="A404" s="2">
-        <v>42278</v>
+        <v>42309</v>
       </c>
       <c r="B404">
-        <v>2675262000000</v>
+        <v>2694519000000</v>
       </c>
       <c r="C404">
-        <v>0.1172016923924382</v>
+        <v>0.1146434016990152</v>
       </c>
       <c r="D404">
-        <v>313545233993.1789</v>
+        <v>308908824102.6288</v>
       </c>
     </row>
     <row r="405" spans="1:4">
       <c r="A405" s="2">
-        <v>42309</v>
+        <v>42339</v>
       </c>
       <c r="B405">
-        <v>2694519000000</v>
+        <v>2728918000000</v>
       </c>
       <c r="C405">
-        <v>0.1146434016990152</v>
+        <v>0.1183544004166075</v>
       </c>
       <c r="D405">
-        <v>308908824102.6288</v>
+        <v>322979453676.0877</v>
       </c>
     </row>
     <row r="406" spans="1:4">
       <c r="A406" s="2">
-        <v>42339</v>
+        <v>42370</v>
       </c>
       <c r="B406">
-        <v>2728918000000</v>
+        <v>2748884000000</v>
       </c>
       <c r="C406">
-        <v>0.1183544004166075</v>
+        <v>0.1166480029861889</v>
       </c>
       <c r="D406">
-        <v>322979453676.0877</v>
+        <v>320651829040.6869</v>
       </c>
     </row>
     <row r="407" spans="1:4">
       <c r="A407" s="2">
-        <v>42370</v>
+        <v>42401</v>
       </c>
       <c r="B407">
-        <v>2748884000000</v>
+        <v>2732370000000</v>
       </c>
       <c r="C407">
-        <v>0.1166480029861889</v>
+        <v>0.1167624118443791</v>
       </c>
       <c r="D407">
-        <v>320651829040.6869</v>
+        <v>319038111251.226</v>
       </c>
     </row>
     <row r="408" spans="1:4">
       <c r="A408" s="2">
-        <v>42401</v>
+        <v>42430</v>
       </c>
       <c r="B408">
-        <v>2732370000000</v>
+        <v>2766495000000</v>
       </c>
       <c r="C408">
-        <v>0.1167624118443791</v>
+        <v>0.1233410627065963</v>
       </c>
       <c r="D408">
-        <v>319038111251.226</v>
+        <v>341222433272.4851</v>
       </c>
     </row>
     <row r="409" spans="1:4">
       <c r="A409" s="2">
-        <v>42430</v>
+        <v>42461</v>
       </c>
       <c r="B409">
-        <v>2766495000000</v>
+        <v>2781493000000</v>
       </c>
       <c r="C409">
-        <v>0.1233410627065963</v>
+        <v>0.1246665170668462</v>
       </c>
       <c r="D409">
-        <v>341222433272.4851</v>
+        <v>346759044555.8132</v>
       </c>
     </row>
     <row r="410" spans="1:4">
       <c r="A410" s="2">
-        <v>42461</v>
+        <v>42491</v>
       </c>
       <c r="B410">
-        <v>2781493000000</v>
+        <v>2776382000000</v>
       </c>
       <c r="C410">
-        <v>0.1246665170668462</v>
+        <v>0.1200364910932924</v>
       </c>
       <c r="D410">
-        <v>346759044555.8132</v>
+        <v>333267153214.5772</v>
       </c>
     </row>
     <row r="411" spans="1:4">
       <c r="A411" s="2">
-        <v>42491</v>
+        <v>42522</v>
       </c>
       <c r="B411">
-        <v>2776382000000</v>
+        <v>2814128000000</v>
       </c>
       <c r="C411">
-        <v>0.1200364910932924</v>
+        <v>0.1183986815122827</v>
       </c>
       <c r="D411">
-        <v>333267153214.5772</v>
+        <v>333189044806.7971</v>
       </c>
     </row>
     <row r="412" spans="1:4">
       <c r="A412" s="2">
-        <v>42522</v>
+        <v>42552</v>
       </c>
       <c r="B412">
-        <v>2814128000000</v>
+        <v>2841544000000</v>
       </c>
       <c r="C412">
-        <v>0.1183986815122827</v>
+        <v>0.1168770453482936</v>
       </c>
       <c r="D412">
-        <v>333189044806.7971</v>
+        <v>332111266947.1716</v>
       </c>
     </row>
     <row r="413" spans="1:4">
       <c r="A413" s="2">
-        <v>42552</v>
+        <v>42583</v>
       </c>
       <c r="B413">
-        <v>2841544000000</v>
+        <v>2842117000000</v>
       </c>
       <c r="C413">
-        <v>0.1168770453482936</v>
+        <v>0.1169809555004445</v>
       </c>
       <c r="D413">
-        <v>332111266947.1716</v>
+        <v>332473562304.0569</v>
       </c>
     </row>
     <row r="414" spans="1:4">
       <c r="A414" s="2">
-        <v>42583</v>
+        <v>42614</v>
       </c>
       <c r="B414">
-        <v>2842117000000</v>
+        <v>2867299000000</v>
       </c>
       <c r="C414">
-        <v>0.1169809555004445</v>
+        <v>0.1168027808406063</v>
       </c>
       <c r="D414">
-        <v>332473562304.0569</v>
+        <v>334908496701.4895</v>
       </c>
     </row>
     <row r="415" spans="1:4">
       <c r="A415" s="2">
-        <v>42614</v>
+        <v>42644</v>
       </c>
       <c r="B415">
-        <v>2867299000000</v>
+        <v>2883246000000</v>
       </c>
       <c r="C415">
-        <v>0.1168027808406063</v>
+        <v>0.1107444240182507</v>
       </c>
       <c r="D415">
-        <v>334908496701.4895</v>
+        <v>319303417572.9252</v>
       </c>
     </row>
     <row r="416" spans="1:4">
       <c r="A416" s="2">
-        <v>42644</v>
+        <v>42675</v>
       </c>
       <c r="B416">
-        <v>2883246000000</v>
+        <v>2903568000000</v>
       </c>
       <c r="C416">
-        <v>0.1107444240182507</v>
+        <v>0.1083529271543271</v>
       </c>
       <c r="D416">
-        <v>319303417572.9252</v>
+        <v>314610091991.6351</v>
       </c>
     </row>
     <row r="417" spans="1:4">
       <c r="A417" s="2">
-        <v>42675</v>
+        <v>42705</v>
       </c>
       <c r="B417">
-        <v>2903568000000</v>
+        <v>2917782000000</v>
       </c>
       <c r="C417">
-        <v>0.1083529271543271</v>
+        <v>0.1100291577267976</v>
       </c>
       <c r="D417">
-        <v>314610091991.6351</v>
+        <v>321041095890.411</v>
       </c>
     </row>
     <row r="418" spans="1:4">
       <c r="A418" s="2">
-        <v>42705</v>
+        <v>42736</v>
       </c>
       <c r="B418">
-        <v>2917782000000</v>
+        <v>2960969000000</v>
       </c>
       <c r="C418">
-        <v>0.1100291577267976</v>
+        <v>0.1144007687731662</v>
       </c>
       <c r="D418">
-        <v>321041095890.411</v>
+        <v>338737129913.5131</v>
       </c>
     </row>
     <row r="419" spans="1:4">
       <c r="A419" s="2">
-        <v>42736</v>
+        <v>42767</v>
       </c>
       <c r="B419">
-        <v>2960969000000</v>
+        <v>2944067000000</v>
       </c>
       <c r="C419">
-        <v>0.1144007687731662</v>
+        <v>0.1106659879152741</v>
       </c>
       <c r="D419">
-        <v>338737129913.5131</v>
+        <v>325808083043.7574</v>
       </c>
     </row>
     <row r="420" spans="1:4">
       <c r="A420" s="2">
-        <v>42767</v>
+        <v>42795</v>
       </c>
       <c r="B420">
-        <v>2944067000000</v>
+        <v>3031836000000</v>
       </c>
       <c r="C420">
-        <v>0.1106659879152741</v>
+        <v>0.1116937803318422</v>
       </c>
       <c r="D420">
-        <v>325808083043.7574</v>
+        <v>338637224186.1712</v>
       </c>
     </row>
     <row r="421" spans="1:4">
       <c r="A421" s="2">
-        <v>42795</v>
+        <v>42826</v>
       </c>
       <c r="B421">
-        <v>3031836000000</v>
+        <v>3027781000000</v>
       </c>
       <c r="C421">
-        <v>0.1116937803318422</v>
+        <v>0.1130142714421977</v>
       </c>
       <c r="D421">
-        <v>338637224186.1712</v>
+        <v>342182463801.5289</v>
       </c>
     </row>
     <row r="422" spans="1:4">
       <c r="A422" s="2">
-        <v>42826</v>
+        <v>42856</v>
       </c>
       <c r="B422">
-        <v>3027781000000</v>
+        <v>3030922000000</v>
       </c>
       <c r="C422">
-        <v>0.1130142714421977</v>
+        <v>0.1150755931571449</v>
       </c>
       <c r="D422">
-        <v>342182463801.5289</v>
+        <v>348785146963.04</v>
       </c>
     </row>
     <row r="423" spans="1:4">
       <c r="A423" s="2">
-        <v>42856</v>
+        <v>42887</v>
       </c>
       <c r="B423">
-        <v>3030922000000</v>
+        <v>3085090000000</v>
       </c>
       <c r="C423">
-        <v>0.1150755931571449</v>
+        <v>0.1187391798922323</v>
       </c>
       <c r="D423">
-        <v>348785146963.04</v>
+        <v>366321056493.727</v>
       </c>
     </row>
     <row r="424" spans="1:4">
       <c r="A424" s="2">
-        <v>42887</v>
+        <v>42917</v>
       </c>
       <c r="B424">
-        <v>3085090000000</v>
+        <v>3089508000000</v>
       </c>
       <c r="C424">
-        <v>0.1187391798922323</v>
+        <v>0.1239736531192391</v>
       </c>
       <c r="D424">
-        <v>366321056493.727</v>
+        <v>383017593101.1142</v>
       </c>
     </row>
     <row r="425" spans="1:4">
       <c r="A425" s="2">
-        <v>42917</v>
+        <v>42948</v>
       </c>
       <c r="B425">
-        <v>3089508000000</v>
+        <v>3083488000000</v>
       </c>
       <c r="C425">
-        <v>0.1239736531192391</v>
+        <v>0.1259969508737888</v>
       </c>
       <c r="D425">
-        <v>383017593101.1142</v>
+        <v>388510086055.9174</v>
       </c>
     </row>
     <row r="426" spans="1:4">
       <c r="A426" s="2">
-        <v>42948</v>
+        <v>42979</v>
       </c>
       <c r="B426">
-        <v>3083488000000</v>
+        <v>3119085000000</v>
       </c>
       <c r="C426">
-        <v>0.1259969508737888</v>
+        <v>0.1228839385776921</v>
       </c>
       <c r="D426">
-        <v>388510086055.9174</v>
+        <v>383285449558.6009</v>
       </c>
     </row>
     <row r="427" spans="1:4">
       <c r="A427" s="2">
-        <v>42979</v>
+        <v>43009</v>
       </c>
       <c r="B427">
-        <v>3119085000000</v>
+        <v>3125689000000</v>
       </c>
       <c r="C427">
-        <v>0.1228839385776921</v>
+        <v>0.1193915805057427</v>
       </c>
       <c r="D427">
-        <v>383285449558.6009</v>
+        <v>373180949879.4145</v>
       </c>
     </row>
     <row r="428" spans="1:4">
       <c r="A428" s="2">
-        <v>43009</v>
+        <v>43040</v>
       </c>
       <c r="B428">
-        <v>3125689000000</v>
+        <v>3141177000000</v>
       </c>
       <c r="C428">
-        <v>0.1193915805057427</v>
+        <v>0.1194243745148385</v>
       </c>
       <c r="D428">
-        <v>373180949879.4145</v>
+        <v>375133098465.3968</v>
       </c>
     </row>
     <row r="429" spans="1:4">
       <c r="A429" s="2">
-        <v>43040</v>
+        <v>43070</v>
       </c>
       <c r="B429">
-        <v>3141177000000</v>
+        <v>3130303000000</v>
       </c>
       <c r="C429">
-        <v>0.1194243745148385</v>
+        <v>0.1221509810556043</v>
       </c>
       <c r="D429">
-        <v>375133098465.3968</v>
+        <v>382369582451.3014</v>
       </c>
     </row>
     <row r="430" spans="1:4">
       <c r="A430" s="2">
-        <v>43070</v>
+        <v>43101</v>
       </c>
       <c r="B430">
-        <v>3130303000000</v>
+        <v>3190477000000</v>
       </c>
       <c r="C430">
-        <v>0.1221509810556043</v>
+        <v>0.1270378458446556</v>
       </c>
       <c r="D430">
-        <v>382369582451.3014</v>
+        <v>405311325296.9192</v>
       </c>
     </row>
     <row r="431" spans="1:4">
       <c r="A431" s="2">
-        <v>43101</v>
+        <v>43132</v>
       </c>
       <c r="B431">
-        <v>3190477000000</v>
+        <v>3172864000000</v>
       </c>
       <c r="C431">
-        <v>0.1270378458446556</v>
+        <v>0.1206549148779576</v>
       </c>
       <c r="D431">
-        <v>405311325296.9192</v>
+        <v>382821635839.3359</v>
       </c>
     </row>
     <row r="432" spans="1:4">
       <c r="A432" s="2">
-        <v>43132</v>
+        <v>43160</v>
       </c>
       <c r="B432">
-        <v>3172864000000</v>
+        <v>3220531000000</v>
       </c>
       <c r="C432">
-        <v>0.1206549148779576</v>
+        <v>0.1199947202323098</v>
       </c>
       <c r="D432">
-        <v>382821635839.3359</v>
+        <v>386446716344.4808</v>
       </c>
     </row>
     <row r="433" spans="1:4">
       <c r="A433" s="2">
-        <v>43160</v>
+        <v>43191</v>
       </c>
       <c r="B433">
-        <v>3220531000000</v>
+        <v>3239383000000</v>
       </c>
       <c r="C433">
-        <v>0.1199947202323098</v>
+        <v>0.1143929167905923</v>
       </c>
       <c r="D433">
-        <v>386446716344.4808</v>
+        <v>370562469971.8594</v>
       </c>
     </row>
     <row r="434" spans="1:4">
       <c r="A434" s="2">
-        <v>43191</v>
+        <v>43221</v>
       </c>
       <c r="B434">
-        <v>3239383000000</v>
+        <v>3221827000000</v>
       </c>
       <c r="C434">
-        <v>0.1143929167905923</v>
+        <v>0.1135460429204042</v>
       </c>
       <c r="D434">
-        <v>370562469971.8594</v>
+        <v>365825706824.1172</v>
       </c>
     </row>
     <row r="435" spans="1:4">
       <c r="A435" s="2">
-        <v>43221</v>
+        <v>43252</v>
       </c>
       <c r="B435">
-        <v>3221827000000</v>
+        <v>3298888000000</v>
       </c>
       <c r="C435">
-        <v>0.1135460429204042</v>
+        <v>0.1118293037507549</v>
       </c>
       <c r="D435">
-        <v>365825706824.1172</v>
+        <v>368912348191.7202</v>
       </c>
     </row>
     <row r="436" spans="1:4">
       <c r="A436" s="2">
-        <v>43252</v>
+        <v>43282</v>
       </c>
       <c r="B436">
-        <v>3298888000000</v>
+        <v>3268769000000</v>
       </c>
       <c r="C436">
-        <v>0.1118293037507549</v>
+        <v>0.1137732794351384</v>
       </c>
       <c r="D436">
-        <v>368912348191.7202</v>
+        <v>371898568845.918</v>
       </c>
     </row>
     <row r="437" spans="1:4">
       <c r="A437" s="2">
-        <v>43282</v>
+        <v>43313</v>
       </c>
       <c r="B437">
-        <v>3268769000000</v>
+        <v>3267031000000</v>
       </c>
       <c r="C437">
-        <v>0.1137732794351384</v>
+        <v>0.1094730296770436</v>
       </c>
       <c r="D437">
-        <v>371898568845.918</v>
+        <v>357651781618.8215</v>
       </c>
     </row>
     <row r="438" spans="1:4">
       <c r="A438" s="2">
-        <v>43313</v>
+        <v>43344</v>
       </c>
       <c r="B438">
-        <v>3267031000000</v>
+        <v>3303322000000</v>
       </c>
       <c r="C438">
-        <v>0.1094730296770436</v>
+        <v>0.112585100262661</v>
       </c>
       <c r="D438">
-        <v>357651781618.8215</v>
+        <v>371904838569.854</v>
       </c>
     </row>
     <row r="439" spans="1:4">
       <c r="A439" s="2">
-        <v>43344</v>
+        <v>43374</v>
       </c>
       <c r="B439">
-        <v>3303322000000</v>
+        <v>3296521000000</v>
       </c>
       <c r="C439">
-        <v>0.112585100262661</v>
+        <v>0.1091656577940459</v>
       </c>
       <c r="D439">
-        <v>371904838569.854</v>
+        <v>359866883396.886</v>
       </c>
     </row>
     <row r="440" spans="1:4">
       <c r="A440" s="2">
-        <v>43374</v>
+        <v>43405</v>
       </c>
       <c r="B440">
-        <v>3296521000000</v>
+        <v>3348953000000</v>
       </c>
       <c r="C440">
-        <v>0.1091656577940459</v>
+        <v>0.1099589852984837</v>
       </c>
       <c r="D440">
-        <v>359866883396.886</v>
+        <v>368247473692.3127</v>
       </c>
     </row>
     <row r="441" spans="1:4">
       <c r="A441" s="2">
-        <v>43405</v>
+        <v>43435</v>
       </c>
       <c r="B441">
-        <v>3348953000000</v>
+        <v>3341036000000</v>
       </c>
       <c r="C441">
-        <v>0.1099589852984837</v>
+        <v>0.1126812618949157</v>
       </c>
       <c r="D441">
-        <v>368247473692.3127</v>
+        <v>376472152516.3416</v>
       </c>
     </row>
     <row r="442" spans="1:4">
       <c r="A442" s="2">
-        <v>43435</v>
+        <v>43466</v>
       </c>
       <c r="B442">
-        <v>3341036000000</v>
+        <v>3386768000000</v>
       </c>
       <c r="C442">
-        <v>0.1126812618949157</v>
+        <v>0.1106084571226316</v>
       </c>
       <c r="D442">
-        <v>376472152516.3416</v>
+        <v>374605183112.3008</v>
       </c>
     </row>
     <row r="443" spans="1:4">
       <c r="A443" s="2">
-        <v>43466</v>
+        <v>43497</v>
       </c>
       <c r="B443">
-        <v>3386768000000</v>
+        <v>3383263000000</v>
       </c>
       <c r="C443">
-        <v>0.1106084571226316</v>
+        <v>0.1083423618634886</v>
       </c>
       <c r="D443">
-        <v>374605183112.3008</v>
+        <v>366550704225.3521</v>
       </c>
     </row>
     <row r="444" spans="1:4">
       <c r="A444" s="2">
-        <v>43497</v>
+        <v>43525</v>
       </c>
       <c r="B444">
-        <v>3383263000000</v>
+        <v>3420052000000</v>
       </c>
       <c r="C444">
-        <v>0.1083423618634886</v>
+        <v>0.1075615790039798</v>
       </c>
       <c r="D444">
-        <v>366550704225.3521</v>
+        <v>367866193395.719</v>
       </c>
     </row>
     <row r="445" spans="1:4">
       <c r="A445" s="2">
-        <v>43525</v>
+        <v>43556</v>
       </c>
       <c r="B445">
-        <v>3420052000000</v>
+        <v>3410442000000</v>
       </c>
       <c r="C445">
-        <v>0.1075615790039798</v>
+        <v>0.1054874575412983</v>
       </c>
       <c r="D445">
-        <v>367866193395.719</v>
+        <v>359758855672.0606</v>
       </c>
     </row>
     <row r="446" spans="1:4">
       <c r="A446" s="2">
-        <v>43556</v>
+        <v>43586</v>
       </c>
       <c r="B446">
-        <v>3410442000000</v>
+        <v>3433707000000</v>
       </c>
       <c r="C446">
-        <v>0.1054874575412983</v>
+        <v>0.105400955775867</v>
       </c>
       <c r="D446">
-        <v>359758855672.0606</v>
+        <v>361915999654.2849</v>
       </c>
     </row>
     <row r="447" spans="1:4">
       <c r="A447" s="2">
-        <v>43586</v>
+        <v>43617</v>
       </c>
       <c r="B447">
-        <v>3433707000000</v>
+        <v>3507874000000</v>
       </c>
       <c r="C447">
-        <v>0.105400955775867</v>
+        <v>0.1077916086388507</v>
       </c>
       <c r="D447">
-        <v>361915999654.2849</v>
+        <v>378119381362.3997</v>
       </c>
     </row>
     <row r="448" spans="1:4">
       <c r="A448" s="2">
-        <v>43617</v>
+        <v>43647</v>
       </c>
       <c r="B448">
-        <v>3507874000000</v>
+        <v>3509682000000</v>
       </c>
       <c r="C448">
-        <v>0.1077916086388507</v>
+        <v>0.1035518276897587</v>
       </c>
       <c r="D448">
-        <v>378119381362.3997</v>
+        <v>363433985709.8478</v>
       </c>
     </row>
     <row r="449" spans="1:4">
       <c r="A449" s="2">
-        <v>43647</v>
+        <v>43678</v>
       </c>
       <c r="B449">
-        <v>3509682000000</v>
+        <v>3504689000000</v>
       </c>
       <c r="C449">
-        <v>0.1035518276897587</v>
+        <v>0.1019129052311894</v>
       </c>
       <c r="D449">
-        <v>363433985709.8478</v>
+        <v>357173037921.7921</v>
       </c>
     </row>
     <row r="450" spans="1:4">
       <c r="A450" s="2">
-        <v>43678</v>
+        <v>43709</v>
       </c>
       <c r="B450">
-        <v>3504689000000</v>
+        <v>3561868000000</v>
       </c>
       <c r="C450">
-        <v>0.1019129052311894</v>
+        <v>0.1016824376127404</v>
       </c>
       <c r="D450">
-        <v>357173037921.7921</v>
+        <v>362179420694.8164</v>
       </c>
     </row>
     <row r="451" spans="1:4">
       <c r="A451" s="2">
-        <v>43709</v>
+        <v>43739</v>
       </c>
       <c r="B451">
-        <v>3561868000000</v>
+        <v>3593417000000</v>
       </c>
       <c r="C451">
-        <v>0.1016824376127404</v>
+        <v>0.1036780836972434</v>
       </c>
       <c r="D451">
-        <v>362179420694.8164</v>
+        <v>372558588485.0974</v>
       </c>
     </row>
     <row r="452" spans="1:4">
       <c r="A452" s="2">
-        <v>43739</v>
+        <v>43770</v>
       </c>
       <c r="B452">
-        <v>3593417000000</v>
+        <v>3599353000000</v>
       </c>
       <c r="C452">
-        <v>0.1036780836972434</v>
+        <v>0.1045032542313368</v>
       </c>
       <c r="D452">
-        <v>372558588485.0974</v>
+        <v>376144101627.3247</v>
       </c>
     </row>
     <row r="453" spans="1:4">
       <c r="A453" s="2">
-        <v>43770</v>
+        <v>43800</v>
       </c>
       <c r="B453">
-        <v>3599353000000</v>
+        <v>3579821000000</v>
       </c>
       <c r="C453">
-        <v>0.1045032542313368</v>
+        <v>0.1067489914889029</v>
       </c>
       <c r="D453">
-        <v>376144101627.3247</v>
+        <v>382142281460.7959</v>
       </c>
     </row>
     <row r="454" spans="1:4">
       <c r="A454" s="2">
-        <v>43800</v>
+        <v>43831</v>
       </c>
       <c r="B454">
-        <v>3579821000000</v>
+        <v>3624226000000</v>
       </c>
       <c r="C454">
-        <v>0.1067489914889029</v>
+        <v>0.1039199649997558</v>
       </c>
       <c r="D454">
-        <v>382142281460.7959</v>
+        <v>376629439071.2049</v>
       </c>
     </row>
     <row r="455" spans="1:4">
       <c r="A455" s="2">
-        <v>43831</v>
+        <v>43862</v>
       </c>
       <c r="B455">
-        <v>3624226000000</v>
+        <v>3600782000000</v>
       </c>
       <c r="C455">
-        <v>0.1039199649997558</v>
+        <v>0.1041575528807896</v>
       </c>
       <c r="D455">
-        <v>376629439071.2049</v>
+        <v>375048641577.1953</v>
       </c>
     </row>
     <row r="456" spans="1:4">
       <c r="A456" s="2">
-        <v>43862</v>
+        <v>43891</v>
       </c>
       <c r="B456">
-        <v>3600782000000</v>
+        <v>3834576000000</v>
       </c>
       <c r="C456">
-        <v>0.1041575528807896</v>
+        <v>0.1012330181612035</v>
       </c>
       <c r="D456">
-        <v>375048641577.1953</v>
+        <v>388185701848.515</v>
       </c>
     </row>
     <row r="457" spans="1:4">
       <c r="A457" s="2">
-        <v>43891</v>
+        <v>43922</v>
       </c>
       <c r="B457">
-        <v>3834576000000</v>
+        <v>3900996000000</v>
       </c>
       <c r="C457">
-        <v>0.1012330181612035</v>
+        <v>0.1026061974143238</v>
       </c>
       <c r="D457">
-        <v>388185701848.515</v>
+        <v>400266365688.4875</v>
       </c>
     </row>
     <row r="458" spans="1:4">
       <c r="A458" s="2">
-        <v>43922</v>
+        <v>43952</v>
       </c>
       <c r="B458">
-        <v>3900996000000</v>
+        <v>3963829000000</v>
       </c>
       <c r="C458">
-        <v>0.1026061974143238</v>
+        <v>0.1062992962986585</v>
       </c>
       <c r="D458">
-        <v>400266365688.4875</v>
+        <v>421352233348.2153</v>
       </c>
     </row>
     <row r="459" spans="1:4">
       <c r="A459" s="2">
-        <v>43952</v>
+        <v>43983</v>
       </c>
       <c r="B459">
-        <v>3963829000000</v>
+        <v>4054589000000</v>
       </c>
       <c r="C459">
-        <v>0.1062992962986585</v>
+        <v>0.1073675621121347</v>
       </c>
       <c r="D459">
-        <v>421352233348.2153</v>
+        <v>435331336296.678</v>
       </c>
     </row>
     <row r="460" spans="1:4">
       <c r="A460" s="2">
-        <v>43983</v>
+        <v>44013</v>
       </c>
       <c r="B460">
-        <v>4054589000000</v>
+        <v>4104968000000</v>
       </c>
       <c r="C460">
-        <v>0.1073675621121347</v>
+        <v>0.1140038966531876</v>
       </c>
       <c r="D460">
-        <v>435331336296.678</v>
+        <v>467982347636.6422</v>
       </c>
     </row>
     <row r="461" spans="1:4">
       <c r="A461" s="2">
-        <v>44013</v>
+        <v>44044</v>
       </c>
       <c r="B461">
-        <v>4104968000000</v>
+        <v>4086280000000</v>
       </c>
       <c r="C461">
-        <v>0.1140038966531876</v>
+        <v>0.1157903268760928</v>
       </c>
       <c r="D461">
-        <v>467982347636.6422</v>
+        <v>473151696907.2404</v>
       </c>
     </row>
     <row r="462" spans="1:4">
       <c r="A462" s="2">
-        <v>44044</v>
+        <v>44075</v>
       </c>
       <c r="B462">
-        <v>4086280000000</v>
+        <v>4084505000000</v>
       </c>
       <c r="C462">
-        <v>0.1157903268760928</v>
+        <v>0.1116781881330757</v>
       </c>
       <c r="D462">
-        <v>473151696907.2404</v>
+        <v>456150117820.4885</v>
       </c>
     </row>
     <row r="463" spans="1:4">
       <c r="A463" s="2">
-        <v>44075</v>
+        <v>44105</v>
       </c>
       <c r="B463">
-        <v>4084505000000</v>
+        <v>4130997000000</v>
       </c>
       <c r="C463">
-        <v>0.1116781881330757</v>
+        <v>0.1125626692661139</v>
       </c>
       <c r="D463">
-        <v>456150117820.4885</v>
+        <v>464996049050.3088</v>
       </c>
     </row>
     <row r="464" spans="1:4">
       <c r="A464" s="2">
-        <v>44105</v>
+        <v>44136</v>
       </c>
       <c r="B464">
-        <v>4130997000000</v>
+        <v>4194139000000</v>
       </c>
       <c r="C464">
-        <v>0.1125626692661139</v>
+        <v>0.1168879745651767</v>
       </c>
       <c r="D464">
-        <v>464996049050.3088</v>
+        <v>490244412754.8158</v>
       </c>
     </row>
     <row r="465" spans="1:4">
       <c r="A465" s="2">
-        <v>44136</v>
+        <v>44166</v>
       </c>
       <c r="B465">
-        <v>4194139000000</v>
+        <v>4241163000000</v>
       </c>
       <c r="C465">
-        <v>0.1168879745651767</v>
+        <v>0.1216820351077008</v>
       </c>
       <c r="D465">
-        <v>490244412754.8158</v>
+        <v>516073345063.4815</v>
       </c>
     </row>
     <row r="466" spans="1:4">
       <c r="A466" s="2">
-        <v>44166</v>
+        <v>44197</v>
       </c>
       <c r="B466">
-        <v>4241163000000</v>
+        <v>4262410000000</v>
       </c>
       <c r="C466">
-        <v>0.1216820351077008</v>
+        <v>0.1199184554502938</v>
       </c>
       <c r="D466">
-        <v>516073345063.4815</v>
+        <v>511141623695.8868</v>
       </c>
     </row>
     <row r="467" spans="1:4">
       <c r="A467" s="2">
-        <v>44197</v>
+        <v>44228</v>
       </c>
       <c r="B467">
-        <v>4262410000000</v>
+        <v>4298127000000</v>
       </c>
       <c r="C467">
-        <v>0.1199184554502938</v>
+        <v>0.1186127057930446</v>
       </c>
       <c r="D467">
-        <v>511141623695.8868</v>
+        <v>509812473312.1412</v>
       </c>
     </row>
     <row r="468" spans="1:4">
       <c r="A468" s="2">
-        <v>44228</v>
+        <v>44256</v>
       </c>
       <c r="B468">
-        <v>4298127000000</v>
+        <v>4336988000000</v>
       </c>
       <c r="C468">
-        <v>0.1186127057930446</v>
+        <v>0.1145869141744013</v>
       </c>
       <c r="D468">
-        <v>509812473312.1412</v>
+        <v>496962071731.4083</v>
       </c>
     </row>
     <row r="469" spans="1:4">
       <c r="A469" s="2">
-        <v>44256</v>
+        <v>44287</v>
       </c>
       <c r="B469">
-        <v>4336988000000</v>
+        <v>4376563000000</v>
       </c>
       <c r="C469">
-        <v>0.1145869141744013</v>
+        <v>0.1182385296802357</v>
       </c>
       <c r="D469">
-        <v>496962071731.4083</v>
+        <v>517478374172.9214</v>
       </c>
     </row>
     <row r="470" spans="1:4">
       <c r="A470" s="2">
-        <v>44287</v>
+        <v>44317</v>
       </c>
       <c r="B470">
-        <v>4376563000000</v>
+        <v>4420366000000</v>
       </c>
       <c r="C470">
-        <v>0.1182385296802357</v>
+        <v>0.1205865328960062</v>
       </c>
       <c r="D470">
-        <v>517478374172.9214</v>
+        <v>533036610071.3873</v>
       </c>
     </row>
     <row r="471" spans="1:4">
       <c r="A471" s="2">
-        <v>44317</v>
+        <v>44348</v>
       </c>
       <c r="B471">
-        <v>4420366000000</v>
+        <v>4539396000000</v>
       </c>
       <c r="C471">
-        <v>0.1205865328960062</v>
+        <v>0.1170891633979275</v>
       </c>
       <c r="D471">
-        <v>533036610071.3873</v>
+        <v>531514079971.8986</v>
       </c>
     </row>
     <row r="472" spans="1:4">
       <c r="A472" s="2">
-        <v>44348</v>
+        <v>44378</v>
       </c>
       <c r="B472">
-        <v>4539396000000</v>
+        <v>4517677000000</v>
       </c>
       <c r="C472">
-        <v>0.1170891633979275</v>
+        <v>0.1165664195458572</v>
       </c>
       <c r="D472">
-        <v>531514079971.8986</v>
+        <v>526609432554.6697</v>
       </c>
     </row>
     <row r="473" spans="1:4">
       <c r="A473" s="2">
-        <v>44378</v>
+        <v>44409</v>
       </c>
       <c r="B473">
-        <v>4517677000000</v>
+        <v>4525957000000</v>
       </c>
       <c r="C473">
-        <v>0.1165664195458572</v>
+        <v>0.1160321641158929</v>
       </c>
       <c r="D473">
-        <v>526609432554.6697</v>
+        <v>525156585405.4744</v>
       </c>
     </row>
     <row r="474" spans="1:4">
       <c r="A474" s="2">
-        <v>44409</v>
+        <v>44440</v>
       </c>
       <c r="B474">
-        <v>4525957000000</v>
+        <v>4620809000000</v>
       </c>
       <c r="C474">
-        <v>0.1160321641158929</v>
+        <v>0.1142422369543934</v>
       </c>
       <c r="D474">
-        <v>525156585405.4744</v>
+        <v>527891556698.9934</v>
       </c>
     </row>
     <row r="475" spans="1:4">
       <c r="A475" s="2">
-        <v>44440</v>
+        <v>44470</v>
       </c>
       <c r="B475">
-        <v>4620809000000</v>
+        <v>4671069000000</v>
       </c>
       <c r="C475">
-        <v>0.1142422369543934</v>
+        <v>0.1165729420212816</v>
       </c>
       <c r="D475">
-        <v>527891556698.9934</v>
+        <v>544520255714.4056</v>
       </c>
     </row>
     <row r="476" spans="1:4">
       <c r="A476" s="2">
-        <v>44470</v>
+        <v>44501</v>
       </c>
       <c r="B476">
-        <v>4671069000000</v>
+        <v>4727294000000</v>
       </c>
       <c r="C476">
-        <v>0.1165729420212816</v>
+        <v>0.110870890847608</v>
       </c>
       <c r="D476">
-        <v>544520255714.4056</v>
+        <v>524119297078.552</v>
       </c>
     </row>
     <row r="477" spans="1:4">
       <c r="A477" s="2">
-        <v>44501</v>
+        <v>44531</v>
       </c>
       <c r="B477">
-        <v>4727294000000</v>
+        <v>4705000000000</v>
       </c>
       <c r="C477">
-        <v>0.110870890847608</v>
+        <v>0.1106413769983216</v>
       </c>
       <c r="D477">
-        <v>524119297078.552</v>
+        <v>520567678777.103</v>
       </c>
     </row>
     <row r="478" spans="1:4">
       <c r="A478" s="2">
-        <v>44531</v>
+        <v>44562</v>
       </c>
       <c r="B478">
-        <v>4705000000000</v>
+        <v>4752338000000</v>
       </c>
       <c r="C478">
-        <v>0.1106413769983216</v>
+        <v>0.1073687149038513</v>
       </c>
       <c r="D478">
-        <v>520567678777.103</v>
+        <v>510252423848.7389</v>
       </c>
     </row>
     <row r="479" spans="1:4">
       <c r="A479" s="2">
-        <v>44562</v>
+        <v>44593</v>
       </c>
       <c r="B479">
-        <v>4752338000000</v>
+        <v>4755744000000</v>
       </c>
       <c r="C479">
-        <v>0.1073687149038513</v>
+        <v>0.1058413860987923</v>
       </c>
       <c r="D479">
-        <v>510252423848.7389</v>
+        <v>503354536891.0151</v>
       </c>
     </row>
     <row r="480" spans="1:4">
       <c r="A480" s="2">
-        <v>44593</v>
+        <v>44621</v>
       </c>
       <c r="B480">
-        <v>4755744000000</v>
+        <v>4838594000000</v>
       </c>
       <c r="C480">
-        <v>0.1058413860987923</v>
+        <v>0.1065178257581406</v>
       </c>
       <c r="D480">
-        <v>503354536891.0151</v>
+        <v>515396512606.3847</v>
       </c>
     </row>
     <row r="481" spans="1:4">
       <c r="A481" s="2">
-        <v>44621</v>
+        <v>44652</v>
       </c>
       <c r="B481">
-        <v>4838594000000</v>
+        <v>4861961000000</v>
       </c>
       <c r="C481">
-        <v>0.1065178257581406</v>
+        <v>0.1019087509044402</v>
       </c>
       <c r="D481">
-        <v>515396512606.3847</v>
+        <v>495476372456.1028</v>
       </c>
     </row>
     <row r="482" spans="1:4">
       <c r="A482" s="2">
-        <v>44652</v>
+        <v>44682</v>
       </c>
       <c r="B482">
-        <v>4861961000000</v>
+        <v>4868193000000</v>
       </c>
       <c r="C482">
-        <v>0.1019087509044402</v>
+        <v>0.1025885133693351</v>
       </c>
       <c r="D482">
-        <v>495476372456.1028</v>
+        <v>499420682665.0034</v>
       </c>
     </row>
     <row r="483" spans="1:4">
       <c r="A483" s="2">
-        <v>44682</v>
+        <v>44713</v>
       </c>
       <c r="B483">
-        <v>4868193000000</v>
+        <v>4981498000000</v>
       </c>
       <c r="C483">
-        <v>0.1025885133693351</v>
+        <v>0.09788375325463479</v>
       </c>
       <c r="D483">
-        <v>499420682665.0034</v>
+        <v>487607721070.4567</v>
       </c>
     </row>
     <row r="484" spans="1:4">
       <c r="A484" s="2">
-        <v>44713</v>
+        <v>44743</v>
       </c>
       <c r="B484">
-        <v>4981498000000</v>
+        <v>4925017000000</v>
       </c>
       <c r="C484">
-        <v>0.09788375325463479</v>
+        <v>0.09863392020515854</v>
       </c>
       <c r="D484">
-        <v>487607721070.4567</v>
+        <v>485773733787.0493</v>
       </c>
     </row>
     <row r="485" spans="1:4">
       <c r="A485" s="2">
-        <v>44743</v>
+        <v>44774</v>
       </c>
       <c r="B485">
-        <v>4925017000000</v>
+        <v>4981835000000</v>
       </c>
       <c r="C485">
-        <v>0.09863392020515854</v>
+        <v>0.09392220048445071</v>
       </c>
       <c r="D485">
-        <v>485773733787.0493</v>
+        <v>467904905650.4535</v>
       </c>
     </row>
     <row r="486" spans="1:4">
       <c r="A486" s="2">
-        <v>44774</v>
+        <v>44805</v>
       </c>
       <c r="B486">
-        <v>4981835000000</v>
+        <v>4905553000000</v>
       </c>
       <c r="C486">
-        <v>0.09392220048445071</v>
+        <v>0.09016400833115437</v>
       </c>
       <c r="D486">
-        <v>467904905650.4535</v>
+        <v>442304321560.9193</v>
       </c>
     </row>
     <row r="487" spans="1:4">
       <c r="A487" s="2">
-        <v>44805</v>
+        <v>44835</v>
       </c>
       <c r="B487">
-        <v>4905553000000</v>
+        <v>4884821000000</v>
       </c>
       <c r="C487">
-        <v>0.09016400833115437</v>
+        <v>0.09069463931195419</v>
       </c>
       <c r="D487">
-        <v>442304321560.9193</v>
+        <v>443027078698.4594</v>
       </c>
     </row>
     <row r="488" spans="1:4">
       <c r="A488" s="2">
-        <v>44835</v>
+        <v>44866</v>
       </c>
       <c r="B488">
-        <v>4884821000000</v>
+        <v>4877312000000</v>
       </c>
       <c r="C488">
-        <v>0.09069463931195419</v>
+        <v>0.09528074471430069</v>
       </c>
       <c r="D488">
-        <v>443027078698.4594</v>
+        <v>464713919563.9953</v>
       </c>
     </row>
     <row r="489" spans="1:4">
       <c r="A489" s="2">
-        <v>44866</v>
+        <v>44896</v>
       </c>
       <c r="B489">
-        <v>4877312000000</v>
+        <v>4822713000000</v>
       </c>
       <c r="C489">
-        <v>0.09528074471430069</v>
+        <v>0.09609378753663576</v>
       </c>
       <c r="D489">
-        <v>464713919563.9953</v>
+        <v>463432758372.1713</v>
       </c>
     </row>
     <row r="490" spans="1:4">
       <c r="A490" s="2">
-        <v>44896</v>
+        <v>44927</v>
       </c>
       <c r="B490">
-        <v>4822713000000</v>
+        <v>4903738000000</v>
       </c>
       <c r="C490">
-        <v>0.09609378753663576</v>
+        <v>0.09566814633399663</v>
       </c>
       <c r="D490">
-        <v>463432758372.1713</v>
+        <v>469131524567.58</v>
       </c>
     </row>
     <row r="491" spans="1:4">
       <c r="A491" s="2">
-        <v>44927</v>
+        <v>44958</v>
       </c>
       <c r="B491">
-        <v>4903738000000</v>
+        <v>4814210000000</v>
       </c>
       <c r="C491">
-        <v>0.09566814633399663</v>
+        <v>0.09570211377258689</v>
       </c>
       <c r="D491">
-        <v>469131524567.58</v>
+        <v>460730073145.1255</v>
       </c>
     </row>
     <row r="492" spans="1:4">
       <c r="A492" s="2">
-        <v>44958</v>
+        <v>44986</v>
       </c>
       <c r="B492">
-        <v>4814210000000</v>
+        <v>4779806000000</v>
       </c>
       <c r="C492">
-        <v>0.09570211377258689</v>
+        <v>0.09639297487999074</v>
       </c>
       <c r="D492">
-        <v>460730073145.1255</v>
+        <v>460739719689.229</v>
       </c>
     </row>
     <row r="493" spans="1:4">
       <c r="A493" s="2">
-        <v>44986</v>
+        <v>45017</v>
       </c>
       <c r="B493">
-        <v>4779806000000</v>
+        <v>4773819000000</v>
       </c>
       <c r="C493">
-        <v>0.09639297487999074</v>
+        <v>0.09748869131180783</v>
       </c>
       <c r="D493">
-        <v>460739719689.229</v>
+        <v>465393366869.4432</v>
       </c>
     </row>
     <row r="494" spans="1:4">
       <c r="A494" s="2">
-        <v>45017</v>
+        <v>45047</v>
       </c>
       <c r="B494">
-        <v>4773819000000</v>
+        <v>4766051000000</v>
       </c>
       <c r="C494">
-        <v>0.09748869131180783</v>
+        <v>0.09232331625351982</v>
       </c>
       <c r="D494">
-        <v>465393366869.4432</v>
+        <v>440017633753.4044</v>
       </c>
     </row>
     <row r="495" spans="1:4">
       <c r="A495" s="2">
-        <v>45047</v>
+        <v>45078</v>
       </c>
       <c r="B495">
-        <v>4766051000000</v>
+        <v>4812070000000</v>
       </c>
       <c r="C495">
-        <v>0.09232331625351982</v>
+        <v>0.09274803142303305</v>
       </c>
       <c r="D495">
-        <v>440017633753.4044</v>
+        <v>446310019569.8347</v>
       </c>
     </row>
     <row r="496" spans="1:4">
       <c r="A496" s="2">
-        <v>45078</v>
+        <v>45108</v>
       </c>
       <c r="B496">
-        <v>4812070000000</v>
+        <v>4784709000000</v>
       </c>
       <c r="C496">
-        <v>0.09274803142303305</v>
+        <v>0.09520635978483362</v>
       </c>
       <c r="D496">
-        <v>446310019569.8347</v>
+        <v>455534726519.7315</v>
       </c>
     </row>
     <row r="497" spans="1:4">
       <c r="A497" s="2">
-        <v>45108</v>
+        <v>45139</v>
       </c>
       <c r="B497">
-        <v>4784709000000</v>
+        <v>4765034000000</v>
       </c>
       <c r="C497">
-        <v>0.09520635978483362</v>
+        <v>0.09137426900584794</v>
       </c>
       <c r="D497">
-        <v>455534726519.7315</v>
+        <v>435401498538.0117</v>
       </c>
     </row>
     <row r="498" spans="1:4">
       <c r="A498" s="2">
-        <v>45139</v>
+        <v>45170</v>
       </c>
       <c r="B498">
-        <v>4765034000000</v>
+        <v>4744178000000</v>
       </c>
       <c r="C498">
-        <v>0.09137426900584794</v>
+        <v>0.0915818008645322</v>
       </c>
       <c r="D498">
-        <v>435401498538.0117</v>
+        <v>434480364861.8947</v>
       </c>
     </row>
     <row r="499" spans="1:4">
       <c r="A499" s="2">
-        <v>45170</v>
+        <v>45200</v>
       </c>
       <c r="B499">
-        <v>4744031000000</v>
+        <v>4717124000000</v>
       </c>
       <c r="C499">
-        <v>0.0915818008645322</v>
+        <v>0.08956977844019606</v>
       </c>
       <c r="D499">
-        <v>434466902337.1675</v>
+        <v>422511751554.9314</v>
       </c>
     </row>
   </sheetData>

--- a/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
+++ b/Global_M2/TVDataFeed/FinalData/Sweden.xlsx
@@ -1,40 +1,57 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>Sweden_M2 (SEK)</t>
+  </si>
+  <si>
+    <t>Sweden_FX (USD)</t>
+  </si>
+  <si>
+    <t>Sweden_M2 (USD)</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -49,96 +66,38 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
 </styleSheet>
 </file>
 
@@ -426,6261 +385,5881 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D499"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Sweden_M2 (SEK)</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Sweden_FX (USD)</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Sweden_M2 (USD)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>30103</v>
-      </c>
-      <c r="B2" t="inlineStr"/>
-      <c r="C2" t="n">
-        <v>0.1633986928104575</v>
-      </c>
-      <c r="D2" t="inlineStr"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+    <row r="1" spans="1:4">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2">
         <v>30133</v>
       </c>
-      <c r="B3" t="inlineStr"/>
-      <c r="C3" t="n">
+      <c r="C2">
         <v>0.1636661211129296</v>
       </c>
-      <c r="D3" t="inlineStr"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2">
         <v>30164</v>
       </c>
-      <c r="B4" t="inlineStr"/>
-      <c r="C4" t="n">
+      <c r="C3">
         <v>0.1626677511183408</v>
       </c>
-      <c r="D4" t="inlineStr"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2">
         <v>30195</v>
       </c>
-      <c r="B5" t="inlineStr"/>
-      <c r="C5" t="n">
+      <c r="C4">
         <v>0.1592356687898089</v>
       </c>
-      <c r="D5" t="inlineStr"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2">
         <v>30225</v>
       </c>
-      <c r="B6" t="inlineStr"/>
-      <c r="C6" t="n">
+      <c r="C5">
         <v>0.1341201716738197</v>
       </c>
-      <c r="D6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2">
         <v>30256</v>
       </c>
-      <c r="B7" t="inlineStr"/>
-      <c r="C7" t="n">
+      <c r="C6">
         <v>0.1355380862022228</v>
       </c>
-      <c r="D7" t="inlineStr"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2">
         <v>30286</v>
       </c>
-      <c r="B8" t="inlineStr"/>
-      <c r="C8" t="n">
+      <c r="C7">
         <v>0.1367989056087551</v>
       </c>
-      <c r="D8" t="inlineStr"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="2">
         <v>30317</v>
       </c>
-      <c r="B9" t="inlineStr"/>
-      <c r="C9" t="n">
+      <c r="C8">
         <v>0.1332445036642239</v>
       </c>
-      <c r="D9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="2">
         <v>30348</v>
       </c>
-      <c r="B10" t="inlineStr"/>
-      <c r="C10" t="n">
+      <c r="C9">
         <v>0.133645172068159</v>
       </c>
-      <c r="D10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="2">
         <v>30376</v>
       </c>
-      <c r="B11" t="inlineStr"/>
-      <c r="C11" t="n">
+      <c r="C10">
         <v>0.1324503311258278</v>
       </c>
-      <c r="D11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="2">
         <v>30407</v>
       </c>
-      <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="C11">
         <v>0.1332445036642239</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="2">
         <v>30437</v>
       </c>
-      <c r="B13" t="inlineStr"/>
-      <c r="C13" t="n">
+      <c r="C12">
         <v>0.1325820351342393</v>
       </c>
-      <c r="D13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="2">
         <v>30468</v>
       </c>
-      <c r="B14" t="inlineStr"/>
-      <c r="C14" t="n">
+      <c r="C13">
         <v>0.1310615989515072</v>
       </c>
-      <c r="D14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="2">
         <v>30498</v>
       </c>
-      <c r="B15" t="inlineStr"/>
-      <c r="C15" t="n">
+      <c r="C14">
         <v>0.1289823294208693</v>
       </c>
-      <c r="D15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="2">
         <v>30529</v>
       </c>
-      <c r="B16" t="inlineStr"/>
-      <c r="C16" t="n">
+      <c r="C15">
         <v>0.1261829652996845</v>
       </c>
-      <c r="D16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="2">
         <v>30560</v>
       </c>
-      <c r="B17" t="inlineStr"/>
-      <c r="C17" t="n">
+      <c r="C16">
         <v>0.1280409731113956</v>
       </c>
-      <c r="D17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
         <v>30590</v>
       </c>
-      <c r="B18" t="inlineStr"/>
-      <c r="C18" t="n">
+      <c r="C17">
         <v>0.127787361829915</v>
       </c>
-      <c r="D18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
         <v>30621</v>
       </c>
-      <c r="B19" t="inlineStr"/>
-      <c r="C19" t="n">
+      <c r="C18">
         <v>0.1256281407035176</v>
       </c>
-      <c r="D19" t="inlineStr"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>30651</v>
       </c>
-      <c r="B20" t="inlineStr"/>
-      <c r="C20" t="n">
+      <c r="C19">
         <v>0.1248439450686642</v>
       </c>
-      <c r="D20" t="inlineStr"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
         <v>30682</v>
       </c>
-      <c r="B21" t="inlineStr"/>
-      <c r="C21" t="n">
+      <c r="C20">
         <v>0.1221299462628236</v>
       </c>
-      <c r="D21" t="inlineStr"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
         <v>30713</v>
       </c>
-      <c r="B22" t="inlineStr"/>
-      <c r="C22" t="n">
+      <c r="C21">
         <v>0.1287001287001287</v>
       </c>
-      <c r="D22" t="inlineStr"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
         <v>30742</v>
       </c>
-      <c r="B23" t="inlineStr"/>
-      <c r="C23" t="n">
+      <c r="C22">
         <v>0.1295336787564767</v>
       </c>
-      <c r="D23" t="inlineStr"/>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
         <v>30773</v>
       </c>
-      <c r="B24" t="inlineStr"/>
-      <c r="C24" t="n">
+      <c r="C23">
         <v>0.1252348152786475</v>
       </c>
-      <c r="D24" t="inlineStr"/>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
         <v>30803</v>
       </c>
-      <c r="B25" t="inlineStr"/>
-      <c r="C25" t="n">
+      <c r="C24">
         <v>0.1237317495669389</v>
       </c>
-      <c r="D25" t="inlineStr"/>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
         <v>30834</v>
       </c>
-      <c r="B26" t="inlineStr"/>
-      <c r="C26" t="n">
+      <c r="C25">
         <v>0.122256861666361</v>
       </c>
-      <c r="D26" t="inlineStr"/>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
         <v>30864</v>
       </c>
-      <c r="B27" t="inlineStr"/>
-      <c r="C27" t="n">
+      <c r="C26">
         <v>0.1186239620403322</v>
       </c>
-      <c r="D27" t="inlineStr"/>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
         <v>30895</v>
       </c>
-      <c r="B28" t="inlineStr"/>
-      <c r="C28" t="n">
+      <c r="C27">
         <v>0.1201923076923077</v>
       </c>
-      <c r="D28" t="inlineStr"/>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
         <v>30926</v>
       </c>
-      <c r="B29" t="inlineStr"/>
-      <c r="C29" t="n">
+      <c r="C28">
         <v>0.1151145389662715</v>
       </c>
-      <c r="D29" t="inlineStr"/>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
         <v>30956</v>
       </c>
-      <c r="B30" t="inlineStr"/>
-      <c r="C30" t="n">
+      <c r="C29">
         <v>0.115460108532502</v>
       </c>
-      <c r="D30" t="inlineStr"/>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
         <v>30987</v>
       </c>
-      <c r="B31" t="inlineStr"/>
-      <c r="C31" t="n">
+      <c r="C30">
         <v>0.1131221719457014</v>
       </c>
-      <c r="D31" t="inlineStr"/>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
         <v>31017</v>
       </c>
-      <c r="B32" t="inlineStr"/>
-      <c r="C32" t="n">
+      <c r="C31">
         <v>0.1112966054535337</v>
       </c>
-      <c r="D32" t="inlineStr"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
         <v>31048</v>
       </c>
-      <c r="B33" t="inlineStr"/>
-      <c r="C33" t="n">
+      <c r="C32">
         <v>0.1106194690265487</v>
       </c>
-      <c r="D33" t="inlineStr"/>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
         <v>31079</v>
       </c>
-      <c r="B34" t="inlineStr"/>
-      <c r="C34" t="n">
+      <c r="C33">
         <v>0.1054852320675105</v>
       </c>
-      <c r="D34" t="inlineStr"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
         <v>31107</v>
       </c>
-      <c r="B35" t="inlineStr"/>
-      <c r="C35" t="n">
+      <c r="C34">
         <v>0.1121076233183857</v>
       </c>
-      <c r="D35" t="inlineStr"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="2" t="n">
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
         <v>31138</v>
       </c>
-      <c r="B36" t="inlineStr"/>
-      <c r="C36" t="n">
+      <c r="C35">
         <v>0.1109570041608877</v>
       </c>
-      <c r="D36" t="inlineStr"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="2" t="n">
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
         <v>31168</v>
       </c>
-      <c r="B37" t="inlineStr"/>
-      <c r="C37" t="n">
+      <c r="C36">
         <v>0.112739571589628</v>
       </c>
-      <c r="D37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="2" t="n">
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
         <v>31199</v>
       </c>
-      <c r="B38" t="inlineStr"/>
-      <c r="C38" t="n">
+      <c r="C37">
         <v>0.1143837575064341</v>
       </c>
-      <c r="D38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="2" t="n">
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
         <v>31229</v>
       </c>
-      <c r="B39" t="inlineStr"/>
-      <c r="C39" t="n">
+      <c r="C38">
         <v>0.1207000603500302</v>
       </c>
-      <c r="D39" t="inlineStr"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="2" t="n">
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
         <v>31260</v>
       </c>
-      <c r="B40" t="inlineStr"/>
-      <c r="C40" t="n">
+      <c r="C39">
         <v>0.1201201201201201</v>
       </c>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="2" t="n">
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
         <v>31291</v>
       </c>
-      <c r="B41" t="inlineStr"/>
-      <c r="C41" t="n">
+      <c r="C40">
         <v>0.124223602484472</v>
       </c>
-      <c r="D41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" s="2" t="n">
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
         <v>31321</v>
       </c>
-      <c r="B42" t="inlineStr"/>
-      <c r="C42" t="n">
+      <c r="C41">
         <v>0.1269680040629761</v>
       </c>
-      <c r="D42" t="inlineStr"/>
-    </row>
-    <row r="43">
-      <c r="A43" s="2" t="n">
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
         <v>31352</v>
       </c>
-      <c r="B43" t="inlineStr"/>
-      <c r="C43" t="n">
+      <c r="C42">
         <v>0.1309671927182241</v>
       </c>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="2" t="n">
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
         <v>31382</v>
       </c>
-      <c r="B44" t="inlineStr"/>
-      <c r="C44" t="n">
+      <c r="C43">
         <v>0.132013201320132</v>
       </c>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="2" t="n">
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
         <v>31413</v>
       </c>
-      <c r="B45" t="inlineStr"/>
-      <c r="C45" t="n">
+      <c r="C44">
         <v>0.1327580484566877</v>
       </c>
-      <c r="D45" t="inlineStr"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="2" t="n">
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
         <v>31444</v>
       </c>
-      <c r="B46" t="inlineStr"/>
-      <c r="C46" t="n">
+      <c r="C45">
         <v>0.1388792444969099</v>
       </c>
-      <c r="D46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="2" t="n">
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
         <v>31472</v>
       </c>
-      <c r="B47" t="inlineStr"/>
-      <c r="C47" t="n">
+      <c r="C46">
         <v>0.135685210312076</v>
       </c>
-      <c r="D47" t="inlineStr"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
         <v>31503</v>
       </c>
-      <c r="B48" t="inlineStr"/>
-      <c r="C48" t="n">
+      <c r="C47">
         <v>0.1427144284287142</v>
       </c>
-      <c r="D48" t="inlineStr"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
         <v>31533</v>
       </c>
-      <c r="B49" t="inlineStr"/>
-      <c r="C49" t="n">
+      <c r="C48">
         <v>0.135308842432853</v>
       </c>
-      <c r="D49" t="inlineStr"/>
-    </row>
-    <row r="50">
-      <c r="A50" s="2" t="n">
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
         <v>31564</v>
       </c>
-      <c r="B50" t="inlineStr"/>
-      <c r="C50" t="n">
+      <c r="C49">
         <v>0.1402918069584736</v>
       </c>
-      <c r="D50" t="inlineStr"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="2" t="n">
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
         <v>31594</v>
       </c>
-      <c r="B51" t="inlineStr"/>
-      <c r="C51" t="n">
+      <c r="C50">
         <v>0.143348623853211</v>
       </c>
-      <c r="D51" t="inlineStr"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="2" t="n">
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
         <v>31625</v>
       </c>
-      <c r="B52" t="inlineStr"/>
-      <c r="C52" t="n">
+      <c r="C51">
         <v>0.1451378809869376</v>
       </c>
-      <c r="D52" t="inlineStr"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="2" t="n">
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
         <v>31656</v>
       </c>
-      <c r="B53" t="inlineStr"/>
-      <c r="C53" t="n">
+      <c r="C52">
         <v>0.1447178002894356</v>
       </c>
-      <c r="D53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="2" t="n">
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
         <v>31686</v>
       </c>
-      <c r="B54" t="inlineStr"/>
-      <c r="C54" t="n">
+      <c r="C53">
         <v>0.1420858198351805</v>
       </c>
-      <c r="D54" t="inlineStr"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="2" t="n">
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
         <v>31717</v>
       </c>
-      <c r="B55" t="inlineStr"/>
-      <c r="C55" t="n">
+      <c r="C54">
         <v>0.1454016721192294</v>
       </c>
-      <c r="D55" t="inlineStr"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="2" t="n">
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
         <v>31747</v>
       </c>
-      <c r="B56" t="inlineStr"/>
-      <c r="C56" t="n">
+      <c r="C55">
         <v>0.1483459427384661</v>
       </c>
-      <c r="D56" t="inlineStr"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="2" t="n">
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
         <v>31778</v>
       </c>
-      <c r="B57" t="inlineStr"/>
-      <c r="C57" t="n">
+      <c r="C56">
         <v>0.1528467711119602</v>
       </c>
-      <c r="D57" t="inlineStr"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="2" t="n">
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
         <v>31809</v>
       </c>
-      <c r="B58" t="inlineStr"/>
-      <c r="C58" t="n">
+      <c r="C57">
         <v>0.1544401544401544</v>
       </c>
-      <c r="D58" t="inlineStr"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="2" t="n">
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
         <v>31837</v>
       </c>
-      <c r="B59" t="inlineStr"/>
-      <c r="C59" t="n">
+      <c r="C58">
         <v>0.158102766798419</v>
       </c>
-      <c r="D59" t="inlineStr"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="2" t="n">
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
         <v>31868</v>
       </c>
-      <c r="B60" t="inlineStr"/>
-      <c r="C60" t="n">
+      <c r="C59">
         <v>0.1591343093570974</v>
       </c>
-      <c r="D60" t="inlineStr"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="2" t="n">
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
         <v>31898</v>
       </c>
-      <c r="B61" t="inlineStr"/>
-      <c r="C61" t="n">
+      <c r="C60">
         <v>0.1571832756994656</v>
       </c>
-      <c r="D61" t="inlineStr"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="2" t="n">
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
         <v>31929</v>
       </c>
-      <c r="B62" t="inlineStr"/>
-      <c r="C62" t="n">
+      <c r="C61">
         <v>0.1565925461948011</v>
       </c>
-      <c r="D62" t="inlineStr"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="2" t="n">
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
         <v>31959</v>
       </c>
-      <c r="B63" t="inlineStr"/>
-      <c r="C63" t="n">
+      <c r="C62">
         <v>0.1541069502234551</v>
       </c>
-      <c r="D63" t="inlineStr"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="2" t="n">
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
         <v>31990</v>
       </c>
-      <c r="B64" t="inlineStr"/>
-      <c r="C64" t="n">
+      <c r="C63">
         <v>0.1568381430363864</v>
       </c>
-      <c r="D64" t="inlineStr"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="2" t="n">
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
         <v>32021</v>
       </c>
-      <c r="B65" t="inlineStr"/>
-      <c r="C65" t="n">
+      <c r="C64">
         <v>0.1548467017652524</v>
       </c>
-      <c r="D65" t="inlineStr"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="2" t="n">
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
         <v>32051</v>
       </c>
-      <c r="B66" t="inlineStr"/>
-      <c r="C66" t="n">
+      <c r="C65">
         <v>0.1612903225806452</v>
       </c>
-      <c r="D66" t="inlineStr"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="2" t="n">
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
         <v>32082</v>
       </c>
-      <c r="B67" t="inlineStr"/>
-      <c r="C67" t="n">
+      <c r="C66">
         <v>0.1677570877369569</v>
       </c>
-      <c r="D67" t="inlineStr"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="2" t="n">
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
         <v>32112</v>
       </c>
-      <c r="B68" t="inlineStr"/>
-      <c r="C68" t="n">
+      <c r="C67">
         <v>0.1725625539257981</v>
       </c>
-      <c r="D68" t="inlineStr"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="2" t="n">
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
         <v>32143</v>
       </c>
-      <c r="B69" t="inlineStr"/>
-      <c r="C69" t="n">
+      <c r="C68">
         <v>0.1657824933687003</v>
       </c>
-      <c r="D69" t="inlineStr"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="2" t="n">
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
         <v>32174</v>
       </c>
-      <c r="B70" t="inlineStr"/>
-      <c r="C70" t="n">
+      <c r="C69">
         <v>0.1668891855807744</v>
       </c>
-      <c r="D70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="2" t="n">
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
         <v>32203</v>
       </c>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="n">
+      <c r="C70">
         <v>0.170328734457503</v>
       </c>
-      <c r="D71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="2" t="n">
+    </row>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
         <v>32234</v>
       </c>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="n">
+      <c r="C71">
         <v>0.1702127659574468</v>
       </c>
-      <c r="D72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="2" t="n">
+    </row>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
         <v>32264</v>
       </c>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="n">
+      <c r="C72">
         <v>0.1668752607425949</v>
       </c>
-      <c r="D73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="2" t="n">
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
         <v>32295</v>
       </c>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="n">
+      <c r="C73">
         <v>0.1591089896579157</v>
       </c>
-      <c r="D74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="2" t="n">
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
         <v>32325</v>
       </c>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="n">
+      <c r="C74">
         <v>0.1557875058420315</v>
       </c>
-      <c r="D75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="2" t="n">
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
         <v>32356</v>
       </c>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="n">
+      <c r="C75">
         <v>0.1540120129370091</v>
       </c>
-      <c r="D76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="2" t="n">
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
         <v>32387</v>
       </c>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="n">
+      <c r="C76">
         <v>0.1556420233463035</v>
       </c>
-      <c r="D77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="2" t="n">
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
         <v>32417</v>
       </c>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="n">
+      <c r="C77">
         <v>0.1614205004035512</v>
       </c>
-      <c r="D78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="2" t="n">
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
         <v>32448</v>
       </c>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="n">
+      <c r="C78">
         <v>0.1655218074981379</v>
       </c>
-      <c r="D79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="2" t="n">
+    </row>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
         <v>32478</v>
       </c>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="n">
+      <c r="C79">
         <v>0.1631055292774425</v>
       </c>
-      <c r="D80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="2" t="n">
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
         <v>32509</v>
       </c>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="n">
+      <c r="C80">
         <v>0.1572327044025157</v>
       </c>
-      <c r="D81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="2" t="n">
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
         <v>32540</v>
       </c>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="n">
+      <c r="C81">
         <v>0.1590583744234134</v>
       </c>
-      <c r="D82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="2" t="n">
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
         <v>32568</v>
       </c>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="n">
+      <c r="C82">
         <v>0.1552072016141549</v>
       </c>
-      <c r="D83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="2" t="n">
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
         <v>32599</v>
       </c>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="n">
+      <c r="C83">
         <v>0.1565435190983093</v>
       </c>
-      <c r="D84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="2" t="n">
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
         <v>32629</v>
       </c>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="n">
+      <c r="C84">
         <v>0.1500600240096039</v>
       </c>
-      <c r="D85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="2" t="n">
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
         <v>32660</v>
       </c>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="n">
+      <c r="C85">
         <v>0.1502178158329578</v>
       </c>
-      <c r="D86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="2" t="n">
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
         <v>32690</v>
       </c>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="n">
+      <c r="C86">
         <v>0.1566416040100251</v>
       </c>
-      <c r="D87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="2" t="n">
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
         <v>32721</v>
       </c>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="n">
+      <c r="C87">
         <v>0.1510345869204048</v>
       </c>
-      <c r="D88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="2" t="n">
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
         <v>32752</v>
       </c>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="n">
+      <c r="C88">
         <v>0.1554968123153475</v>
       </c>
-      <c r="D89" t="inlineStr"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="2" t="n">
+    </row>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
         <v>32782</v>
       </c>
-      <c r="B90" t="inlineStr"/>
-      <c r="C90" t="n">
+      <c r="C89">
         <v>0.1557632398753894</v>
       </c>
-      <c r="D90" t="inlineStr"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="2" t="n">
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
         <v>32813</v>
       </c>
-      <c r="B91" t="inlineStr"/>
-      <c r="C91" t="n">
+      <c r="C90">
         <v>0.1567398119122257</v>
       </c>
-      <c r="D91" t="inlineStr"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="2" t="n">
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
         <v>32843</v>
       </c>
-      <c r="B92" t="inlineStr"/>
-      <c r="C92" t="n">
+      <c r="C91">
         <v>0.1611214049786514</v>
       </c>
-      <c r="D92" t="inlineStr"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="2" t="n">
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
         <v>32874</v>
       </c>
-      <c r="B93" t="inlineStr"/>
-      <c r="C93" t="n">
+      <c r="C92">
         <v>0.1623376623376623</v>
       </c>
-      <c r="D93" t="inlineStr"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="2" t="n">
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
         <v>32905</v>
       </c>
-      <c r="B94" t="inlineStr"/>
-      <c r="C94" t="n">
+      <c r="C93">
         <v>0.1632253325716151</v>
       </c>
-      <c r="D94" t="inlineStr"/>
-    </row>
-    <row r="95">
-      <c r="A95" s="2" t="n">
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
         <v>32933</v>
       </c>
-      <c r="B95" t="inlineStr"/>
-      <c r="C95" t="n">
+      <c r="C94">
         <v>0.1635590448151783</v>
       </c>
-      <c r="D95" t="inlineStr"/>
-    </row>
-    <row r="96">
-      <c r="A96" s="2" t="n">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
         <v>32964</v>
       </c>
-      <c r="B96" t="inlineStr"/>
-      <c r="C96" t="n">
+      <c r="C95">
         <v>0.1639881928501148</v>
       </c>
-      <c r="D96" t="inlineStr"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="2" t="n">
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
         <v>32994</v>
       </c>
-      <c r="B97" t="inlineStr"/>
-      <c r="C97" t="n">
+      <c r="C96">
         <v>0.1630523398010761</v>
       </c>
-      <c r="D97" t="inlineStr"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="2" t="n">
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
         <v>33025</v>
       </c>
-      <c r="B98" t="inlineStr"/>
-      <c r="C98" t="n">
+      <c r="C97">
         <v>0.1656314699792961</v>
       </c>
-      <c r="D98" t="inlineStr"/>
-    </row>
-    <row r="99">
-      <c r="A99" s="2" t="n">
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
         <v>33055</v>
       </c>
-      <c r="B99" t="inlineStr"/>
-      <c r="C99" t="n">
+      <c r="C98">
         <v>0.1720282126268708</v>
       </c>
-      <c r="D99" t="inlineStr"/>
-    </row>
-    <row r="100">
-      <c r="A100" s="2" t="n">
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
         <v>33086</v>
       </c>
-      <c r="B100" t="inlineStr"/>
-      <c r="C100" t="n">
+      <c r="C99">
         <v>0.1727414061150458</v>
       </c>
-      <c r="D100" t="inlineStr"/>
-    </row>
-    <row r="101">
-      <c r="A101" s="2" t="n">
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
         <v>33117</v>
       </c>
-      <c r="B101" t="inlineStr"/>
-      <c r="C101" t="n">
+      <c r="C100">
         <v>0.1735207357279195</v>
       </c>
-      <c r="D101" t="inlineStr"/>
-    </row>
-    <row r="102">
-      <c r="A102" s="2" t="n">
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
         <v>33147</v>
       </c>
-      <c r="B102" t="inlineStr"/>
-      <c r="C102" t="n">
+      <c r="C101">
         <v>0.1772735330615139</v>
       </c>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="2" t="n">
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
         <v>33178</v>
       </c>
-      <c r="B103" t="inlineStr"/>
-      <c r="C103" t="n">
+      <c r="C102">
         <v>0.1779834475393788</v>
       </c>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="2" t="n">
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
         <v>33208</v>
       </c>
-      <c r="B104" t="inlineStr"/>
-      <c r="C104" t="n">
+      <c r="C103">
         <v>0.1775095411378362</v>
       </c>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="2" t="n">
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
         <v>33239</v>
       </c>
-      <c r="B105" t="inlineStr"/>
-      <c r="C105" t="n">
+      <c r="C104">
         <v>0.1807337791433219</v>
       </c>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="2" t="n">
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
         <v>33270</v>
       </c>
-      <c r="B106" t="inlineStr"/>
-      <c r="C106" t="n">
+      <c r="C105">
         <v>0.1763668430335097</v>
       </c>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="2" t="n">
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
         <v>33298</v>
       </c>
-      <c r="B107" t="inlineStr"/>
-      <c r="C107" t="n">
+      <c r="C106">
         <v>0.1631321370309951</v>
       </c>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="2" t="n">
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
         <v>33329</v>
       </c>
-      <c r="B108" t="inlineStr"/>
-      <c r="C108" t="n">
+      <c r="C107">
         <v>0.1626545217957059</v>
       </c>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="2" t="n">
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
         <v>33359</v>
       </c>
-      <c r="B109" t="inlineStr"/>
-      <c r="C109" t="n">
+      <c r="C108">
         <v>0.1603206412825651</v>
       </c>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="2" t="n">
+    </row>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
         <v>33390</v>
       </c>
-      <c r="B110" t="inlineStr"/>
-      <c r="C110" t="n">
+      <c r="C109">
         <v>0.1540476007086189</v>
       </c>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="2" t="n">
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
         <v>33420</v>
       </c>
-      <c r="B111" t="inlineStr"/>
-      <c r="C111" t="n">
+      <c r="C110">
         <v>0.158102766798419</v>
       </c>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="2" t="n">
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
         <v>33451</v>
       </c>
-      <c r="B112" t="inlineStr"/>
-      <c r="C112" t="n">
+      <c r="C111">
         <v>0.1580278128950695</v>
       </c>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="2" t="n">
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
         <v>33482</v>
       </c>
-      <c r="B113" t="inlineStr"/>
-      <c r="C113" t="n">
+      <c r="C112">
         <v>0.1645278051990786</v>
       </c>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="2" t="n">
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
         <v>33512</v>
       </c>
-      <c r="B114" t="inlineStr"/>
-      <c r="C114" t="n">
+      <c r="C113">
         <v>0.1642036124794745</v>
       </c>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="2" t="n">
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
         <v>33543</v>
       </c>
-      <c r="B115" t="inlineStr"/>
-      <c r="C115" t="n">
+      <c r="C114">
         <v>0.1683501683501683</v>
       </c>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="2" t="n">
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
         <v>33573</v>
       </c>
-      <c r="B116" t="inlineStr"/>
-      <c r="C116" t="n">
+      <c r="C115">
         <v>0.1801801801801802</v>
       </c>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="2" t="n">
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
         <v>33604</v>
       </c>
-      <c r="B117" t="inlineStr"/>
-      <c r="C117" t="n">
+      <c r="C116">
         <v>0.1709401709401709</v>
       </c>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="2" t="n">
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
         <v>33635</v>
       </c>
-      <c r="B118" t="inlineStr"/>
-      <c r="C118" t="n">
+      <c r="C117">
         <v>0.1688048615800135</v>
       </c>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="2" t="n">
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
         <v>33664</v>
       </c>
-      <c r="B119" t="inlineStr"/>
-      <c r="C119" t="n">
+      <c r="C118">
         <v>0.1675884028825205</v>
       </c>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="2" t="n">
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
         <v>33695</v>
       </c>
-      <c r="B120" t="inlineStr"/>
-      <c r="C120" t="n">
+      <c r="C119">
         <v>0.1681520094165125</v>
       </c>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="2" t="n">
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
         <v>33725</v>
       </c>
-      <c r="B121" t="inlineStr"/>
-      <c r="C121" t="n">
+      <c r="C120">
         <v>0.1727712508638563</v>
       </c>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="2" t="n">
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
         <v>33756</v>
       </c>
-      <c r="B122" t="inlineStr"/>
-      <c r="C122" t="n">
+      <c r="C121">
         <v>0.1819505094614265</v>
       </c>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="2" t="n">
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
         <v>33786</v>
       </c>
-      <c r="B123" t="inlineStr"/>
-      <c r="C123" t="n">
+      <c r="C122">
         <v>0.1865671641791045</v>
       </c>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="2" t="n">
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
         <v>33817</v>
       </c>
-      <c r="B124" t="inlineStr"/>
-      <c r="C124" t="n">
+      <c r="C123">
         <v>0.1941747572815534</v>
       </c>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="2" t="n">
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
         <v>33848</v>
       </c>
-      <c r="B125" t="inlineStr"/>
-      <c r="C125" t="n">
+      <c r="C124">
         <v>0.1896453631708705</v>
       </c>
-      <c r="D125" t="inlineStr"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="2" t="n">
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
         <v>33878</v>
       </c>
-      <c r="B126" t="inlineStr"/>
-      <c r="C126" t="n">
+      <c r="C125">
         <v>0.1721170395869191</v>
       </c>
-      <c r="D126" t="inlineStr"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="2" t="n">
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
         <v>33909</v>
       </c>
-      <c r="B127" t="inlineStr"/>
-      <c r="C127" t="n">
+      <c r="C126">
         <v>0.1481481481481481</v>
       </c>
-      <c r="D127" t="inlineStr"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="2" t="n">
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
         <v>33939</v>
       </c>
-      <c r="B128" t="inlineStr"/>
-      <c r="C128" t="n">
+      <c r="C127">
         <v>0.1412030499858797</v>
       </c>
-      <c r="D128" t="inlineStr"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="2" t="n">
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
         <v>33970</v>
       </c>
-      <c r="B129" t="inlineStr"/>
-      <c r="C129" t="n">
+      <c r="C128">
         <v>0.1367989056087551</v>
       </c>
-      <c r="D129" t="inlineStr"/>
-    </row>
-    <row r="130">
-      <c r="A130" s="2" t="n">
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
         <v>34001</v>
       </c>
-      <c r="B130" t="inlineStr"/>
-      <c r="C130" t="n">
+      <c r="C129">
         <v>0.1276650070215754</v>
       </c>
-      <c r="D130" t="inlineStr"/>
-    </row>
-    <row r="131">
-      <c r="A131" s="2" t="n">
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
         <v>34029</v>
       </c>
-      <c r="B131" t="inlineStr"/>
-      <c r="C131" t="n">
+      <c r="C130">
         <v>0.1297858533419857</v>
       </c>
-      <c r="D131" t="inlineStr"/>
-    </row>
-    <row r="132">
-      <c r="A132" s="2" t="n">
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
         <v>34060</v>
       </c>
-      <c r="B132" t="inlineStr"/>
-      <c r="C132" t="n">
+      <c r="C131">
         <v>0.1369675386933297</v>
       </c>
-      <c r="D132" t="inlineStr"/>
-    </row>
-    <row r="133">
-      <c r="A133" s="2" t="n">
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
         <v>34090</v>
       </c>
-      <c r="B133" t="inlineStr"/>
-      <c r="C133" t="n">
+      <c r="C132">
         <v>0.1395868230039084</v>
       </c>
-      <c r="D133" t="inlineStr"/>
-    </row>
-    <row r="134">
-      <c r="A134" s="2" t="n">
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
         <v>34121</v>
       </c>
-      <c r="B134" t="inlineStr"/>
-      <c r="C134" t="n">
+      <c r="C133">
         <v>0.1291989664082687</v>
       </c>
-      <c r="D134" t="inlineStr"/>
-    </row>
-    <row r="135">
-      <c r="A135" s="2" t="n">
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2">
         <v>34151</v>
       </c>
-      <c r="B135" t="inlineStr"/>
-      <c r="C135" t="n">
+      <c r="C134">
         <v>0.1213444970270598</v>
       </c>
-      <c r="D135" t="inlineStr"/>
-    </row>
-    <row r="136">
-      <c r="A136" s="2" t="n">
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2">
         <v>34182</v>
       </c>
-      <c r="B136" t="inlineStr"/>
-      <c r="C136" t="n">
+      <c r="C135">
         <v>0.1223091976516634</v>
       </c>
-      <c r="D136" t="inlineStr"/>
-    </row>
-    <row r="137">
-      <c r="A137" s="2" t="n">
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2">
         <v>34213</v>
       </c>
-      <c r="B137" t="inlineStr"/>
-      <c r="C137" t="n">
+      <c r="C136">
         <v>0.123304562268804</v>
       </c>
-      <c r="D137" t="inlineStr"/>
-    </row>
-    <row r="138">
-      <c r="A138" s="2" t="n">
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2">
         <v>34243</v>
       </c>
-      <c r="B138" t="inlineStr"/>
-      <c r="C138" t="n">
+      <c r="C137">
         <v>0.1227596366314756</v>
       </c>
-      <c r="D138" t="inlineStr"/>
-    </row>
-    <row r="139">
-      <c r="A139" s="2" t="n">
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2">
         <v>34274</v>
       </c>
-      <c r="B139" t="inlineStr"/>
-      <c r="C139" t="n">
+      <c r="C138">
         <v>0.1180776951233912</v>
       </c>
-      <c r="D139" t="inlineStr"/>
-    </row>
-    <row r="140">
-      <c r="A140" s="2" t="n">
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2">
         <v>34304</v>
       </c>
-      <c r="B140" t="inlineStr"/>
-      <c r="C140" t="n">
+      <c r="C139">
         <v>0.1199760047990402</v>
       </c>
-      <c r="D140" t="inlineStr"/>
-    </row>
-    <row r="141">
-      <c r="A141" s="2" t="n">
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2">
         <v>34335</v>
       </c>
-      <c r="B141" t="inlineStr"/>
-      <c r="C141" t="n">
+      <c r="C140">
         <v>0.1269357705001269</v>
       </c>
-      <c r="D141" t="inlineStr"/>
-    </row>
-    <row r="142">
-      <c r="A142" s="2" t="n">
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2">
         <v>34366</v>
       </c>
-      <c r="B142" t="inlineStr"/>
-      <c r="C142" t="n">
+      <c r="C141">
         <v>0.1255335174491589</v>
       </c>
-      <c r="D142" t="inlineStr"/>
-    </row>
-    <row r="143">
-      <c r="A143" s="2" t="n">
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2">
         <v>34394</v>
       </c>
-      <c r="B143" t="inlineStr"/>
-      <c r="C143" t="n">
+      <c r="C142">
         <v>0.1276161306789178</v>
       </c>
-      <c r="D143" t="inlineStr"/>
-    </row>
-    <row r="144">
-      <c r="A144" s="2" t="n">
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="2">
         <v>34425</v>
       </c>
-      <c r="B144" t="inlineStr"/>
-      <c r="C144" t="n">
+      <c r="C143">
         <v>0.1314233144959916</v>
       </c>
-      <c r="D144" t="inlineStr"/>
-    </row>
-    <row r="145">
-      <c r="A145" s="2" t="n">
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2">
         <v>34455</v>
       </c>
-      <c r="B145" t="inlineStr"/>
-      <c r="C145" t="n">
+      <c r="C144">
         <v>0.1280737704918033</v>
       </c>
-      <c r="D145" t="inlineStr"/>
-    </row>
-    <row r="146">
-      <c r="A146" s="2" t="n">
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="2">
         <v>34486</v>
       </c>
-      <c r="B146" t="inlineStr"/>
-      <c r="C146" t="n">
+      <c r="C145">
         <v>0.1307018690367272</v>
       </c>
-      <c r="D146" t="inlineStr"/>
-    </row>
-    <row r="147">
-      <c r="A147" s="2" t="n">
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" s="2">
         <v>34516</v>
       </c>
-      <c r="B147" t="inlineStr"/>
-      <c r="C147" t="n">
+      <c r="C146">
         <v>0.1287001287001287</v>
       </c>
-      <c r="D147" t="inlineStr"/>
-    </row>
-    <row r="148">
-      <c r="A148" s="2" t="n">
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" s="2">
         <v>34547</v>
       </c>
-      <c r="B148" t="inlineStr"/>
-      <c r="C148" t="n">
+      <c r="C147">
         <v>0.1289490651192779</v>
       </c>
-      <c r="D148" t="inlineStr"/>
-    </row>
-    <row r="149">
-      <c r="A149" s="2" t="n">
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="2">
         <v>34578</v>
       </c>
-      <c r="B149" t="inlineStr"/>
-      <c r="C149" t="n">
+      <c r="C148">
         <v>0.1337255950788981</v>
       </c>
-      <c r="D149" t="inlineStr"/>
-    </row>
-    <row r="150">
-      <c r="A150" s="2" t="n">
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="2">
         <v>34608</v>
       </c>
-      <c r="B150" t="inlineStr"/>
-      <c r="C150" t="n">
+      <c r="C149">
         <v>0.1398601398601398</v>
       </c>
-      <c r="D150" t="inlineStr"/>
-    </row>
-    <row r="151">
-      <c r="A151" s="2" t="n">
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="2">
         <v>34639</v>
       </c>
-      <c r="B151" t="inlineStr"/>
-      <c r="C151" t="n">
+      <c r="C150">
         <v>0.132749236691889</v>
       </c>
-      <c r="D151" t="inlineStr"/>
-    </row>
-    <row r="152">
-      <c r="A152" s="2" t="n">
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="2">
         <v>34669</v>
       </c>
-      <c r="B152" t="inlineStr"/>
-      <c r="C152" t="n">
+      <c r="C151">
         <v>0.134698275862069</v>
       </c>
-      <c r="D152" t="inlineStr"/>
-    </row>
-    <row r="153">
-      <c r="A153" s="2" t="n">
+    </row>
+    <row r="152" spans="1:3">
+      <c r="A152" s="2">
         <v>34700</v>
       </c>
-      <c r="B153" t="inlineStr"/>
-      <c r="C153" t="n">
+      <c r="C152">
         <v>0.1334400854016547</v>
       </c>
-      <c r="D153" t="inlineStr"/>
-    </row>
-    <row r="154">
-      <c r="A154" s="2" t="n">
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="2">
         <v>34731</v>
       </c>
-      <c r="B154" t="inlineStr"/>
-      <c r="C154" t="n">
+      <c r="C153">
         <v>0.1362397820163488</v>
       </c>
-      <c r="D154" t="inlineStr"/>
-    </row>
-    <row r="155">
-      <c r="A155" s="2" t="n">
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="2">
         <v>34759</v>
       </c>
-      <c r="B155" t="inlineStr"/>
-      <c r="C155" t="n">
+      <c r="C154">
         <v>0.1362026695723236</v>
       </c>
-      <c r="D155" t="inlineStr"/>
-    </row>
-    <row r="156">
-      <c r="A156" s="2" t="n">
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="2">
         <v>34790</v>
       </c>
-      <c r="B156" t="inlineStr"/>
-      <c r="C156" t="n">
+      <c r="C155">
         <v>0.1374570446735395</v>
       </c>
-      <c r="D156" t="inlineStr"/>
-    </row>
-    <row r="157">
-      <c r="A157" s="2" t="n">
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2">
         <v>34820</v>
       </c>
-      <c r="B157" t="inlineStr"/>
-      <c r="C157" t="n">
+      <c r="C156">
         <v>0.1362954886193267</v>
       </c>
-      <c r="D157" t="inlineStr"/>
-    </row>
-    <row r="158">
-      <c r="A158" s="2" t="n">
+    </row>
+    <row r="157" spans="1:3">
+      <c r="A157" s="2">
         <v>34851</v>
       </c>
-      <c r="B158" t="inlineStr"/>
-      <c r="C158" t="n">
+      <c r="C157">
         <v>0.1376651982378854</v>
       </c>
-      <c r="D158" t="inlineStr"/>
-    </row>
-    <row r="159">
-      <c r="A159" s="2" t="n">
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="2">
         <v>34881</v>
       </c>
-      <c r="B159" t="inlineStr"/>
-      <c r="C159" t="n">
+      <c r="C158">
         <v>0.1413427561837456</v>
       </c>
-      <c r="D159" t="inlineStr"/>
-    </row>
-    <row r="160">
-      <c r="A160" s="2" t="n">
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2">
         <v>34912</v>
       </c>
-      <c r="B160" t="inlineStr"/>
-      <c r="C160" t="n">
+      <c r="C159">
         <v>0.1368363437328955</v>
       </c>
-      <c r="D160" t="inlineStr"/>
-    </row>
-    <row r="161">
-      <c r="A161" s="2" t="n">
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2">
         <v>34943</v>
       </c>
-      <c r="B161" t="inlineStr"/>
-      <c r="C161" t="n">
+      <c r="C160">
         <v>0.1445713459592309</v>
       </c>
-      <c r="D161" t="inlineStr"/>
-    </row>
-    <row r="162">
-      <c r="A162" s="2" t="n">
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2">
         <v>34973</v>
       </c>
-      <c r="B162" t="inlineStr"/>
-      <c r="C162" t="n">
+      <c r="C161">
         <v>0.1506250941406838</v>
       </c>
-      <c r="D162" t="inlineStr"/>
-    </row>
-    <row r="163">
-      <c r="A163" s="2" t="n">
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="2">
         <v>35004</v>
       </c>
-      <c r="B163" t="inlineStr"/>
-      <c r="C163" t="n">
+      <c r="C162">
         <v>0.1524390243902439</v>
       </c>
-      <c r="D163" t="inlineStr"/>
-    </row>
-    <row r="164">
-      <c r="A164" s="2" t="n">
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="2">
         <v>35034</v>
       </c>
-      <c r="B164" t="inlineStr"/>
-      <c r="C164" t="n">
+      <c r="C163">
         <v>0.1504890895410083</v>
       </c>
-      <c r="D164" t="inlineStr"/>
-    </row>
-    <row r="165">
-      <c r="A165" s="2" t="n">
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="2">
         <v>35065</v>
       </c>
-      <c r="B165" t="inlineStr"/>
-      <c r="C165" t="n">
+      <c r="C164">
         <v>0.1442585112521639</v>
       </c>
-      <c r="D165" t="inlineStr"/>
-    </row>
-    <row r="166">
-      <c r="A166" s="2" t="n">
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2">
         <v>35096</v>
       </c>
-      <c r="B166" t="inlineStr"/>
-      <c r="C166" t="n">
+      <c r="C165">
         <v>0.14801657785672</v>
       </c>
-      <c r="D166" t="inlineStr"/>
-    </row>
-    <row r="167">
-      <c r="A167" s="2" t="n">
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="2">
         <v>35125</v>
       </c>
-      <c r="B167" t="inlineStr"/>
-      <c r="C167" t="n">
+      <c r="C166">
         <v>0.1497454327643007</v>
       </c>
-      <c r="D167" t="inlineStr"/>
-    </row>
-    <row r="168">
-      <c r="A168" s="2" t="n">
+    </row>
+    <row r="167" spans="1:3">
+      <c r="A167" s="2">
         <v>35156</v>
       </c>
-      <c r="B168" t="inlineStr"/>
-      <c r="C168" t="n">
+      <c r="C167">
         <v>0.1475796930342385</v>
       </c>
-      <c r="D168" t="inlineStr"/>
-    </row>
-    <row r="169">
-      <c r="A169" s="2" t="n">
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="2">
         <v>35186</v>
       </c>
-      <c r="B169" t="inlineStr"/>
-      <c r="C169" t="n">
+      <c r="C168">
         <v>0.1490312965722802</v>
       </c>
-      <c r="D169" t="inlineStr"/>
-    </row>
-    <row r="170">
-      <c r="A170" s="2" t="n">
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="2">
         <v>35217</v>
       </c>
-      <c r="B170" t="inlineStr"/>
-      <c r="C170" t="n">
+      <c r="C169">
         <v>0.1510345869204048</v>
       </c>
-      <c r="D170" t="inlineStr"/>
-    </row>
-    <row r="171">
-      <c r="A171" s="2" t="n">
+    </row>
+    <row r="170" spans="1:3">
+      <c r="A170" s="2">
         <v>35247</v>
       </c>
-      <c r="B171" t="inlineStr"/>
-      <c r="C171" t="n">
+      <c r="C170">
         <v>0.1515840533575868</v>
       </c>
-      <c r="D171" t="inlineStr"/>
-    </row>
-    <row r="172">
-      <c r="A172" s="2" t="n">
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="2">
         <v>35278</v>
       </c>
-      <c r="B172" t="inlineStr"/>
-      <c r="C172" t="n">
+      <c r="C171">
         <v>0.1508523155830442</v>
       </c>
-      <c r="D172" t="inlineStr"/>
-    </row>
-    <row r="173">
-      <c r="A173" s="2" t="n">
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2">
         <v>35309</v>
       </c>
-      <c r="B173" t="inlineStr"/>
-      <c r="C173" t="n">
+      <c r="C172">
         <v>0.1507386192342478</v>
       </c>
-      <c r="D173" t="inlineStr"/>
-    </row>
-    <row r="174">
-      <c r="A174" s="2" t="n">
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="2">
         <v>35339</v>
       </c>
-      <c r="B174" t="inlineStr"/>
-      <c r="C174" t="n">
+      <c r="C173">
         <v>0.1518833535844472</v>
       </c>
-      <c r="D174" t="inlineStr"/>
-    </row>
-    <row r="175">
-      <c r="A175" s="2" t="n">
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="2">
         <v>35370</v>
       </c>
-      <c r="B175" t="inlineStr"/>
-      <c r="C175" t="n">
+      <c r="C174">
         <v>0.1487431206306708</v>
       </c>
-      <c r="D175" t="inlineStr"/>
-    </row>
-    <row r="176">
-      <c r="A176" s="2" t="n">
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="2">
         <v>35400</v>
       </c>
-      <c r="B176" t="inlineStr"/>
-      <c r="C176" t="n">
+      <c r="C175">
         <v>0.146864444118079</v>
       </c>
-      <c r="D176" t="inlineStr"/>
-    </row>
-    <row r="177">
-      <c r="A177" s="2" t="n">
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="2">
         <v>35431</v>
       </c>
-      <c r="B177" t="inlineStr"/>
-      <c r="C177" t="n">
+      <c r="C176">
         <v>0.137797988149373</v>
       </c>
-      <c r="D177" t="inlineStr"/>
-    </row>
-    <row r="178">
-      <c r="A178" s="2" t="n">
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="2">
         <v>35462</v>
       </c>
-      <c r="B178" t="inlineStr"/>
-      <c r="C178" t="n">
+      <c r="C177">
         <v>0.1335826876836762</v>
       </c>
-      <c r="D178" t="inlineStr"/>
-    </row>
-    <row r="179">
-      <c r="A179" s="2" t="n">
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="2">
         <v>35490</v>
       </c>
-      <c r="B179" t="inlineStr"/>
-      <c r="C179" t="n">
+      <c r="C178">
         <v>0.1324152542372881</v>
       </c>
-      <c r="D179" t="inlineStr"/>
-    </row>
-    <row r="180">
-      <c r="A180" s="2" t="n">
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="2">
         <v>35521</v>
       </c>
-      <c r="B180" t="inlineStr"/>
-      <c r="C180" t="n">
+      <c r="C179">
         <v>0.1273074474856779</v>
       </c>
-      <c r="D180" t="inlineStr"/>
-    </row>
-    <row r="181">
-      <c r="A181" s="2" t="n">
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="2">
         <v>35551</v>
       </c>
-      <c r="B181" t="inlineStr"/>
-      <c r="C181" t="n">
+      <c r="C180">
         <v>0.1293326435592344</v>
       </c>
-      <c r="D181" t="inlineStr"/>
-    </row>
-    <row r="182">
-      <c r="A182" s="2" t="n">
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="2">
         <v>35582</v>
       </c>
-      <c r="B182" t="inlineStr"/>
-      <c r="C182" t="n">
+      <c r="C181">
         <v>0.1295001295001295</v>
       </c>
-      <c r="D182" t="inlineStr"/>
-    </row>
-    <row r="183">
-      <c r="A183" s="2" t="n">
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="2">
         <v>35612</v>
       </c>
-      <c r="B183" t="inlineStr"/>
-      <c r="C183" t="n">
+      <c r="C182">
         <v>0.125140783381304</v>
       </c>
-      <c r="D183" t="inlineStr"/>
-    </row>
-    <row r="184">
-      <c r="A184" s="2" t="n">
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="2">
         <v>35643</v>
       </c>
-      <c r="B184" t="inlineStr"/>
-      <c r="C184" t="n">
+      <c r="C183">
         <v>0.1269357705001269</v>
       </c>
-      <c r="D184" t="inlineStr"/>
-    </row>
-    <row r="185">
-      <c r="A185" s="2" t="n">
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="2">
         <v>35674</v>
       </c>
-      <c r="B185" t="inlineStr"/>
-      <c r="C185" t="n">
+      <c r="C184">
         <v>0.1320655044902272</v>
       </c>
-      <c r="D185" t="inlineStr"/>
-    </row>
-    <row r="186">
-      <c r="A186" s="2" t="n">
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="2">
         <v>35704</v>
       </c>
-      <c r="B186" t="inlineStr"/>
-      <c r="C186" t="n">
+      <c r="C185">
         <v>0.1334400854016547</v>
       </c>
-      <c r="D186" t="inlineStr"/>
-    </row>
-    <row r="187">
-      <c r="A187" s="2" t="n">
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="2">
         <v>35735</v>
       </c>
-      <c r="B187" t="inlineStr"/>
-      <c r="C187" t="n">
+      <c r="C186">
         <v>0.1291155584247902</v>
       </c>
-      <c r="D187" t="inlineStr"/>
-    </row>
-    <row r="188">
-      <c r="A188" s="2" t="n">
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="2">
         <v>35765</v>
       </c>
-      <c r="B188" t="inlineStr"/>
-      <c r="C188" t="n">
+      <c r="C187">
         <v>0.1263583522870862</v>
       </c>
-      <c r="D188" t="inlineStr"/>
-    </row>
-    <row r="189">
-      <c r="A189" s="2" t="n">
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="2">
         <v>35796</v>
       </c>
-      <c r="B189" t="n">
+      <c r="B188">
         <v>866171000000</v>
       </c>
-      <c r="C189" t="n">
+      <c r="C188">
         <v>0.1229709788489916</v>
       </c>
-      <c r="D189" t="n">
+      <c r="D188">
         <v>106513895720.6099</v>
       </c>
     </row>
-    <row r="190">
-      <c r="A190" s="2" t="n">
+    <row r="189" spans="1:4">
+      <c r="A189" s="2">
         <v>35827</v>
       </c>
-      <c r="B190" t="n">
+      <c r="B189">
         <v>840564000000</v>
       </c>
-      <c r="C190" t="n">
+      <c r="C189">
         <v>0.1249219237976265</v>
       </c>
-      <c r="D190" t="n">
+      <c r="D189">
         <v>105004871955.0281</v>
       </c>
     </row>
-    <row r="191">
-      <c r="A191" s="2" t="n">
+    <row r="190" spans="1:4">
+      <c r="A190" s="2">
         <v>35855</v>
       </c>
-      <c r="B191" t="n">
+      <c r="B190">
         <v>860182000000</v>
       </c>
-      <c r="C191" t="n">
+      <c r="C190">
         <v>0.1247816321437484</v>
       </c>
-      <c r="D191" t="n">
+      <c r="D190">
         <v>107334913900.6738</v>
       </c>
     </row>
-    <row r="192">
-      <c r="A192" s="2" t="n">
+    <row r="191" spans="1:4">
+      <c r="A191" s="2">
         <v>35886</v>
       </c>
-      <c r="B192" t="n">
+      <c r="B191">
         <v>859006000000</v>
       </c>
-      <c r="C192" t="n">
+      <c r="C191">
         <v>0.1289823294208693</v>
       </c>
-      <c r="D192" t="n">
+      <c r="D191">
         <v>110796594866.5033</v>
       </c>
     </row>
-    <row r="193">
-      <c r="A193" s="2" t="n">
+    <row r="192" spans="1:4">
+      <c r="A192" s="2">
         <v>35916</v>
       </c>
-      <c r="B193" t="n">
+      <c r="B192">
         <v>860771000000</v>
       </c>
-      <c r="C193" t="n">
+      <c r="C192">
         <v>0.1275510204081633</v>
       </c>
-      <c r="D193" t="n">
+      <c r="D192">
         <v>109792219387.7551</v>
       </c>
     </row>
-    <row r="194">
-      <c r="A194" s="2" t="n">
+    <row r="193" spans="1:4">
+      <c r="A193" s="2">
         <v>35947</v>
       </c>
-      <c r="B194" t="n">
+      <c r="B193">
         <v>871209000000</v>
       </c>
-      <c r="C194" t="n">
+      <c r="C193">
         <v>0.1251721116535236</v>
       </c>
-      <c r="D194" t="n">
+      <c r="D193">
         <v>109051070221.5546</v>
       </c>
     </row>
-    <row r="195">
-      <c r="A195" s="2" t="n">
+    <row r="194" spans="1:4">
+      <c r="A194" s="2">
         <v>35977</v>
       </c>
-      <c r="B195" t="n">
+      <c r="B194">
         <v>861701000000</v>
       </c>
-      <c r="C195" t="n">
+      <c r="C194">
         <v>0.1260398285858331</v>
       </c>
-      <c r="D195" t="n">
+      <c r="D194">
         <v>108608646332.241</v>
       </c>
     </row>
-    <row r="196">
-      <c r="A196" s="2" t="n">
+    <row r="195" spans="1:4">
+      <c r="A195" s="2">
         <v>36008</v>
       </c>
-      <c r="B196" t="n">
+      <c r="B195">
         <v>875102000000</v>
       </c>
-      <c r="C196" t="n">
+      <c r="C195">
         <v>0.1249843769528809</v>
       </c>
-      <c r="D196" t="n">
+      <c r="D195">
         <v>109374078240.22</v>
       </c>
     </row>
-    <row r="197">
-      <c r="A197" s="2" t="n">
+    <row r="196" spans="1:4">
+      <c r="A196" s="2">
         <v>36039</v>
       </c>
-      <c r="B197" t="n">
+      <c r="B196">
         <v>880147000000</v>
       </c>
-      <c r="C197" t="n">
+      <c r="C196">
         <v>0.1272912423625255</v>
       </c>
-      <c r="D197" t="n">
+      <c r="D196">
         <v>112035005091.6497</v>
       </c>
     </row>
-    <row r="198">
-      <c r="A198" s="2" t="n">
+    <row r="197" spans="1:4">
+      <c r="A197" s="2">
         <v>36069</v>
       </c>
-      <c r="B198" t="n">
+      <c r="B197">
         <v>872536000000</v>
       </c>
-      <c r="C198" t="n">
+      <c r="C197">
         <v>0.1286670097786927</v>
       </c>
-      <c r="D198" t="n">
+      <c r="D197">
         <v>112266598044.2615</v>
       </c>
     </row>
-    <row r="199">
-      <c r="A199" s="2" t="n">
+    <row r="198" spans="1:4">
+      <c r="A198" s="2">
         <v>36100</v>
       </c>
-      <c r="B199" t="n">
+      <c r="B198">
         <v>876396000000</v>
       </c>
-      <c r="C199" t="n">
+      <c r="C198">
         <v>0.1227747084100675</v>
       </c>
-      <c r="D199" t="n">
+      <c r="D198">
         <v>107599263351.7495</v>
       </c>
     </row>
-    <row r="200">
-      <c r="A200" s="2" t="n">
+    <row r="199" spans="1:4">
+      <c r="A199" s="2">
         <v>36130</v>
       </c>
-      <c r="B200" t="n">
+      <c r="B199">
         <v>887781000000</v>
       </c>
-      <c r="C200" t="n">
+      <c r="C199">
         <v>0.1241156758098548</v>
       </c>
-      <c r="D200" t="n">
+      <c r="D199">
         <v>110187538786.1487</v>
       </c>
     </row>
-    <row r="201">
-      <c r="A201" s="2" t="n">
+    <row r="200" spans="1:4">
+      <c r="A200" s="2">
         <v>36161</v>
       </c>
-      <c r="B201" t="n">
+      <c r="B200">
         <v>902424000000</v>
       </c>
-      <c r="C201" t="n">
+      <c r="C200">
         <v>0.1279918085242545</v>
       </c>
-      <c r="D201" t="n">
+      <c r="D200">
         <v>115502879815.6918</v>
       </c>
     </row>
-    <row r="202">
-      <c r="A202" s="2" t="n">
+    <row r="201" spans="1:4">
+      <c r="A201" s="2">
         <v>36192</v>
       </c>
-      <c r="B202" t="n">
+      <c r="B201">
         <v>892421000000</v>
       </c>
-      <c r="C202" t="n">
+      <c r="C201">
         <v>0.1224589762429586</v>
       </c>
-      <c r="D202" t="n">
+      <c r="D201">
         <v>109284962037.7174</v>
       </c>
     </row>
-    <row r="203">
-      <c r="A203" s="2" t="n">
+    <row r="202" spans="1:4">
+      <c r="A202" s="2">
         <v>36220</v>
       </c>
-      <c r="B203" t="n">
+      <c r="B202">
         <v>894623000000</v>
       </c>
-      <c r="C203" t="n">
+      <c r="C202">
         <v>0.1210653753026634</v>
       </c>
-      <c r="D203" t="n">
+      <c r="D202">
         <v>108307869249.3947</v>
       </c>
     </row>
-    <row r="204">
-      <c r="A204" s="2" t="n">
+    <row r="203" spans="1:4">
+      <c r="A203" s="2">
         <v>36251</v>
       </c>
-      <c r="B204" t="n">
+      <c r="B203">
         <v>888489000000</v>
       </c>
-      <c r="C204" t="n">
+      <c r="C203">
         <v>0.1185817621249852</v>
       </c>
-      <c r="D204" t="n">
+      <c r="D203">
         <v>105358591248.666</v>
       </c>
     </row>
-    <row r="205">
-      <c r="A205" s="2" t="n">
+    <row r="204" spans="1:4">
+      <c r="A204" s="2">
         <v>36281</v>
       </c>
-      <c r="B205" t="n">
+      <c r="B204">
         <v>895380000000</v>
       </c>
-      <c r="C205" t="n">
+      <c r="C204">
         <v>0.1162925921618793</v>
       </c>
-      <c r="D205" t="n">
+      <c r="D204">
         <v>104126061169.9035</v>
       </c>
     </row>
-    <row r="206">
-      <c r="A206" s="2" t="n">
+    <row r="205" spans="1:4">
+      <c r="A205" s="2">
         <v>36312</v>
       </c>
-      <c r="B206" t="n">
+      <c r="B205">
         <v>898006000000</v>
       </c>
-      <c r="C206" t="n">
+      <c r="C205">
         <v>0.1184553423359394</v>
       </c>
-      <c r="D206" t="n">
+      <c r="D205">
         <v>106373608149.7276</v>
       </c>
     </row>
-    <row r="207">
-      <c r="A207" s="2" t="n">
+    <row r="206" spans="1:4">
+      <c r="A206" s="2">
         <v>36342</v>
       </c>
-      <c r="B207" t="n">
+      <c r="B206">
         <v>894198000000</v>
       </c>
-      <c r="C207" t="n">
+      <c r="C206">
         <v>0.1217878455730118</v>
       </c>
-      <c r="D207" t="n">
+      <c r="D206">
         <v>108902447935.696</v>
       </c>
     </row>
-    <row r="208">
-      <c r="A208" s="2" t="n">
+    <row r="207" spans="1:4">
+      <c r="A207" s="2">
         <v>36373</v>
       </c>
-      <c r="B208" t="n">
+      <c r="B207">
         <v>911379000000</v>
       </c>
-      <c r="C208" t="n">
+      <c r="C207">
         <v>0.121197430614471</v>
       </c>
-      <c r="D208" t="n">
+      <c r="D207">
         <v>110456793115.9859</v>
       </c>
     </row>
-    <row r="209">
-      <c r="A209" s="2" t="n">
+    <row r="208" spans="1:4">
+      <c r="A208" s="2">
         <v>36404</v>
       </c>
-      <c r="B209" t="n">
+      <c r="B208">
         <v>921677000000</v>
       </c>
-      <c r="C209" t="n">
+      <c r="C208">
         <v>0.1224140041620761</v>
       </c>
-      <c r="D209" t="n">
+      <c r="D208">
         <v>112826172114.0898</v>
       </c>
     </row>
-    <row r="210">
-      <c r="A210" s="2" t="n">
+    <row r="209" spans="1:4">
+      <c r="A209" s="2">
         <v>36434</v>
       </c>
-      <c r="B210" t="n">
+      <c r="B209">
         <v>956004000000</v>
       </c>
-      <c r="C210" t="n">
+      <c r="C209">
         <v>0.1220554131575735</v>
       </c>
-      <c r="D210" t="n">
+      <c r="D209">
         <v>116685463200.2929</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="n">
+    <row r="210" spans="1:4">
+      <c r="A210" s="2">
         <v>36465</v>
       </c>
-      <c r="B211" t="n">
+      <c r="B210">
         <v>947459000000</v>
       </c>
-      <c r="C211" t="n">
+      <c r="C210">
         <v>0.1176193836744295</v>
       </c>
-      <c r="D211" t="n">
+      <c r="D210">
         <v>111439543636.7913</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="n">
+    <row r="211" spans="1:4">
+      <c r="A211" s="2">
         <v>36495</v>
       </c>
-      <c r="B212" t="n">
+      <c r="B211">
         <v>965538000000</v>
       </c>
-      <c r="C212" t="n">
+      <c r="C211">
         <v>0.1173020527859237</v>
       </c>
-      <c r="D212" t="n">
+      <c r="D211">
         <v>113259589442.8152</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="n">
+    <row r="212" spans="1:4">
+      <c r="A212" s="2">
         <v>36526</v>
       </c>
-      <c r="B213" t="n">
+      <c r="B212">
         <v>975471000000</v>
       </c>
-      <c r="C213" t="n">
+      <c r="C212">
         <v>0.1128184300187279</v>
       </c>
-      <c r="D213" t="n">
+      <c r="D212">
         <v>110051106748.7985</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="n">
+    <row r="213" spans="1:4">
+      <c r="A213" s="2">
         <v>36557</v>
       </c>
-      <c r="B214" t="n">
+      <c r="B213">
         <v>968803000000</v>
       </c>
-      <c r="C214" t="n">
+      <c r="C213">
         <v>0.1143445200388771</v>
       </c>
-      <c r="D214" t="n">
+      <c r="D213">
         <v>110777314047.2243</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="n">
+    <row r="214" spans="1:4">
+      <c r="A214" s="2">
         <v>36586</v>
       </c>
-      <c r="B215" t="n">
+      <c r="B214">
         <v>986845000000</v>
       </c>
-      <c r="C215" t="n">
+      <c r="C214">
         <v>0.1153828402639959</v>
       </c>
-      <c r="D215" t="n">
+      <c r="D214">
         <v>113864979000.3231</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="n">
+    <row r="215" spans="1:4">
+      <c r="A215" s="2">
         <v>36617</v>
       </c>
-      <c r="B216" t="n">
+      <c r="B215">
         <v>1002483000000</v>
       </c>
-      <c r="C216" t="n">
+      <c r="C215">
         <v>0.1122498232065285</v>
       </c>
-      <c r="D216" t="n">
+      <c r="D215">
         <v>112528539517.5503</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="n">
+    <row r="216" spans="1:4">
+      <c r="A216" s="2">
         <v>36647</v>
       </c>
-      <c r="B217" t="n">
+      <c r="B216">
         <v>983642000000</v>
       </c>
-      <c r="C217" t="n">
+      <c r="C216">
         <v>0.111858074475106</v>
       </c>
-      <c r="D217" t="n">
+      <c r="D216">
         <v>110028300092.8422</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="n">
+    <row r="217" spans="1:4">
+      <c r="A217" s="2">
         <v>36678</v>
       </c>
-      <c r="B218" t="n">
+      <c r="B217">
         <v>980883000000</v>
       </c>
-      <c r="C218" t="n">
+      <c r="C217">
         <v>0.1133221522143148</v>
       </c>
-      <c r="D218" t="n">
+      <c r="D217">
         <v>111155772630.4338</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="n">
+    <row r="218" spans="1:4">
+      <c r="A218" s="2">
         <v>36708</v>
       </c>
-      <c r="B219" t="n">
+      <c r="B218">
         <v>958386000000</v>
       </c>
-      <c r="C219" t="n">
+      <c r="C218">
         <v>0.1091917625734315</v>
       </c>
-      <c r="D219" t="n">
+      <c r="D218">
         <v>104647856565.7007</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="n">
+    <row r="219" spans="1:4">
+      <c r="A219" s="2">
         <v>36739</v>
       </c>
-      <c r="B220" t="n">
+      <c r="B219">
         <v>986214000000</v>
       </c>
-      <c r="C220" t="n">
+      <c r="C219">
         <v>0.1061469710961798</v>
       </c>
-      <c r="D220" t="n">
+      <c r="D219">
         <v>104683628952.6478</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="n">
+    <row r="220" spans="1:4">
+      <c r="A220" s="2">
         <v>36770</v>
       </c>
-      <c r="B221" t="n">
+      <c r="B220">
         <v>990896000000</v>
       </c>
-      <c r="C221" t="n">
+      <c r="C220">
         <v>0.1040257983980027</v>
       </c>
-      <c r="D221" t="n">
+      <c r="D220">
         <v>103078747529.3873</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="n">
+    <row r="221" spans="1:4">
+      <c r="A221" s="2">
         <v>36800</v>
       </c>
-      <c r="B222" t="n">
+      <c r="B221">
         <v>986961000000</v>
       </c>
-      <c r="C222" t="n">
+      <c r="C221">
         <v>0.1001702894921366</v>
       </c>
-      <c r="D222" t="n">
+      <c r="D221">
         <v>98864169087.44867</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="n">
+    <row r="222" spans="1:4">
+      <c r="A222" s="2">
         <v>36831</v>
       </c>
-      <c r="B223" t="n">
+      <c r="B222">
         <v>998471000000</v>
       </c>
-      <c r="C223" t="n">
+      <c r="C222">
         <v>0.1000120014401728</v>
       </c>
-      <c r="D223" t="n">
+      <c r="D222">
         <v>99859083089.97081</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="n">
+    <row r="223" spans="1:4">
+      <c r="A223" s="2">
         <v>36861</v>
       </c>
-      <c r="B224" t="n">
+      <c r="B223">
         <v>992459000000</v>
       </c>
-      <c r="C224" t="n">
+      <c r="C223">
         <v>0.1062213866139809</v>
       </c>
-      <c r="D224" t="n">
+      <c r="D223">
         <v>105420371137.5248</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="n">
+    <row r="224" spans="1:4">
+      <c r="A224" s="2">
         <v>36892</v>
       </c>
-      <c r="B225" t="n">
+      <c r="B224">
         <v>1006137000000</v>
       </c>
-      <c r="C225" t="n">
+      <c r="C224">
         <v>0.1056579851022241</v>
       </c>
-      <c r="D225" t="n">
+      <c r="D224">
         <v>106306408156.7965</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="n">
+    <row r="225" spans="1:4">
+      <c r="A225" s="2">
         <v>36923</v>
       </c>
-      <c r="B226" t="n">
+      <c r="B225">
         <v>996586000000</v>
       </c>
-      <c r="C226" t="n">
+      <c r="C225">
         <v>0.1020616452337212</v>
       </c>
-      <c r="D226" t="n">
+      <c r="D225">
         <v>101713206776.8932</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="n">
+    <row r="226" spans="1:4">
+      <c r="A226" s="2">
         <v>36951</v>
       </c>
-      <c r="B227" t="n">
+      <c r="B226">
         <v>1018615000000</v>
       </c>
-      <c r="C227" t="n">
+      <c r="C226">
         <v>0.09615199707697929</v>
       </c>
-      <c r="D227" t="n">
+      <c r="D226">
         <v>97941866502.56726</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="n">
+    <row r="227" spans="1:4">
+      <c r="A227" s="2">
         <v>36982</v>
       </c>
-      <c r="B228" t="n">
+      <c r="B227">
         <v>1028829000000</v>
       </c>
-      <c r="C228" t="n">
+      <c r="C227">
         <v>0.09763146076191592</v>
       </c>
-      <c r="D228" t="n">
+      <c r="D227">
         <v>100446078144.2212</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="n">
+    <row r="228" spans="1:4">
+      <c r="A228" s="2">
         <v>37012</v>
       </c>
-      <c r="B229" t="n">
+      <c r="B228">
         <v>1030592000000</v>
       </c>
-      <c r="C229" t="n">
+      <c r="C228">
         <v>0.09260888489641696</v>
       </c>
-      <c r="D229" t="n">
+      <c r="D228">
         <v>95441975903.16815</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="n">
+    <row r="229" spans="1:4">
+      <c r="A229" s="2">
         <v>37043</v>
       </c>
-      <c r="B230" t="n">
+      <c r="B229">
         <v>1056228000000</v>
       </c>
-      <c r="C230" t="n">
+      <c r="C229">
         <v>0.09215995281410416</v>
       </c>
-      <c r="D230" t="n">
+      <c r="D229">
         <v>97341922640.93561</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="n">
+    <row r="230" spans="1:4">
+      <c r="A230" s="2">
         <v>37073</v>
       </c>
-      <c r="B231" t="n">
+      <c r="B230">
         <v>1014868000000</v>
       </c>
-      <c r="C231" t="n">
+      <c r="C230">
         <v>0.09456533045854729</v>
       </c>
-      <c r="D231" t="n">
+      <c r="D230">
         <v>95971327791.80496</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="n">
+    <row r="231" spans="1:4">
+      <c r="A231" s="2">
         <v>37104</v>
       </c>
-      <c r="B232" t="n">
+      <c r="B231">
         <v>1030481000000</v>
       </c>
-      <c r="C232" t="n">
+      <c r="C231">
         <v>0.09632148258025988</v>
       </c>
-      <c r="D232" t="n">
+      <c r="D231">
         <v>99257457690.78879</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="2" t="n">
+    <row r="232" spans="1:4">
+      <c r="A232" s="2">
         <v>37135</v>
       </c>
-      <c r="B233" t="n">
+      <c r="B232">
         <v>1058019000000</v>
       </c>
-      <c r="C233" t="n">
+      <c r="C232">
         <v>0.09365575889261431</v>
       </c>
-      <c r="D233" t="n">
+      <c r="D232">
         <v>99089572367.8049</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="n">
+    <row r="233" spans="1:4">
+      <c r="A233" s="2">
         <v>37165</v>
       </c>
-      <c r="B234" t="n">
+      <c r="B233">
         <v>1071663000000</v>
       </c>
-      <c r="C234" t="n">
+      <c r="C233">
         <v>0.09380071100938946</v>
       </c>
-      <c r="D234" t="n">
+      <c r="D233">
         <v>100522751362.4553</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="n">
+    <row r="234" spans="1:4">
+      <c r="A234" s="2">
         <v>37196</v>
       </c>
-      <c r="B235" t="n">
+      <c r="B234">
         <v>1095416000000</v>
       </c>
-      <c r="C235" t="n">
+      <c r="C234">
         <v>0.09380599045055017</v>
       </c>
-      <c r="D235" t="n">
+      <c r="D234">
         <v>102756582835.3799</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="n">
+    <row r="235" spans="1:4">
+      <c r="A235" s="2">
         <v>37226</v>
       </c>
-      <c r="B236" t="n">
+      <c r="B235">
         <v>1057699000000</v>
       </c>
-      <c r="C236" t="n">
+      <c r="C235">
         <v>0.09543714986495644</v>
       </c>
-      <c r="D236" t="n">
+      <c r="D235">
         <v>100943777975.0146</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="n">
+    <row r="236" spans="1:4">
+      <c r="A236" s="2">
         <v>37257</v>
       </c>
-      <c r="B237" t="n">
+      <c r="B236">
         <v>1053056000000</v>
       </c>
-      <c r="C237" t="n">
+      <c r="C236">
         <v>0.09381127048603619</v>
       </c>
-      <c r="D237" t="n">
+      <c r="D236">
         <v>98788521252.94333</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="n">
+    <row r="237" spans="1:4">
+      <c r="A237" s="2">
         <v>37288</v>
       </c>
-      <c r="B238" t="n">
+      <c r="B237">
         <v>1032093000000</v>
       </c>
-      <c r="C238" t="n">
+      <c r="C237">
         <v>0.09584143992179339</v>
       </c>
-      <c r="D238" t="n">
+      <c r="D237">
         <v>98917279253.20351</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="n">
+    <row r="238" spans="1:4">
+      <c r="A238" s="2">
         <v>37316</v>
       </c>
-      <c r="B239" t="n">
+      <c r="B238">
         <v>1055919000000</v>
       </c>
-      <c r="C239" t="n">
+      <c r="C238">
         <v>0.09651019147621989</v>
       </c>
-      <c r="D239" t="n">
+      <c r="D238">
         <v>101906944873.3786</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="n">
+    <row r="239" spans="1:4">
+      <c r="A239" s="2">
         <v>37347</v>
       </c>
-      <c r="B240" t="n">
+      <c r="B239">
         <v>1057670000000</v>
       </c>
-      <c r="C240" t="n">
+      <c r="C239">
         <v>0.0973852071870283</v>
       </c>
-      <c r="D240" t="n">
+      <c r="D239">
         <v>103001412085.5042</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="n">
+    <row r="240" spans="1:4">
+      <c r="A240" s="2">
         <v>37377</v>
       </c>
-      <c r="B241" t="n">
+      <c r="B240">
         <v>1038684000000</v>
       </c>
-      <c r="C241" t="n">
+      <c r="C240">
         <v>0.1026904908605463</v>
       </c>
-      <c r="D241" t="n">
+      <c r="D240">
         <v>106662969808.9957</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="n">
+    <row r="241" spans="1:4">
+      <c r="A241" s="2">
         <v>37408</v>
       </c>
-      <c r="B242" t="n">
+      <c r="B241">
         <v>1057284000000</v>
       </c>
-      <c r="C242" t="n">
+      <c r="C241">
         <v>0.109158388822181</v>
       </c>
-      <c r="D242" t="n">
+      <c r="D241">
         <v>115411417967.4708</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="n">
+    <row r="242" spans="1:4">
+      <c r="A242" s="2">
         <v>37438</v>
       </c>
-      <c r="B243" t="n">
+      <c r="B242">
         <v>1047447000000</v>
       </c>
-      <c r="C243" t="n">
+      <c r="C242">
         <v>0.1048382869423913</v>
       </c>
-      <c r="D243" t="n">
+      <c r="D242">
         <v>109812549142.947</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="n">
+    <row r="243" spans="1:4">
+      <c r="A243" s="2">
         <v>37469</v>
       </c>
-      <c r="B244" t="n">
+      <c r="B243">
         <v>1066994000000</v>
       </c>
-      <c r="C244" t="n">
+      <c r="C243">
         <v>0.1065246338215712</v>
       </c>
-      <c r="D244" t="n">
+      <c r="D243">
         <v>113661145139.8136</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="n">
+    <row r="244" spans="1:4">
+      <c r="A244" s="2">
         <v>37500</v>
       </c>
-      <c r="B245" t="n">
+      <c r="B244">
         <v>1074166000000</v>
       </c>
-      <c r="C245" t="n">
+      <c r="C244">
         <v>0.107781849536538</v>
       </c>
-      <c r="D245" t="n">
+      <c r="D244">
         <v>115775598189.2649</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="n">
+    <row r="245" spans="1:4">
+      <c r="A245" s="2">
         <v>37530</v>
       </c>
-      <c r="B246" t="n">
+      <c r="B245">
         <v>1070733000000</v>
       </c>
-      <c r="C246" t="n">
+      <c r="C245">
         <v>0.1094163730660656</v>
       </c>
-      <c r="D246" t="n">
+      <c r="D245">
         <v>117155721382.1476</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="n">
+    <row r="246" spans="1:4">
+      <c r="A246" s="2">
         <v>37561</v>
       </c>
-      <c r="B247" t="n">
+      <c r="B246">
         <v>1074964000000</v>
       </c>
-      <c r="C247" t="n">
+      <c r="C246">
         <v>0.1105558749391943</v>
       </c>
-      <c r="D247" t="n">
+      <c r="D246">
         <v>118843585548.136</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="n">
+    <row r="247" spans="1:4">
+      <c r="A247" s="2">
         <v>37591</v>
       </c>
-      <c r="B248" t="n">
+      <c r="B247">
         <v>1090087000000</v>
       </c>
-      <c r="C248" t="n">
+      <c r="C247">
         <v>0.1151211650261901</v>
       </c>
-      <c r="D248" t="n">
+      <c r="D247">
         <v>125492085419.9044</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="n">
+    <row r="248" spans="1:4">
+      <c r="A248" s="2">
         <v>37622</v>
       </c>
-      <c r="B249" t="n">
+      <c r="B248">
         <v>1080435000000</v>
       </c>
-      <c r="C249" t="n">
+      <c r="C248">
         <v>0.1165949607657957</v>
       </c>
-      <c r="D249" t="n">
+      <c r="D248">
         <v>125973276434.9925</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="n">
+    <row r="249" spans="1:4">
+      <c r="A249" s="2">
         <v>37653</v>
       </c>
-      <c r="B250" t="n">
+      <c r="B249">
         <v>1066795000000</v>
       </c>
-      <c r="C250" t="n">
+      <c r="C249">
         <v>0.117820324005891</v>
       </c>
-      <c r="D250" t="n">
+      <c r="D249">
         <v>125690132547.8645</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="n">
+    <row r="250" spans="1:4">
+      <c r="A250" s="2">
         <v>37681</v>
       </c>
-      <c r="B251" t="n">
+      <c r="B250">
         <v>1091568000000</v>
       </c>
-      <c r="C251" t="n">
+      <c r="C250">
         <v>0.1184371039759336</v>
       </c>
-      <c r="D251" t="n">
+      <c r="D250">
         <v>129282152712.8019</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="n">
+    <row r="251" spans="1:4">
+      <c r="A251" s="2">
         <v>37712</v>
       </c>
-      <c r="B252" t="n">
+      <c r="B251">
         <v>1095981000000</v>
       </c>
-      <c r="C252" t="n">
+      <c r="C251">
         <v>0.1226422036351149</v>
       </c>
-      <c r="D252" t="n">
+      <c r="D251">
         <v>134413524982.2169</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="n">
+    <row r="252" spans="1:4">
+      <c r="A252" s="2">
         <v>37742</v>
       </c>
-      <c r="B253" t="n">
+      <c r="B252">
         <v>1097716000000</v>
       </c>
-      <c r="C253" t="n">
+      <c r="C252">
         <v>0.1292574161442513</v>
       </c>
-      <c r="D253" t="n">
+      <c r="D252">
         <v>141887933820.2029</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="n">
+    <row r="253" spans="1:4">
+      <c r="A253" s="2">
         <v>37773</v>
       </c>
-      <c r="B254" t="n">
+      <c r="B253">
         <v>1119739000000</v>
       </c>
-      <c r="C254" t="n">
+      <c r="C253">
         <v>0.1253855605988415</v>
       </c>
-      <c r="D254" t="n">
+      <c r="D253">
         <v>140399102239.3861</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="n">
+    <row r="254" spans="1:4">
+      <c r="A254" s="2">
         <v>37803</v>
       </c>
-      <c r="B255" t="n">
+      <c r="B254">
         <v>1096437000000</v>
       </c>
-      <c r="C255" t="n">
+      <c r="C254">
         <v>0.1217255818482813</v>
       </c>
-      <c r="D255" t="n">
+      <c r="D254">
         <v>133464431784.9839</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="n">
+    <row r="255" spans="1:4">
+      <c r="A255" s="2">
         <v>37834</v>
       </c>
-      <c r="B256" t="n">
+      <c r="B255">
         <v>1106567000000</v>
       </c>
-      <c r="C256" t="n">
+      <c r="C255">
         <v>0.119422948313748</v>
       </c>
-      <c r="D256" t="n">
+      <c r="D255">
         <v>132149493646.6992</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="2" t="n">
+    <row r="256" spans="1:4">
+      <c r="A256" s="2">
         <v>37865</v>
       </c>
-      <c r="B257" t="n">
+      <c r="B256">
         <v>1115806000000</v>
       </c>
-      <c r="C257" t="n">
+      <c r="C256">
         <v>0.1290289282857217</v>
       </c>
-      <c r="D257" t="n">
+      <c r="D256">
         <v>143971252354.7779</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="n">
+    <row r="257" spans="1:4">
+      <c r="A257" s="2">
         <v>37895</v>
       </c>
-      <c r="B258" t="n">
+      <c r="B257">
         <v>1125284000000</v>
       </c>
-      <c r="C258" t="n">
+      <c r="C257">
         <v>0.1277041350598933</v>
       </c>
-      <c r="D258" t="n">
+      <c r="D257">
         <v>143703419916.7369</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="n">
+    <row r="258" spans="1:4">
+      <c r="A258" s="2">
         <v>37926</v>
       </c>
-      <c r="B259" t="n">
+      <c r="B258">
         <v>1132313000000</v>
       </c>
-      <c r="C259" t="n">
+      <c r="C258">
         <v>0.1324398061081239</v>
       </c>
-      <c r="D259" t="n">
+      <c r="D258">
         <v>149963314173.7081</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="n">
+    <row r="259" spans="1:4">
+      <c r="A259" s="2">
         <v>37956</v>
       </c>
-      <c r="B260" t="n">
+      <c r="B259">
         <v>1141285000000</v>
       </c>
-      <c r="C260" t="n">
+      <c r="C259">
         <v>0.1390956004061591</v>
       </c>
-      <c r="D260" t="n">
+      <c r="D259">
         <v>158747722309.5433</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="n">
+    <row r="260" spans="1:4">
+      <c r="A260" s="2">
         <v>37987</v>
       </c>
-      <c r="B261" t="n">
+      <c r="B260">
         <v>1142941000000</v>
       </c>
-      <c r="C261" t="n">
+      <c r="C260">
         <v>0.1355307383714627</v>
       </c>
-      <c r="D261" t="n">
+      <c r="D260">
         <v>154903637645.0179</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="n">
+    <row r="261" spans="1:4">
+      <c r="A261" s="2">
         <v>38018</v>
       </c>
-      <c r="B262" t="n">
+      <c r="B261">
         <v>1141447000000</v>
       </c>
-      <c r="C262" t="n">
+      <c r="C261">
         <v>0.1353143352006712</v>
       </c>
-      <c r="D262" t="n">
+      <c r="D261">
         <v>154454141971.8005</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="n">
+    <row r="262" spans="1:4">
+      <c r="A262" s="2">
         <v>38047</v>
       </c>
-      <c r="B263" t="n">
+      <c r="B262">
         <v>1165434000000</v>
       </c>
-      <c r="C263" t="n">
+      <c r="C262">
         <v>0.1327051954084002</v>
       </c>
-      <c r="D263" t="n">
+      <c r="D262">
         <v>154659146705.5935</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="n">
+    <row r="263" spans="1:4">
+      <c r="A263" s="2">
         <v>38078</v>
       </c>
-      <c r="B264" t="n">
+      <c r="B263">
         <v>1152565000000</v>
       </c>
-      <c r="C264" t="n">
+      <c r="C263">
         <v>0.1308592216493496</v>
       </c>
-      <c r="D264" t="n">
+      <c r="D263">
         <v>150823758800.2827</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="n">
+    <row r="264" spans="1:4">
+      <c r="A264" s="2">
         <v>38108</v>
       </c>
-      <c r="B265" t="n">
+      <c r="B264">
         <v>1156039000000</v>
       </c>
-      <c r="C265" t="n">
+      <c r="C264">
         <v>0.1340931947703654</v>
       </c>
-      <c r="D265" t="n">
+      <c r="D264">
         <v>155016962789.1385</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="n">
+    <row r="265" spans="1:4">
+      <c r="A265" s="2">
         <v>38139</v>
       </c>
-      <c r="B266" t="n">
+      <c r="B265">
         <v>1146407000000</v>
       </c>
-      <c r="C266" t="n">
+      <c r="C265">
         <v>0.1330282552014048</v>
       </c>
-      <c r="D266" t="n">
+      <c r="D265">
         <v>152504522960.6769</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="n">
+    <row r="266" spans="1:4">
+      <c r="A266" s="2">
         <v>38169</v>
       </c>
-      <c r="B267" t="n">
+      <c r="B266">
         <v>1134922000000</v>
       </c>
-      <c r="C267" t="n">
+      <c r="C266">
         <v>0.1303865962579047</v>
       </c>
-      <c r="D267" t="n">
+      <c r="D266">
         <v>147978616598.2137</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="n">
+    <row r="267" spans="1:4">
+      <c r="A267" s="2">
         <v>38200</v>
       </c>
-      <c r="B268" t="n">
+      <c r="B267">
         <v>1144971000000</v>
       </c>
-      <c r="C268" t="n">
+      <c r="C267">
         <v>0.1333795715848161</v>
       </c>
-      <c r="D268" t="n">
+      <c r="D267">
         <v>152715741457.0384</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="n">
+    <row r="268" spans="1:4">
+      <c r="A268" s="2">
         <v>38231</v>
       </c>
-      <c r="B269" t="n">
+      <c r="B268">
         <v>1158562000000</v>
       </c>
-      <c r="C269" t="n">
+      <c r="C268">
         <v>0.137421154612541</v>
       </c>
-      <c r="D269" t="n">
+      <c r="D268">
         <v>159210927730.2148</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="n">
+    <row r="269" spans="1:4">
+      <c r="A269" s="2">
         <v>38261</v>
       </c>
-      <c r="B270" t="n">
+      <c r="B269">
         <v>1150911000000</v>
       </c>
-      <c r="C270" t="n">
+      <c r="C269">
         <v>0.1414927484966395</v>
       </c>
-      <c r="D270" t="n">
+      <c r="D269">
         <v>162845560665.0159</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="n">
+    <row r="270" spans="1:4">
+      <c r="A270" s="2">
         <v>38292</v>
       </c>
-      <c r="B271" t="n">
+      <c r="B270">
         <v>1166940000000</v>
       </c>
-      <c r="C271" t="n">
+      <c r="C270">
         <v>0.1487342713508047</v>
       </c>
-      <c r="D271" t="n">
+      <c r="D270">
         <v>173563970610.108</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="n">
+    <row r="271" spans="1:4">
+      <c r="A271" s="2">
         <v>38322</v>
       </c>
-      <c r="B272" t="n">
+      <c r="B271">
         <v>1167217000000</v>
       </c>
-      <c r="C272" t="n">
+      <c r="C271">
         <v>0.1501478956772421</v>
       </c>
-      <c r="D272" t="n">
+      <c r="D271">
         <v>175255176348.7035</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="n">
+    <row r="272" spans="1:4">
+      <c r="A272" s="2">
         <v>38353</v>
       </c>
-      <c r="B273" t="n">
+      <c r="B272">
         <v>1182178000000</v>
       </c>
-      <c r="C273" t="n">
+      <c r="C272">
         <v>0.143110653157021</v>
       </c>
-      <c r="D273" t="n">
+      <c r="D272">
         <v>169182265727.8608</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="n">
+    <row r="273" spans="1:4">
+      <c r="A273" s="2">
         <v>38384</v>
       </c>
-      <c r="B274" t="n">
+      <c r="B273">
         <v>1193213000000</v>
       </c>
-      <c r="C274" t="n">
+      <c r="C273">
         <v>0.1460237726701907</v>
       </c>
-      <c r="D274" t="n">
+      <c r="D273">
         <v>174237463859.1163</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2" t="n">
+    <row r="274" spans="1:4">
+      <c r="A274" s="2">
         <v>38412</v>
       </c>
-      <c r="B275" t="n">
+      <c r="B274">
         <v>1202546000000</v>
       </c>
-      <c r="C275" t="n">
+      <c r="C274">
         <v>0.141468728337601</v>
       </c>
-      <c r="D275" t="n">
+      <c r="D274">
         <v>170122653387.4687</v>
       </c>
     </row>
-    <row r="276">
-      <c r="A276" s="2" t="n">
+    <row r="275" spans="1:4">
+      <c r="A275" s="2">
         <v>38443</v>
       </c>
-      <c r="B276" t="n">
+      <c r="B275">
         <v>1204895000000</v>
       </c>
-      <c r="C276" t="n">
+      <c r="C275">
         <v>0.1402622904832036</v>
       </c>
-      <c r="D276" t="n">
+      <c r="D275">
         <v>169001332491.7596</v>
       </c>
     </row>
-    <row r="277">
-      <c r="A277" s="2" t="n">
+    <row r="276" spans="1:4">
+      <c r="A276" s="2">
         <v>38473</v>
       </c>
-      <c r="B277" t="n">
+      <c r="B276">
         <v>1232347000000</v>
       </c>
-      <c r="C277" t="n">
+      <c r="C276">
         <v>0.1344122153821339</v>
       </c>
-      <c r="D277" t="n">
+      <c r="D276">
         <v>165642490389.5266</v>
       </c>
     </row>
-    <row r="278">
-      <c r="A278" s="2" t="n">
+    <row r="277" spans="1:4">
+      <c r="A277" s="2">
         <v>38504</v>
       </c>
-      <c r="B278" t="n">
+      <c r="B277">
         <v>1269278000000</v>
       </c>
-      <c r="C278" t="n">
+      <c r="C277">
         <v>0.1281985539203118</v>
       </c>
-      <c r="D278" t="n">
+      <c r="D277">
         <v>162719604122.8655</v>
       </c>
     </row>
-    <row r="279">
-      <c r="A279" s="2" t="n">
+    <row r="278" spans="1:4">
+      <c r="A278" s="2">
         <v>38534</v>
       </c>
-      <c r="B279" t="n">
+      <c r="B278">
         <v>1247684000000</v>
       </c>
-      <c r="C279" t="n">
+      <c r="C278">
         <v>0.1289357642022744</v>
       </c>
-      <c r="D279" t="n">
+      <c r="D278">
         <v>160871090022.9506</v>
       </c>
     </row>
-    <row r="280">
-      <c r="A280" s="2" t="n">
+    <row r="279" spans="1:4">
+      <c r="A279" s="2">
         <v>38565</v>
       </c>
-      <c r="B280" t="n">
+      <c r="B279">
         <v>1234266000000</v>
       </c>
-      <c r="C280" t="n">
+      <c r="C279">
         <v>0.1323924642209365</v>
       </c>
-      <c r="D280" t="n">
+      <c r="D279">
         <v>163407517244.1184</v>
       </c>
     </row>
-    <row r="281">
-      <c r="A281" s="2" t="n">
+    <row r="280" spans="1:4">
+      <c r="A280" s="2">
         <v>38596</v>
       </c>
-      <c r="B281" t="n">
+      <c r="B280">
         <v>1249624000000</v>
       </c>
-      <c r="C281" t="n">
+      <c r="C280">
         <v>0.1292473924338577</v>
       </c>
-      <c r="D281" t="n">
+      <c r="D280">
         <v>161510643522.7669</v>
       </c>
     </row>
-    <row r="282">
-      <c r="A282" s="2" t="n">
+    <row r="281" spans="1:4">
+      <c r="A281" s="2">
         <v>38626</v>
       </c>
-      <c r="B282" t="n">
+      <c r="B281">
         <v>1278403000000</v>
       </c>
-      <c r="C282" t="n">
+      <c r="C281">
         <v>0.1257782529400667</v>
       </c>
-      <c r="D282" t="n">
+      <c r="D281">
         <v>160795295893.3401</v>
       </c>
     </row>
-    <row r="283">
-      <c r="A283" s="2" t="n">
+    <row r="282" spans="1:4">
+      <c r="A282" s="2">
         <v>38657</v>
       </c>
-      <c r="B283" t="n">
+      <c r="B282">
         <v>1272808000000</v>
       </c>
-      <c r="C283" t="n">
+      <c r="C282">
         <v>0.1238114104595879</v>
       </c>
-      <c r="D283" t="n">
+      <c r="D282">
         <v>157588153724.2472</v>
       </c>
     </row>
-    <row r="284">
-      <c r="A284" s="2" t="n">
+    <row r="283" spans="1:4">
+      <c r="A283" s="2">
         <v>38687</v>
       </c>
-      <c r="B284" t="n">
+      <c r="B283">
         <v>1296915000000</v>
       </c>
-      <c r="C284" t="n">
+      <c r="C283">
         <v>0.1259763164525069</v>
       </c>
-      <c r="D284" t="n">
+      <c r="D283">
         <v>163380574452.003</v>
       </c>
     </row>
-    <row r="285">
-      <c r="A285" s="2" t="n">
+    <row r="284" spans="1:4">
+      <c r="A284" s="2">
         <v>38718</v>
       </c>
-      <c r="B285" t="n">
+      <c r="B284">
         <v>1324312000000</v>
       </c>
-      <c r="C285" t="n">
+      <c r="C284">
         <v>0.1317644578551382</v>
       </c>
-      <c r="D285" t="n">
+      <c r="D284">
         <v>174497252711.0537</v>
       </c>
     </row>
-    <row r="286">
-      <c r="A286" s="2" t="n">
+    <row r="285" spans="1:4">
+      <c r="A285" s="2">
         <v>38749</v>
       </c>
-      <c r="B286" t="n">
+      <c r="B285">
         <v>1316408000000</v>
       </c>
-      <c r="C286" t="n">
+      <c r="C285">
         <v>0.1264254469139549</v>
       </c>
-      <c r="D286" t="n">
+      <c r="D285">
         <v>166427469721.1055</v>
       </c>
     </row>
-    <row r="287">
-      <c r="A287" s="2" t="n">
+    <row r="286" spans="1:4">
+      <c r="A286" s="2">
         <v>38777</v>
       </c>
-      <c r="B287" t="n">
+      <c r="B286">
         <v>1312677000000</v>
       </c>
-      <c r="C287" t="n">
+      <c r="C286">
         <v>0.1283219340681903</v>
       </c>
-      <c r="D287" t="n">
+      <c r="D286">
         <v>168445251446.8298</v>
       </c>
     </row>
-    <row r="288">
-      <c r="A288" s="2" t="n">
+    <row r="287" spans="1:4">
+      <c r="A287" s="2">
         <v>38808</v>
       </c>
-      <c r="B288" t="n">
+      <c r="B287">
         <v>1338016000000</v>
       </c>
-      <c r="C288" t="n">
+      <c r="C287">
         <v>0.1359748718436833</v>
       </c>
-      <c r="D288" t="n">
+      <c r="D287">
         <v>181936554124.7977</v>
       </c>
     </row>
-    <row r="289">
-      <c r="A289" s="2" t="n">
+    <row r="288" spans="1:4">
+      <c r="A288" s="2">
         <v>38838</v>
       </c>
-      <c r="B289" t="n">
+      <c r="B288">
         <v>1326782000000</v>
       </c>
-      <c r="C289" t="n">
+      <c r="C288">
         <v>0.1382781603473547</v>
       </c>
-      <c r="D289" t="n">
+      <c r="D288">
         <v>183464974141.984</v>
       </c>
     </row>
-    <row r="290">
-      <c r="A290" s="2" t="n">
+    <row r="289" spans="1:4">
+      <c r="A289" s="2">
         <v>38869</v>
       </c>
-      <c r="B290" t="n">
+      <c r="B289">
         <v>1359775000000</v>
       </c>
-      <c r="C290" t="n">
+      <c r="C289">
         <v>0.1389718859874647</v>
       </c>
-      <c r="D290" t="n">
+      <c r="D289">
         <v>188970496268.6049</v>
       </c>
     </row>
-    <row r="291">
-      <c r="A291" s="2" t="n">
+    <row r="290" spans="1:4">
+      <c r="A290" s="2">
         <v>38899</v>
       </c>
-      <c r="B291" t="n">
+      <c r="B290">
         <v>1350041000000</v>
       </c>
-      <c r="C291" t="n">
+      <c r="C290">
         <v>0.1387020264366062</v>
       </c>
-      <c r="D291" t="n">
+      <c r="D290">
         <v>187253422472.5023</v>
       </c>
     </row>
-    <row r="292">
-      <c r="A292" s="2" t="n">
+    <row r="291" spans="1:4">
+      <c r="A291" s="2">
         <v>38930</v>
       </c>
-      <c r="B292" t="n">
+      <c r="B291">
         <v>1383208000000</v>
       </c>
-      <c r="C292" t="n">
+      <c r="C291">
         <v>0.1380872158855533</v>
       </c>
-      <c r="D292" t="n">
+      <c r="D291">
         <v>191003341710.6244</v>
       </c>
     </row>
-    <row r="293">
-      <c r="A293" s="2" t="n">
+    <row r="292" spans="1:4">
+      <c r="A292" s="2">
         <v>38961</v>
       </c>
-      <c r="B293" t="n">
+      <c r="B292">
         <v>1413386000000</v>
       </c>
-      <c r="C293" t="n">
+      <c r="C292">
         <v>0.1365970932138564</v>
       </c>
-      <c r="D293" t="n">
+      <c r="D292">
         <v>193064419189.1596</v>
       </c>
     </row>
-    <row r="294">
-      <c r="A294" s="2" t="n">
+    <row r="293" spans="1:4">
+      <c r="A293" s="2">
         <v>38991</v>
       </c>
-      <c r="B294" t="n">
+      <c r="B293">
         <v>1416864000000</v>
       </c>
-      <c r="C294" t="n">
+      <c r="C293">
         <v>0.1385367745868141</v>
       </c>
-      <c r="D294" t="n">
+      <c r="D293">
         <v>196287768588.1717</v>
       </c>
     </row>
-    <row r="295">
-      <c r="A295" s="2" t="n">
+    <row r="294" spans="1:4">
+      <c r="A294" s="2">
         <v>39022</v>
       </c>
-      <c r="B295" t="n">
+      <c r="B294">
         <v>1430398000000</v>
       </c>
-      <c r="C295" t="n">
+      <c r="C294">
         <v>0.1461112491050686</v>
       </c>
-      <c r="D295" t="n">
+      <c r="D294">
         <v>208997238497.3919</v>
       </c>
     </row>
-    <row r="296">
-      <c r="A296" s="2" t="n">
+    <row r="295" spans="1:4">
+      <c r="A295" s="2">
         <v>39052</v>
       </c>
-      <c r="B296" t="n">
+      <c r="B295">
         <v>1468209000000</v>
       </c>
-      <c r="C296" t="n">
+      <c r="C295">
         <v>0.1461176539349484</v>
       </c>
-      <c r="D296" t="n">
+      <c r="D295">
         <v>214531254566.1767</v>
       </c>
     </row>
-    <row r="297">
-      <c r="A297" s="2" t="n">
+    <row r="296" spans="1:4">
+      <c r="A296" s="2">
         <v>39083</v>
       </c>
-      <c r="B297" t="n">
+      <c r="B296">
         <v>1472034000000</v>
       </c>
-      <c r="C297" t="n">
+      <c r="C296">
         <v>0.143959461015778</v>
       </c>
-      <c r="D297" t="n">
+      <c r="D296">
         <v>211913221236.8997</v>
       </c>
     </row>
-    <row r="298">
-      <c r="A298" s="2" t="n">
+    <row r="297" spans="1:4">
+      <c r="A297" s="2">
         <v>39114</v>
       </c>
-      <c r="B298" t="n">
+      <c r="B297">
         <v>1457317000000</v>
       </c>
-      <c r="C298" t="n">
+      <c r="C297">
         <v>0.1430144587617808</v>
       </c>
-      <c r="D298" t="n">
+      <c r="D297">
         <v>208417401999.3421</v>
       </c>
     </row>
-    <row r="299">
-      <c r="A299" s="2" t="n">
+    <row r="298" spans="1:4">
+      <c r="A298" s="2">
         <v>39142</v>
       </c>
-      <c r="B299" t="n">
+      <c r="B298">
         <v>1495732000000</v>
       </c>
-      <c r="C299" t="n">
+      <c r="C298">
         <v>0.1433157532675992</v>
       </c>
-      <c r="D299" t="n">
+      <c r="D298">
         <v>214361958266.4527</v>
       </c>
     </row>
-    <row r="300">
-      <c r="A300" s="2" t="n">
+    <row r="299" spans="1:4">
+      <c r="A299" s="2">
         <v>39173</v>
       </c>
-      <c r="B300" t="n">
+      <c r="B299">
         <v>1512648000000</v>
       </c>
-      <c r="C300" t="n">
+      <c r="C299">
         <v>0.1492604146454319</v>
       </c>
-      <c r="D300" t="n">
+      <c r="D299">
         <v>225778467692.5833</v>
       </c>
     </row>
-    <row r="301">
-      <c r="A301" s="2" t="n">
+    <row r="300" spans="1:4">
+      <c r="A300" s="2">
         <v>39203</v>
       </c>
-      <c r="B301" t="n">
+      <c r="B300">
         <v>1502632000000</v>
       </c>
-      <c r="C301" t="n">
+      <c r="C300">
         <v>0.1446215254678506</v>
       </c>
-      <c r="D301" t="n">
+      <c r="D300">
         <v>217312932056.8073</v>
       </c>
     </row>
-    <row r="302">
-      <c r="A302" s="2" t="n">
+    <row r="301" spans="1:4">
+      <c r="A301" s="2">
         <v>39234</v>
       </c>
-      <c r="B302" t="n">
+      <c r="B301">
         <v>1564788000000</v>
       </c>
-      <c r="C302" t="n">
+      <c r="C301">
         <v>0.1466383165921255</v>
       </c>
-      <c r="D302" t="n">
+      <c r="D301">
         <v>229457878143.5589</v>
       </c>
     </row>
-    <row r="303">
-      <c r="A303" s="2" t="n">
+    <row r="302" spans="1:4">
+      <c r="A302" s="2">
         <v>39264</v>
       </c>
-      <c r="B303" t="n">
+      <c r="B302">
         <v>1528577000000</v>
       </c>
-      <c r="C303" t="n">
+      <c r="C302">
         <v>0.1485530928753937</v>
       </c>
-      <c r="D303" t="n">
+      <c r="D302">
         <v>227074841048.1906</v>
       </c>
     </row>
-    <row r="304">
-      <c r="A304" s="2" t="n">
+    <row r="303" spans="1:4">
+      <c r="A303" s="2">
         <v>39295</v>
       </c>
-      <c r="B304" t="n">
+      <c r="B303">
         <v>1562807000000</v>
       </c>
-      <c r="C304" t="n">
+      <c r="C303">
         <v>0.1451694853741743</v>
       </c>
-      <c r="D304" t="n">
+      <c r="D303">
         <v>226871887929.1573</v>
       </c>
     </row>
-    <row r="305">
-      <c r="A305" s="2" t="n">
+    <row r="304" spans="1:4">
+      <c r="A304" s="2">
         <v>39326</v>
       </c>
-      <c r="B305" t="n">
+      <c r="B304">
         <v>1582639000000</v>
       </c>
-      <c r="C305" t="n">
+      <c r="C304">
         <v>0.1554363876583508</v>
       </c>
-      <c r="D305" t="n">
+      <c r="D304">
         <v>245999689127.2246</v>
       </c>
     </row>
-    <row r="306">
-      <c r="A306" s="2" t="n">
+    <row r="305" spans="1:4">
+      <c r="A305" s="2">
         <v>39356</v>
       </c>
-      <c r="B306" t="n">
+      <c r="B305">
         <v>1583783000000</v>
       </c>
-      <c r="C306" t="n">
+      <c r="C305">
         <v>0.1575646803012637</v>
       </c>
-      <c r="D306" t="n">
+      <c r="D305">
         <v>249548262061.5763</v>
       </c>
     </row>
-    <row r="307">
-      <c r="A307" s="2" t="n">
+    <row r="306" spans="1:4">
+      <c r="A306" s="2">
         <v>39387</v>
       </c>
-      <c r="B307" t="n">
+      <c r="B306">
         <v>1585362000000</v>
       </c>
-      <c r="C307" t="n">
+      <c r="C306">
         <v>0.1565435190983093</v>
       </c>
-      <c r="D307" t="n">
+      <c r="D306">
         <v>248178146524.7339</v>
       </c>
     </row>
-    <row r="308">
-      <c r="A308" s="2" t="n">
+    <row r="307" spans="1:4">
+      <c r="A307" s="2">
         <v>39417</v>
       </c>
-      <c r="B308" t="n">
+      <c r="B307">
         <v>1639424000000</v>
       </c>
-      <c r="C308" t="n">
+      <c r="C307">
         <v>0.154640769492469</v>
       </c>
-      <c r="D308" t="n">
+      <c r="D307">
         <v>253521788884.4215</v>
       </c>
     </row>
-    <row r="309">
-      <c r="A309" s="2" t="n">
+    <row r="308" spans="1:4">
+      <c r="A308" s="2">
         <v>39448</v>
       </c>
-      <c r="B309" t="n">
+      <c r="B308">
         <v>1647669000000</v>
       </c>
-      <c r="C309" t="n">
+      <c r="C308">
         <v>0.1570302440249992</v>
       </c>
-      <c r="D309" t="n">
+      <c r="D308">
         <v>258733865142.4264</v>
       </c>
     </row>
-    <row r="310">
-      <c r="A310" s="2" t="n">
+    <row r="309" spans="1:4">
+      <c r="A309" s="2">
         <v>39479</v>
       </c>
-      <c r="B310" t="n">
+      <c r="B309">
         <v>1635309000000</v>
       </c>
-      <c r="C310" t="n">
+      <c r="C309">
         <v>0.1623086786450471</v>
       </c>
-      <c r="D310" t="n">
+      <c r="D309">
         <v>265424842966.3534</v>
       </c>
     </row>
-    <row r="311">
-      <c r="A311" s="2" t="n">
+    <row r="310" spans="1:4">
+      <c r="A310" s="2">
         <v>39508</v>
       </c>
-      <c r="B311" t="n">
+      <c r="B310">
         <v>1639881000000</v>
       </c>
-      <c r="C311" t="n">
+      <c r="C310">
         <v>0.1681378730559059</v>
       </c>
-      <c r="D311" t="n">
+      <c r="D310">
         <v>275726103404.7919</v>
       </c>
     </row>
-    <row r="312">
-      <c r="A312" s="2" t="n">
+    <row r="311" spans="1:4">
+      <c r="A311" s="2">
         <v>39539</v>
       </c>
-      <c r="B312" t="n">
+      <c r="B311">
         <v>1658874000000</v>
       </c>
-      <c r="C312" t="n">
+      <c r="C311">
         <v>0.1671975187888212</v>
       </c>
-      <c r="D312" t="n">
+      <c r="D311">
         <v>277359616783.2869</v>
       </c>
     </row>
-    <row r="313">
-      <c r="A313" s="2" t="n">
+    <row r="312" spans="1:4">
+      <c r="A312" s="2">
         <v>39569</v>
       </c>
-      <c r="B313" t="n">
+      <c r="B312">
         <v>1665238000000</v>
       </c>
-      <c r="C313" t="n">
+      <c r="C312">
         <v>0.1667261323205277</v>
       </c>
-      <c r="D313" t="n">
+      <c r="D312">
         <v>277638691133.1708</v>
       </c>
     </row>
-    <row r="314">
-      <c r="A314" s="2" t="n">
+    <row r="313" spans="1:4">
+      <c r="A313" s="2">
         <v>39600</v>
       </c>
-      <c r="B314" t="n">
+      <c r="B313">
         <v>1681350000000</v>
       </c>
-      <c r="C314" t="n">
+      <c r="C313">
         <v>0.1664115023630433</v>
       </c>
-      <c r="D314" t="n">
+      <c r="D313">
         <v>279795979498.1029</v>
       </c>
     </row>
-    <row r="315">
-      <c r="A315" s="2" t="n">
+    <row r="314" spans="1:4">
+      <c r="A314" s="2">
         <v>39630</v>
       </c>
-      <c r="B315" t="n">
+      <c r="B314">
         <v>1698412000000</v>
       </c>
-      <c r="C315" t="n">
+      <c r="C314">
         <v>0.1653493832468005</v>
       </c>
-      <c r="D315" t="n">
+      <c r="D314">
         <v>280831376698.965</v>
       </c>
     </row>
-    <row r="316">
-      <c r="A316" s="2" t="n">
+    <row r="315" spans="1:4">
+      <c r="A315" s="2">
         <v>39661</v>
       </c>
-      <c r="B316" t="n">
+      <c r="B315">
         <v>1704771000000</v>
       </c>
-      <c r="C316" t="n">
+      <c r="C315">
         <v>0.1550724188195887</v>
       </c>
-      <c r="D316" t="n">
+      <c r="D315">
         <v>264362962503.4891</v>
       </c>
     </row>
-    <row r="317">
-      <c r="A317" s="2" t="n">
+    <row r="316" spans="1:4">
+      <c r="A316" s="2">
         <v>39692</v>
       </c>
-      <c r="B317" t="n">
+      <c r="B316">
         <v>1728656000000</v>
       </c>
-      <c r="C317" t="n">
+      <c r="C316">
         <v>0.144654997830175</v>
       </c>
-      <c r="D317" t="n">
+      <c r="D316">
         <v>250058729929.119</v>
       </c>
     </row>
-    <row r="318">
-      <c r="A318" s="2" t="n">
+    <row r="317" spans="1:4">
+      <c r="A317" s="2">
         <v>39722</v>
       </c>
-      <c r="B318" t="n">
+      <c r="B317">
         <v>1732394000000</v>
       </c>
-      <c r="C318" t="n">
+      <c r="C317">
         <v>0.1293440188738792</v>
       </c>
-      <c r="D318" t="n">
+      <c r="D317">
         <v>224074802232.9951</v>
       </c>
     </row>
-    <row r="319">
-      <c r="A319" s="2" t="n">
+    <row r="318" spans="1:4">
+      <c r="A318" s="2">
         <v>39753</v>
       </c>
-      <c r="B319" t="n">
+      <c r="B318">
         <v>1759008000000</v>
       </c>
-      <c r="C319" t="n">
+      <c r="C318">
         <v>0.1236469927814886</v>
       </c>
-      <c r="D319" t="n">
+      <c r="D318">
         <v>217496049478.5806</v>
       </c>
     </row>
-    <row r="320">
-      <c r="A320" s="2" t="n">
+    <row r="319" spans="1:4">
+      <c r="A319" s="2">
         <v>39783</v>
       </c>
-      <c r="B320" t="n">
+      <c r="B319">
         <v>1859493000000</v>
       </c>
-      <c r="C320" t="n">
+      <c r="C319">
         <v>0.1276161306789178</v>
       </c>
-      <c r="D320" t="n">
+      <c r="D319">
         <v>237301301684.5329</v>
       </c>
     </row>
-    <row r="321">
-      <c r="A321" s="2" t="n">
+    <row r="320" spans="1:4">
+      <c r="A320" s="2">
         <v>39814</v>
       </c>
-      <c r="B321" t="n">
+      <c r="B320">
         <v>1853010000000</v>
       </c>
-      <c r="C321" t="n">
+      <c r="C320">
         <v>0.119624808749837</v>
       </c>
-      <c r="D321" t="n">
+      <c r="D320">
         <v>221665966861.5355</v>
       </c>
     </row>
-    <row r="322">
-      <c r="A322" s="2" t="n">
+    <row r="321" spans="1:4">
+      <c r="A321" s="2">
         <v>39845</v>
       </c>
-      <c r="B322" t="n">
+      <c r="B321">
         <v>1806389000000</v>
       </c>
-      <c r="C322" t="n">
+      <c r="C321">
         <v>0.1111064199511576</v>
       </c>
-      <c r="D322" t="n">
+      <c r="D321">
         <v>200701414829.1517</v>
       </c>
     </row>
-    <row r="323">
-      <c r="A323" s="2" t="n">
+    <row r="322" spans="1:4">
+      <c r="A322" s="2">
         <v>39873</v>
       </c>
-      <c r="B323" t="n">
+      <c r="B322">
         <v>1822861000000</v>
       </c>
-      <c r="C323" t="n">
+      <c r="C322">
         <v>0.1213196177461484</v>
       </c>
-      <c r="D323" t="n">
+      <c r="D322">
         <v>221148799724.3618</v>
       </c>
     </row>
-    <row r="324">
-      <c r="A324" s="2" t="n">
+    <row r="323" spans="1:4">
+      <c r="A323" s="2">
         <v>39904</v>
       </c>
-      <c r="B324" t="n">
+      <c r="B323">
         <v>1818228000000</v>
       </c>
-      <c r="C324" t="n">
+      <c r="C323">
         <v>0.1243751702385143</v>
       </c>
-      <c r="D324" t="n">
+      <c r="D323">
         <v>226142417032.4333</v>
       </c>
     </row>
-    <row r="325">
-      <c r="A325" s="2" t="n">
+    <row r="324" spans="1:4">
+      <c r="A324" s="2">
         <v>39934</v>
       </c>
-      <c r="B325" t="n">
+      <c r="B324">
         <v>1815725000000</v>
       </c>
-      <c r="C325" t="n">
+      <c r="C324">
         <v>0.132173205054832</v>
       </c>
-      <c r="D325" t="n">
+      <c r="D324">
         <v>239990192748.1849</v>
       </c>
     </row>
-    <row r="326">
-      <c r="A326" s="2" t="n">
+    <row r="325" spans="1:4">
+      <c r="A325" s="2">
         <v>39965</v>
       </c>
-      <c r="B326" t="n">
+      <c r="B325">
         <v>1844614000000</v>
       </c>
-      <c r="C326" t="n">
+      <c r="C325">
         <v>0.1299209171377383</v>
       </c>
-      <c r="D326" t="n">
+      <c r="D325">
         <v>239653942645.1119</v>
       </c>
     </row>
-    <row r="327">
-      <c r="A327" s="2" t="n">
+    <row r="326" spans="1:4">
+      <c r="A326" s="2">
         <v>39995</v>
       </c>
-      <c r="B327" t="n">
+      <c r="B326">
         <v>1820464000000</v>
       </c>
-      <c r="C327" t="n">
+      <c r="C326">
         <v>0.1386699059956707</v>
       </c>
-      <c r="D327" t="n">
+      <c r="D326">
         <v>252443571748.5027</v>
       </c>
     </row>
-    <row r="328">
-      <c r="A328" s="2" t="n">
+    <row r="327" spans="1:4">
+      <c r="A327" s="2">
         <v>40026</v>
       </c>
-      <c r="B328" t="n">
+      <c r="B327">
         <v>1841487000000</v>
       </c>
-      <c r="C328" t="n">
+      <c r="C327">
         <v>0.1405700678531717</v>
       </c>
-      <c r="D328" t="n">
+      <c r="D327">
         <v>258857952540.7337</v>
       </c>
     </row>
-    <row r="329">
-      <c r="A329" s="2" t="n">
+    <row r="328" spans="1:4">
+      <c r="A328" s="2">
         <v>40057</v>
       </c>
-      <c r="B329" t="n">
+      <c r="B328">
         <v>1841834000000</v>
       </c>
-      <c r="C329" t="n">
+      <c r="C328">
         <v>0.1438230171480183</v>
       </c>
-      <c r="D329" t="n">
+      <c r="D328">
         <v>264898122965.8032</v>
       </c>
     </row>
-    <row r="330">
-      <c r="A330" s="2" t="n">
+    <row r="329" spans="1:4">
+      <c r="A329" s="2">
         <v>40087</v>
       </c>
-      <c r="B330" t="n">
+      <c r="B329">
         <v>1844029000000</v>
       </c>
-      <c r="C330" t="n">
+      <c r="C329">
         <v>0.1410399439225183</v>
       </c>
-      <c r="D330" t="n">
+      <c r="D329">
         <v>260081746751.4975</v>
       </c>
     </row>
-    <row r="331">
-      <c r="A331" s="2" t="n">
+    <row r="330" spans="1:4">
+      <c r="A330" s="2">
         <v>40118</v>
       </c>
-      <c r="B331" t="n">
+      <c r="B330">
         <v>1848196000000</v>
       </c>
-      <c r="C331" t="n">
+      <c r="C330">
         <v>0.143480462982758</v>
       </c>
-      <c r="D331" t="n">
+      <c r="D330">
         <v>265180017762.8813</v>
       </c>
     </row>
-    <row r="332">
-      <c r="A332" s="2" t="n">
+    <row r="331" spans="1:4">
+      <c r="A331" s="2">
         <v>40148</v>
       </c>
-      <c r="B332" t="n">
+      <c r="B331">
         <v>1911694000000</v>
       </c>
-      <c r="C332" t="n">
+      <c r="C331">
         <v>0.1398306092000151</v>
       </c>
-      <c r="D332" t="n">
+      <c r="D331">
         <v>267313336624.0137</v>
       </c>
     </row>
-    <row r="333">
-      <c r="A333" s="2" t="n">
+    <row r="332" spans="1:4">
+      <c r="A332" s="2">
         <v>40179</v>
       </c>
-      <c r="B333" t="n">
+      <c r="B332">
         <v>1910380000000</v>
       </c>
-      <c r="C333" t="n">
+      <c r="C332">
         <v>0.1353859650785442</v>
       </c>
-      <c r="D333" t="n">
+      <c r="D332">
         <v>258638639966.7492</v>
       </c>
     </row>
-    <row r="334">
-      <c r="A334" s="2" t="n">
+    <row r="333" spans="1:4">
+      <c r="A333" s="2">
         <v>40210</v>
       </c>
-      <c r="B334" t="n">
+      <c r="B333">
         <v>1890845000000</v>
       </c>
-      <c r="C334" t="n">
+      <c r="C333">
         <v>0.1402801956628169</v>
       </c>
-      <c r="D334" t="n">
+      <c r="D333">
         <v>265248106568.0591</v>
       </c>
     </row>
-    <row r="335">
-      <c r="A335" s="2" t="n">
+    <row r="334" spans="1:4">
+      <c r="A334" s="2">
         <v>40238</v>
       </c>
-      <c r="B335" t="n">
+      <c r="B334">
         <v>1897152000000</v>
       </c>
-      <c r="C335" t="n">
+      <c r="C334">
         <v>0.1386214649793662</v>
       </c>
-      <c r="D335" t="n">
+      <c r="D334">
         <v>262985989528.5345</v>
       </c>
     </row>
-    <row r="336">
-      <c r="A336" s="2" t="n">
+    <row r="335" spans="1:4">
+      <c r="A335" s="2">
         <v>40269</v>
       </c>
-      <c r="B336" t="n">
+      <c r="B335">
         <v>1904391000000</v>
       </c>
-      <c r="C336" t="n">
+      <c r="C335">
         <v>0.1381253625790768</v>
       </c>
-      <c r="D336" t="n">
+      <c r="D335">
         <v>263044697367.3306</v>
       </c>
     </row>
-    <row r="337">
-      <c r="A337" s="2" t="n">
+    <row r="336" spans="1:4">
+      <c r="A336" s="2">
         <v>40299</v>
       </c>
-      <c r="B337" t="n">
+      <c r="B336">
         <v>1888615000000</v>
       </c>
-      <c r="C337" t="n">
+      <c r="C336">
         <v>0.1282692628365465</v>
       </c>
-      <c r="D337" t="n">
+      <c r="D336">
         <v>242251253832.0442</v>
       </c>
     </row>
-    <row r="338">
-      <c r="A338" s="2" t="n">
+    <row r="337" spans="1:4">
+      <c r="A337" s="2">
         <v>40330</v>
       </c>
-      <c r="B338" t="n">
+      <c r="B337">
         <v>1923549000000</v>
       </c>
-      <c r="C338" t="n">
+      <c r="C337">
         <v>0.1284615572366891</v>
       </c>
-      <c r="D338" t="n">
+      <c r="D337">
         <v>247102099961.0761</v>
       </c>
     </row>
-    <row r="339">
-      <c r="A339" s="2" t="n">
+    <row r="338" spans="1:4">
+      <c r="A338" s="2">
         <v>40360</v>
       </c>
-      <c r="B339" t="n">
+      <c r="B338">
         <v>1932649000000</v>
       </c>
-      <c r="C339" t="n">
+      <c r="C338">
         <v>0.1386097442650218</v>
       </c>
-      <c r="D339" t="n">
+      <c r="D338">
         <v>267883983644.0501</v>
       </c>
     </row>
-    <row r="340">
-      <c r="A340" s="2" t="n">
+    <row r="339" spans="1:4">
+      <c r="A339" s="2">
         <v>40391</v>
       </c>
-      <c r="B340" t="n">
+      <c r="B339">
         <v>1915269000000</v>
       </c>
-      <c r="C340" t="n">
+      <c r="C339">
         <v>0.135451799477156</v>
       </c>
-      <c r="D340" t="n">
+      <c r="D339">
         <v>259426632532.8132</v>
       </c>
     </row>
-    <row r="341">
-      <c r="A341" s="2" t="n">
+    <row r="340" spans="1:4">
+      <c r="A340" s="2">
         <v>40422</v>
       </c>
-      <c r="B341" t="n">
+      <c r="B340">
         <v>1938219000000</v>
       </c>
-      <c r="C341" t="n">
+      <c r="C340">
         <v>0.1484208026597008</v>
       </c>
-      <c r="D341" t="n">
+      <c r="D340">
         <v>287672019710.2826</v>
       </c>
     </row>
-    <row r="342">
-      <c r="A342" s="2" t="n">
+    <row r="341" spans="1:4">
+      <c r="A341" s="2">
         <v>40452</v>
       </c>
-      <c r="B342" t="n">
+      <c r="B341">
         <v>1967820000000</v>
       </c>
-      <c r="C342" t="n">
+      <c r="C341">
         <v>0.1496244426489511</v>
       </c>
-      <c r="D342" t="n">
+      <c r="D341">
         <v>294433970733.459</v>
       </c>
     </row>
-    <row r="343">
-      <c r="A343" s="2" t="n">
+    <row r="342" spans="1:4">
+      <c r="A342" s="2">
         <v>40483</v>
       </c>
-      <c r="B343" t="n">
+      <c r="B342">
         <v>1963638000000</v>
       </c>
-      <c r="C343" t="n">
+      <c r="C342">
         <v>0.1423305199333893</v>
       </c>
-      <c r="D343" t="n">
+      <c r="D342">
         <v>279485617500.9608</v>
       </c>
     </row>
-    <row r="344">
-      <c r="A344" s="2" t="n">
+    <row r="343" spans="1:4">
+      <c r="A343" s="2">
         <v>40513</v>
       </c>
-      <c r="B344" t="n">
+      <c r="B343">
         <v>2007359000000</v>
       </c>
-      <c r="C344" t="n">
+      <c r="C343">
         <v>0.1486966736554103</v>
       </c>
-      <c r="D344" t="n">
+      <c r="D343">
         <v>298487606132.2508</v>
       </c>
     </row>
-    <row r="345">
-      <c r="A345" s="2" t="n">
+    <row r="344" spans="1:4">
+      <c r="A344" s="2">
         <v>40544</v>
       </c>
-      <c r="B345" t="n">
+      <c r="B344">
         <v>2003040000000</v>
       </c>
-      <c r="C345" t="n">
+      <c r="C344">
         <v>0.1551662606482846</v>
       </c>
-      <c r="D345" t="n">
+      <c r="D344">
         <v>310804226728.9401</v>
       </c>
     </row>
-    <row r="346">
-      <c r="A346" s="2" t="n">
+    <row r="345" spans="1:4">
+      <c r="A345" s="2">
         <v>40575</v>
       </c>
-      <c r="B346" t="n">
+      <c r="B345">
         <v>1959126000000</v>
       </c>
-      <c r="C346" t="n">
+      <c r="C345">
         <v>0.1582078217947095</v>
       </c>
-      <c r="D346" t="n">
+      <c r="D345">
         <v>309949057081.3821</v>
       </c>
     </row>
-    <row r="347">
-      <c r="A347" s="2" t="n">
+    <row r="346" spans="1:4">
+      <c r="A346" s="2">
         <v>40603</v>
       </c>
-      <c r="B347" t="n">
+      <c r="B346">
         <v>1989081000000</v>
       </c>
-      <c r="C347" t="n">
+      <c r="C346">
         <v>0.1581953079271669</v>
       </c>
-      <c r="D347" t="n">
+      <c r="D346">
         <v>314663281287.077</v>
       </c>
     </row>
-    <row r="348">
-      <c r="A348" s="2" t="n">
+    <row r="347" spans="1:4">
+      <c r="A347" s="2">
         <v>40634</v>
       </c>
-      <c r="B348" t="n">
+      <c r="B347">
         <v>1982383000000</v>
       </c>
-      <c r="C348" t="n">
+      <c r="C347">
         <v>0.1655738790648387</v>
       </c>
-      <c r="D348" t="n">
+      <c r="D347">
         <v>328230843102.1922</v>
       </c>
     </row>
-    <row r="349">
-      <c r="A349" s="2" t="n">
+    <row r="348" spans="1:4">
+      <c r="A348" s="2">
         <v>40664</v>
       </c>
-      <c r="B349" t="n">
+      <c r="B348">
         <v>1960772000000</v>
       </c>
-      <c r="C349" t="n">
+      <c r="C348">
         <v>0.1621349935956677</v>
       </c>
-      <c r="D349" t="n">
+      <c r="D348">
         <v>317909755662.5646</v>
       </c>
     </row>
-    <row r="350">
-      <c r="A350" s="2" t="n">
+    <row r="349" spans="1:4">
+      <c r="A349" s="2">
         <v>40695</v>
       </c>
-      <c r="B350" t="n">
+      <c r="B349">
         <v>2011341000000</v>
       </c>
-      <c r="C350" t="n">
+      <c r="C349">
         <v>0.1580902695439096</v>
       </c>
-      <c r="D350" t="n">
+      <c r="D349">
         <v>317973440834.7166</v>
       </c>
     </row>
-    <row r="351">
-      <c r="A351" s="2" t="n">
+    <row r="350" spans="1:4">
+      <c r="A350" s="2">
         <v>40725</v>
       </c>
-      <c r="B351" t="n">
+      <c r="B350">
         <v>1989856000000</v>
       </c>
-      <c r="C351" t="n">
+      <c r="C350">
         <v>0.1591723040191007</v>
       </c>
-      <c r="D351" t="n">
+      <c r="D350">
         <v>316729964186.2316</v>
       </c>
     </row>
-    <row r="352">
-      <c r="A352" s="2" t="n">
+    <row r="351" spans="1:4">
+      <c r="A351" s="2">
         <v>40756</v>
       </c>
-      <c r="B352" t="n">
+      <c r="B351">
         <v>2016768000000</v>
       </c>
-      <c r="C352" t="n">
+      <c r="C351">
         <v>0.1576988582602662</v>
       </c>
-      <c r="D352" t="n">
+      <c r="D351">
         <v>318042010975.8405</v>
       </c>
     </row>
-    <row r="353">
-      <c r="A353" s="2" t="n">
+    <row r="352" spans="1:4">
+      <c r="A352" s="2">
         <v>40787</v>
       </c>
-      <c r="B353" t="n">
+      <c r="B352">
         <v>2064662000000</v>
       </c>
-      <c r="C353" t="n">
+      <c r="C352">
         <v>0.1457109968089292</v>
       </c>
-      <c r="D353" t="n">
+      <c r="D352">
         <v>300843958093.5173</v>
       </c>
     </row>
-    <row r="354">
-      <c r="A354" s="2" t="n">
+    <row r="353" spans="1:4">
+      <c r="A353" s="2">
         <v>40817</v>
       </c>
-      <c r="B354" t="n">
+      <c r="B353">
         <v>2075646000000</v>
       </c>
-      <c r="C354" t="n">
+      <c r="C353">
         <v>0.1537893700787402</v>
       </c>
-      <c r="D354" t="n">
+      <c r="D353">
         <v>319212290846.4567</v>
       </c>
     </row>
-    <row r="355">
-      <c r="A355" s="2" t="n">
+    <row r="354" spans="1:4">
+      <c r="A354" s="2">
         <v>40848</v>
       </c>
-      <c r="B355" t="n">
+      <c r="B354">
         <v>2079009000000</v>
       </c>
-      <c r="C355" t="n">
+      <c r="C354">
         <v>0.1479246176148635</v>
       </c>
-      <c r="D355" t="n">
+      <c r="D354">
         <v>307536611342.8597</v>
       </c>
     </row>
-    <row r="356">
-      <c r="A356" s="2" t="n">
+    <row r="355" spans="1:4">
+      <c r="A355" s="2">
         <v>40878</v>
       </c>
-      <c r="B356" t="n">
+      <c r="B355">
         <v>2131071000000</v>
       </c>
-      <c r="C356" t="n">
+      <c r="C355">
         <v>0.1455116918644413</v>
       </c>
-      <c r="D356" t="n">
+      <c r="D355">
         <v>310095746693.2468</v>
       </c>
     </row>
-    <row r="357">
-      <c r="A357" s="2" t="n">
+    <row r="356" spans="1:4">
+      <c r="A356" s="2">
         <v>40909</v>
       </c>
-      <c r="B357" t="n">
+      <c r="B356">
         <v>2178811000000</v>
       </c>
-      <c r="C357" t="n">
+      <c r="C356">
         <v>0.1471085808435206</v>
       </c>
-      <c r="D357" t="n">
+      <c r="D356">
         <v>320521794136.252</v>
       </c>
     </row>
-    <row r="358">
-      <c r="A358" s="2" t="n">
+    <row r="357" spans="1:4">
+      <c r="A357" s="2">
         <v>40940</v>
       </c>
-      <c r="B358" t="n">
+      <c r="B357">
         <v>2152416000000</v>
       </c>
-      <c r="C358" t="n">
+      <c r="C357">
         <v>0.1511053355293976</v>
       </c>
-      <c r="D358" t="n">
+      <c r="D357">
         <v>325241541878.8438</v>
       </c>
     </row>
-    <row r="359">
-      <c r="A359" s="2" t="n">
+    <row r="358" spans="1:4">
+      <c r="A358" s="2">
         <v>40969</v>
       </c>
-      <c r="B359" t="n">
+      <c r="B358">
         <v>2167952000000</v>
       </c>
-      <c r="C359" t="n">
+      <c r="C358">
         <v>0.1514440187184807</v>
       </c>
-      <c r="D359" t="n">
+      <c r="D358">
         <v>328323363268.7677</v>
       </c>
     </row>
-    <row r="360">
-      <c r="A360" s="2" t="n">
+    <row r="359" spans="1:4">
+      <c r="A359" s="2">
         <v>41000</v>
       </c>
-      <c r="B360" t="n">
+      <c r="B359">
         <v>2145844000000</v>
       </c>
-      <c r="C360" t="n">
+      <c r="C359">
         <v>0.1487984524960941</v>
       </c>
-      <c r="D360" t="n">
+      <c r="D359">
         <v>319298266498.0285</v>
       </c>
     </row>
-    <row r="361">
-      <c r="A361" s="2" t="n">
+    <row r="360" spans="1:4">
+      <c r="A360" s="2">
         <v>41030</v>
       </c>
-      <c r="B361" t="n">
+      <c r="B360">
         <v>2105771000000</v>
       </c>
-      <c r="C361" t="n">
+      <c r="C360">
         <v>0.1376329878745338</v>
       </c>
-      <c r="D361" t="n">
+      <c r="D360">
         <v>289823554509.5449</v>
       </c>
     </row>
-    <row r="362">
-      <c r="A362" s="2" t="n">
+    <row r="361" spans="1:4">
+      <c r="A361" s="2">
         <v>41061</v>
       </c>
-      <c r="B362" t="n">
+      <c r="B361">
         <v>2167991000000</v>
       </c>
-      <c r="C362" t="n">
+      <c r="C361">
         <v>0.1446926727630513</v>
       </c>
-      <c r="D362" t="n">
+      <c r="D361">
         <v>313692412316.2403</v>
       </c>
     </row>
-    <row r="363">
-      <c r="A363" s="2" t="n">
+    <row r="362" spans="1:4">
+      <c r="A362" s="2">
         <v>41091</v>
       </c>
-      <c r="B363" t="n">
+      <c r="B362">
         <v>2146292000000</v>
       </c>
-      <c r="C363" t="n">
+      <c r="C362">
         <v>0.1471475448432143</v>
       </c>
-      <c r="D363" t="n">
+      <c r="D362">
         <v>315821598316.6321</v>
       </c>
     </row>
-    <row r="364">
-      <c r="A364" s="2" t="n">
+    <row r="363" spans="1:4">
+      <c r="A363" s="2">
         <v>41122</v>
       </c>
-      <c r="B364" t="n">
+      <c r="B363">
         <v>2154752000000</v>
       </c>
-      <c r="C364" t="n">
+      <c r="C363">
         <v>0.151014059408931</v>
       </c>
-      <c r="D364" t="n">
+      <c r="D363">
         <v>325397846539.5128</v>
       </c>
     </row>
-    <row r="365">
-      <c r="A365" s="2" t="n">
+    <row r="364" spans="1:4">
+      <c r="A364" s="2">
         <v>41153</v>
       </c>
-      <c r="B365" t="n">
+      <c r="B364">
         <v>2219458000000</v>
       </c>
-      <c r="C365" t="n">
+      <c r="C364">
         <v>0.1523855965134176</v>
       </c>
-      <c r="D365" t="n">
+      <c r="D364">
         <v>338213431266.4767</v>
       </c>
     </row>
-    <row r="366">
-      <c r="A366" s="2" t="n">
+    <row r="365" spans="1:4">
+      <c r="A365" s="2">
         <v>41183</v>
       </c>
-      <c r="B366" t="n">
+      <c r="B365">
         <v>2207863000000</v>
       </c>
-      <c r="C366" t="n">
+      <c r="C365">
         <v>0.1507454361819196</v>
       </c>
-      <c r="D366" t="n">
+      <c r="D365">
         <v>332825270964.9216</v>
       </c>
     </row>
-    <row r="367">
-      <c r="A367" s="2" t="n">
+    <row r="366" spans="1:4">
+      <c r="A366" s="2">
         <v>41214</v>
       </c>
-      <c r="B367" t="n">
+      <c r="B366">
         <v>2193213000000</v>
       </c>
-      <c r="C367" t="n">
+      <c r="C366">
         <v>0.1501742772487472</v>
       </c>
-      <c r="D367" t="n">
+      <c r="D366">
         <v>329364177127.5566</v>
       </c>
     </row>
-    <row r="368">
-      <c r="A368" s="2" t="n">
+    <row r="367" spans="1:4">
+      <c r="A367" s="2">
         <v>41244</v>
       </c>
-      <c r="B368" t="n">
+      <c r="B367">
         <v>2258026000000</v>
       </c>
-      <c r="C368" t="n">
+      <c r="C367">
         <v>0.1536759282026063</v>
       </c>
-      <c r="D368" t="n">
+      <c r="D367">
         <v>347004241455.6184</v>
       </c>
     </row>
-    <row r="369">
-      <c r="A369" s="2" t="n">
+    <row r="368" spans="1:4">
+      <c r="A368" s="2">
         <v>41275</v>
       </c>
-      <c r="B369" t="n">
+      <c r="B368">
         <v>2253474000000</v>
       </c>
-      <c r="C369" t="n">
+      <c r="C368">
         <v>0.1572067504578647</v>
       </c>
-      <c r="D369" t="n">
+      <c r="D368">
         <v>354261324781.2861</v>
       </c>
     </row>
-    <row r="370">
-      <c r="A370" s="2" t="n">
+    <row r="369" spans="1:4">
+      <c r="A369" s="2">
         <v>41306</v>
       </c>
-      <c r="B370" t="n">
+      <c r="B369">
         <v>2212071000000</v>
       </c>
-      <c r="C370" t="n">
+      <c r="C369">
         <v>0.154719725217768</v>
       </c>
-      <c r="D370" t="n">
+      <c r="D369">
         <v>342251017282.1933</v>
       </c>
     </row>
-    <row r="371">
-      <c r="A371" s="2" t="n">
+    <row r="370" spans="1:4">
+      <c r="A370" s="2">
         <v>41334</v>
       </c>
-      <c r="B371" t="n">
+      <c r="B370">
         <v>2270214000000</v>
       </c>
-      <c r="C371" t="n">
+      <c r="C370">
         <v>0.1534942976868409</v>
       </c>
-      <c r="D371" t="n">
+      <c r="D370">
         <v>348464903528.8339</v>
       </c>
     </row>
-    <row r="372">
-      <c r="A372" s="2" t="n">
+    <row r="371" spans="1:4">
+      <c r="A371" s="2">
         <v>41365</v>
       </c>
-      <c r="B372" t="n">
+      <c r="B371">
         <v>2245340000000</v>
       </c>
-      <c r="C372" t="n">
+      <c r="C371">
         <v>0.1543066999969139</v>
       </c>
-      <c r="D372" t="n">
+      <c r="D371">
         <v>346471005771.0706</v>
       </c>
     </row>
-    <row r="373">
-      <c r="A373" s="2" t="n">
+    <row r="372" spans="1:4">
+      <c r="A372" s="2">
         <v>41395</v>
       </c>
-      <c r="B373" t="n">
+      <c r="B372">
         <v>2229984000000</v>
       </c>
-      <c r="C373" t="n">
+      <c r="C372">
         <v>0.1512401693889897</v>
       </c>
-      <c r="D373" t="n">
+      <c r="D372">
         <v>337263157894.7368</v>
       </c>
     </row>
-    <row r="374">
-      <c r="A374" s="2" t="n">
+    <row r="373" spans="1:4">
+      <c r="A373" s="2">
         <v>41426</v>
       </c>
-      <c r="B374" t="n">
+      <c r="B373">
         <v>2268611000000</v>
       </c>
-      <c r="C374" t="n">
+      <c r="C373">
         <v>0.149438857091621</v>
       </c>
-      <c r="D374" t="n">
+      <c r="D373">
         <v>339018635025.4793</v>
       </c>
     </row>
-    <row r="375">
-      <c r="A375" s="2" t="n">
+    <row r="374" spans="1:4">
+      <c r="A374" s="2">
         <v>41456</v>
       </c>
-      <c r="B375" t="n">
+      <c r="B374">
         <v>2249293000000</v>
       </c>
-      <c r="C375" t="n">
+      <c r="C374">
         <v>0.1535529857610316</v>
       </c>
-      <c r="D375" t="n">
+      <c r="D374">
         <v>345385656001.3881</v>
       </c>
     </row>
-    <row r="376">
-      <c r="A376" s="2" t="n">
+    <row r="375" spans="1:4">
+      <c r="A375" s="2">
         <v>41487</v>
       </c>
-      <c r="B376" t="n">
+      <c r="B375">
         <v>2260894000000</v>
       </c>
-      <c r="C376" t="n">
+      <c r="C375">
         <v>0.1511823213440713</v>
       </c>
-      <c r="D376" t="n">
+      <c r="D375">
         <v>341807203232.8828</v>
       </c>
     </row>
-    <row r="377">
-      <c r="A377" s="2" t="n">
+    <row r="376" spans="1:4">
+      <c r="A376" s="2">
         <v>41518</v>
       </c>
-      <c r="B377" t="n">
+      <c r="B376">
         <v>2293914000000</v>
       </c>
-      <c r="C377" t="n">
+      <c r="C376">
         <v>0.1555984315678098</v>
       </c>
-      <c r="D377" t="n">
+      <c r="D376">
         <v>356929420551.4409</v>
       </c>
     </row>
-    <row r="378">
-      <c r="A378" s="2" t="n">
+    <row r="377" spans="1:4">
+      <c r="A377" s="2">
         <v>41548</v>
       </c>
-      <c r="B378" t="n">
+      <c r="B377">
         <v>2315736000000</v>
       </c>
-      <c r="C378" t="n">
+      <c r="C377">
         <v>0.1543019380323417</v>
       </c>
-      <c r="D378" t="n">
+      <c r="D377">
         <v>357322552771.2628</v>
       </c>
     </row>
-    <row r="379">
-      <c r="A379" s="2" t="n">
+    <row r="378" spans="1:4">
+      <c r="A378" s="2">
         <v>41579</v>
       </c>
-      <c r="B379" t="n">
+      <c r="B378">
         <v>2335920000000</v>
       </c>
-      <c r="C379" t="n">
+      <c r="C378">
         <v>0.1527734491967172</v>
       </c>
-      <c r="D379" t="n">
+      <c r="D378">
         <v>356866555447.5956</v>
       </c>
     </row>
-    <row r="380">
-      <c r="A380" s="2" t="n">
+    <row r="379" spans="1:4">
+      <c r="A379" s="2">
         <v>41609</v>
       </c>
-      <c r="B380" t="n">
+      <c r="B379">
         <v>2387438000000</v>
       </c>
-      <c r="C380" t="n">
+      <c r="C379">
         <v>0.1556587400047632</v>
       </c>
-      <c r="D380" t="n">
+      <c r="D379">
         <v>371625590919.4918</v>
       </c>
     </row>
-    <row r="381">
-      <c r="A381" s="2" t="n">
+    <row r="380" spans="1:4">
+      <c r="A380" s="2">
         <v>41640</v>
       </c>
-      <c r="B381" t="n">
+      <c r="B380">
         <v>2377887000000</v>
       </c>
-      <c r="C381" t="n">
+      <c r="C380">
         <v>0.1530158662151679</v>
       </c>
-      <c r="D381" t="n">
+      <c r="D380">
         <v>363854439066.7869</v>
       </c>
     </row>
-    <row r="382">
-      <c r="A382" s="2" t="n">
+    <row r="381" spans="1:4">
+      <c r="A381" s="2">
         <v>41671</v>
       </c>
-      <c r="B382" t="n">
+      <c r="B381">
         <v>2355583000000</v>
       </c>
-      <c r="C382" t="n">
+      <c r="C381">
         <v>0.1562424320071996</v>
       </c>
-      <c r="D382" t="n">
+      <c r="D381">
         <v>368042016714.8154</v>
       </c>
     </row>
-    <row r="383">
-      <c r="A383" s="2" t="n">
+    <row r="382" spans="1:4">
+      <c r="A382" s="2">
         <v>41699</v>
       </c>
-      <c r="B383" t="n">
+      <c r="B382">
         <v>2361204000000</v>
       </c>
-      <c r="C383" t="n">
+      <c r="C382">
         <v>0.1546677967727018</v>
       </c>
-      <c r="D383" t="n">
+      <c r="D382">
         <v>365202220410.8905</v>
       </c>
     </row>
-    <row r="384">
-      <c r="A384" s="2" t="n">
+    <row r="383" spans="1:4">
+      <c r="A383" s="2">
         <v>41730</v>
       </c>
-      <c r="B384" t="n">
+      <c r="B383">
         <v>2362905000000</v>
       </c>
-      <c r="C384" t="n">
+      <c r="C383">
         <v>0.1538702996470215</v>
       </c>
-      <c r="D384" t="n">
+      <c r="D383">
         <v>363580900387.4454</v>
       </c>
     </row>
-    <row r="385">
-      <c r="A385" s="2" t="n">
+    <row r="384" spans="1:4">
+      <c r="A384" s="2">
         <v>41760</v>
       </c>
-      <c r="B385" t="n">
+      <c r="B384">
         <v>2377199000000</v>
       </c>
-      <c r="C385" t="n">
+      <c r="C384">
         <v>0.1496909630068723</v>
       </c>
-      <c r="D385" t="n">
+      <c r="D384">
         <v>355845207568.9739</v>
       </c>
     </row>
-    <row r="386">
-      <c r="A386" s="2" t="n">
+    <row r="385" spans="1:4">
+      <c r="A385" s="2">
         <v>41791</v>
       </c>
-      <c r="B386" t="n">
+      <c r="B385">
         <v>2423708000000</v>
       </c>
-      <c r="C386" t="n">
+      <c r="C385">
         <v>0.1497037363058507</v>
       </c>
-      <c r="D386" t="n">
+      <c r="D385">
         <v>362838143314.3809</v>
       </c>
     </row>
-    <row r="387">
-      <c r="A387" s="2" t="n">
+    <row r="386" spans="1:4">
+      <c r="A386" s="2">
         <v>41821</v>
       </c>
-      <c r="B387" t="n">
+      <c r="B386">
         <v>2400777000000</v>
       </c>
-      <c r="C387" t="n">
+      <c r="C386">
         <v>0.1449863712810996</v>
       </c>
-      <c r="D387" t="n">
+      <c r="D386">
         <v>348079945485.1245</v>
       </c>
     </row>
-    <row r="388">
-      <c r="A388" s="2" t="n">
+    <row r="387" spans="1:4">
+      <c r="A387" s="2">
         <v>41852</v>
       </c>
-      <c r="B388" t="n">
+      <c r="B387">
         <v>2412498000000</v>
       </c>
-      <c r="C388" t="n">
+      <c r="C387">
         <v>0.1430778916041893</v>
       </c>
-      <c r="D388" t="n">
+      <c r="D387">
         <v>345175127339.3235</v>
       </c>
     </row>
-    <row r="389">
-      <c r="A389" s="2" t="n">
+    <row r="388" spans="1:4">
+      <c r="A388" s="2">
         <v>41883</v>
       </c>
-      <c r="B389" t="n">
+      <c r="B388">
         <v>2432652000000</v>
       </c>
-      <c r="C389" t="n">
+      <c r="C388">
         <v>0.1386462579374983</v>
       </c>
-      <c r="D389" t="n">
+      <c r="D388">
         <v>337278096664.171</v>
       </c>
     </row>
-    <row r="390">
-      <c r="A390" s="2" t="n">
+    <row r="389" spans="1:4">
+      <c r="A389" s="2">
         <v>41913</v>
       </c>
-      <c r="B390" t="n">
+      <c r="B389">
         <v>2451122000000</v>
       </c>
-      <c r="C390" t="n">
+      <c r="C389">
         <v>0.1353344791652569</v>
       </c>
-      <c r="D390" t="n">
+      <c r="D389">
         <v>331721319240.5029</v>
       </c>
     </row>
-    <row r="391">
-      <c r="A391" s="2" t="n">
+    <row r="390" spans="1:4">
+      <c r="A390" s="2">
         <v>41944</v>
       </c>
-      <c r="B391" t="n">
+      <c r="B390">
         <v>2467099000000</v>
       </c>
-      <c r="C391" t="n">
+      <c r="C390">
         <v>0.1342894743909972</v>
       </c>
-      <c r="D391" t="n">
+      <c r="D390">
         <v>331305427980.5549</v>
       </c>
     </row>
-    <row r="392">
-      <c r="A392" s="2" t="n">
+    <row r="391" spans="1:4">
+      <c r="A391" s="2">
         <v>41974</v>
       </c>
-      <c r="B392" t="n">
+      <c r="B391">
         <v>2522075000000</v>
       </c>
-      <c r="C392" t="n">
+      <c r="C391">
         <v>0.128498863427553</v>
       </c>
-      <c r="D392" t="n">
+      <c r="D391">
         <v>324083770979.0457</v>
       </c>
     </row>
-    <row r="393">
-      <c r="A393" s="2" t="n">
+    <row r="392" spans="1:4">
+      <c r="A392" s="2">
         <v>42005</v>
       </c>
-      <c r="B393" t="n">
+      <c r="B392">
         <v>2507795000000</v>
       </c>
-      <c r="C393" t="n">
+      <c r="C392">
         <v>0.1210321134506619</v>
       </c>
-      <c r="D393" t="n">
+      <c r="D392">
         <v>303523728951.0026</v>
       </c>
     </row>
-    <row r="394">
-      <c r="A394" s="2" t="n">
+    <row r="393" spans="1:4">
+      <c r="A393" s="2">
         <v>42036</v>
       </c>
-      <c r="B394" t="n">
+      <c r="B393">
         <v>2509859000000</v>
       </c>
-      <c r="C394" t="n">
+      <c r="C393">
         <v>0.1199688081098914</v>
       </c>
-      <c r="D394" t="n">
+      <c r="D393">
         <v>301104792753.884</v>
       </c>
     </row>
-    <row r="395">
-      <c r="A395" s="2" t="n">
+    <row r="394" spans="1:4">
+      <c r="A394" s="2">
         <v>42064</v>
       </c>
-      <c r="B395" t="n">
+      <c r="B394">
         <v>2548335000000</v>
       </c>
-      <c r="C395" t="n">
+      <c r="C394">
         <v>0.1159339640140976</v>
       </c>
-      <c r="D395" t="n">
+      <c r="D394">
         <v>295438578185.8654</v>
       </c>
     </row>
-    <row r="396">
-      <c r="A396" s="2" t="n">
+    <row r="395" spans="1:4">
+      <c r="A395" s="2">
         <v>42095</v>
       </c>
-      <c r="B396" t="n">
+      <c r="B395">
         <v>2546771000000</v>
       </c>
-      <c r="C396" t="n">
+      <c r="C395">
         <v>0.1200768491834774</v>
       </c>
-      <c r="D396" t="n">
+      <c r="D395">
         <v>305808237271.854</v>
       </c>
     </row>
-    <row r="397">
-      <c r="A397" s="2" t="n">
+    <row r="396" spans="1:4">
+      <c r="A396" s="2">
         <v>42125</v>
       </c>
-      <c r="B397" t="n">
+      <c r="B396">
         <v>2580783000000</v>
       </c>
-      <c r="C397" t="n">
+      <c r="C396">
         <v>0.117470162578705</v>
       </c>
-      <c r="D397" t="n">
+      <c r="D396">
         <v>303164998590.358</v>
       </c>
     </row>
-    <row r="398">
-      <c r="A398" s="2" t="n">
+    <row r="397" spans="1:4">
+      <c r="A397" s="2">
         <v>42156</v>
       </c>
-      <c r="B398" t="n">
+      <c r="B397">
         <v>2638101000000</v>
       </c>
-      <c r="C398" t="n">
+      <c r="C397">
         <v>0.1207773228498617</v>
       </c>
-      <c r="D398" t="n">
+      <c r="D397">
         <v>318622776187.543</v>
       </c>
     </row>
-    <row r="399">
-      <c r="A399" s="2" t="n">
+    <row r="398" spans="1:4">
+      <c r="A398" s="2">
         <v>42186</v>
       </c>
-      <c r="B399" t="n">
+      <c r="B398">
         <v>2617231000000</v>
       </c>
-      <c r="C399" t="n">
+      <c r="C398">
         <v>0.1159931332065142</v>
       </c>
-      <c r="D399" t="n">
+      <c r="D398">
         <v>303580824015.2183</v>
       </c>
     </row>
-    <row r="400">
-      <c r="A400" s="2" t="n">
+    <row r="399" spans="1:4">
+      <c r="A399" s="2">
         <v>42217</v>
       </c>
-      <c r="B400" t="n">
+      <c r="B399">
         <v>2619938000000</v>
       </c>
-      <c r="C400" t="n">
+      <c r="C399">
         <v>0.1180902445648965</v>
       </c>
-      <c r="D400" t="n">
+      <c r="D399">
         <v>309389119164.8658</v>
       </c>
     </row>
-    <row r="401">
-      <c r="A401" s="2" t="n">
+    <row r="400" spans="1:4">
+      <c r="A400" s="2">
         <v>42248</v>
       </c>
-      <c r="B401" t="n">
+      <c r="B400">
         <v>2640658000000</v>
       </c>
-      <c r="C401" t="n">
+      <c r="C400">
         <v>0.1195114372445443</v>
       </c>
-      <c r="D401" t="n">
+      <c r="D400">
         <v>315588832851.3038</v>
       </c>
     </row>
-    <row r="402">
-      <c r="A402" s="2" t="n">
+    <row r="401" spans="1:4">
+      <c r="A401" s="2">
         <v>42278</v>
       </c>
-      <c r="B402" t="n">
+      <c r="B401">
         <v>2675262000000</v>
       </c>
-      <c r="C402" t="n">
+      <c r="C401">
         <v>0.1172016923924382</v>
       </c>
-      <c r="D402" t="n">
+      <c r="D401">
         <v>313545233993.1789</v>
       </c>
     </row>
-    <row r="403">
-      <c r="A403" s="2" t="n">
+    <row r="402" spans="1:4">
+      <c r="A402" s="2">
         <v>42309</v>
       </c>
-      <c r="B403" t="n">
+      <c r="B402">
         <v>2694519000000</v>
       </c>
-      <c r="C403" t="n">
+      <c r="C402">
         <v>0.1146434016990152</v>
       </c>
-      <c r="D403" t="n">
+      <c r="D402">
         <v>308908824102.6288</v>
       </c>
     </row>
-    <row r="404">
-      <c r="A404" s="2" t="n">
+    <row r="403" spans="1:4">
+      <c r="A403" s="2">
         <v>42339</v>
       </c>
-      <c r="B404" t="n">
+      <c r="B403">
         <v>2728918000000</v>
       </c>
-      <c r="C404" t="n">
+      <c r="C403">
         <v>0.1183544004166075</v>
       </c>
-      <c r="D404" t="n">
+      <c r="D403">
         <v>322979453676.0877</v>
       </c>
     </row>
-    <row r="405">
-      <c r="A405" s="2" t="n">
+    <row r="404" spans="1:4">
+      <c r="A404" s="2">
         <v>42370</v>
       </c>
-      <c r="B405" t="n">
+      <c r="B404">
         <v>2748884000000</v>
       </c>
-      <c r="C405" t="n">
+      <c r="C404">
         <v>0.1166480029861889</v>
       </c>
-      <c r="D405" t="n">
+      <c r="D404">
         <v>320651829040.6869</v>
       </c>
     </row>
-    <row r="406">
-      <c r="A406" s="2" t="n">
+    <row r="405" spans="1:4">
+      <c r="A405" s="2">
         <v>42401</v>
       </c>
-      <c r="B406" t="n">
+      <c r="B405">
         <v>2732370000000</v>
       </c>
-      <c r="C406" t="n">
+      <c r="C405">
         <v>0.1167624118443791</v>
       </c>
-      <c r="D406" t="n">
+      <c r="D405">
         <v>319038111251.226</v>
       </c>
     </row>
-    <row r="407">
-      <c r="A407" s="2" t="n">
+    <row r="406" spans="1:4">
+      <c r="A406" s="2">
         <v>42430</v>
       </c>
-      <c r="B407" t="n">
+      <c r="B406">
         <v>2766495000000</v>
       </c>
-      <c r="C407" t="n">
+      <c r="C406">
         <v>0.1233410627065963</v>
       </c>
-      <c r="D407" t="n">
+      <c r="D406">
         <v>341222433272.4851</v>
       </c>
     </row>
-    <row r="408">
-      <c r="A408" s="2" t="n">
+    <row r="407" spans="1:4">
+      <c r="A407" s="2">
         <v>42461</v>
       </c>
-      <c r="B408" t="n">
+      <c r="B407">
         <v>2781493000000</v>
       </c>
-      <c r="C408" t="n">
+      <c r="C407">
         <v>0.1246665170668462</v>
       </c>
-      <c r="D408" t="n">
+      <c r="D407">
         <v>346759044555.8132</v>
       </c>
     </row>
-    <row r="409">
-      <c r="A409" s="2" t="n">
+    <row r="408" spans="1:4">
+      <c r="A408" s="2">
         <v>42491</v>
       </c>
-      <c r="B409" t="n">
+      <c r="B408">
         <v>2776382000000</v>
       </c>
-      <c r="C409" t="n">
+      <c r="C408">
         <v>0.1200364910932924</v>
       </c>
-      <c r="D409" t="n">
+      <c r="D408">
         <v>333267153214.5772</v>
       </c>
     </row>
-    <row r="410">
-      <c r="A410" s="2" t="n">
+    <row r="409" spans="1:4">
+      <c r="A409" s="2">
         <v>42522</v>
       </c>
-      <c r="B410" t="n">
+      <c r="B409">
         <v>2814128000000</v>
       </c>
-      <c r="C410" t="n">
+      <c r="C409">
         <v>0.1183986815122827</v>
       </c>
-      <c r="D410" t="n">
+      <c r="D409">
         <v>333189044806.7971</v>
       </c>
     </row>
-    <row r="411">
-      <c r="A411" s="2" t="n">
+    <row r="410" spans="1:4">
+      <c r="A410" s="2">
         <v>42552</v>
       </c>
-      <c r="B411" t="n">
+      <c r="B410">
         <v>2841544000000</v>
       </c>
-      <c r="C411" t="n">
+      <c r="C410">
         <v>0.1168770453482936</v>
       </c>
-      <c r="D411" t="n">
+      <c r="D410">
         <v>332111266947.1716</v>
       </c>
     </row>
-    <row r="412">
-      <c r="A412" s="2" t="n">
+    <row r="411" spans="1:4">
+      <c r="A411" s="2">
         <v>42583</v>
       </c>
-      <c r="B412" t="n">
+      <c r="B411">
         <v>2842117000000</v>
       </c>
-      <c r="C412" t="n">
+      <c r="C411">
         <v>0.1169809555004445</v>
       </c>
-      <c r="D412" t="n">
+      <c r="D411">
         <v>332473562304.0569</v>
       </c>
     </row>
-    <row r="413">
-      <c r="A413" s="2" t="n">
+    <row r="412" spans="1:4">
+      <c r="A412" s="2">
         <v>42614</v>
       </c>
-      <c r="B413" t="n">
+      <c r="B412">
         <v>2867299000000</v>
       </c>
-      <c r="C413" t="n">
+      <c r="C412">
         <v>0.1168027808406063</v>
       </c>
-      <c r="D413" t="n">
+      <c r="D412">
         <v>334908496701.4895</v>
       </c>
     </row>
-    <row r="414">
-      <c r="A414" s="2" t="n">
+    <row r="413" spans="1:4">
+      <c r="A413" s="2">
         <v>42644</v>
       </c>
-      <c r="B414" t="n">
+      <c r="B413">
         <v>2883246000000</v>
       </c>
-      <c r="C414" t="n">
+      <c r="C413">
         <v>0.1107444240182507</v>
       </c>
-      <c r="D414" t="n">
+      <c r="D413">
         <v>319303417572.9252</v>
       </c>
     </row>
-    <row r="415">
-      <c r="A415" s="2" t="n">
+    <row r="414" spans="1:4">
+      <c r="A414" s="2">
         <v>42675</v>
       </c>
-      <c r="B415" t="n">
+      <c r="B414">
         <v>2903568000000</v>
       </c>
-      <c r="C415" t="n">
+      <c r="C414">
         <v>0.1083529271543271</v>
       </c>
-      <c r="D415" t="n">
+      <c r="D414">
         <v>314610091991.6351</v>
       </c>
     </row>
-    <row r="416">
-      <c r="A416" s="2" t="n">
+    <row r="415" spans="1:4">
+      <c r="A415" s="2">
         <v>42705</v>
       </c>
-      <c r="B416" t="n">
+      <c r="B415">
         <v>2917782000000</v>
       </c>
-      <c r="C416" t="n">
+      <c r="C415">
         <v>0.1100291577267976</v>
       </c>
-      <c r="D416" t="n">
+      <c r="D415">
         <v>321041095890.411</v>
       </c>
     </row>
-    <row r="417">
-      <c r="A417" s="2" t="n">
+    <row r="416" spans="1:4">
+      <c r="A416" s="2">
         <v>42736</v>
       </c>
-      <c r="B417" t="n">
+      <c r="B416">
         <v>2960969000000</v>
       </c>
-      <c r="C417" t="n">
+      <c r="C416">
         <v>0.1144007687731662</v>
       </c>
-      <c r="D417" t="n">
+      <c r="D416">
         <v>338737129913.5131</v>
       </c>
     </row>
-    <row r="418">
-      <c r="A418" s="2" t="n">
+    <row r="417" spans="1:4">
+      <c r="A417" s="2">
         <v>42767</v>
       </c>
-      <c r="B418" t="n">
+      <c r="B417">
         <v>2944067000000</v>
       </c>
-      <c r="C418" t="n">
+      <c r="C417">
         <v>0.1106659879152741</v>
       </c>
-      <c r="D418" t="n">
+      <c r="D417">
         <v>325808083043.7574</v>
       </c>
     </row>
-    <row r="419">
-      <c r="A419" s="2" t="n">
+    <row r="418" spans="1:4">
+      <c r="A418" s="2">
         <v>42795</v>
       </c>
-      <c r="B419" t="n">
+      <c r="B418">
         <v>3031836000000</v>
       </c>
-      <c r="C419" t="n">
+      <c r="C418">
         <v>0.1116937803318422</v>
       </c>
-      <c r="D419" t="n">
+      <c r="D418">
         <v>338637224186.1712</v>
       </c>
     </row>
-    <row r="420">
-      <c r="A420" s="2" t="n">
+    <row r="419" spans="1:4">
+      <c r="A419" s="2">
         <v>42826</v>
       </c>
-      <c r="B420" t="n">
+      <c r="B419">
         <v>3027781000000</v>
       </c>
-      <c r="C420" t="n">
+      <c r="C419">
         <v>0.1130142714421977</v>
       </c>
-      <c r="D420" t="n">
+      <c r="D419">
         <v>342182463801.5289</v>
       </c>
     </row>
-    <row r="421">
-      <c r="A421" s="2" t="n">
+    <row r="420" spans="1:4">
+      <c r="A420" s="2">
         <v>42856</v>
       </c>
-      <c r="B421" t="n">
+      <c r="B420">
         <v>3030922000000</v>
       </c>
-      <c r="C421" t="n">
+      <c r="C420">
         <v>0.1150755931571449</v>
       </c>
-      <c r="D421" t="n">
+      <c r="D420">
         <v>348785146963.04</v>
       </c>
     </row>
-    <row r="422">
-      <c r="A422" s="2" t="n">
+    <row r="421" spans="1:4">
+      <c r="A421" s="2">
         <v>42887</v>
       </c>
-      <c r="B422" t="n">
+      <c r="B421">
         <v>3085090000000</v>
       </c>
-      <c r="C422" t="n">
+      <c r="C421">
         <v>0.1187391798922323</v>
       </c>
-      <c r="D422" t="n">
+      <c r="D421">
         <v>366321056493.727</v>
       </c>
     </row>
-    <row r="423">
-      <c r="A423" s="2" t="n">
+    <row r="422" spans="1:4">
+      <c r="A422" s="2">
         <v>42917</v>
       </c>
-      <c r="B423" t="n">
+      <c r="B422">
         <v>3089508000000</v>
       </c>
-      <c r="C423" t="n">
+      <c r="C422">
         <v>0.1239736531192391</v>
       </c>
-      <c r="D423" t="n">
+      <c r="D422">
         <v>383017593101.1142</v>
       </c>
     </row>
-    <row r="424">
-      <c r="A424" s="2" t="n">
+    <row r="423" spans="1:4">
+      <c r="A423" s="2">
         <v>42948</v>
       </c>
-      <c r="B424" t="n">
+      <c r="B423">
         <v>3083488000000</v>
       </c>
-      <c r="C424" t="n">
+      <c r="C423">
         <v>0.1259969508737888</v>
       </c>
-      <c r="D424" t="n">
+      <c r="D423">
         <v>388510086055.9174</v>
       </c>
     </row>
-    <row r="425">
-      <c r="A425" s="2" t="n">
+    <row r="424" spans="1:4">
+      <c r="A424" s="2">
         <v>42979</v>
       </c>
-      <c r="B425" t="n">
+      <c r="B424">
         <v>3119085000000</v>
       </c>
-      <c r="C425" t="n">
+      <c r="C424">
         <v>0.1228839385776921</v>
       </c>
-      <c r="D425" t="n">
+      <c r="D424">
         <v>383285449558.6009</v>
       </c>
     </row>
-    <row r="426">
-      <c r="A426" s="2" t="n">
+    <row r="425" spans="1:4">
+      <c r="A425" s="2">
         <v>43009</v>
       </c>
-      <c r="B426" t="n">
+      <c r="B425">
         <v>3125689000000</v>
       </c>
-      <c r="C426" t="n">
+      <c r="C425">
         <v>0.1193915805057427</v>
       </c>
-      <c r="D426" t="n">
+      <c r="D425">
         <v>373180949879.4145</v>
       </c>
     </row>
-    <row r="427">
-      <c r="A427" s="2" t="n">
+    <row r="426" spans="1:4">
+      <c r="A426" s="2">
         <v>43040</v>
       </c>
-      <c r="B427" t="n">
+      <c r="B426">
         <v>3141177000000</v>
       </c>
-      <c r="C427" t="n">
+      <c r="C426">
         <v>0.1194243745148385</v>
       </c>
-      <c r="D427" t="n">
+      <c r="D426">
         <v>375133098465.3968</v>
       </c>
     </row>
-    <row r="428">
-      <c r="A428" s="2" t="n">
+    <row r="427" spans="1:4">
+      <c r="A427" s="2">
         <v>43070</v>
       </c>
-      <c r="B428" t="n">
+      <c r="B427">
         <v>3130303000000</v>
       </c>
-      <c r="C428" t="n">
+      <c r="C427">
         <v>0.1221509810556043</v>
       </c>
-      <c r="D428" t="n">
+      <c r="D427">
         <v>382369582451.3014</v>
       </c>
     </row>
-    <row r="429">
-      <c r="A429" s="2" t="n">
+    <row r="428" spans="1:4">
+      <c r="A428" s="2">
         <v>43101</v>
       </c>
-      <c r="B429" t="n">
+      <c r="B428">
         <v>3190477000000</v>
       </c>
-      <c r="C429" t="n">
+      <c r="C428">
         <v>0.1270378458446556</v>
       </c>
-      <c r="D429" t="n">
+      <c r="D428">
         <v>405311325296.9192</v>
       </c>
     </row>
-    <row r="430">
-      <c r="A430" s="2" t="n">
+    <row r="429" spans="1:4">
+      <c r="A429" s="2">
         <v>43132</v>
       </c>
-      <c r="B430" t="n">
+      <c r="B429">
         <v>3172864000000</v>
       </c>
-      <c r="C430" t="n">
+      <c r="C429">
         <v>0.1206549148779576</v>
       </c>
-      <c r="D430" t="n">
+      <c r="D429">
         <v>382821635839.3359</v>
       </c>
     </row>
-    <row r="431">
-      <c r="A431" s="2" t="n">
+    <row r="430" spans="1:4">
+      <c r="A430" s="2">
         <v>43160</v>
       </c>
-      <c r="B431" t="n">
+      <c r="B430">
         <v>3220531000000</v>
       </c>
-      <c r="C431" t="n">
+      <c r="C430">
         <v>0.1199947202323098</v>
       </c>
-      <c r="D431" t="n">
+      <c r="D430">
         <v>386446716344.4808</v>
       </c>
     </row>
-    <row r="432">
-      <c r="A432" s="2" t="n">
+    <row r="431" spans="1:4">
+      <c r="A431" s="2">
         <v>43191</v>
       </c>
-      <c r="B432" t="n">
+      <c r="B431">
         <v>3239383000000</v>
       </c>
-      <c r="C432" t="n">
+      <c r="C431">
         <v>0.1143929167905923</v>
       </c>
-      <c r="D432" t="n">
+      <c r="D431">
         <v>370562469971.8594</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="2" t="n">
+    <row r="432" spans="1:4">
+      <c r="A432" s="2">
         <v>43221</v>
       </c>
-      <c r="B433" t="n">
+      <c r="B432">
         <v>3221827000000</v>
       </c>
-      <c r="C433" t="n">
+      <c r="C432">
         <v>0.1135460429204042</v>
       </c>
-      <c r="D433" t="n">
+      <c r="D432">
         <v>365825706824.1172</v>
       </c>
     </row>
-    <row r="434">
-      <c r="A434" s="2" t="n">
+    <row r="433" spans="1:4">
+      <c r="A433" s="2">
         <v>43252</v>
       </c>
-      <c r="B434" t="n">
+      <c r="B433">
         <v>3298888000000</v>
       </c>
-      <c r="C434" t="n">
+      <c r="C433">
         <v>0.1118293037507549</v>
       </c>
-      <c r="D434" t="n">
+      <c r="D433">
         <v>368912348191.7202</v>
       </c>
     </row>
-    <row r="435">
-      <c r="A435" s="2" t="n">
+    <row r="434" spans="1:4">
+      <c r="A434" s="2">
         <v>43282</v>
       </c>
-      <c r="B435" t="n">
+      <c r="B434">
         <v>3268769000000</v>
       </c>
-      <c r="C435" t="n">
+      <c r="C434">
         <v>0.1137732794351384</v>
       </c>
-      <c r="D435" t="n">
+      <c r="D434">
         <v>371898568845.918</v>
       </c>
     </row>
-    <row r="436">
-      <c r="A436" s="2" t="n">
+    <row r="435" spans="1:4">
+      <c r="A435" s="2">
         <v>43313</v>
       </c>
-      <c r="B436" t="n">
+      <c r="B435">
         <v>3267031000000</v>
       </c>
-      <c r="C436" t="n">
+      <c r="C435">
         <v>0.1094730296770436</v>
       </c>
-      <c r="D436" t="n">
+      <c r="D435">
         <v>357651781618.8215</v>
       </c>
     </row>
-    <row r="437">
-      <c r="A437" s="2" t="n">
+    <row r="436" spans="1:4">
+      <c r="A436" s="2">
         <v>43344</v>
       </c>
-      <c r="B437" t="n">
+      <c r="B436">
         <v>3303322000000</v>
       </c>
-      <c r="C437" t="n">
+      <c r="C436">
         <v>0.112585100262661</v>
       </c>
-      <c r="D437" t="n">
+      <c r="D436">
         <v>371904838569.854</v>
       </c>
     </row>
-    <row r="438">
-      <c r="A438" s="2" t="n">
+    <row r="437" spans="1:4">
+      <c r="A437" s="2">
         <v>43374</v>
       </c>
-      <c r="B438" t="n">
+      <c r="B437">
         <v>3296521000000</v>
       </c>
-      <c r="C438" t="n">
+      <c r="C437">
         <v>0.1091656577940459</v>
       </c>
-      <c r="D438" t="n">
+      <c r="D437">
         <v>359866883396.886</v>
       </c>
     </row>
-    <row r="439">
-      <c r="A439" s="2" t="n">
+    <row r="438" spans="1:4">
+      <c r="A438" s="2">
         <v>43405</v>
       </c>
-      <c r="B439" t="n">
+      <c r="B438">
         <v>3348953000000</v>
       </c>
-      <c r="C439" t="n">
+      <c r="C438">
         <v>0.1099589852984837</v>
       </c>
-      <c r="D439" t="n">
+      <c r="D438">
         <v>368247473692.3127</v>
       </c>
     </row>
-    <row r="440">
-      <c r="A440" s="2" t="n">
+    <row r="439" spans="1:4">
+      <c r="A439" s="2">
         <v>43435</v>
       </c>
-      <c r="B440" t="n">
+      <c r="B439">
         <v>3341036000000</v>
       </c>
-      <c r="C440" t="n">
+      <c r="C439">
         <v>0.1126812618949157</v>
       </c>
-      <c r="D440" t="n">
+      <c r="D439">
         <v>376472152516.3416</v>
       </c>
     </row>
-    <row r="441">
-      <c r="A441" s="2" t="n">
+    <row r="440" spans="1:4">
+      <c r="A440" s="2">
         <v>43466</v>
       </c>
-      <c r="B441" t="n">
+      <c r="B440">
         <v>3386768000000</v>
       </c>
-      <c r="C441" t="n">
+      <c r="C440">
         <v>0.1106084571226316</v>
       </c>
-      <c r="D441" t="n">
+      <c r="D440">
         <v>374605183112.3008</v>
       </c>
     </row>
-    <row r="442">
-      <c r="A442" s="2" t="n">
+    <row r="441" spans="1:4">
+      <c r="A441" s="2">
         <v>43497</v>
       </c>
-      <c r="B442" t="n">
+      <c r="B441">
         <v>3383263000000</v>
       </c>
-      <c r="C442" t="n">
+      <c r="C441">
         <v>0.1083423618634886</v>
       </c>
-      <c r="D442" t="n">
+      <c r="D441">
         <v>366550704225.3521</v>
       </c>
     </row>
-    <row r="443">
-      <c r="A443" s="2" t="n">
+    <row r="442" spans="1:4">
+      <c r="A442" s="2">
         <v>43525</v>
       </c>
-      <c r="B443" t="n">
+      <c r="B442">
         <v>3420052000000</v>
       </c>
-      <c r="C443" t="n">
+      <c r="C442">
         <v>0.1075615790039798</v>
       </c>
-      <c r="D443" t="n">
+      <c r="D442">
         <v>367866193395.719</v>
       </c>
     </row>
-    <row r="444">
-      <c r="A444" s="2" t="n">
+    <row r="443" spans="1:4">
+      <c r="A443" s="2">
         <v>43556</v>
       </c>
-      <c r="B444" t="n">
+      <c r="B443">
         <v>3410442000000</v>
       </c>
-      <c r="C444" t="n">
+      <c r="C443">
         <v>0.1054874575412983</v>
       </c>
-      <c r="D444" t="n">
+      <c r="D443">
         <v>359758855672.0606</v>
       </c>
     </row>
-    <row r="445">
-      <c r="A445" s="2" t="n">
+    <row r="444" spans="1:4">
+      <c r="A444" s="2">
         <v>43586</v>
       </c>
-      <c r="B445" t="n">
+      <c r="B444">
         <v>3433707000000</v>
       </c>
-      <c r="C445" t="n">
+      <c r="C444">
         <v>0.105400955775867</v>
       </c>
-      <c r="D445" t="n">
+      <c r="D444">
         <v>361915999654.2849</v>
       </c>
     </row>
-    <row r="446">
-      <c r="A446" s="2" t="n">
+    <row r="445" spans="1:4">
+      <c r="A445" s="2">
         <v>43617</v>
       </c>
-      <c r="B446" t="n">
+      <c r="B445">
         <v>3507874000000</v>
       </c>
-      <c r="C446" t="n">
+      <c r="C445">
         <v>0.1077916086388507</v>
       </c>
-      <c r="D446" t="n">
+      <c r="D445">
         <v>378119381362.3997</v>
       </c>
     </row>
-    <row r="447">
-      <c r="A447" s="2" t="n">
+    <row r="446" spans="1:4">
+      <c r="A446" s="2">
         <v>43647</v>
       </c>
-      <c r="B447" t="n">
+      <c r="B446">
         <v>3509682000000</v>
       </c>
-      <c r="C447" t="n">
+      <c r="C446">
         <v>0.1035518276897587</v>
       </c>
-      <c r="D447" t="n">
+      <c r="D446">
         <v>363433985709.8478</v>
       </c>
     </row>
-    <row r="448">
-      <c r="A448" s="2" t="n">
+    <row r="447" spans="1:4">
+      <c r="A447" s="2">
         <v>43678</v>
       </c>
-      <c r="B448" t="n">
+      <c r="B447">
         <v>3504689000000</v>
       </c>
-      <c r="C448" t="n">
+      <c r="C447">
         <v>0.1019129052311894</v>
       </c>
-      <c r="D448" t="n">
+      <c r="D447">
         <v>357173037921.7921</v>
       </c>
     </row>
-    <row r="449">
-      <c r="A449" s="2" t="n">
+    <row r="448" spans="1:4">
+      <c r="A448" s="2">
         <v>43709</v>
       </c>
-      <c r="B449" t="n">
+      <c r="B448">
         <v>3561868000000</v>
       </c>
-      <c r="C449" t="n">
+      <c r="C448">
         <v>0.1016824376127404</v>
       </c>
-      <c r="D449" t="n">
+      <c r="D448">
         <v>362179420694.8164</v>
       </c>
     </row>
-    <row r="450">
-      <c r="A450" s="2" t="n">
+    <row r="449" spans="1:4">
+      <c r="A449" s="2">
         <v>43739</v>
       </c>
-      <c r="B450" t="n">
+      <c r="B449">
         <v>3593417000000</v>
       </c>
-      <c r="C450" t="n">
+      <c r="C449">
         <v>0.1036780836972434</v>
       </c>
-      <c r="D450" t="n">
+      <c r="D449">
         <v>372558588485.0974</v>
       </c>
     </row>
-    <row r="451">
-      <c r="A451" s="2" t="n">
+    <row r="450" spans="1:4">
+      <c r="A450" s="2">
         <v>43770</v>
       </c>
-      <c r="B451" t="n">
+      <c r="B450">
         <v>3599353000000</v>
       </c>
-      <c r="C451" t="n">
+      <c r="C450">
         <v>0.1045032542313368</v>
       </c>
-      <c r="D451" t="n">
+      <c r="D450">
         <v>376144101627.3247</v>
       </c>
     </row>
-    <row r="452">
-      <c r="A452" s="2" t="n">
+    <row r="451" spans="1:4">
+      <c r="A451" s="2">
         <v>43800</v>
       </c>
-      <c r="B452" t="n">
+      <c r="B451">
         <v>3579821000000</v>
       </c>
-      <c r="C452" t="n">
+      <c r="C451">
         <v>0.1067489914889029</v>
       </c>
-      <c r="D452" t="n">
+      <c r="D451">
         <v>382142281460.7959</v>
       </c>
     </row>
-    <row r="453">
-      <c r="A453" s="2" t="n">
+    <row r="452" spans="1:4">
+      <c r="A452" s="2">
         <v>43831</v>
       </c>
-      <c r="B453" t="n">
+      <c r="B452">
         <v>3624226000000</v>
       </c>
-      <c r="C453" t="n">
+      <c r="C452">
         <v>0.1039199649997558</v>
       </c>
-      <c r="D453" t="n">
+      <c r="D452">
         <v>376629439071.2049</v>
       </c>
     </row>
-    <row r="454">
-      <c r="A454" s="2" t="n">
+    <row r="453" spans="1:4">
+      <c r="A453" s="2">
         <v>43862</v>
       </c>
-      <c r="B454" t="n">
+      <c r="B453">
         <v>3600782000000</v>
       </c>
-      <c r="C454" t="n">
+      <c r="C453">
         <v>0.1041575528807896</v>
       </c>
-      <c r="D454" t="n">
+      <c r="D453">
         <v>375048641577.1953</v>
       </c>
     </row>
-    <row r="455">
-      <c r="A455" s="2" t="n">
+    <row r="454" spans="1:4">
+      <c r="A454" s="2">
         <v>43891</v>
       </c>
-      <c r="B455" t="n">
+      <c r="B454">
         <v>3834576000000</v>
       </c>
-      <c r="C455" t="n">
+      <c r="C454">
         <v>0.1012330181612035</v>
       </c>
-      <c r="D455" t="n">
+      <c r="D454">
         <v>388185701848.515</v>
       </c>
     </row>
-    <row r="456">
-      <c r="A456" s="2" t="n">
+    <row r="455" spans="1:4">
+      <c r="A455" s="2">
         <v>43922</v>
       </c>
-      <c r="B456" t="n">
+      <c r="B455">
         <v>3900996000000</v>
       </c>
-      <c r="C456" t="n">
+      <c r="C455">
         <v>0.1026061974143238</v>
       </c>
-      <c r="D456" t="n">
+      <c r="D455">
         <v>400266365688.4875</v>
       </c>
     </row>
-    <row r="457">
-      <c r="A457" s="2" t="n">
+    <row r="456" spans="1:4">
+      <c r="A456" s="2">
         <v>43952</v>
       </c>
-      <c r="B457" t="n">
+      <c r="B456">
         <v>3963829000000</v>
       </c>
-      <c r="C457" t="n">
+      <c r="C456">
         <v>0.1062992962986585</v>
       </c>
-      <c r="D457" t="n">
+      <c r="D456">
         <v>421352233348.2153</v>
       </c>
     </row>
-    <row r="458">
-      <c r="A458" s="2" t="n">
+    <row r="457" spans="1:4">
+      <c r="A457" s="2">
         <v>43983</v>
       </c>
-      <c r="B458" t="n">
+      <c r="B457">
         <v>4054589000000</v>
       </c>
-      <c r="C458" t="n">
+      <c r="C457">
         <v>0.1073675621121347</v>
       </c>
-      <c r="D458" t="n">
+      <c r="D457">
         <v>435331336296.678</v>
       </c>
     </row>
-    <row r="459">
-      <c r="A459" s="2" t="n">
+    <row r="458" spans="1:4">
+      <c r="A458" s="2">
         <v>44013</v>
       </c>
-      <c r="B459" t="n">
+      <c r="B458">
         <v>4104968000000</v>
       </c>
-      <c r="C459" t="n">
+      <c r="C458">
         <v>0.1140038966531876</v>
       </c>
-      <c r="D459" t="n">
+      <c r="D458">
         <v>467982347636.6422</v>
       </c>
     </row>
-    <row r="460">
-      <c r="A460" s="2" t="n">
+    <row r="459" spans="1:4">
+      <c r="A459" s="2">
         <v>44044</v>
       </c>
-      <c r="B460" t="n">
+      <c r="B459">
         <v>4086280000000</v>
       </c>
-      <c r="C460" t="n">
+      <c r="C459">
         <v>0.1157903268760928</v>
       </c>
-      <c r="D460" t="n">
+      <c r="D459">
         <v>473151696907.2404</v>
       </c>
     </row>
-    <row r="461">
-      <c r="A461" s="2" t="n">
+    <row r="460" spans="1:4">
+      <c r="A460" s="2">
         <v>44075</v>
       </c>
-      <c r="B461" t="n">
+      <c r="B460">
         <v>4084505000000</v>
       </c>
-      <c r="C461" t="n">
+      <c r="C460">
         <v>0.1116781881330757</v>
       </c>
-      <c r="D461" t="n">
+      <c r="D460">
         <v>456150117820.4885</v>
       </c>
     </row>
-    <row r="462">
-      <c r="A462" s="2" t="n">
+    <row r="461" spans="1:4">
+      <c r="A461" s="2">
         <v>44105</v>
       </c>
-      <c r="B462" t="n">
+      <c r="B461">
         <v>4130997000000</v>
       </c>
-      <c r="C462" t="n">
+      <c r="C461">
         <v>0.1125626692661139</v>
       </c>
-      <c r="D462" t="n">
+      <c r="D461">
         <v>464996049050.3088</v>
       </c>
     </row>
-    <row r="463">
-      <c r="A463" s="2" t="n">
+    <row r="462" spans="1:4">
+      <c r="A462" s="2">
         <v>44136</v>
       </c>
-      <c r="B463" t="n">
+      <c r="B462">
         <v>4194139000000</v>
       </c>
-      <c r="C463" t="n">
+      <c r="C462">
         <v>0.1168879745651767</v>
       </c>
-      <c r="D463" t="n">
+      <c r="D462">
         <v>490244412754.8158</v>
       </c>
     </row>
-    <row r="464">
-      <c r="A464" s="2" t="n">
+    <row r="463" spans="1:4">
+      <c r="A463" s="2">
         <v>44166</v>
       </c>
-      <c r="B464" t="n">
+      <c r="B463">
         <v>4241163000000</v>
       </c>
-      <c r="C464" t="n">
+      <c r="C463">
         <v>0.1216820351077008</v>
       </c>
-      <c r="D464" t="n">
+      <c r="D463">
         <v>516073345063.4815</v>
       </c>
     </row>
-    <row r="465">
-      <c r="A465" s="2" t="n">
+    <row r="464" spans="1:4">
+      <c r="A464" s="2">
         <v>44197</v>
       </c>
-      <c r="B465" t="n">
+      <c r="B464">
         <v>4262410000000</v>
       </c>
-      <c r="C465" t="n">
+      <c r="C464">
         <v>0.1199184554502938</v>
       </c>
-      <c r="D465" t="n">
+      <c r="D464">
         <v>511141623695.8868</v>
       </c>
     </row>
-    <row r="466">
-      <c r="A466" s="2" t="n">
+    <row r="465" spans="1:4">
+      <c r="A465" s="2">
         <v>44228</v>
       </c>
-      <c r="B466" t="n">
+      <c r="B465">
         <v>4298127000000</v>
       </c>
-      <c r="C466" t="n">
+      <c r="C465">
         <v>0.1186127057930446</v>
       </c>
-      <c r="D466" t="n">
+      <c r="D465">
         <v>509812473312.1412</v>
       </c>
     </row>
-    <row r="467">
-      <c r="A467" s="2" t="n">
+    <row r="466" spans="1:4">
+      <c r="A466" s="2">
         <v>44256</v>
       </c>
-      <c r="B467" t="n">
+      <c r="B466">
         <v>4336988000000</v>
       </c>
-      <c r="C467" t="n">
+      <c r="C466">
         <v>0.1145869141744013</v>
       </c>
-      <c r="D467" t="n">
+      <c r="D466">
         <v>496962071731.4083</v>
       </c>
     </row>
-    <row r="468">
-      <c r="A468" s="2" t="n">
+    <row r="467" spans="1:4">
+      <c r="A467" s="2">
         <v>44287</v>
       </c>
-      <c r="B468" t="n">
+      <c r="B467">
         <v>4376563000000</v>
       </c>
-      <c r="C468" t="n">
+      <c r="C467">
         <v>0.1182385296802357</v>
       </c>
-      <c r="D468" t="n">
+      <c r="D467">
         <v>517478374172.9214</v>
       </c>
     </row>
-    <row r="469">
-      <c r="A469" s="2" t="n">
+    <row r="468" spans="1:4">
+      <c r="A468" s="2">
         <v>44317</v>
       </c>
-      <c r="B469" t="n">
+      <c r="B468">
         <v>4420366000000</v>
       </c>
-      <c r="C469" t="n">
+      <c r="C468">
         <v>0.1205865328960062</v>
       </c>
-      <c r="D469" t="n">
+      <c r="D468">
         <v>533036610071.3873</v>
       </c>
     </row>
-    <row r="470">
-      <c r="A470" s="2" t="n">
+    <row r="469" spans="1:4">
+      <c r="A469" s="2">
         <v>44348</v>
       </c>
-      <c r="B470" t="n">
+      <c r="B469">
         <v>4539396000000</v>
       </c>
-      <c r="C470" t="n">
+      <c r="C469">
         <v>0.1170891633979275</v>
       </c>
-      <c r="D470" t="n">
+      <c r="D469">
         <v>531514079971.8986</v>
       </c>
     </row>
-    <row r="471">
-      <c r="A471" s="2" t="n">
+    <row r="470" spans="1:4">
+      <c r="A470" s="2">
         <v>44378</v>
       </c>
-      <c r="B471" t="n">
+      <c r="B470">
         <v>4517677000000</v>
       </c>
-      <c r="C471" t="n">
+      <c r="C470">
         <v>0.1165664195458572</v>
       </c>
-      <c r="D471" t="n">
+      <c r="D470">
         <v>526609432554.6697</v>
       </c>
     </row>
-    <row r="472">
-      <c r="A472" s="2" t="n">
+    <row r="471" spans="1:4">
+      <c r="A471" s="2">
         <v>44409</v>
       </c>
-      <c r="B472" t="n">
+      <c r="B471">
         <v>4525957000000</v>
       </c>
-      <c r="C472" t="n">
+      <c r="C471">
         <v>0.1160321641158929</v>
       </c>
-      <c r="D472" t="n">
+      <c r="D471">
         <v>525156585405.4744</v>
       </c>
     </row>
-    <row r="473">
-      <c r="A473" s="2" t="n">
+    <row r="472" spans="1:4">
+      <c r="A472" s="2">
         <v>44440</v>
       </c>
-      <c r="B473" t="n">
+      <c r="B472">
         <v>4620809000000</v>
       </c>
-      <c r="C473" t="n">
+      <c r="C472">
         <v>0.1142422369543934</v>
       </c>
-      <c r="D473" t="n">
+      <c r="D472">
         <v>527891556698.9934</v>
       </c>
     </row>
-    <row r="474">
-      <c r="A474" s="2" t="n">
+    <row r="473" spans="1:4">
+      <c r="A473" s="2">
         <v>44470</v>
       </c>
-      <c r="B474" t="n">
+      <c r="B473">
         <v>4671069000000</v>
       </c>
-      <c r="C474" t="n">
+      <c r="C473">
         <v>0.1165729420212816</v>
       </c>
-      <c r="D474" t="n">
+      <c r="D473">
         <v>544520255714.4056</v>
       </c>
     </row>
-    <row r="475">
-      <c r="A475" s="2" t="n">
+    <row r="474" spans="1:4">
+      <c r="A474" s="2">
         <v>44501</v>
       </c>
-      <c r="B475" t="n">
+      <c r="B474">
         <v>4727294000000</v>
       </c>
-      <c r="C475" t="n">
+      <c r="C474">
         <v>0.110870890847608</v>
       </c>
-      <c r="D475" t="n">
+      <c r="D474">
         <v>524119297078.552</v>
       </c>
     </row>
-    <row r="476">
-      <c r="A476" s="2" t="n">
+    <row r="475" spans="1:4">
+      <c r="A475" s="2">
         <v>44531</v>
       </c>
-      <c r="B476" t="n">
+      <c r="B475">
         <v>4705000000000</v>
       </c>
-      <c r="C476" t="n">
+      <c r="C475">
         <v>0.1106413769983216</v>
       </c>
-      <c r="D476" t="n">
+      <c r="D475">
         <v>520567678777.103</v>
       </c>
     </row>
-    <row r="477">
-      <c r="A477" s="2" t="n">
+    <row r="476" spans="1:4">
+      <c r="A476" s="2">
         <v>44562</v>
       </c>
-      <c r="B477" t="n">
+      <c r="B476">
         <v>4752338000000</v>
       </c>
-      <c r="C477" t="n">
+      <c r="C476">
         <v>0.1073687149038513</v>
       </c>
-      <c r="D477" t="n">
+      <c r="D476">
         <v>510252423848.7389</v>
       </c>
     </row>
-    <row r="478">
-      <c r="A478" s="2" t="n">
+    <row r="477" spans="1:4">
+      <c r="A477" s="2">
         <v>44593</v>
       </c>
-      <c r="B478" t="n">
+      <c r="B477">
         <v>4755744000000</v>
       </c>
-      <c r="C478" t="n">
+      <c r="C477">
         <v>0.1058413860987923</v>
       </c>
-      <c r="D478" t="n">
+      <c r="D477">
         <v>503354536891.0151</v>
       </c>
     </row>
-    <row r="479">
-      <c r="A479" s="2" t="n">
+    <row r="478" spans="1:4">
+      <c r="A478" s="2">
         <v>44621</v>
       </c>
-      <c r="B479" t="n">
+      <c r="B478">
         <v>4838594000000</v>
       </c>
-      <c r="C479" t="n">
+      <c r="C478">
         <v>0.1065178257581406</v>
       </c>
-      <c r="D479" t="n">
+      <c r="D478">
         <v>515396512606.3847</v>
       </c>
     </row>
-    <row r="480">
-      <c r="A480" s="2" t="n">
+    <row r="479" spans="1:4">
+      <c r="A479" s="2">
         <v>44652</v>
       </c>
-      <c r="B480" t="n">
+      <c r="B479">
         <v>4861961000000</v>
       </c>
-      <c r="C480" t="n">
+      <c r="C479">
         <v>0.1019087509044402</v>
       </c>
-      <c r="D480" t="n">
+      <c r="D479">
         <v>495476372456.1028</v>
       </c>
     </row>
-    <row r="481">
-      <c r="A481" s="2" t="n">
+    <row r="480" spans="1:4">
+      <c r="A480" s="2">
         <v>44682</v>
       </c>
-      <c r="B481" t="n">
+      <c r="B480">
         <v>4868193000000</v>
       </c>
-      <c r="C481" t="n">
+      <c r="C480">
         <v>0.1025885133693351</v>
       </c>
-      <c r="D481" t="n">
+      <c r="D480">
         <v>499420682665.0034</v>
       </c>
     </row>
-    <row r="482">
-      <c r="A482" s="2" t="n">
+    <row r="481" spans="1:4">
+      <c r="A481" s="2">
         <v>44713</v>
       </c>
-      <c r="B482" t="n">
+      <c r="B481">
         <v>4981498000000</v>
       </c>
-      <c r="C482" t="n">
+      <c r="C481">
         <v>0.09788375325463479</v>
       </c>
-      <c r="D482" t="n">
+      <c r="D481">
         <v>487607721070.4567</v>
       </c>
     </row>
-    <row r="483">
-      <c r="A483" s="2" t="n">
+    <row r="482" spans="1:4">
+      <c r="A482" s="2">
         <v>44743</v>
       </c>
-      <c r="B483" t="n">
+      <c r="B482">
         <v>4925017000000</v>
       </c>
-      <c r="C483" t="n">
+      <c r="C482">
         <v>0.09863392020515854</v>
       </c>
-      <c r="D483" t="n">
+      <c r="D482">
         <v>485773733787.0493</v>
       </c>
     </row>
-    <row r="484">
-      <c r="A484" s="2" t="n">
+    <row r="483" spans="1:4">
+      <c r="A483" s="2">
         <v>44774</v>
       </c>
-      <c r="B484" t="n">
+      <c r="B483">
         <v>4981835000000</v>
       </c>
-      <c r="C484" t="n">
+      <c r="C483">
         <v>0.09392220048445071</v>
       </c>
-      <c r="D484" t="n">
+      <c r="D483">
         <v>467904905650.4535</v>
       </c>
     </row>
-    <row r="485">
-      <c r="A485" s="2" t="n">
+    <row r="484" spans="1:4">
+      <c r="A484" s="2">
         <v>44805</v>
       </c>
-      <c r="B485" t="n">
+      <c r="B484">
         <v>4905553000000</v>
       </c>
-      <c r="C485" t="n">
+      <c r="C484">
         <v>0.09016400833115437</v>
       </c>
-      <c r="D485" t="n">
+      <c r="D484">
         <v>442304321560.9193</v>
       </c>
     </row>
-    <row r="486">
-      <c r="A486" s="2" t="n">
+    <row r="485" spans="1:4">
+      <c r="A485" s="2">
         <v>44835</v>
       </c>
-      <c r="B486" t="n">
+      <c r="B485">
         <v>4884821000000</v>
       </c>
-      <c r="C486" t="n">
+      <c r="C485">
         <v>0.09069463931195419</v>
       </c>
-      <c r="D486" t="n">
+      <c r="D485">
         <v>443027078698.4594</v>
       </c>
     </row>
-    <row r="487">
-      <c r="A487" s="2" t="n">
+    <row r="486" spans="1:4">
+      <c r="A486" s="2">
         <v>44866</v>
       </c>
-      <c r="B487" t="n">
+      <c r="B486">
         <v>4877312000000</v>
       </c>
-      <c r="C487" t="n">
+      <c r="C486">
         <v>0.09528074471430069</v>
       </c>
-      <c r="D487" t="n">
+      <c r="D486">
         <v>464713919563.9953</v>
       </c>
     </row>
-    <row r="488">
-      <c r="A488" s="2" t="n">
+    <row r="487" spans="1:4">
+      <c r="A487" s="2">
         <v>44896</v>
       </c>
-      <c r="B488" t="n">
+      <c r="B487">
         <v>4822713000000</v>
       </c>
-      <c r="C488" t="n">
+      <c r="C487">
         <v>0.09609378753663576</v>
       </c>
-      <c r="D488" t="n">
+      <c r="D487">
         <v>463432758372.1713</v>
       </c>
     </row>
-    <row r="489">
-      <c r="A489" s="2" t="n">
+    <row r="488" spans="1:4">
+      <c r="A488" s="2">
         <v>44927</v>
       </c>
-      <c r="B489" t="n">
+      <c r="B488">
         <v>4903738000000</v>
       </c>
-      <c r="C489" t="n">
+      <c r="C488">
         <v>0.09566814633399663</v>
       </c>
-      <c r="D489" t="n">
+      <c r="D488">
         <v>469131524567.58</v>
       </c>
     </row>
-    <row r="490">
-      <c r="A490" s="2" t="n">
+    <row r="489" spans="1:4">
+      <c r="A489" s="2">
         <v>44958</v>
       </c>
-      <c r="B490" t="n">
+      <c r="B489">
         <v>4814210000000</v>
       </c>
-      <c r="C490" t="n">
+      <c r="C489">
         <v>0.09570211377258689</v>
       </c>
-      <c r="D490" t="n">
+      <c r="D489">
         <v>460730073145.1255</v>
       </c>
     </row>
-    <row r="491">
-      <c r="A491" s="2" t="n">
+    <row r="490" spans="1:4">
+      <c r="A490" s="2">
         <v>44986</v>
       </c>
-      <c r="B491" t="n">
+      <c r="B490">
         <v>4779806000000</v>
       </c>
-      <c r="C491" t="n">
+      <c r="C490">
         <v>0.09639297487999074</v>
       </c>
-      <c r="D491" t="n">
+      <c r="D490">
         <v>460739719689.229</v>
       </c>
     </row>
-    <row r="492">
-      <c r="A492" s="2" t="n">
+    <row r="491" spans="1:4">
+      <c r="A491" s="2">
         <v>45017</v>
       </c>
-      <c r="B492" t="n">
+      <c r="B491">
         <v>4773819000000</v>
       </c>
-      <c r="C492" t="n">
+      <c r="C491">
         <v>0.09748869131180783</v>
       </c>
-      <c r="D492" t="n">
+      <c r="D491">
         <v>465393366869.4432</v>
       </c>
     </row>
-    <row r="493">
-      <c r="A493" s="2" t="n">
+    <row r="492" spans="1:4">
+      <c r="A492" s="2">
         <v>45047</v>
       </c>
-      <c r="B493" t="n">
+      <c r="B492">
         <v>4766051000000</v>
       </c>
-      <c r="C493" t="n">
+      <c r="C492">
         <v>0.09232331625351982</v>
       </c>
-      <c r="D493" t="n">
+      <c r="D492">
         <v>440017633753.4044</v>
       </c>
     </row>
-    <row r="494">
-      <c r="A494" s="2" t="n">
+    <row r="493" spans="1:4">
+      <c r="A493" s="2">
         <v>45078</v>
       </c>
-      <c r="B494" t="n">
+      <c r="B493">
         <v>4812070000000</v>
       </c>
-      <c r="C494" t="n">
+      <c r="C493">
         <v>0.09274803142303305</v>
       </c>
-      <c r="D494" t="n">
+      <c r="D493">
         <v>446310019569.8347</v>
       </c>
     </row>
-    <row r="495">
-      <c r="A495" s="2" t="n">
+    <row r="494" spans="1:4">
+      <c r="A494" s="2">
         <v>45108</v>
       </c>
-      <c r="B495" t="n">
+      <c r="B494">
         <v>4784709000000</v>
       </c>
-      <c r="C495" t="n">
+      <c r="C494">
         <v>0.09520635978483362</v>
       </c>
-      <c r="D495" t="n">
+      <c r="D494">
         <v>455534726519.7315</v>
       </c>
     </row>
-    <row r="496">
-      <c r="A496" s="2" t="n">
+    <row r="495" spans="1:4">
+      <c r="A495" s="2">
         <v>45139</v>
       </c>
-      <c r="B496" t="n">
+      <c r="B495">
         <v>4765034000000</v>
       </c>
-      <c r="C496" t="n">
+      <c r="C495">
         <v>0.09137426900584794</v>
       </c>
-      <c r="D496" t="n">
+      <c r="D495">
         <v>435401498538.0117</v>
       </c>
     </row>
-    <row r="497">
-      <c r="A497" s="2" t="n">
+    <row r="496" spans="1:4">
+      <c r="A496" s="2">
         <v>45170</v>
       </c>
-      <c r="B497" t="n">
+      <c r="B496">
         <v>4744178000000</v>
       </c>
-      <c r="C497" t="n">
+      <c r="C496">
         <v>0.0915818008645322</v>
       </c>
-      <c r="D497" t="n">
+      <c r="D496">
         <v>434480364861.8947</v>
       </c>
     </row>
-    <row r="498">
-      <c r="A498" s="2" t="n">
+    <row r="497" spans="1:4">
+      <c r="A497" s="2">
         <v>45200</v>
       </c>
-      <c r="B498" t="n">
+      <c r="B497">
         <v>4721758000000</v>
       </c>
-      <c r="C498" t="n">
+      <c r="C497">
         <v>0.08956977844019606</v>
       </c>
-      <c r="D498" t="n">
+      <c r="D497">
         <v>422926817908.2233</v>
       </c>
     </row>
-    <row r="499">
-      <c r="A499" s="2" t="n">
+    <row r="498" spans="1:4">
+      <c r="A498" s="2">
         <v>45231</v>
       </c>
-      <c r="B499" t="n">
+      <c r="B498">
         <v>4760529000000</v>
       </c>
-      <c r="C499" t="n">
+      <c r="C498">
         <v>0.095346336030999</v>
       </c>
-      <c r="D499" t="n">
+      <c r="D498">
         <v>453898997719.3156</v>
       </c>
     </row>
+    <row r="499" spans="1:4">
+      <c r="A499" s="2">
+        <v>45261</v>
+      </c>
+      <c r="B499">
+        <v>4818000000000</v>
+      </c>
+      <c r="C499">
+        <v>0.09921717647759179</v>
+      </c>
+      <c r="D499">
+        <v>478028356269.0372</v>
+      </c>
+    </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>